--- a/r_map/data_boot_cq_remov_Cl.xlsx
+++ b/r_map/data_boot_cq_remov_Cl.xlsx
@@ -576,16 +576,16 @@
         <v>2726384</v>
       </c>
       <c r="C2">
-        <v>7548625110.6859665</v>
+        <v>7521399633.9353752</v>
       </c>
       <c r="E2">
-        <v>908666951937.99976</v>
+        <v>902737669847.18433</v>
       </c>
       <c r="F2">
-        <v>2768.7314445382481</v>
+        <v>2758.745515648337</v>
       </c>
       <c r="H2">
-        <v>333286.48933459108</v>
+        <v>331111.71054671111</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -614,13 +614,13 @@
         <v>392603729.22888887</v>
       </c>
       <c r="E3">
-        <v>23192048423.287613</v>
+        <v>23192047262.466389</v>
       </c>
       <c r="F3">
         <v>1211.2090664859502</v>
       </c>
       <c r="H3">
-        <v>71549.038456255628</v>
+        <v>71549.034875043624</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -646,22 +646,22 @@
         <v>2081937</v>
       </c>
       <c r="C4">
-        <v>3308676831.2224994</v>
+        <v>5774901462.7033377</v>
       </c>
       <c r="D4">
         <v>126638563064.77957</v>
       </c>
       <c r="E4">
-        <v>4704997314.6600094</v>
+        <v>2499620361.1329746</v>
       </c>
       <c r="F4">
-        <v>1589.2300445318467</v>
+        <v>2773.8118217330002</v>
       </c>
       <c r="G4">
         <v>60827.279146669462</v>
       </c>
       <c r="H4">
-        <v>2259.9133953909313</v>
+        <v>1200.6224785538539</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -687,16 +687,16 @@
         <v>2014725</v>
       </c>
       <c r="C5">
-        <v>237688782.99518153</v>
+        <v>2477096451.8687525</v>
       </c>
       <c r="E5">
-        <v>146328056979.30902</v>
+        <v>146328049655.21622</v>
       </c>
       <c r="F5">
-        <v>117.97579470904542</v>
+        <v>1229.4960611839097</v>
       </c>
       <c r="H5">
-        <v>72629.295302986269</v>
+        <v>72629.291667704631</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -722,7 +722,7 @@
         <v>9164672</v>
       </c>
       <c r="C6">
-        <v>20221670529.164249</v>
+        <v>20392759882.264721</v>
       </c>
       <c r="D6">
         <v>619423874395.12061</v>
@@ -731,7 +731,7 @@
         <v>16342087927.036022</v>
       </c>
       <c r="F6">
-        <v>2206.480551531386</v>
+        <v>2225.1489068310052</v>
       </c>
       <c r="G6">
         <v>67588.220767215738</v>
@@ -763,16 +763,16 @@
         <v>2981276</v>
       </c>
       <c r="C7">
-        <v>1842524883.2382627</v>
+        <v>1842529170.2865834</v>
       </c>
       <c r="E7">
-        <v>184951454795.36597</v>
+        <v>184951449755.02026</v>
       </c>
       <c r="F7">
-        <v>618.03230671640688</v>
+        <v>618.03374470749554</v>
       </c>
       <c r="H7">
-        <v>62037.682789304301</v>
+        <v>62037.681098637047</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -798,16 +798,16 @@
         <v>1265697</v>
       </c>
       <c r="C8">
-        <v>133181214.30138162</v>
+        <v>1387960800.0189567</v>
       </c>
       <c r="E8">
-        <v>81990189310.957916</v>
+        <v>81990185207.139648</v>
       </c>
       <c r="F8">
-        <v>105.22361536875067</v>
+        <v>1096.5980009583309</v>
       </c>
       <c r="H8">
-        <v>64778.686613745558</v>
+        <v>64778.683371406936</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -833,16 +833,16 @@
         <v>566146</v>
       </c>
       <c r="C9">
-        <v>59714308.108610593</v>
+        <v>59717151.782504998</v>
       </c>
       <c r="E9">
-        <v>36761847022.347366</v>
+        <v>36761845182.323082</v>
       </c>
       <c r="F9">
-        <v>105.47510378702772</v>
+        <v>105.48012665020154</v>
       </c>
       <c r="H9">
-        <v>64933.510123444066</v>
+        <v>64933.506873356135</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -868,16 +868,16 @@
         <v>2372033</v>
       </c>
       <c r="C10">
-        <v>215086508.19207394</v>
+        <v>2241544676.9241381</v>
       </c>
       <c r="E10">
-        <v>132413445975.90218</v>
+        <v>132413439348.27119</v>
       </c>
       <c r="F10">
-        <v>90.676018500616962</v>
+        <v>944.98882474406469</v>
       </c>
       <c r="H10">
-        <v>55822.767211038874</v>
+        <v>55822.764416966878</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -903,16 +903,16 @@
         <v>4881045</v>
       </c>
       <c r="C11">
-        <v>3038084670.0979056</v>
+        <v>3023303455.742291</v>
       </c>
       <c r="E11">
-        <v>324130408310.93628</v>
+        <v>324134557661.12982</v>
       </c>
       <c r="F11">
-        <v>622.42504834475108</v>
+        <v>619.39675945259489</v>
       </c>
       <c r="H11">
-        <v>66405.945511859914</v>
+        <v>66406.795606500207</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -938,16 +938,16 @@
         <v>2219933</v>
       </c>
       <c r="C12">
-        <v>1933411773.9011674</v>
+        <v>788188741.27412236</v>
       </c>
       <c r="E12">
-        <v>134974760621.8349</v>
+        <v>134974754973.25204</v>
       </c>
       <c r="F12">
-        <v>870.93248935943893</v>
+        <v>355.05068904067031</v>
       </c>
       <c r="H12">
-        <v>60801.276715033695</v>
+        <v>60801.274170550212</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -976,13 +976,13 @@
         <v>190595064.35325661</v>
       </c>
       <c r="E13">
-        <v>11229015243.820946</v>
+        <v>11229014681.780067</v>
       </c>
       <c r="F13">
         <v>776.1428219315161</v>
       </c>
       <c r="H13">
-        <v>45726.890192171362</v>
+        <v>45726.887903423783</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1008,16 +1008,16 @@
         <v>553904</v>
       </c>
       <c r="C14">
-        <v>56691154.970721439</v>
+        <v>56693854.678087056</v>
       </c>
       <c r="E14">
-        <v>35057970015.857292</v>
+        <v>35057968261.116402</v>
       </c>
       <c r="F14">
-        <v>102.34834009272625</v>
+        <v>102.3532140553003</v>
       </c>
       <c r="H14">
-        <v>63292.501978424589</v>
+        <v>63292.498810473298</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -1046,13 +1046,13 @@
         <v>1107261249.9776757</v>
       </c>
       <c r="E15">
-        <v>65408590430.736656</v>
+        <v>65408587156.869736</v>
       </c>
       <c r="F15">
         <v>1023.5114056952557</v>
       </c>
       <c r="H15">
-        <v>60461.285299795585</v>
+        <v>60461.282273553916</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1078,16 +1078,16 @@
         <v>66618</v>
       </c>
       <c r="C16">
-        <v>77639188.033469379</v>
+        <v>7450191.4951799987</v>
       </c>
       <c r="E16">
-        <v>4586333940.2137814</v>
+        <v>4586333710.6560602</v>
       </c>
       <c r="F16">
-        <v>1165.4385906732321</v>
+        <v>111.83451162118344</v>
       </c>
       <c r="H16">
-        <v>68845.266147494389</v>
+        <v>68845.262701613086</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -1113,13 +1113,13 @@
         <v>750815</v>
       </c>
       <c r="C17">
-        <v>2203028124.9826536</v>
+        <v>1306932386.5268626</v>
       </c>
       <c r="E17">
         <v>3515984371.0590572</v>
       </c>
       <c r="F17">
-        <v>2934.182355150941</v>
+        <v>1740.68497103396</v>
       </c>
       <c r="H17">
         <v>4682.8904204884784</v>
@@ -1148,16 +1148,16 @@
         <v>384251</v>
       </c>
       <c r="C18">
-        <v>404650898.49012464</v>
+        <v>38829961.502797492</v>
       </c>
       <c r="E18">
-        <v>23903703744.083698</v>
+        <v>23903702547.642307</v>
       </c>
       <c r="F18">
-        <v>1053.0900335721303</v>
+        <v>101.05363812403219</v>
       </c>
       <c r="H18">
-        <v>62208.56613016934</v>
+        <v>62208.563016471802</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1183,16 +1183,16 @@
         <v>1245893</v>
       </c>
       <c r="C19">
-        <v>3769004339.572341</v>
+        <v>1650037283.8775911</v>
       </c>
       <c r="E19">
-        <v>508519649329.71558</v>
+        <v>504575106845.86194</v>
       </c>
       <c r="F19">
-        <v>3025.1428811080414</v>
+        <v>1324.3812140188534</v>
       </c>
       <c r="H19">
-        <v>408156.75931216852</v>
+        <v>404990.72299616574</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -1218,22 +1218,22 @@
         <v>1488285</v>
       </c>
       <c r="C20">
-        <v>13833655417.980755</v>
+        <v>13915573215.639622</v>
       </c>
       <c r="D20">
-        <v>466604228294.59265</v>
+        <v>469523150525.96118</v>
       </c>
       <c r="E20">
-        <v>10857603992.8988</v>
+        <v>10933780924.204468</v>
       </c>
       <c r="F20">
-        <v>9295.0311385122841</v>
+        <v>9350.0728796162166</v>
       </c>
       <c r="G20">
-        <v>313518.06159075222</v>
+        <v>315479.32722963759</v>
       </c>
       <c r="H20">
-        <v>7295.3795764244078</v>
+        <v>7346.5639472308512</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -1259,16 +1259,16 @@
         <v>48329</v>
       </c>
       <c r="C21">
-        <v>163343962.41721007</v>
+        <v>162928287.45211348</v>
       </c>
       <c r="E21">
-        <v>19800636235.928673</v>
+        <v>19653605349.84919</v>
       </c>
       <c r="F21">
-        <v>3379.8332764429242</v>
+        <v>3371.2323336322597</v>
       </c>
       <c r="H21">
-        <v>409705.06809428445</v>
+        <v>406662.77700447332</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1294,16 +1294,16 @@
         <v>1336530</v>
       </c>
       <c r="C22">
-        <v>7840783357.4109716</v>
+        <v>3514012528.2332392</v>
       </c>
       <c r="E22">
-        <v>687890307033.81299</v>
+        <v>698859951550.45691</v>
       </c>
       <c r="F22">
-        <v>5866.5225302918543</v>
+        <v>2629.205875089403</v>
       </c>
       <c r="H22">
-        <v>514683.7759225854</v>
+        <v>522891.33169510367</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1329,22 +1329,22 @@
         <v>4238250</v>
       </c>
       <c r="C23">
-        <v>13448624419.085993</v>
+        <v>13472300061.764866</v>
       </c>
       <c r="D23">
-        <v>422825439147.82574</v>
+        <v>421796024034.55389</v>
       </c>
       <c r="E23">
-        <v>10720870094.523129</v>
+        <v>10778734875.270229</v>
       </c>
       <c r="F23">
-        <v>3173.1550567064219</v>
+        <v>3178.7412403149565</v>
       </c>
       <c r="G23">
-        <v>99764.157175208093</v>
+        <v>99521.270343786688</v>
       </c>
       <c r="H23">
-        <v>2529.5511341999945</v>
+        <v>2543.2041232278016</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1370,16 +1370,16 @@
         <v>1825199</v>
       </c>
       <c r="C24">
-        <v>909651169.63222682</v>
+        <v>909653618.78678691</v>
       </c>
       <c r="E24">
-        <v>98246215102.830688</v>
+        <v>98095222353.697449</v>
       </c>
       <c r="F24">
-        <v>498.38465265005448</v>
+        <v>498.3859945062357</v>
       </c>
       <c r="H24">
-        <v>53827.673093635647</v>
+        <v>53744.94636129948</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -1405,13 +1405,13 @@
         <v>7101778</v>
       </c>
       <c r="C25">
-        <v>5780313651.3204403</v>
+        <v>2542754102.3797197</v>
       </c>
       <c r="E25">
         <v>427304019333.97845</v>
       </c>
       <c r="F25">
-        <v>813.92485815811767</v>
+        <v>358.04471815082366</v>
       </c>
       <c r="H25">
         <v>60168.597122295076</v>
@@ -1440,16 +1440,16 @@
         <v>992174</v>
       </c>
       <c r="C26">
-        <v>116210862.13198596</v>
+        <v>1008547286.4079695</v>
       </c>
       <c r="E26">
-        <v>70237428803.932129</v>
+        <v>70235900638.266327</v>
       </c>
       <c r="F26">
-        <v>117.12750196234327</v>
+        <v>1016.5024344600539</v>
       </c>
       <c r="H26">
-        <v>70791.442633985687</v>
+        <v>70789.90241456269</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
@@ -1475,16 +1475,16 @@
         <v>1769518</v>
       </c>
       <c r="C27">
-        <v>1207078256.5115283</v>
+        <v>1176730504.4790008</v>
       </c>
       <c r="E27">
-        <v>109585703018.00867</v>
+        <v>109585699678.05278</v>
       </c>
       <c r="F27">
-        <v>682.15087753361547</v>
+        <v>665.0005846106119</v>
       </c>
       <c r="H27">
-        <v>61929.691033382347</v>
+        <v>61929.689145887627</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -1510,22 +1510,22 @@
         <v>16149545</v>
       </c>
       <c r="C28">
-        <v>63317918942.161789</v>
+        <v>63397541932.355965</v>
       </c>
       <c r="D28">
-        <v>1979928670272.9756</v>
+        <v>1987898208897.8079</v>
       </c>
       <c r="E28">
-        <v>50707012023.635185</v>
+        <v>50811692135.658173</v>
       </c>
       <c r="F28">
-        <v>3920.7246360291751</v>
+        <v>3925.6549910450085</v>
       </c>
       <c r="G28">
-        <v>122599.65653973383</v>
+        <v>123093.14032672797</v>
       </c>
       <c r="H28">
-        <v>3139.8415264105079</v>
+        <v>3146.3234497106987</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
@@ -1551,16 +1551,16 @@
         <v>1806150</v>
       </c>
       <c r="C29">
-        <v>2291721855.0703554</v>
+        <v>2294413280.8593416</v>
       </c>
       <c r="E29">
-        <v>253459349515.48282</v>
+        <v>253411727752.56305</v>
       </c>
       <c r="F29">
-        <v>1268.8435927638097</v>
+        <v>1270.3337379837453</v>
       </c>
       <c r="H29">
-        <v>140331.28450875223</v>
+        <v>140304.91805916623</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -1586,16 +1586,16 @@
         <v>5446539</v>
       </c>
       <c r="C30">
-        <v>5832296336.987258</v>
+        <v>6013840455.5760965</v>
       </c>
       <c r="E30">
-        <v>579597156034.66187</v>
+        <v>657125068545.73315</v>
       </c>
       <c r="F30">
-        <v>1070.8261405981409</v>
+        <v>1104.1581554040276</v>
       </c>
       <c r="H30">
-        <v>106415.68086351016</v>
+        <v>120650.02537312837</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -1621,16 +1621,16 @@
         <v>2101351</v>
       </c>
       <c r="C31">
-        <v>455667196.35881335</v>
+        <v>1848742010.9563389</v>
       </c>
       <c r="E31">
-        <v>131250439111.46367</v>
+        <v>131518034055.21599</v>
       </c>
       <c r="F31">
-        <v>216.84487568179392</v>
+        <v>879.78734202726673</v>
       </c>
       <c r="H31">
-        <v>62460.026483659167</v>
+        <v>62587.370722557054</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
@@ -1656,16 +1656,16 @@
         <v>500876</v>
       </c>
       <c r="C32">
-        <v>366807119.13198745</v>
+        <v>366807743.87446308</v>
       </c>
       <c r="E32">
-        <v>32617485186.788372</v>
+        <v>32617484119.171333</v>
       </c>
       <c r="F32">
-        <v>732.33119401206579</v>
+        <v>732.33244131174797</v>
       </c>
       <c r="H32">
-        <v>65120.878594279566</v>
+        <v>65120.876462779874</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -1694,13 +1694,13 @@
         <v>891490525.33145118</v>
       </c>
       <c r="E33">
-        <v>52662493738.910141</v>
+        <v>52662491103.017891</v>
       </c>
       <c r="F33">
         <v>1024.982150670472</v>
       </c>
       <c r="H33">
-        <v>60548.165749837477</v>
+        <v>60548.162719247208</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
@@ -1726,16 +1726,16 @@
         <v>296202</v>
       </c>
       <c r="C34">
-        <v>171602625.45054299</v>
+        <v>171603068.52967602</v>
       </c>
       <c r="E34">
-        <v>18033411033.358353</v>
+        <v>18033410566.574024</v>
       </c>
       <c r="F34">
-        <v>579.34323688071981</v>
+        <v>579.34473274885386</v>
       </c>
       <c r="H34">
-        <v>60882.137977995939</v>
+        <v>60882.136402097298</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -1761,16 +1761,16 @@
         <v>1420063</v>
       </c>
       <c r="C35">
-        <v>983223998.62064755</v>
+        <v>983228527.83500159</v>
       </c>
       <c r="E35">
-        <v>94276543660.413666</v>
+        <v>94276540625.316422</v>
       </c>
       <c r="F35">
-        <v>692.38054834232537</v>
+        <v>692.38373778839502</v>
       </c>
       <c r="H35">
-        <v>66388.986728344913</v>
+        <v>66388.984591047309</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -1831,16 +1831,16 @@
         <v>16042082</v>
       </c>
       <c r="C37">
-        <v>9054302947.2058201</v>
+        <v>9054326405.53092</v>
       </c>
       <c r="E37">
-        <v>953258503134.67297</v>
+        <v>953258477648.95801</v>
       </c>
       <c r="F37">
-        <v>564.40946675162365</v>
+        <v>564.4109290509125</v>
       </c>
       <c r="H37">
-        <v>59422.368189781911</v>
+        <v>59422.366601103146</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
@@ -1866,16 +1866,16 @@
         <v>2119428</v>
       </c>
       <c r="C38">
-        <v>1321059711.5007691</v>
+        <v>1321062662.913414</v>
       </c>
       <c r="E38">
-        <v>130380734760.05011</v>
+        <v>130380731046.7728</v>
       </c>
       <c r="F38">
-        <v>623.30954932216105</v>
+        <v>623.31094187366307</v>
       </c>
       <c r="H38">
-        <v>61516.94455298793</v>
+        <v>61516.942800969315</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -1936,16 +1936,16 @@
         <v>6594728</v>
       </c>
       <c r="C40">
-        <v>3647168953.0906048</v>
+        <v>3749434496.3075738</v>
       </c>
       <c r="E40">
-        <v>371677603838.29675</v>
+        <v>371677593566.15253</v>
       </c>
       <c r="F40">
-        <v>553.04312067011779</v>
+        <v>568.5502868818204</v>
       </c>
       <c r="H40">
-        <v>56359.807991822672</v>
+        <v>56359.806434192971</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -1971,16 +1971,16 @@
         <v>7672769</v>
       </c>
       <c r="C41">
-        <v>3205688679.4012232</v>
+        <v>4955870137.0303869</v>
       </c>
       <c r="E41">
-        <v>432835731878.18225</v>
+        <v>432835717683.71338</v>
       </c>
       <c r="F41">
-        <v>417.80075477330587</v>
+        <v>645.90373267204927</v>
       </c>
       <c r="H41">
-        <v>56411.933146714342</v>
+        <v>56411.931296734387</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -2006,16 +2006,16 @@
         <v>3095082</v>
       </c>
       <c r="C42">
-        <v>1870167912.6694396</v>
+        <v>1870172812.650048</v>
       </c>
       <c r="E42">
-        <v>197923659684.7597</v>
+        <v>198008734749.81763</v>
       </c>
       <c r="F42">
-        <v>604.23856707817095</v>
+        <v>604.24015022866854</v>
       </c>
       <c r="H42">
-        <v>63947.791911412911</v>
+        <v>63975.279087861847</v>
       </c>
       <c r="I42" t="s">
         <v>10</v>
@@ -2044,19 +2044,19 @@
         <v>406562159.77433765</v>
       </c>
       <c r="D43">
-        <v>14480483670.768471</v>
+        <v>14623358509.918112</v>
       </c>
       <c r="E43">
-        <v>316885031.14557838</v>
+        <v>329934295.92833191</v>
       </c>
       <c r="F43">
         <v>3021.7110732631545</v>
       </c>
       <c r="G43">
-        <v>107623.98025053306</v>
+        <v>108685.87564136036</v>
       </c>
       <c r="H43">
-        <v>2355.1995298711854</v>
+        <v>2452.1861946259069</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2082,22 +2082,22 @@
         <v>531521</v>
       </c>
       <c r="C44">
-        <v>2112734249.5171964</v>
+        <v>2117431284.3053684</v>
       </c>
       <c r="D44">
-        <v>74007557754.324707</v>
+        <v>74029106682.759125</v>
       </c>
       <c r="E44">
-        <v>1682616430.7968533</v>
+        <v>1693644329.8857195</v>
       </c>
       <c r="F44">
-        <v>3974.8838700958127</v>
+        <v>3983.7208394501222</v>
       </c>
       <c r="G44">
-        <v>139237.316595816</v>
+        <v>139277.85860344017</v>
       </c>
       <c r="H44">
-        <v>3165.66312675671</v>
+        <v>3186.4109412153412</v>
       </c>
       <c r="I44" t="s">
         <v>23</v>
@@ -2123,22 +2123,22 @@
         <v>1438500</v>
       </c>
       <c r="C45">
-        <v>7563006793.4379349</v>
+        <v>7667022194.4254894</v>
       </c>
       <c r="D45">
-        <v>234138636477.15741</v>
+        <v>238175171210.73178</v>
       </c>
       <c r="E45">
-        <v>5933596628.9472876</v>
+        <v>5997785213.840867</v>
       </c>
       <c r="F45">
-        <v>5257.5646808744768</v>
+        <v>5329.8729193086474</v>
       </c>
       <c r="G45">
-        <v>162765.82306371734</v>
+        <v>165571.89517603879</v>
       </c>
       <c r="H45">
-        <v>4124.8499332271731</v>
+        <v>4169.4718205358822</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
@@ -2164,22 +2164,22 @@
         <v>4871389</v>
       </c>
       <c r="C46">
-        <v>33871565774.332104</v>
+        <v>34007909471.68177</v>
       </c>
       <c r="D46">
-        <v>1128699904864.3052</v>
+        <v>1116056133961.7627</v>
       </c>
       <c r="E46">
-        <v>27322819840.053265</v>
+        <v>26998212198.679272</v>
       </c>
       <c r="F46">
-        <v>6953.16382541655</v>
+        <v>6981.1524950443836</v>
       </c>
       <c r="G46">
-        <v>231699.80982103976</v>
+        <v>229104.29324403423</v>
       </c>
       <c r="H46">
-        <v>5608.8355580006573</v>
+        <v>5542.2000170134779</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2205,16 +2205,16 @@
         <v>500630</v>
       </c>
       <c r="C47">
-        <v>429344149.42135137</v>
+        <v>429347872.62924695</v>
       </c>
       <c r="E47">
-        <v>47117088414.489319</v>
+        <v>47117086552.885368</v>
       </c>
       <c r="F47">
-        <v>857.60771312416625</v>
+        <v>857.61515016928058</v>
       </c>
       <c r="H47">
-        <v>94115.59118408669</v>
+        <v>94115.587465564124</v>
       </c>
       <c r="I47" t="s">
         <v>25</v>
@@ -2281,19 +2281,19 @@
         <v>4902363</v>
       </c>
       <c r="C49">
-        <v>14814612310.293715</v>
+        <v>14949290604.023655</v>
       </c>
       <c r="D49">
-        <v>434003944885.83582</v>
+        <v>433358998841.25952</v>
       </c>
       <c r="E49">
         <v>11939815209.902117</v>
       </c>
       <c r="F49">
-        <v>3021.9329556570401</v>
+        <v>3049.4050734357402</v>
       </c>
       <c r="G49">
-        <v>88529.540730834458</v>
+        <v>88397.982532354203</v>
       </c>
       <c r="H49">
         <v>2435.5224633308708</v>
@@ -2322,22 +2322,22 @@
         <v>6114392</v>
       </c>
       <c r="C50">
-        <v>42172470582.356781</v>
+        <v>43286884247.894829</v>
       </c>
       <c r="D50">
-        <v>1458023226160.8521</v>
+        <v>1484420340823.9512</v>
       </c>
       <c r="E50">
-        <v>33269488888.472427</v>
+        <v>34239703670.581543</v>
       </c>
       <c r="F50">
-        <v>6897.2467879646547</v>
+        <v>7079.5075369545866</v>
       </c>
       <c r="G50">
-        <v>238457.5974456417</v>
+        <v>242774.80750726338</v>
       </c>
       <c r="H50">
-        <v>5441.1769622347456</v>
+        <v>5599.8541916484155</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
@@ -2363,16 +2363,16 @@
         <v>2753681</v>
       </c>
       <c r="C51">
-        <v>2134539980.4793813</v>
+        <v>2097644781.8001707</v>
       </c>
       <c r="E51">
-        <v>272760884776.32465</v>
+        <v>274601892375.45203</v>
       </c>
       <c r="F51">
-        <v>775.15877128809814</v>
+        <v>761.76026990786909</v>
       </c>
       <c r="H51">
-        <v>99053.189086290193</v>
+        <v>99721.751493892007</v>
       </c>
       <c r="I51" t="s">
         <v>26</v>
@@ -2398,22 +2398,22 @@
         <v>5168266</v>
       </c>
       <c r="C52">
-        <v>36741081760.725922</v>
+        <v>36782199194.005341</v>
       </c>
       <c r="D52">
-        <v>1142784378711.8684</v>
+        <v>1144229826051.2168</v>
       </c>
       <c r="E52">
-        <v>29221608043.099815</v>
+        <v>29235320925.557751</v>
       </c>
       <c r="F52">
-        <v>7108.9765427564917</v>
+        <v>7116.9322929596392</v>
       </c>
       <c r="G52">
-        <v>221115.6273132746</v>
+        <v>221395.30474074226</v>
       </c>
       <c r="H52">
-        <v>5654.0449046352915</v>
+        <v>5656.6981895973913</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
@@ -2439,22 +2439,22 @@
         <v>6246911</v>
       </c>
       <c r="C53">
-        <v>57971890403.732513</v>
+        <v>58827976904.734322</v>
       </c>
       <c r="D53">
-        <v>1958237784698.4517</v>
+        <v>1951211678484.3315</v>
       </c>
       <c r="E53">
-        <v>46916454046.347168</v>
+        <v>46120014573.383163</v>
       </c>
       <c r="F53">
-        <v>9280.0890558121464</v>
+        <v>9417.1306273987757</v>
       </c>
       <c r="G53">
-        <v>313472.97643562581</v>
+        <v>312348.24355338688</v>
       </c>
       <c r="H53">
-        <v>7510.3445601109352</v>
+        <v>7382.8512321342769</v>
       </c>
       <c r="I53" t="s">
         <v>26</v>
@@ -2480,22 +2480,22 @@
         <v>3681044</v>
       </c>
       <c r="C54">
-        <v>28202372590.4137</v>
+        <v>28143922158.872704</v>
       </c>
       <c r="D54">
-        <v>881490536476.78223</v>
+        <v>887705328290.69385</v>
       </c>
       <c r="E54">
-        <v>22544533094.565361</v>
+        <v>22286061495.685143</v>
       </c>
       <c r="F54">
-        <v>7661.514665517092</v>
+        <v>7645.6359008131121</v>
       </c>
       <c r="G54">
-        <v>239467.53596989939</v>
+        <v>241155.85912330681</v>
       </c>
       <c r="H54">
-        <v>6124.4943267631033</v>
+        <v>6054.2773994782856</v>
       </c>
       <c r="I54" t="s">
         <v>26</v>
@@ -2521,16 +2521,16 @@
         <v>4626240</v>
       </c>
       <c r="C55">
-        <v>2771959144.0700245</v>
+        <v>2771966549.4761934</v>
       </c>
       <c r="E55">
-        <v>295878210899.82001</v>
+        <v>295878203374.67358</v>
       </c>
       <c r="F55">
-        <v>599.18187211861562</v>
+        <v>599.18347285834579</v>
       </c>
       <c r="H55">
-        <v>63956.519960015044</v>
+        <v>63956.518333392472</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2556,16 +2556,16 @@
         <v>6322841</v>
       </c>
       <c r="C56">
-        <v>3620155455.7241211</v>
+        <v>3620164524.04245</v>
       </c>
       <c r="E56">
-        <v>375290247691.53601</v>
+        <v>375290237827.33472</v>
       </c>
       <c r="F56">
-        <v>572.55203091839905</v>
+        <v>572.55346513417783</v>
       </c>
       <c r="H56">
-        <v>59354.686871223872</v>
+        <v>59354.685311133828</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -2591,16 +2591,16 @@
         <v>9036684</v>
       </c>
       <c r="C57">
-        <v>55318314529.522583</v>
+        <v>55388934645.924515</v>
       </c>
       <c r="E57">
-        <v>2267678268794.6738</v>
+        <v>2253908467190.188</v>
       </c>
       <c r="F57">
-        <v>6121.5280438623922</v>
+        <v>6129.3428702303318</v>
       </c>
       <c r="H57">
-        <v>250941.41488124116</v>
+        <v>249417.64779981109</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -2626,16 +2626,16 @@
         <v>916991</v>
       </c>
       <c r="C58">
-        <v>2901988816.1447897</v>
+        <v>2927215672.5525637</v>
       </c>
       <c r="E58">
-        <v>322558201212.53088</v>
+        <v>321391467428.24817</v>
       </c>
       <c r="F58">
-        <v>3164.6862577111333</v>
+        <v>3192.1967309957936</v>
       </c>
       <c r="H58">
-        <v>351757.21595144435</v>
+        <v>350484.86564017332</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -2661,16 +2661,16 @@
         <v>317344</v>
       </c>
       <c r="C59">
-        <v>1205438865.6520777</v>
+        <v>1224321831.3285842</v>
       </c>
       <c r="E59">
-        <v>138275684455.75168</v>
+        <v>137811021371.84885</v>
       </c>
       <c r="F59">
-        <v>3798.5242060731503</v>
+        <v>3858.0273499060463</v>
       </c>
       <c r="H59">
-        <v>435728.05679562769</v>
+        <v>434263.83158921817</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -2696,22 +2696,22 @@
         <v>4078252</v>
       </c>
       <c r="C60">
-        <v>26460574262.644878</v>
+        <v>26658288596.300392</v>
       </c>
       <c r="D60">
-        <v>843711293875.04468</v>
+        <v>841352894960.43066</v>
       </c>
       <c r="E60">
-        <v>21581351106.467339</v>
+        <v>21407714070.021355</v>
       </c>
       <c r="F60">
-        <v>6488.2146229916343</v>
+        <v>6536.6947889194671</v>
       </c>
       <c r="G60">
-        <v>206880.61794000096</v>
+        <v>206302.3312341735</v>
       </c>
       <c r="H60">
-        <v>5291.8140189638443</v>
+        <v>5249.2376807566952</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -2737,22 +2737,22 @@
         <v>3399679</v>
       </c>
       <c r="C61">
-        <v>24212181528.59005</v>
+        <v>24719168216.832863</v>
       </c>
       <c r="D61">
-        <v>682748695682.31836</v>
+        <v>680420522892.8761</v>
       </c>
       <c r="E61">
-        <v>19393963935.237114</v>
+        <v>18844592347.663582</v>
       </c>
       <c r="F61">
-        <v>7121.9022527097568</v>
+        <v>7271.0300639657034</v>
       </c>
       <c r="G61">
-        <v>200827.40037583499</v>
+        <v>200142.57901786495</v>
       </c>
       <c r="H61">
-        <v>5704.6456254361419</v>
+        <v>5543.0504902561624</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -2778,22 +2778,22 @@
         <v>3734928</v>
       </c>
       <c r="C62">
-        <v>28033632054.556511</v>
+        <v>28493439174.825165</v>
       </c>
       <c r="D62">
-        <v>1071057578731.0715</v>
+        <v>1080866611583.2863</v>
       </c>
       <c r="E62">
-        <v>22580838015.863644</v>
+        <v>22065664475.262909</v>
       </c>
       <c r="F62">
-        <v>7505.8025361015025</v>
+        <v>7628.9125720295442</v>
       </c>
       <c r="G62">
-        <v>286767.93200058246</v>
+        <v>289394.2297102611</v>
       </c>
       <c r="H62">
-        <v>6045.8563099110997</v>
+        <v>5907.9223147709708</v>
       </c>
       <c r="I62" t="s">
         <v>28</v>
@@ -2819,16 +2819,16 @@
         <v>984434</v>
       </c>
       <c r="C63">
-        <v>98529952.355142325</v>
+        <v>1026839349.783991</v>
       </c>
       <c r="E63">
-        <v>60657874977.146675</v>
+        <v>60657871941.065186</v>
       </c>
       <c r="F63">
-        <v>100.08792093237568</v>
+        <v>1043.0758687570635</v>
       </c>
       <c r="H63">
-        <v>61617.005281356265</v>
+        <v>61617.002197267859</v>
       </c>
       <c r="I63" t="s">
         <v>29</v>
@@ -2854,16 +2854,16 @@
         <v>393144</v>
       </c>
       <c r="C64">
-        <v>385070984.33493227</v>
+        <v>395823921.38657051</v>
       </c>
       <c r="E64">
-        <v>55632014648.964897</v>
+        <v>56376019269.982994</v>
       </c>
       <c r="F64">
-        <v>979.46549949873906</v>
+        <v>1006.8166406878155</v>
       </c>
       <c r="H64">
-        <v>141505.43986164077</v>
+        <v>143397.88797484635</v>
       </c>
       <c r="I64" t="s">
         <v>30</v>
@@ -2889,22 +2889,22 @@
         <v>2485399</v>
       </c>
       <c r="C65">
-        <v>21968713586.413826</v>
+        <v>21974812829.949383</v>
       </c>
       <c r="D65">
-        <v>719794192679.65234</v>
+        <v>719957234300.0072</v>
       </c>
       <c r="E65">
-        <v>17761680606.569069</v>
+        <v>17995656006.439514</v>
       </c>
       <c r="F65">
-        <v>8839.1093689237932</v>
+        <v>8841.5633988544214</v>
       </c>
       <c r="G65">
-        <v>289609.11011859757</v>
+        <v>289674.70989567757</v>
       </c>
       <c r="H65">
-        <v>7146.4101363881891</v>
+        <v>7240.5501114466997</v>
       </c>
       <c r="I65" t="s">
         <v>30</v>
@@ -2930,16 +2930,16 @@
         <v>261201</v>
       </c>
       <c r="C66">
-        <v>1087394260.7744017</v>
+        <v>1077138143.2257237</v>
       </c>
       <c r="E66">
-        <v>131354008905.47617</v>
+        <v>132313589466.23074</v>
       </c>
       <c r="F66">
-        <v>4163.0555042836804</v>
+        <v>4123.7902734894724</v>
       </c>
       <c r="H66">
-        <v>502884.78568411362</v>
+        <v>506558.51036646392</v>
       </c>
       <c r="I66" t="s">
         <v>30</v>
@@ -2965,22 +2965,22 @@
         <v>14072154</v>
       </c>
       <c r="C67">
-        <v>149886560150.05768</v>
+        <v>148898974499.22989</v>
       </c>
       <c r="D67">
-        <v>4852605896849.2383</v>
+        <v>4835249889905.9023</v>
       </c>
       <c r="E67">
-        <v>119115045462.2789</v>
+        <v>118913058623.6871</v>
       </c>
       <c r="F67">
-        <v>10651.287652910683</v>
+        <v>10581.107519092664</v>
       </c>
       <c r="G67">
-        <v>344837.4638914013</v>
+        <v>343604.10566185554</v>
       </c>
       <c r="H67">
-        <v>8464.5922338739965</v>
+        <v>8450.2385792315181</v>
       </c>
       <c r="I67" t="s">
         <v>31</v>
@@ -3006,13 +3006,13 @@
         <v>543145</v>
       </c>
       <c r="C68">
-        <v>1123719288.5348907</v>
+        <v>1217235274.242171</v>
       </c>
       <c r="E68">
         <v>162156141751.10202</v>
       </c>
       <c r="F68">
-        <v>2068.9121478332499</v>
+        <v>2241.0871392393765</v>
       </c>
       <c r="H68">
         <v>298550.37191008299</v>
@@ -3041,22 +3041,22 @@
         <v>7296430</v>
       </c>
       <c r="C69">
-        <v>45208126368.498138</v>
+        <v>45414758787.027603</v>
       </c>
       <c r="D69">
-        <v>1498173774028.2546</v>
+        <v>1497286256083.5642</v>
       </c>
       <c r="E69">
-        <v>36291675821.747055</v>
+        <v>36087882120.583344</v>
       </c>
       <c r="F69">
-        <v>6195.9240845863169</v>
+        <v>6224.243744821455</v>
       </c>
       <c r="G69">
-        <v>205329.69877436699</v>
+        <v>205208.0614880927</v>
       </c>
       <c r="H69">
-        <v>4973.8948803383373</v>
+        <v>4945.9642757599722</v>
       </c>
       <c r="I69" t="s">
         <v>31</v>
@@ -3082,22 +3082,22 @@
         <v>11269955</v>
       </c>
       <c r="C70">
-        <v>110566634026.75587</v>
+        <v>110643784609.29221</v>
       </c>
       <c r="D70">
-        <v>3026003809754.7202</v>
+        <v>3189931355858.3887</v>
       </c>
       <c r="E70">
-        <v>89114057410.274109</v>
+        <v>89084071311.79454</v>
       </c>
       <c r="F70">
-        <v>9810.7431686067848</v>
+        <v>9817.5888554383946</v>
       </c>
       <c r="G70">
-        <v>268501.85380107729</v>
+        <v>283047.39068242849</v>
       </c>
       <c r="H70">
-        <v>7907.2238895607043</v>
+        <v>7904.5631780956128</v>
       </c>
       <c r="I70" t="s">
         <v>31</v>
@@ -3123,22 +3123,22 @@
         <v>5367819</v>
       </c>
       <c r="C71">
-        <v>61417065725.11702</v>
+        <v>60994191942.149132</v>
       </c>
       <c r="D71">
-        <v>2003714759914.6228</v>
+        <v>1994807324321.1855</v>
       </c>
       <c r="E71">
-        <v>48743097929.006767</v>
+        <v>48459868258.771408</v>
       </c>
       <c r="F71">
-        <v>11441.716966447084</v>
+        <v>11362.93752493315</v>
       </c>
       <c r="G71">
-        <v>373282.84726340859</v>
+        <v>371623.43296619831</v>
       </c>
       <c r="H71">
-        <v>9080.6150373190249</v>
+        <v>9027.8506519633775</v>
       </c>
       <c r="I71" t="s">
         <v>31</v>
@@ -3164,22 +3164,22 @@
         <v>9846148</v>
       </c>
       <c r="C72">
-        <v>84895198156.406433</v>
+        <v>84175867604.354553</v>
       </c>
       <c r="D72">
-        <v>2723920263477.8428</v>
+        <v>2699080369010.8145</v>
       </c>
       <c r="E72">
-        <v>67251210417.873703</v>
+        <v>67044288647.291603</v>
       </c>
       <c r="F72">
-        <v>8622.1736821756513</v>
+        <v>8549.1166296052579</v>
       </c>
       <c r="G72">
-        <v>276648.31601940602</v>
+        <v>274125.51273968408</v>
       </c>
       <c r="H72">
-        <v>6830.2051134995836</v>
+        <v>6809.1896086968836</v>
       </c>
       <c r="I72" t="s">
         <v>31</v>
@@ -3246,16 +3246,16 @@
         <v>3896653</v>
       </c>
       <c r="C74">
-        <v>2673066343.9741898</v>
+        <v>2501638457.8290892</v>
       </c>
       <c r="E74">
-        <v>234849371422.06808</v>
+        <v>234849364000.13068</v>
       </c>
       <c r="F74">
-        <v>685.99034709382374</v>
+        <v>641.99672329794032</v>
       </c>
       <c r="H74">
-        <v>60269.51114766136</v>
+        <v>60269.509242965869</v>
       </c>
       <c r="I74" t="s">
         <v>32</v>
@@ -3281,16 +3281,16 @@
         <v>12685</v>
       </c>
       <c r="C75">
-        <v>1092662.3315909589</v>
+        <v>12884907.176741716</v>
       </c>
       <c r="E75">
-        <v>754631876.48481214</v>
+        <v>754631838.71356034</v>
       </c>
       <c r="F75">
-        <v>86.13814202530223</v>
+        <v>1015.7593359670253</v>
       </c>
       <c r="H75">
-        <v>59490.096687805453</v>
+        <v>59490.093710174246</v>
       </c>
       <c r="I75" t="s">
         <v>32</v>
@@ -3316,16 +3316,16 @@
         <v>1522254</v>
       </c>
       <c r="C76">
-        <v>1058832973.891708</v>
+        <v>1058835724.3632299</v>
       </c>
       <c r="E76">
-        <v>111576268631.85971</v>
+        <v>111576265752.67859</v>
       </c>
       <c r="F76">
-        <v>695.56918483492768</v>
+        <v>695.5709916763102</v>
       </c>
       <c r="H76">
-        <v>73296.748526763418</v>
+        <v>73296.746635370044</v>
       </c>
       <c r="I76" t="s">
         <v>33</v>
@@ -3351,16 +3351,16 @@
         <v>4899321</v>
       </c>
       <c r="C77">
-        <v>6150048596.3742952</v>
+        <v>6150053020.2900696</v>
       </c>
       <c r="E77">
-        <v>156986577687.70505</v>
+        <v>156986570031.30038</v>
       </c>
       <c r="F77">
-        <v>1255.2859052048836</v>
+        <v>1255.2868081699626</v>
       </c>
       <c r="H77">
-        <v>32042.51725651474</v>
+        <v>32042.515693766622</v>
       </c>
       <c r="I77" t="s">
         <v>33</v>
@@ -3386,22 +3386,22 @@
         <v>214384</v>
       </c>
       <c r="C78">
-        <v>1916631882.657836</v>
+        <v>1913545849.8200226</v>
       </c>
       <c r="D78">
-        <v>73643667341.131165</v>
+        <v>72663276062.318832</v>
       </c>
       <c r="E78">
-        <v>1523616047.0867572</v>
+        <v>1517768003.3532825</v>
       </c>
       <c r="F78">
-        <v>8940.1815557963091</v>
+        <v>8925.7866716733643</v>
       </c>
       <c r="G78">
-        <v>343512.88967987895</v>
+        <v>338939.82788976247</v>
       </c>
       <c r="H78">
-        <v>7106.9484993598271</v>
+        <v>7079.6701402776444</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -3468,22 +3468,22 @@
         <v>7047532</v>
       </c>
       <c r="C80">
-        <v>52077553728.035248</v>
+        <v>51840965086.372589</v>
       </c>
       <c r="D80">
-        <v>1934578904763.9041</v>
+        <v>1945764974783.9893</v>
       </c>
       <c r="E80">
-        <v>40462574040.968391</v>
+        <v>40748076665.165421</v>
       </c>
       <c r="F80">
-        <v>7389.4738935609294</v>
+        <v>7355.9034689551736</v>
       </c>
       <c r="G80">
-        <v>274504.45131202019</v>
+        <v>276091.68355446833</v>
       </c>
       <c r="H80">
-        <v>5741.3820953162594</v>
+        <v>5781.8931031693674</v>
       </c>
       <c r="I80" t="s">
         <v>31</v>
@@ -3509,16 +3509,16 @@
         <v>6223129</v>
       </c>
       <c r="C81">
-        <v>3568319633.575376</v>
+        <v>3568328623.9974074</v>
       </c>
       <c r="E81">
-        <v>370874841923.40771</v>
+        <v>370874832203.58624</v>
       </c>
       <c r="F81">
-        <v>573.3963788273353</v>
+        <v>573.39782350605412</v>
       </c>
       <c r="H81">
-        <v>59596.200227153851</v>
+        <v>59596.1986652673</v>
       </c>
       <c r="I81" t="s">
         <v>34</v>
@@ -3585,16 +3585,16 @@
         <v>4998069</v>
       </c>
       <c r="C83">
-        <v>2965962656.8703561</v>
+        <v>2965969714.1378341</v>
       </c>
       <c r="E83">
-        <v>303996682645.31177</v>
+        <v>303996674449.71057</v>
       </c>
       <c r="F83">
-        <v>593.42171083879714</v>
+        <v>593.42312283760668</v>
       </c>
       <c r="H83">
-        <v>60822.826304581184</v>
+        <v>60822.824664827669</v>
       </c>
       <c r="I83" t="s">
         <v>13</v>
@@ -3620,22 +3620,22 @@
         <v>8834166</v>
       </c>
       <c r="C84">
-        <v>20781712539.7071</v>
+        <v>20760130121.000149</v>
       </c>
       <c r="D84">
-        <v>649788771217.86548</v>
+        <v>649792048428.54175</v>
       </c>
       <c r="E84">
-        <v>16587363197.677303</v>
+        <v>16605668405.708019</v>
       </c>
       <c r="F84">
-        <v>2352.424953267473</v>
+        <v>2349.9818908768693</v>
       </c>
       <c r="G84">
-        <v>73554.059457097086</v>
+        <v>73554.430427110128</v>
       </c>
       <c r="H84">
-        <v>1877.63770769955</v>
+        <v>1879.7098000771118</v>
       </c>
       <c r="I84" t="s">
         <v>25</v>
@@ -3661,16 +3661,16 @@
         <v>2508390</v>
       </c>
       <c r="C85">
-        <v>269290676.89261812</v>
+        <v>2806438620.4777775</v>
       </c>
       <c r="E85">
-        <v>165783092562.42242</v>
+        <v>165783084264.55545</v>
       </c>
       <c r="F85">
-        <v>107.35598407449325</v>
+        <v>1118.820685968999</v>
       </c>
       <c r="H85">
-        <v>66091.434171888119</v>
+        <v>66091.430863843125</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -3696,16 +3696,16 @@
         <v>1204962</v>
       </c>
       <c r="C86">
-        <v>1411899887.165601</v>
+        <v>135484731.33016497</v>
       </c>
       <c r="E86">
-        <v>83404328879.63887</v>
+        <v>83404324705.039307</v>
       </c>
       <c r="F86">
-        <v>1171.7381022518562</v>
+        <v>112.43900747921094</v>
       </c>
       <c r="H86">
-        <v>69217.393477668898</v>
+        <v>69217.390013161668</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
@@ -3731,22 +3731,22 @@
         <v>11346108</v>
       </c>
       <c r="C87">
-        <v>26184160838.614952</v>
+        <v>25508265300.932823</v>
       </c>
       <c r="D87">
         <v>714332420522.91406</v>
       </c>
       <c r="E87">
-        <v>20544530768.186367</v>
+        <v>21087222140.001366</v>
       </c>
       <c r="F87">
-        <v>2307.765873426813</v>
+        <v>2248.1951785522247</v>
       </c>
       <c r="G87">
         <v>62958.366033790095</v>
       </c>
       <c r="H87">
-        <v>1810.711723190575</v>
+        <v>1858.5423424491787</v>
       </c>
       <c r="I87" t="s">
         <v>15</v>
@@ -3778,7 +3778,7 @@
         <v>43491577016.057266</v>
       </c>
       <c r="E88">
-        <v>1156287007.7321701</v>
+        <v>1229572803.9968851</v>
       </c>
       <c r="F88">
         <v>2308.1198616650636</v>
@@ -3787,7 +3787,7 @@
         <v>70731.467638652015</v>
       </c>
       <c r="H88">
-        <v>1880.4992294992219</v>
+        <v>1999.6858003829755</v>
       </c>
       <c r="I88" t="s">
         <v>23</v>
@@ -3813,22 +3813,22 @@
         <v>4906656</v>
       </c>
       <c r="C89">
-        <v>41742546615.736397</v>
+        <v>41471971360.320152</v>
       </c>
       <c r="D89">
-        <v>1561191099363.8901</v>
+        <v>1549248660180.4194</v>
       </c>
       <c r="E89">
-        <v>32111480357.457611</v>
+        <v>32095673200.012825</v>
       </c>
       <c r="F89">
-        <v>8507.3309838179812</v>
+        <v>8452.1864504705754</v>
       </c>
       <c r="G89">
-        <v>318178.22552954394</v>
+        <v>315744.2992091598</v>
       </c>
       <c r="H89">
-        <v>6544.4735390982387</v>
+        <v>6541.2519646807978</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -3854,16 +3854,16 @@
         <v>5621453</v>
       </c>
       <c r="C90">
-        <v>3313814603.783607</v>
+        <v>3313822439.0437398</v>
       </c>
       <c r="E90">
-        <v>341266027755.02643</v>
+        <v>341266018526.42603</v>
       </c>
       <c r="F90">
-        <v>589.49431824540864</v>
+        <v>589.49571205945153</v>
       </c>
       <c r="H90">
-        <v>60707.797033084942</v>
+        <v>60707.795391409665</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -3889,16 +3889,16 @@
         <v>4776449</v>
       </c>
       <c r="C91">
-        <v>4821032786.1811447</v>
+        <v>462622270.67736745</v>
       </c>
       <c r="E91">
-        <v>284790024911.3147</v>
+        <v>284790010656.84698</v>
       </c>
       <c r="F91">
-        <v>1009.3340860922298</v>
+        <v>96.854854030131477</v>
       </c>
       <c r="H91">
-        <v>59623.796864849748</v>
+        <v>59623.793880526515</v>
       </c>
       <c r="I91" t="s">
         <v>10</v>
@@ -3927,13 +3927,13 @@
         <v>2363629633.8331404</v>
       </c>
       <c r="E92">
-        <v>139625298593.67966</v>
+        <v>139625291605.07703</v>
       </c>
       <c r="F92">
         <v>991.72744277714628</v>
       </c>
       <c r="H92">
-        <v>58583.730013887893</v>
+        <v>58583.727081622652</v>
       </c>
       <c r="I92" t="s">
         <v>35</v>
@@ -3959,22 +3959,22 @@
         <v>2184313</v>
       </c>
       <c r="C93">
-        <v>6158080295.9659061</v>
+        <v>3528215629.5931377</v>
       </c>
       <c r="D93">
         <v>135041341390.02133</v>
       </c>
       <c r="E93">
-        <v>2665476284.34901</v>
+        <v>5017185391.4918852</v>
       </c>
       <c r="F93">
-        <v>2819.2297971792073</v>
+        <v>1615.2518570338307</v>
       </c>
       <c r="G93">
         <v>61823.255820031896</v>
       </c>
       <c r="H93">
-        <v>1220.2812895171205</v>
+        <v>2296.9168756912977</v>
       </c>
       <c r="I93" t="s">
         <v>11</v>
@@ -4000,7 +4000,7 @@
         <v>9975515</v>
       </c>
       <c r="C94">
-        <v>26466428923.231823</v>
+        <v>26773572436.82621</v>
       </c>
       <c r="D94">
         <v>780047351327.46301</v>
@@ -4009,7 +4009,7 @@
         <v>21784095212.526573</v>
       </c>
       <c r="F94">
-        <v>2653.139103417901</v>
+        <v>2683.9288434558225</v>
       </c>
       <c r="G94">
         <v>78196.198524834355</v>
@@ -4041,22 +4041,22 @@
         <v>2161126</v>
       </c>
       <c r="C95">
-        <v>8107546386.5293007</v>
+        <v>4494918841.1657076</v>
       </c>
       <c r="D95">
         <v>178456496888.45743</v>
       </c>
       <c r="E95">
-        <v>3395795730.4844065</v>
+        <v>6639418055.5917492</v>
       </c>
       <c r="F95">
-        <v>3751.5380345844251</v>
+        <v>2079.8967025364127</v>
       </c>
       <c r="G95">
         <v>82575.702151775244</v>
       </c>
       <c r="H95">
-        <v>1571.3085356820502</v>
+        <v>3072.2031272548429</v>
       </c>
       <c r="I95" t="s">
         <v>11</v>
@@ -4082,16 +4082,16 @@
         <v>7465222</v>
       </c>
       <c r="C96">
-        <v>4049937460.276423</v>
+        <v>4049948298.8626785</v>
       </c>
       <c r="E96">
-        <v>432639885505.99402</v>
+        <v>432639874512.61761</v>
       </c>
       <c r="F96">
-        <v>542.50730390555339</v>
+        <v>542.50875578283922</v>
       </c>
       <c r="H96">
-        <v>57954.054883564619</v>
+        <v>57954.053410952496</v>
       </c>
       <c r="I96" t="s">
         <v>21</v>
@@ -4158,22 +4158,22 @@
         <v>8727176</v>
       </c>
       <c r="C98">
-        <v>18256960222.344135</v>
+        <v>17759043125.371109</v>
       </c>
       <c r="D98">
         <v>525130889832.26202</v>
       </c>
       <c r="E98">
-        <v>14260576407.532942</v>
+        <v>14660405652.603962</v>
       </c>
       <c r="F98">
-        <v>2091.9665447728034</v>
+        <v>2034.9129117335447</v>
       </c>
       <c r="G98">
         <v>60171.914698667933</v>
       </c>
       <c r="H98">
-        <v>1634.0424906674211</v>
+        <v>1679.856766106695</v>
       </c>
       <c r="I98" t="s">
         <v>11</v>
@@ -4243,13 +4243,13 @@
         <v>2024137062.7719047</v>
       </c>
       <c r="E100">
-        <v>119570654276.20731</v>
+        <v>119570648291.39082</v>
       </c>
       <c r="F100">
         <v>1008.6125205841707</v>
       </c>
       <c r="H100">
-        <v>59581.172251384283</v>
+        <v>59581.169269194514</v>
       </c>
       <c r="I100" t="s">
         <v>11</v>
@@ -4275,22 +4275,22 @@
         <v>3910602</v>
       </c>
       <c r="C101">
-        <v>43727237928.513992</v>
+        <v>43575737975.190056</v>
       </c>
       <c r="D101">
-        <v>1405080280522.4707</v>
+        <v>1397411708723.2666</v>
       </c>
       <c r="E101">
-        <v>34820649351.580437</v>
+        <v>34762253234.580948</v>
       </c>
       <c r="F101">
-        <v>11181.71522658506</v>
+        <v>11142.974400153751</v>
       </c>
       <c r="G101">
-        <v>359300.25109240744</v>
+        <v>357339.28145161958</v>
       </c>
       <c r="H101">
-        <v>8904.1659958186574</v>
+        <v>8889.233226644119</v>
       </c>
       <c r="I101" t="s">
         <v>28</v>
@@ -4316,22 +4316,22 @@
         <v>7463219</v>
       </c>
       <c r="C102">
-        <v>58293719926.568909</v>
+        <v>57668752796.825073</v>
       </c>
       <c r="D102">
-        <v>2189987912875.9331</v>
+        <v>2202868275433.043</v>
       </c>
       <c r="E102">
-        <v>45206346543.89238</v>
+        <v>45521822315.578201</v>
       </c>
       <c r="F102">
-        <v>7810.8012007377656</v>
+        <v>7727.0615798390854</v>
       </c>
       <c r="G102">
-        <v>293437.44473744277</v>
+        <v>295163.29018792597</v>
       </c>
       <c r="H102">
-        <v>6057.2182785862742</v>
+        <v>6099.4890161441326</v>
       </c>
       <c r="I102" t="s">
         <v>31</v>
@@ -4357,16 +4357,16 @@
         <v>5184267</v>
       </c>
       <c r="C103">
-        <v>3133898268.775281</v>
+        <v>3216671265.6407776</v>
       </c>
       <c r="E103">
-        <v>326841598304.09235</v>
+        <v>326841589517.65106</v>
       </c>
       <c r="F103">
-        <v>604.50171042025443</v>
+        <v>620.46790137174219</v>
       </c>
       <c r="H103">
-        <v>63044.900716744014</v>
+        <v>63044.899021915939</v>
       </c>
       <c r="I103" t="s">
         <v>34</v>
@@ -4395,7 +4395,7 @@
         <v>7519721749.1663189</v>
       </c>
       <c r="D104">
-        <v>352666797276.35187</v>
+        <v>351061637375.34912</v>
       </c>
       <c r="E104">
         <v>12984573409.055727</v>
@@ -4404,7 +4404,7 @@
         <v>1832.0181252660286</v>
       </c>
       <c r="G104">
-        <v>85919.663830836071</v>
+        <v>85528.601218324737</v>
       </c>
       <c r="H104">
         <v>3163.4114436314981</v>
@@ -4433,16 +4433,16 @@
         <v>1299004</v>
       </c>
       <c r="C105">
-        <v>129984494.67417991</v>
+        <v>129990684.70678499</v>
       </c>
       <c r="E105">
-        <v>80022196686.899048</v>
+        <v>80022192681.583832</v>
       </c>
       <c r="F105">
-        <v>100.06473781002977</v>
+        <v>100.06950302445951</v>
       </c>
       <c r="H105">
-        <v>61602.733083885076</v>
+        <v>61602.73000051103</v>
       </c>
       <c r="I105" t="s">
         <v>21</v>
@@ -4468,22 +4468,22 @@
         <v>4583206</v>
       </c>
       <c r="C106">
-        <v>6349789098.5013542</v>
+        <v>16697419887.416975</v>
       </c>
       <c r="D106">
-        <v>356173707322.41956</v>
+        <v>373891817700.46454</v>
       </c>
       <c r="E106">
-        <v>13603923155.99295</v>
+        <v>4797102566.7229414</v>
       </c>
       <c r="F106">
-        <v>1385.4470208193466</v>
+        <v>3643.1746439974495</v>
       </c>
       <c r="G106">
-        <v>77712.786054656841</v>
+        <v>81578.662992775047</v>
       </c>
       <c r="H106">
-        <v>2968.2111508827993</v>
+        <v>1046.6696383978685</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
@@ -4509,22 +4509,22 @@
         <v>12498933</v>
       </c>
       <c r="C107">
-        <v>90067897298.665558</v>
+        <v>90064430265.106903</v>
       </c>
       <c r="D107">
-        <v>2899638813804.2021</v>
+        <v>2911884371942.3262</v>
       </c>
       <c r="E107">
-        <v>71559585012.357605</v>
+        <v>72371102370.584534</v>
       </c>
       <c r="F107">
-        <v>7206.0468920559506</v>
+        <v>7205.7695056935572</v>
       </c>
       <c r="G107">
-        <v>231990.9078482301</v>
+        <v>232970.63612888608</v>
       </c>
       <c r="H107">
-        <v>5725.2555087988385</v>
+        <v>5790.1824396198099</v>
       </c>
       <c r="I107" t="s">
         <v>24</v>
@@ -4550,22 +4550,22 @@
         <v>13439341</v>
       </c>
       <c r="C108">
-        <v>25722698494.847294</v>
+        <v>25924994713.092194</v>
       </c>
       <c r="D108">
         <v>705761544682.50818</v>
       </c>
       <c r="E108">
-        <v>20648713778.372612</v>
+        <v>21116069025.141045</v>
       </c>
       <c r="F108">
-        <v>1913.9851049874615</v>
+        <v>1929.0376450074593</v>
       </c>
       <c r="G108">
         <v>52514.594628003571</v>
       </c>
       <c r="H108">
-        <v>1536.4379680798793</v>
+        <v>1571.2131290619864</v>
       </c>
       <c r="I108" t="s">
         <v>33</v>
@@ -4591,22 +4591,22 @@
         <v>14171621</v>
       </c>
       <c r="C109">
-        <v>101154389052.01292</v>
+        <v>101179760661.91689</v>
       </c>
       <c r="D109">
-        <v>3737302158579.3066</v>
+        <v>3718081735995.8086</v>
       </c>
       <c r="E109">
-        <v>79435235876.400818</v>
+        <v>78230755270.749863</v>
       </c>
       <c r="F109">
-        <v>7137.8135960602476</v>
+        <v>7139.6039071265659</v>
       </c>
       <c r="G109">
-        <v>263717.33752824087</v>
+        <v>262361.07612501131</v>
       </c>
       <c r="H109">
-        <v>5605.2328718359613</v>
+        <v>5520.2404347921711</v>
       </c>
       <c r="I109" t="s">
         <v>26</v>
@@ -4632,22 +4632,22 @@
         <v>1940463</v>
       </c>
       <c r="C110">
-        <v>14314682121.034821</v>
+        <v>14071666041.019466</v>
       </c>
       <c r="D110">
-        <v>529143414180.89099</v>
+        <v>529386753516.2522</v>
       </c>
       <c r="E110">
-        <v>10982108905.654804</v>
+        <v>11042147745.69437</v>
       </c>
       <c r="F110">
-        <v>7376.9415448966665</v>
+        <v>7251.7054130995875</v>
       </c>
       <c r="G110">
-        <v>272689.25724473537</v>
+        <v>272814.65996324189</v>
       </c>
       <c r="H110">
-        <v>5659.5301768984027</v>
+        <v>5690.4706483423652</v>
       </c>
       <c r="I110" t="s">
         <v>27</v>
@@ -4673,16 +4673,16 @@
         <v>334348.61</v>
       </c>
       <c r="C111">
-        <v>270934572.98612326</v>
+        <v>271120873.35848945</v>
       </c>
       <c r="E111">
-        <v>123777265893.44865</v>
+        <v>122461809031.62817</v>
       </c>
       <c r="F111">
-        <v>810.33557455532195</v>
+        <v>810.89277852385703</v>
       </c>
       <c r="H111">
-        <v>370204.2185653132</v>
+        <v>366269.83145414654</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>

--- a/r_map/data_boot_cq_remov_Cl.xlsx
+++ b/r_map/data_boot_cq_remov_Cl.xlsx
@@ -576,16 +576,16 @@
         <v>2726384</v>
       </c>
       <c r="C2">
-        <v>7521399633.9353752</v>
+        <v>7678188784.5232296</v>
       </c>
       <c r="E2">
-        <v>902737669847.18433</v>
+        <v>907846730808.61145</v>
       </c>
       <c r="F2">
-        <v>2758.745515648337</v>
+        <v>2816.2536108351683</v>
       </c>
       <c r="H2">
-        <v>331111.71054671111</v>
+        <v>332985.6435515362</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -687,13 +687,13 @@
         <v>2014725</v>
       </c>
       <c r="C5">
-        <v>2477096451.8687525</v>
+        <v>237700102.04765996</v>
       </c>
       <c r="E5">
         <v>146328049655.21622</v>
       </c>
       <c r="F5">
-        <v>1229.4960611839097</v>
+        <v>117.98141287156309</v>
       </c>
       <c r="H5">
         <v>72629.291667704631</v>
@@ -763,13 +763,13 @@
         <v>2981276</v>
       </c>
       <c r="C7">
-        <v>1842529170.2865834</v>
+        <v>1792278374.7333126</v>
       </c>
       <c r="E7">
         <v>184951449755.02026</v>
       </c>
       <c r="F7">
-        <v>618.03374470749554</v>
+        <v>601.17827894274558</v>
       </c>
       <c r="H7">
         <v>62037.681098637047</v>
@@ -903,13 +903,13 @@
         <v>4881045</v>
       </c>
       <c r="C11">
-        <v>3023303455.742291</v>
+        <v>3037975216.2188926</v>
       </c>
       <c r="E11">
         <v>324134557661.12982</v>
       </c>
       <c r="F11">
-        <v>619.39675945259489</v>
+        <v>622.40262407310172</v>
       </c>
       <c r="H11">
         <v>66406.795606500207</v>
@@ -938,13 +938,13 @@
         <v>2219933</v>
       </c>
       <c r="C12">
-        <v>788188741.27412236</v>
+        <v>1933412868.8565888</v>
       </c>
       <c r="E12">
         <v>134974754973.25204</v>
       </c>
       <c r="F12">
-        <v>355.05068904067031</v>
+        <v>870.93298259748781</v>
       </c>
       <c r="H12">
         <v>60801.274170550212</v>
@@ -973,13 +973,13 @@
         <v>245567</v>
       </c>
       <c r="C13">
-        <v>190595064.35325661</v>
+        <v>17629475.764544304</v>
       </c>
       <c r="E13">
         <v>11229014681.780067</v>
       </c>
       <c r="F13">
-        <v>776.1428219315161</v>
+        <v>71.790899284286184</v>
       </c>
       <c r="H13">
         <v>45726.887903423783</v>
@@ -1043,13 +1043,13 @@
         <v>1081826</v>
       </c>
       <c r="C15">
-        <v>1107261249.9776757</v>
+        <v>106251862.70585248</v>
       </c>
       <c r="E15">
         <v>65408587156.869736</v>
       </c>
       <c r="F15">
-        <v>1023.5114056952557</v>
+        <v>98.215297751997525</v>
       </c>
       <c r="H15">
         <v>60461.282273553916</v>
@@ -1078,13 +1078,13 @@
         <v>66618</v>
       </c>
       <c r="C16">
-        <v>7450191.4951799987</v>
+        <v>77639188.033469379</v>
       </c>
       <c r="E16">
         <v>4586333710.6560602</v>
       </c>
       <c r="F16">
-        <v>111.83451162118344</v>
+        <v>1165.4385906732321</v>
       </c>
       <c r="H16">
         <v>68845.262701613086</v>
@@ -1113,16 +1113,16 @@
         <v>750815</v>
       </c>
       <c r="C17">
-        <v>1306932386.5268626</v>
+        <v>2203028207.7532153</v>
       </c>
       <c r="E17">
-        <v>3515984371.0590572</v>
+        <v>3447134586.4571419</v>
       </c>
       <c r="F17">
-        <v>1740.68497103396</v>
+        <v>2934.1824653918948</v>
       </c>
       <c r="H17">
-        <v>4682.8904204884784</v>
+        <v>4591.1903550903244</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1148,13 +1148,13 @@
         <v>384251</v>
       </c>
       <c r="C18">
-        <v>38829961.502797492</v>
+        <v>404650898.49012464</v>
       </c>
       <c r="E18">
         <v>23903702547.642307</v>
       </c>
       <c r="F18">
-        <v>101.05363812403219</v>
+        <v>1053.0900335721303</v>
       </c>
       <c r="H18">
         <v>62208.563016471802</v>
@@ -1183,16 +1183,16 @@
         <v>1245893</v>
       </c>
       <c r="C19">
-        <v>1650037283.8775911</v>
+        <v>1538359047.9430327</v>
       </c>
       <c r="E19">
-        <v>504575106845.86194</v>
+        <v>504737728359.04456</v>
       </c>
       <c r="F19">
-        <v>1324.3812140188534</v>
+        <v>1234.7441136141167</v>
       </c>
       <c r="H19">
-        <v>404990.72299616574</v>
+        <v>405121.24906315753</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -1218,22 +1218,22 @@
         <v>1488285</v>
       </c>
       <c r="C20">
-        <v>13915573215.639622</v>
+        <v>13454553007.622259</v>
       </c>
       <c r="D20">
-        <v>469523150525.96118</v>
+        <v>466968924504.91431</v>
       </c>
       <c r="E20">
-        <v>10933780924.204468</v>
+        <v>11040583648.412066</v>
       </c>
       <c r="F20">
-        <v>9350.0728796162166</v>
+        <v>9040.3068011988689</v>
       </c>
       <c r="G20">
-        <v>315479.32722963759</v>
+        <v>313763.1061960003</v>
       </c>
       <c r="H20">
-        <v>7346.5639472308512</v>
+        <v>7418.3262267724704</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -1259,16 +1259,16 @@
         <v>48329</v>
       </c>
       <c r="C21">
-        <v>162928287.45211348</v>
+        <v>160835662.57616928</v>
       </c>
       <c r="E21">
-        <v>19653605349.84919</v>
+        <v>19562353973.680099</v>
       </c>
       <c r="F21">
-        <v>3371.2323336322597</v>
+        <v>3327.9327645134244</v>
       </c>
       <c r="H21">
-        <v>406662.77700447332</v>
+        <v>404774.64821701462</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1294,16 +1294,16 @@
         <v>1336530</v>
       </c>
       <c r="C22">
-        <v>3514012528.2332392</v>
+        <v>3496453180.0467405</v>
       </c>
       <c r="E22">
-        <v>698859951550.45691</v>
+        <v>695070896555.66797</v>
       </c>
       <c r="F22">
-        <v>2629.205875089403</v>
+        <v>2616.0678623351068</v>
       </c>
       <c r="H22">
-        <v>522891.33169510367</v>
+        <v>520056.33734795928</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1329,22 +1329,22 @@
         <v>4238250</v>
       </c>
       <c r="C23">
-        <v>13472300061.764866</v>
+        <v>13392608749.179523</v>
       </c>
       <c r="D23">
-        <v>421796024034.55389</v>
+        <v>421532073969.57526</v>
       </c>
       <c r="E23">
-        <v>10778734875.270229</v>
+        <v>10747507663.237347</v>
       </c>
       <c r="F23">
-        <v>3178.7412403149565</v>
+        <v>3159.9383587989205</v>
       </c>
       <c r="G23">
-        <v>99521.270343786688</v>
+        <v>99458.992265575478</v>
       </c>
       <c r="H23">
-        <v>2543.2041232278016</v>
+        <v>2535.8361737125815</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1373,13 +1373,13 @@
         <v>909653618.78678691</v>
       </c>
       <c r="E24">
-        <v>98095222353.697449</v>
+        <v>98246210185.356842</v>
       </c>
       <c r="F24">
         <v>498.3859945062357</v>
       </c>
       <c r="H24">
-        <v>53744.94636129948</v>
+        <v>53827.670399423208</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -1405,16 +1405,16 @@
         <v>7101778</v>
       </c>
       <c r="C25">
-        <v>2542754102.3797197</v>
+        <v>5768019655.6387081</v>
       </c>
       <c r="E25">
-        <v>427304019333.97845</v>
+        <v>427199662081.43665</v>
       </c>
       <c r="F25">
-        <v>358.04471815082366</v>
+        <v>812.19374298080118</v>
       </c>
       <c r="H25">
-        <v>60168.597122295076</v>
+        <v>60153.90259755186</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -1440,16 +1440,16 @@
         <v>992174</v>
       </c>
       <c r="C26">
-        <v>1008547286.4079695</v>
+        <v>103495320.38178767</v>
       </c>
       <c r="E26">
-        <v>70235900638.266327</v>
+        <v>70065757596.307495</v>
       </c>
       <c r="F26">
-        <v>1016.5024344600539</v>
+        <v>104.31166346002584</v>
       </c>
       <c r="H26">
-        <v>70789.90241456269</v>
+        <v>70618.417330334691</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
@@ -1475,13 +1475,13 @@
         <v>1769518</v>
       </c>
       <c r="C27">
-        <v>1176730504.4790008</v>
+        <v>897800052.01491308</v>
       </c>
       <c r="E27">
         <v>109585699678.05278</v>
       </c>
       <c r="F27">
-        <v>665.0005846106119</v>
+        <v>507.36983292337976</v>
       </c>
       <c r="H27">
         <v>61929.689145887627</v>
@@ -1510,22 +1510,22 @@
         <v>16149545</v>
       </c>
       <c r="C28">
-        <v>63397541932.355965</v>
+        <v>63434449778.346046</v>
       </c>
       <c r="D28">
-        <v>1987898208897.8079</v>
+        <v>1976769554372.0249</v>
       </c>
       <c r="E28">
-        <v>50811692135.658173</v>
+        <v>50334894872.249634</v>
       </c>
       <c r="F28">
-        <v>3925.6549910450085</v>
+        <v>3927.940370973055</v>
       </c>
       <c r="G28">
-        <v>123093.14032672797</v>
+        <v>122404.0401368599</v>
       </c>
       <c r="H28">
-        <v>3146.3234497106987</v>
+        <v>3116.7995675574539</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
@@ -1551,16 +1551,16 @@
         <v>1806150</v>
       </c>
       <c r="C29">
-        <v>2294413280.8593416</v>
+        <v>2317460463.1600885</v>
       </c>
       <c r="E29">
-        <v>253411727752.56305</v>
+        <v>253591823199.51428</v>
       </c>
       <c r="F29">
-        <v>1270.3337379837453</v>
+        <v>1283.0941301442786</v>
       </c>
       <c r="H29">
-        <v>140304.91805916623</v>
+        <v>140404.63040141424</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -1586,16 +1586,16 @@
         <v>5446539</v>
       </c>
       <c r="C30">
-        <v>6013840455.5760965</v>
+        <v>6032434691.969286</v>
       </c>
       <c r="E30">
-        <v>657125068545.73315</v>
+        <v>656696783859.06348</v>
       </c>
       <c r="F30">
-        <v>1104.1581554040276</v>
+        <v>1107.5721099159091</v>
       </c>
       <c r="H30">
-        <v>120650.02537312837</v>
+        <v>120571.39109057395</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -1621,16 +1621,16 @@
         <v>2101351</v>
       </c>
       <c r="C31">
-        <v>1848742010.9563389</v>
+        <v>459633632.88944381</v>
       </c>
       <c r="E31">
-        <v>131518034055.21599</v>
+        <v>132272745458.73466</v>
       </c>
       <c r="F31">
-        <v>879.78734202726673</v>
+        <v>218.73244064863215</v>
       </c>
       <c r="H31">
-        <v>62587.370722557054</v>
+        <v>62946.526048591913</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
@@ -1656,13 +1656,13 @@
         <v>500876</v>
       </c>
       <c r="C32">
-        <v>366807743.87446308</v>
+        <v>341366435.27249038</v>
       </c>
       <c r="E32">
         <v>32617484119.171333</v>
       </c>
       <c r="F32">
-        <v>732.33244131174797</v>
+        <v>681.53881454190332</v>
       </c>
       <c r="H32">
         <v>65120.876462779874</v>
@@ -1761,13 +1761,13 @@
         <v>1420063</v>
       </c>
       <c r="C35">
-        <v>983228527.83500159</v>
+        <v>1064372585.2091923</v>
       </c>
       <c r="E35">
         <v>94276540625.316422</v>
       </c>
       <c r="F35">
-        <v>692.38373778839502</v>
+        <v>749.52490502829255</v>
       </c>
       <c r="H35">
         <v>66388.984591047309</v>
@@ -1796,16 +1796,16 @@
         <v>233500</v>
       </c>
       <c r="C36">
-        <v>280945690.65714282</v>
+        <v>16968508.964189999</v>
       </c>
       <c r="E36">
-        <v>15879539037.142857</v>
+        <v>16143516218.83581</v>
       </c>
       <c r="F36">
-        <v>1203.1935360048942</v>
+        <v>72.670273936573864</v>
       </c>
       <c r="H36">
-        <v>68006.591165494028</v>
+        <v>69137.114427562352</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
@@ -1936,13 +1936,13 @@
         <v>6594728</v>
       </c>
       <c r="C40">
-        <v>3749434496.3075738</v>
+        <v>3647177191.8628221</v>
       </c>
       <c r="E40">
         <v>371677593566.15253</v>
       </c>
       <c r="F40">
-        <v>568.5502868818204</v>
+        <v>553.04436996686172</v>
       </c>
       <c r="H40">
         <v>56359.806434192971</v>
@@ -1971,13 +1971,13 @@
         <v>7672769</v>
       </c>
       <c r="C41">
-        <v>4955870137.0303869</v>
+        <v>3205704164.2762518</v>
       </c>
       <c r="E41">
         <v>432835717683.71338</v>
       </c>
       <c r="F41">
-        <v>645.90373267204927</v>
+        <v>417.80277293324639</v>
       </c>
       <c r="H41">
         <v>56411.931296734387</v>
@@ -2009,13 +2009,13 @@
         <v>1870172812.650048</v>
       </c>
       <c r="E42">
-        <v>198008734749.81763</v>
+        <v>197923654363.63388</v>
       </c>
       <c r="F42">
         <v>604.24015022866854</v>
       </c>
       <c r="H42">
-        <v>63975.279087861847</v>
+        <v>63947.790192193257</v>
       </c>
       <c r="I42" t="s">
         <v>10</v>
@@ -2041,7 +2041,7 @@
         <v>134547</v>
       </c>
       <c r="C43">
-        <v>406562159.77433765</v>
+        <v>404960496.41001815</v>
       </c>
       <c r="D43">
         <v>14623358509.918112</v>
@@ -2050,7 +2050,7 @@
         <v>329934295.92833191</v>
       </c>
       <c r="F43">
-        <v>3021.7110732631545</v>
+        <v>3009.8069552648381</v>
       </c>
       <c r="G43">
         <v>108685.87564136036</v>
@@ -2082,22 +2082,22 @@
         <v>531521</v>
       </c>
       <c r="C44">
-        <v>2117431284.3053684</v>
+        <v>2108363583.5831299</v>
       </c>
       <c r="D44">
-        <v>74029106682.759125</v>
+        <v>73996507456.740448</v>
       </c>
       <c r="E44">
-        <v>1693644329.8857195</v>
+        <v>1681943421.5364552</v>
       </c>
       <c r="F44">
-        <v>3983.7208394501222</v>
+        <v>3966.6609288873442</v>
       </c>
       <c r="G44">
-        <v>139277.85860344017</v>
+        <v>139216.52664098021</v>
       </c>
       <c r="H44">
-        <v>3186.4109412153412</v>
+        <v>3164.3969317044011</v>
       </c>
       <c r="I44" t="s">
         <v>23</v>
@@ -2123,22 +2123,22 @@
         <v>1438500</v>
       </c>
       <c r="C45">
-        <v>7667022194.4254894</v>
+        <v>7507625643.4878368</v>
       </c>
       <c r="D45">
-        <v>238175171210.73178</v>
+        <v>236439505606.43939</v>
       </c>
       <c r="E45">
-        <v>5997785213.840867</v>
+        <v>6035297886.3776178</v>
       </c>
       <c r="F45">
-        <v>5329.8729193086474</v>
+        <v>5219.0654455946033</v>
       </c>
       <c r="G45">
-        <v>165571.89517603879</v>
+        <v>164365.31498535932</v>
       </c>
       <c r="H45">
-        <v>4169.4718205358822</v>
+        <v>4195.5494517745001</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
@@ -2164,22 +2164,22 @@
         <v>4871389</v>
       </c>
       <c r="C46">
-        <v>34007909471.68177</v>
+        <v>34091063084.677071</v>
       </c>
       <c r="D46">
-        <v>1116056133961.7627</v>
+        <v>1125355643312.0298</v>
       </c>
       <c r="E46">
-        <v>26998212198.679272</v>
+        <v>27333196497.485535</v>
       </c>
       <c r="F46">
-        <v>6981.1524950443836</v>
+        <v>6998.222290331787</v>
       </c>
       <c r="G46">
-        <v>229104.29324403423</v>
+        <v>231013.29894041095</v>
       </c>
       <c r="H46">
-        <v>5542.2000170134779</v>
+        <v>5610.96568093526</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2322,22 +2322,22 @@
         <v>6114392</v>
       </c>
       <c r="C50">
-        <v>43286884247.894829</v>
+        <v>42116108032.022476</v>
       </c>
       <c r="D50">
-        <v>1484420340823.9512</v>
+        <v>1479887286135.1665</v>
       </c>
       <c r="E50">
-        <v>34239703670.581543</v>
+        <v>34348547165.012524</v>
       </c>
       <c r="F50">
-        <v>7079.5075369545866</v>
+        <v>6888.0287740829299</v>
       </c>
       <c r="G50">
-        <v>242774.80750726338</v>
+        <v>242033.43294560874</v>
       </c>
       <c r="H50">
-        <v>5599.8541916484155</v>
+        <v>5617.6553883055785</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
@@ -2363,16 +2363,16 @@
         <v>2753681</v>
       </c>
       <c r="C51">
-        <v>2097644781.8001707</v>
+        <v>2191944393.4628224</v>
       </c>
       <c r="E51">
-        <v>274601892375.45203</v>
+        <v>278305134116.63922</v>
       </c>
       <c r="F51">
-        <v>761.76026990786909</v>
+        <v>796.00519939049673</v>
       </c>
       <c r="H51">
-        <v>99721.751493892007</v>
+        <v>101066.58473390318</v>
       </c>
       <c r="I51" t="s">
         <v>26</v>
@@ -2398,22 +2398,22 @@
         <v>5168266</v>
       </c>
       <c r="C52">
-        <v>36782199194.005341</v>
+        <v>36609233564.835091</v>
       </c>
       <c r="D52">
-        <v>1144229826051.2168</v>
+        <v>1120049185499.9238</v>
       </c>
       <c r="E52">
-        <v>29235320925.557751</v>
+        <v>29113272195.301208</v>
       </c>
       <c r="F52">
-        <v>7116.9322929596392</v>
+        <v>7083.4654340227635</v>
       </c>
       <c r="G52">
-        <v>221395.30474074226</v>
+        <v>216716.62903958964</v>
       </c>
       <c r="H52">
-        <v>5656.6981895973913</v>
+        <v>5633.0831647018958</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
@@ -2439,22 +2439,22 @@
         <v>6246911</v>
       </c>
       <c r="C53">
-        <v>58827976904.734322</v>
+        <v>58510408574.198639</v>
       </c>
       <c r="D53">
-        <v>1951211678484.3315</v>
+        <v>1966869282062.5479</v>
       </c>
       <c r="E53">
-        <v>46120014573.383163</v>
+        <v>46642056827.175514</v>
       </c>
       <c r="F53">
-        <v>9417.1306273987757</v>
+        <v>9366.2945692997127</v>
       </c>
       <c r="G53">
-        <v>312348.24355338688</v>
+        <v>314854.69891640008</v>
       </c>
       <c r="H53">
-        <v>7382.8512321342769</v>
+        <v>7466.419295420651</v>
       </c>
       <c r="I53" t="s">
         <v>26</v>
@@ -2480,22 +2480,22 @@
         <v>3681044</v>
       </c>
       <c r="C54">
-        <v>28143922158.872704</v>
+        <v>28387900912.207039</v>
       </c>
       <c r="D54">
-        <v>887705328290.69385</v>
+        <v>896333833141.33923</v>
       </c>
       <c r="E54">
-        <v>22286061495.685143</v>
+        <v>22246038408.458164</v>
       </c>
       <c r="F54">
-        <v>7645.6359008131121</v>
+        <v>7711.9156718058894</v>
       </c>
       <c r="G54">
-        <v>241155.85912330681</v>
+        <v>243499.89653515123</v>
       </c>
       <c r="H54">
-        <v>6054.2773994782856</v>
+        <v>6043.4046451110517</v>
       </c>
       <c r="I54" t="s">
         <v>26</v>
@@ -2591,16 +2591,16 @@
         <v>9036684</v>
       </c>
       <c r="C57">
-        <v>55388934645.924515</v>
+        <v>55771661608.704681</v>
       </c>
       <c r="E57">
-        <v>2253908467190.188</v>
+        <v>2267770011779.8369</v>
       </c>
       <c r="F57">
-        <v>6129.3428702303318</v>
+        <v>6171.6954591645208</v>
       </c>
       <c r="H57">
-        <v>249417.64779981109</v>
+        <v>250951.56716554839</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -2626,16 +2626,16 @@
         <v>916991</v>
       </c>
       <c r="C58">
-        <v>2927215672.5525637</v>
+        <v>2898532213.9325032</v>
       </c>
       <c r="E58">
-        <v>321391467428.24817</v>
+        <v>320228540884.17578</v>
       </c>
       <c r="F58">
-        <v>3192.1967309957936</v>
+        <v>3160.9167526535193</v>
       </c>
       <c r="H58">
-        <v>350484.86564017332</v>
+        <v>349216.66721284692</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -2661,16 +2661,16 @@
         <v>317344</v>
       </c>
       <c r="C59">
-        <v>1224321831.3285842</v>
+        <v>1192875390.3550186</v>
       </c>
       <c r="E59">
-        <v>137811021371.84885</v>
+        <v>137508917419.98318</v>
       </c>
       <c r="F59">
-        <v>3858.0273499060463</v>
+        <v>3758.9347533119217</v>
       </c>
       <c r="H59">
-        <v>434263.83158921817</v>
+        <v>433311.85533674236</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -2696,22 +2696,22 @@
         <v>4078252</v>
       </c>
       <c r="C60">
-        <v>26658288596.300392</v>
+        <v>26724270795.094414</v>
       </c>
       <c r="D60">
-        <v>841352894960.43066</v>
+        <v>837263822268.80664</v>
       </c>
       <c r="E60">
-        <v>21407714070.021355</v>
+        <v>21091581578.472908</v>
       </c>
       <c r="F60">
-        <v>6536.6947889194671</v>
+        <v>6552.8738280749731</v>
       </c>
       <c r="G60">
-        <v>206302.3312341735</v>
+        <v>205299.67796713067</v>
       </c>
       <c r="H60">
-        <v>5249.2376807566952</v>
+        <v>5171.7210163748859</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -2737,22 +2737,22 @@
         <v>3399679</v>
       </c>
       <c r="C61">
-        <v>24719168216.832863</v>
+        <v>24529418411.868065</v>
       </c>
       <c r="D61">
-        <v>680420522892.8761</v>
+        <v>683403061878.21326</v>
       </c>
       <c r="E61">
-        <v>18844592347.663582</v>
+        <v>18987341460.882034</v>
       </c>
       <c r="F61">
-        <v>7271.0300639657034</v>
+        <v>7215.2160282979848</v>
       </c>
       <c r="G61">
-        <v>200142.57901786495</v>
+        <v>201019.87919395132</v>
       </c>
       <c r="H61">
-        <v>5543.0504902561624</v>
+        <v>5585.0394878110656</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -2778,22 +2778,22 @@
         <v>3734928</v>
       </c>
       <c r="C62">
-        <v>28493439174.825165</v>
+        <v>28653758205.320724</v>
       </c>
       <c r="D62">
-        <v>1080866611583.2863</v>
+        <v>1072125408134.7733</v>
       </c>
       <c r="E62">
-        <v>22065664475.262909</v>
+        <v>21987659009.966629</v>
       </c>
       <c r="F62">
-        <v>7628.9125720295442</v>
+        <v>7671.8368346915186</v>
       </c>
       <c r="G62">
-        <v>289394.2297102611</v>
+        <v>287053.8356120314</v>
       </c>
       <c r="H62">
-        <v>5907.9223147709708</v>
+        <v>5887.0369147589008</v>
       </c>
       <c r="I62" t="s">
         <v>28</v>
@@ -2854,16 +2854,16 @@
         <v>393144</v>
       </c>
       <c r="C64">
-        <v>395823921.38657051</v>
+        <v>366008507.15236312</v>
       </c>
       <c r="E64">
-        <v>56376019269.982994</v>
+        <v>55479176667.010773</v>
       </c>
       <c r="F64">
-        <v>1006.8166406878155</v>
+        <v>930.97823482582237</v>
       </c>
       <c r="H64">
-        <v>143397.88797484635</v>
+        <v>141116.68158997918</v>
       </c>
       <c r="I64" t="s">
         <v>30</v>
@@ -2889,22 +2889,22 @@
         <v>2485399</v>
       </c>
       <c r="C65">
-        <v>21974812829.949383</v>
+        <v>22049960405.472717</v>
       </c>
       <c r="D65">
-        <v>719957234300.0072</v>
+        <v>720328661149.71985</v>
       </c>
       <c r="E65">
-        <v>17995656006.439514</v>
+        <v>17762459166.616573</v>
       </c>
       <c r="F65">
-        <v>8841.5633988544214</v>
+        <v>8871.7990171689598</v>
       </c>
       <c r="G65">
-        <v>289674.70989567757</v>
+        <v>289824.15344567201</v>
       </c>
       <c r="H65">
-        <v>7240.5501114466997</v>
+        <v>7146.723389933195</v>
       </c>
       <c r="I65" t="s">
         <v>30</v>
@@ -2930,16 +2930,16 @@
         <v>261201</v>
       </c>
       <c r="C66">
-        <v>1077138143.2257237</v>
+        <v>1097655060.2395473</v>
       </c>
       <c r="E66">
-        <v>132313589466.23074</v>
+        <v>132578022024.2254</v>
       </c>
       <c r="F66">
-        <v>4123.7902734894724</v>
+        <v>4202.3386596511773</v>
       </c>
       <c r="H66">
-        <v>506558.51036646392</v>
+        <v>507570.88228691852</v>
       </c>
       <c r="I66" t="s">
         <v>30</v>
@@ -2965,22 +2965,22 @@
         <v>14072154</v>
       </c>
       <c r="C67">
-        <v>148898974499.22989</v>
+        <v>149826699458.16824</v>
       </c>
       <c r="D67">
-        <v>4835249889905.9023</v>
+        <v>4839434048473.0254</v>
       </c>
       <c r="E67">
-        <v>118913058623.6871</v>
+        <v>118102102868.87552</v>
       </c>
       <c r="F67">
-        <v>10581.107519092664</v>
+        <v>10647.033812888079</v>
       </c>
       <c r="G67">
-        <v>343604.10566185554</v>
+        <v>343901.44170345389</v>
       </c>
       <c r="H67">
-        <v>8450.2385792315181</v>
+        <v>8392.6101767274231</v>
       </c>
       <c r="I67" t="s">
         <v>31</v>
@@ -3006,16 +3006,16 @@
         <v>543145</v>
       </c>
       <c r="C68">
-        <v>1217235274.242171</v>
+        <v>1123723710.2053375</v>
       </c>
       <c r="E68">
-        <v>162156141751.10202</v>
+        <v>159856273254.93292</v>
       </c>
       <c r="F68">
-        <v>2241.0871392393765</v>
+        <v>2068.920288698851</v>
       </c>
       <c r="H68">
-        <v>298550.37191008299</v>
+        <v>294316.01737092843</v>
       </c>
       <c r="I68" t="s">
         <v>31</v>
@@ -3041,22 +3041,22 @@
         <v>7296430</v>
       </c>
       <c r="C69">
-        <v>45414758787.027603</v>
+        <v>44731858246.069168</v>
       </c>
       <c r="D69">
-        <v>1497286256083.5642</v>
+        <v>1476883652447.2495</v>
       </c>
       <c r="E69">
-        <v>36087882120.583344</v>
+        <v>35412342673.174454</v>
       </c>
       <c r="F69">
-        <v>6224.243744821455</v>
+        <v>6130.6499543021964</v>
       </c>
       <c r="G69">
-        <v>205208.0614880927</v>
+        <v>202411.81679907156</v>
       </c>
       <c r="H69">
-        <v>4945.9642757599722</v>
+        <v>4853.3793475952571</v>
       </c>
       <c r="I69" t="s">
         <v>31</v>
@@ -3082,22 +3082,22 @@
         <v>11269955</v>
       </c>
       <c r="C70">
-        <v>110643784609.29221</v>
+        <v>110566634026.75587</v>
       </c>
       <c r="D70">
-        <v>3189931355858.3887</v>
+        <v>3194250558329.6973</v>
       </c>
       <c r="E70">
-        <v>89084071311.79454</v>
+        <v>89119438581.955658</v>
       </c>
       <c r="F70">
-        <v>9817.5888554383946</v>
+        <v>9810.7431686067848</v>
       </c>
       <c r="G70">
-        <v>283047.39068242849</v>
+        <v>283430.6399918808</v>
       </c>
       <c r="H70">
-        <v>7904.5631780956128</v>
+        <v>7907.7013689899968</v>
       </c>
       <c r="I70" t="s">
         <v>31</v>
@@ -3123,22 +3123,22 @@
         <v>5367819</v>
       </c>
       <c r="C71">
-        <v>60994191942.149132</v>
+        <v>60931189109.016342</v>
       </c>
       <c r="D71">
-        <v>1994807324321.1855</v>
+        <v>2002874500243.1213</v>
       </c>
       <c r="E71">
-        <v>48459868258.771408</v>
+        <v>48787177837.193008</v>
       </c>
       <c r="F71">
-        <v>11362.93752493315</v>
+        <v>11351.200386789558</v>
       </c>
       <c r="G71">
-        <v>371623.43296619831</v>
+        <v>373126.31074988213</v>
       </c>
       <c r="H71">
-        <v>9027.8506519633775</v>
+        <v>9088.8269215472828</v>
       </c>
       <c r="I71" t="s">
         <v>31</v>
@@ -3164,22 +3164,22 @@
         <v>9846148</v>
       </c>
       <c r="C72">
-        <v>84175867604.354553</v>
+        <v>83867823124.070312</v>
       </c>
       <c r="D72">
-        <v>2699080369010.8145</v>
+        <v>2694189858325.8589</v>
       </c>
       <c r="E72">
-        <v>67044288647.291603</v>
+        <v>67294354068.430069</v>
       </c>
       <c r="F72">
-        <v>8549.1166296052579</v>
+        <v>8517.8308435004546</v>
       </c>
       <c r="G72">
-        <v>274125.51273968408</v>
+        <v>273628.81995333184</v>
       </c>
       <c r="H72">
-        <v>6809.1896086968836</v>
+        <v>6834.5868931108962</v>
       </c>
       <c r="I72" t="s">
         <v>31</v>
@@ -3246,13 +3246,13 @@
         <v>3896653</v>
       </c>
       <c r="C74">
-        <v>2501638457.8290892</v>
+        <v>2608580049.6616797</v>
       </c>
       <c r="E74">
         <v>234849364000.13068</v>
       </c>
       <c r="F74">
-        <v>641.99672329794032</v>
+        <v>669.44119726895872</v>
       </c>
       <c r="H74">
         <v>60269.509242965869</v>
@@ -3386,22 +3386,22 @@
         <v>214384</v>
       </c>
       <c r="C78">
-        <v>1913545849.8200226</v>
+        <v>1900884201.0755587</v>
       </c>
       <c r="D78">
-        <v>72663276062.318832</v>
+        <v>73039764091.128006</v>
       </c>
       <c r="E78">
-        <v>1517768003.3532825</v>
+        <v>1485761043.2832067</v>
       </c>
       <c r="F78">
-        <v>8925.7866716733643</v>
+        <v>8866.7260666633647</v>
       </c>
       <c r="G78">
-        <v>338939.82788976247</v>
+        <v>340695.96654194343</v>
       </c>
       <c r="H78">
-        <v>7079.6701402776444</v>
+        <v>6930.3728043287128</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -3468,22 +3468,22 @@
         <v>7047532</v>
       </c>
       <c r="C80">
-        <v>51840965086.372589</v>
+        <v>51079020810.324905</v>
       </c>
       <c r="D80">
-        <v>1945764974783.9893</v>
+        <v>1904114383191.1914</v>
       </c>
       <c r="E80">
-        <v>40748076665.165421</v>
+        <v>40319819510.038742</v>
       </c>
       <c r="F80">
-        <v>7355.9034689551736</v>
+        <v>7247.7884187435975</v>
       </c>
       <c r="G80">
-        <v>276091.68355446833</v>
+        <v>270181.72931902844</v>
       </c>
       <c r="H80">
-        <v>5781.8931031693674</v>
+        <v>5721.1261346580259</v>
       </c>
       <c r="I80" t="s">
         <v>31</v>
@@ -3585,13 +3585,13 @@
         <v>4998069</v>
       </c>
       <c r="C83">
-        <v>2965969714.1378341</v>
+        <v>2999441699.1032872</v>
       </c>
       <c r="E83">
         <v>303996674449.71057</v>
       </c>
       <c r="F83">
-        <v>593.42312283760668</v>
+        <v>600.12010620567412</v>
       </c>
       <c r="H83">
         <v>60822.824664827669</v>
@@ -3661,13 +3661,13 @@
         <v>2508390</v>
       </c>
       <c r="C85">
-        <v>2806438620.4777775</v>
+        <v>269303500.86884993</v>
       </c>
       <c r="E85">
         <v>165783084264.55545</v>
       </c>
       <c r="F85">
-        <v>1118.820685968999</v>
+        <v>107.36109650766026</v>
       </c>
       <c r="H85">
         <v>66091.430863843125</v>
@@ -3696,13 +3696,13 @@
         <v>1204962</v>
       </c>
       <c r="C86">
-        <v>135484731.33016497</v>
+        <v>1411899887.165601</v>
       </c>
       <c r="E86">
         <v>83404324705.039307</v>
       </c>
       <c r="F86">
-        <v>112.43900747921094</v>
+        <v>1171.7381022518562</v>
       </c>
       <c r="H86">
         <v>69217.390013161668</v>
@@ -3731,7 +3731,7 @@
         <v>11346108</v>
       </c>
       <c r="C87">
-        <v>25508265300.932823</v>
+        <v>26038019057.53315</v>
       </c>
       <c r="D87">
         <v>714332420522.91406</v>
@@ -3740,7 +3740,7 @@
         <v>21087222140.001366</v>
       </c>
       <c r="F87">
-        <v>2248.1951785522247</v>
+        <v>2294.8855288115669</v>
       </c>
       <c r="G87">
         <v>62958.366033790095</v>
@@ -3772,19 +3772,19 @@
         <v>614883</v>
       </c>
       <c r="C88">
-        <v>1419223664.9001992</v>
+        <v>1509174460.5628879</v>
       </c>
       <c r="D88">
-        <v>43491577016.057266</v>
+        <v>49448111451.145943</v>
       </c>
       <c r="E88">
         <v>1229572803.9968851</v>
       </c>
       <c r="F88">
-        <v>2308.1198616650636</v>
+        <v>2454.409148672004</v>
       </c>
       <c r="G88">
-        <v>70731.467638652015</v>
+        <v>80418.732427382027</v>
       </c>
       <c r="H88">
         <v>1999.6858003829755</v>
@@ -3813,22 +3813,22 @@
         <v>4906656</v>
       </c>
       <c r="C89">
-        <v>41471971360.320152</v>
+        <v>41889355968.112099</v>
       </c>
       <c r="D89">
-        <v>1549248660180.4194</v>
+        <v>1567137243342.864</v>
       </c>
       <c r="E89">
-        <v>32095673200.012825</v>
+        <v>32064094617.038837</v>
       </c>
       <c r="F89">
-        <v>8452.1864504705754</v>
+        <v>8537.2514331781349</v>
       </c>
       <c r="G89">
-        <v>315744.2992091598</v>
+        <v>319390.07815972099</v>
       </c>
       <c r="H89">
-        <v>6541.2519646807978</v>
+        <v>6534.8160981814981</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -3924,13 +3924,13 @@
         <v>2383346</v>
       </c>
       <c r="C92">
-        <v>2363629633.8331404</v>
+        <v>226811921.16728249</v>
       </c>
       <c r="E92">
         <v>139625291605.07703</v>
       </c>
       <c r="F92">
-        <v>991.72744277714628</v>
+        <v>95.165335275399585</v>
       </c>
       <c r="H92">
         <v>58583.727081622652</v>
@@ -4006,7 +4006,7 @@
         <v>780047351327.46301</v>
       </c>
       <c r="E94">
-        <v>21784095212.526573</v>
+        <v>21475621725.607159</v>
       </c>
       <c r="F94">
         <v>2683.9288434558225</v>
@@ -4015,7 +4015,7 @@
         <v>78196.198524834355</v>
       </c>
       <c r="H94">
-        <v>2183.7564489178326</v>
+        <v>2152.8333851041434</v>
       </c>
       <c r="I94" t="s">
         <v>11</v>
@@ -4047,7 +4047,7 @@
         <v>178456496888.45743</v>
       </c>
       <c r="E95">
-        <v>6639418055.5917492</v>
+        <v>6605477898.3614006</v>
       </c>
       <c r="F95">
         <v>2079.8967025364127</v>
@@ -4056,7 +4056,7 @@
         <v>82575.702151775244</v>
       </c>
       <c r="H95">
-        <v>3072.2031272548429</v>
+        <v>3056.4982783796045</v>
       </c>
       <c r="I95" t="s">
         <v>11</v>
@@ -4158,7 +4158,7 @@
         <v>8727176</v>
       </c>
       <c r="C98">
-        <v>17759043125.371109</v>
+        <v>18256960222.344135</v>
       </c>
       <c r="D98">
         <v>525130889832.26202</v>
@@ -4167,7 +4167,7 @@
         <v>14660405652.603962</v>
       </c>
       <c r="F98">
-        <v>2034.9129117335447</v>
+        <v>2091.9665447728034</v>
       </c>
       <c r="G98">
         <v>60171.914698667933</v>
@@ -4275,22 +4275,22 @@
         <v>3910602</v>
       </c>
       <c r="C101">
-        <v>43575737975.190056</v>
+        <v>43729752766.393845</v>
       </c>
       <c r="D101">
-        <v>1397411708723.2666</v>
+        <v>1406135051459.969</v>
       </c>
       <c r="E101">
-        <v>34762253234.580948</v>
+        <v>34564884556.96273</v>
       </c>
       <c r="F101">
-        <v>11142.974400153751</v>
+        <v>11182.358308616895</v>
       </c>
       <c r="G101">
-        <v>357339.28145161958</v>
+        <v>359569.97195315937</v>
       </c>
       <c r="H101">
-        <v>8889.233226644119</v>
+        <v>8838.7630745759161</v>
       </c>
       <c r="I101" t="s">
         <v>28</v>
@@ -4316,22 +4316,22 @@
         <v>7463219</v>
       </c>
       <c r="C102">
-        <v>57668752796.825073</v>
+        <v>58326317269.442734</v>
       </c>
       <c r="D102">
-        <v>2202868275433.043</v>
+        <v>2207182097316.9365</v>
       </c>
       <c r="E102">
-        <v>45521822315.578201</v>
+        <v>44883690847.552811</v>
       </c>
       <c r="F102">
-        <v>7727.0615798390854</v>
+        <v>7815.1689330626268</v>
       </c>
       <c r="G102">
-        <v>295163.29018792597</v>
+        <v>295741.30108160258</v>
       </c>
       <c r="H102">
-        <v>6099.4890161441326</v>
+        <v>6013.9854997626107</v>
       </c>
       <c r="I102" t="s">
         <v>31</v>
@@ -4471,7 +4471,7 @@
         <v>16697419887.416975</v>
       </c>
       <c r="D106">
-        <v>373891817700.46454</v>
+        <v>356173707322.41956</v>
       </c>
       <c r="E106">
         <v>4797102566.7229414</v>
@@ -4480,7 +4480,7 @@
         <v>3643.1746439974495</v>
       </c>
       <c r="G106">
-        <v>81578.662992775047</v>
+        <v>77712.786054656841</v>
       </c>
       <c r="H106">
         <v>1046.6696383978685</v>
@@ -4509,22 +4509,22 @@
         <v>12498933</v>
       </c>
       <c r="C107">
-        <v>90064430265.106903</v>
+        <v>89577846746.220306</v>
       </c>
       <c r="D107">
-        <v>2911884371942.3262</v>
+        <v>2900556387342.1377</v>
       </c>
       <c r="E107">
-        <v>72371102370.584534</v>
+        <v>71850553065.612061</v>
       </c>
       <c r="F107">
-        <v>7205.7695056935572</v>
+        <v>7166.8395011174398</v>
       </c>
       <c r="G107">
-        <v>232970.63612888608</v>
+        <v>232064.31999772601</v>
       </c>
       <c r="H107">
-        <v>5790.1824396198099</v>
+        <v>5748.5349401914591</v>
       </c>
       <c r="I107" t="s">
         <v>24</v>
@@ -4550,22 +4550,22 @@
         <v>13439341</v>
       </c>
       <c r="C108">
-        <v>25924994713.092194</v>
+        <v>25826507401.175247</v>
       </c>
       <c r="D108">
-        <v>705761544682.50818</v>
+        <v>705752820739.35327</v>
       </c>
       <c r="E108">
-        <v>21116069025.141045</v>
+        <v>20641901685.104965</v>
       </c>
       <c r="F108">
-        <v>1929.0376450074593</v>
+        <v>1921.7093606877932</v>
       </c>
       <c r="G108">
-        <v>52514.594628003571</v>
+        <v>52513.94549326141</v>
       </c>
       <c r="H108">
-        <v>1571.2131290619864</v>
+        <v>1535.9310910486581</v>
       </c>
       <c r="I108" t="s">
         <v>33</v>
@@ -4591,22 +4591,22 @@
         <v>14171621</v>
       </c>
       <c r="C109">
-        <v>101179760661.91689</v>
+        <v>99638651180.718826</v>
       </c>
       <c r="D109">
-        <v>3718081735995.8086</v>
+        <v>3683498635053.7881</v>
       </c>
       <c r="E109">
-        <v>78230755270.749863</v>
+        <v>78866801003.512955</v>
       </c>
       <c r="F109">
-        <v>7139.6039071265659</v>
+        <v>7030.8577389078382</v>
       </c>
       <c r="G109">
-        <v>262361.07612501131</v>
+        <v>259920.76947681481</v>
       </c>
       <c r="H109">
-        <v>5520.2404347921711</v>
+        <v>5565.1220847292589</v>
       </c>
       <c r="I109" t="s">
         <v>26</v>
@@ -4632,22 +4632,22 @@
         <v>1940463</v>
       </c>
       <c r="C110">
-        <v>14071666041.019466</v>
+        <v>14063552842.771124</v>
       </c>
       <c r="D110">
-        <v>529386753516.2522</v>
+        <v>524276623924.0022</v>
       </c>
       <c r="E110">
-        <v>11042147745.69437</v>
+        <v>10925957677.901384</v>
       </c>
       <c r="F110">
-        <v>7251.7054130995875</v>
+        <v>7247.5243499984917</v>
       </c>
       <c r="G110">
-        <v>272814.65996324189</v>
+        <v>270181.20104531868</v>
       </c>
       <c r="H110">
-        <v>5690.4706483423652</v>
+        <v>5630.5931511713361</v>
       </c>
       <c r="I110" t="s">
         <v>27</v>
@@ -4673,16 +4673,16 @@
         <v>334348.61</v>
       </c>
       <c r="C111">
-        <v>271120873.35848945</v>
+        <v>270947475.24684924</v>
       </c>
       <c r="E111">
-        <v>122461809031.62817</v>
+        <v>121592384334.36668</v>
       </c>
       <c r="F111">
-        <v>810.89277852385703</v>
+        <v>810.37416380121704</v>
       </c>
       <c r="H111">
-        <v>366269.83145414654</v>
+        <v>363669.47759814729</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>

--- a/r_map/data_boot_cq_remov_Cl.xlsx
+++ b/r_map/data_boot_cq_remov_Cl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19905" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="59">
   <si>
     <t>Plant_Code</t>
   </si>
@@ -79,63 +79,72 @@
     <t>KY</t>
   </si>
   <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>AR</t>
+    <t>MT</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>Zip</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
   </si>
   <si>
     <t>SRMV</t>
+  </si>
+  <si>
+    <t>RMPA</t>
   </si>
 </sst>
 </file>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,16 +568,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -576,16 +588,22 @@
         <v>2726384</v>
       </c>
       <c r="C2">
-        <v>7678188784.5232296</v>
+        <v>9474347213.6343555</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>907846730808.61145</v>
+        <v>897083806201.70044</v>
       </c>
       <c r="F2">
-        <v>2816.2536108351683</v>
+        <v>3475.0597177926352</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>332985.6435515362</v>
+        <v>329037.95144106646</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -600,7 +618,7 @@
         <v>-87.848600000000005</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -613,12 +631,18 @@
       <c r="C3">
         <v>392603729.22888887</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>23192047262.466389</v>
       </c>
       <c r="F3">
         <v>1211.2090664859502</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>71549.034875043624</v>
       </c>
@@ -635,7 +659,7 @@
         <v>-98.312437000000003</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -646,22 +670,22 @@
         <v>2081937</v>
       </c>
       <c r="C4">
-        <v>5774901462.7033377</v>
+        <v>3603439388.3701706</v>
       </c>
       <c r="D4">
         <v>126638563064.77957</v>
       </c>
       <c r="E4">
-        <v>2499620361.1329746</v>
+        <v>2572901520.9433756</v>
       </c>
       <c r="F4">
-        <v>2773.8118217330002</v>
+        <v>1730.81096515897</v>
       </c>
       <c r="G4">
         <v>60827.279146669462</v>
       </c>
       <c r="H4">
-        <v>1200.6224785538539</v>
+        <v>1235.821026737781</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -676,7 +700,7 @@
         <v>-99.175299999999993</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -687,13 +711,19 @@
         <v>2014725</v>
       </c>
       <c r="C5">
-        <v>237700102.04765996</v>
+        <v>167788307.32775998</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>146328049655.21622</v>
       </c>
       <c r="F5">
-        <v>117.98141287156309</v>
+        <v>83.280997321103371</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>72629.291667704631</v>
@@ -711,7 +741,7 @@
         <v>-95.289400000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -722,22 +752,22 @@
         <v>9164672</v>
       </c>
       <c r="C6">
-        <v>20392759882.264721</v>
+        <v>18449514395.373169</v>
       </c>
       <c r="D6">
-        <v>619423874395.12061</v>
+        <v>618167071102.2561</v>
       </c>
       <c r="E6">
-        <v>16342087927.036022</v>
+        <v>16118391700.812222</v>
       </c>
       <c r="F6">
-        <v>2225.1489068310052</v>
+        <v>2013.1123509246343</v>
       </c>
       <c r="G6">
-        <v>67588.220767215738</v>
+        <v>67451.085112730289</v>
       </c>
       <c r="H6">
-        <v>1783.1612442906874</v>
+        <v>1758.7527083142988</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -752,7 +782,7 @@
         <v>-96.252499999999998</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -763,16 +793,22 @@
         <v>2981276</v>
       </c>
       <c r="C7">
-        <v>1792278374.7333126</v>
+        <v>2442066830.3574476</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>184951449755.02026</v>
+        <v>184795379553.74792</v>
       </c>
       <c r="F7">
-        <v>601.17827894274558</v>
+        <v>819.13476992987148</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>62037.681098637047</v>
+        <v>61985.330963569933</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -787,7 +823,7 @@
         <v>-89.6631</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -798,13 +834,19 @@
         <v>1265697</v>
       </c>
       <c r="C8">
-        <v>1387960800.0189567</v>
+        <v>133187556.56597999</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
         <v>81990185207.139648</v>
       </c>
       <c r="F8">
-        <v>1096.5980009583309</v>
+        <v>105.22862625571523</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>64778.683371406936</v>
@@ -822,1990 +864,2218 @@
         <v>-88.115300000000005</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B9">
-        <v>566146</v>
+        <v>5057931</v>
       </c>
       <c r="C9">
-        <v>59717151.782504998</v>
+        <v>4075282188.1477866</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>36761845182.323082</v>
+        <v>322400075180.36768</v>
       </c>
       <c r="F9">
-        <v>105.48012665020154</v>
+        <v>805.7211907690687</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>64933.506873356135</v>
+        <v>63741.493345869618</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9">
-        <v>60087</v>
+        <v>62540</v>
       </c>
       <c r="K9">
-        <v>42.383299999999998</v>
+        <v>39.590555999999999</v>
       </c>
       <c r="L9">
-        <v>-87.813299999999998</v>
+        <v>-89.496388999999994</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B10">
-        <v>2372033</v>
+        <v>566146</v>
       </c>
       <c r="C10">
-        <v>2241544676.9241381</v>
+        <v>42153283.611179993</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>132413439348.27119</v>
+        <v>36761845182.323082</v>
       </c>
       <c r="F10">
-        <v>944.98882474406469</v>
+        <v>74.456559988377549</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>55822.764416966878</v>
+        <v>64933.506873356135</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10">
-        <v>60446</v>
+        <v>60087</v>
       </c>
       <c r="K10">
-        <v>41.633400000000002</v>
+        <v>42.383299999999998</v>
       </c>
       <c r="L10">
-        <v>-88.062899999999999</v>
+        <v>-87.813299999999998</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B11">
-        <v>4881045</v>
+        <v>2372033</v>
       </c>
       <c r="C11">
-        <v>3037975216.2188926</v>
+        <v>2241544676.9241381</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>324134557661.12982</v>
+        <v>132413439348.27119</v>
       </c>
       <c r="F11">
-        <v>622.40262407310172</v>
+        <v>944.98882474406469</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>66406.795606500207</v>
+        <v>55822.764416966878</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11">
-        <v>62953</v>
+        <v>60446</v>
       </c>
       <c r="K11">
-        <v>37.209400000000002</v>
+        <v>41.633400000000002</v>
       </c>
       <c r="L11">
-        <v>-88.858889000000005</v>
+        <v>-88.062899999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="B12">
-        <v>2219933</v>
+        <v>4881045</v>
       </c>
       <c r="C12">
-        <v>1933412868.8565888</v>
+        <v>3828948405.9169087</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>134974754973.25204</v>
+        <v>323594074587.84576</v>
       </c>
       <c r="F12">
-        <v>870.93298259748781</v>
+        <v>784.45259281914196</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>60801.274170550212</v>
+        <v>66296.064590235444</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12">
-        <v>62002</v>
+        <v>62953</v>
       </c>
       <c r="K12">
-        <v>38.863900000000001</v>
+        <v>37.209400000000002</v>
       </c>
       <c r="L12">
-        <v>-90.134699999999995</v>
+        <v>-88.858889000000005</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1073</v>
+        <v>898</v>
       </c>
       <c r="B13">
-        <v>245567</v>
+        <v>2219933</v>
       </c>
       <c r="C13">
-        <v>17629475.764544304</v>
+        <v>990970549.86613488</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>11229014681.780067</v>
+        <v>134843543214.75133</v>
       </c>
       <c r="F13">
-        <v>71.790899284286184</v>
+        <v>446.39660290023835</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>45726.887903423783</v>
+        <v>60742.167990994021</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13">
-        <v>52404</v>
+        <v>62002</v>
       </c>
       <c r="K13">
-        <v>41.944038999999997</v>
+        <v>38.863900000000001</v>
       </c>
       <c r="L13">
-        <v>-91.639167</v>
+        <v>-90.134699999999995</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="B14">
-        <v>553904</v>
+        <v>245567</v>
       </c>
       <c r="C14">
-        <v>56693854.678087056</v>
+        <v>17629475.764544304</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>35057968261.116402</v>
+        <v>11229014681.780067</v>
       </c>
       <c r="F14">
-        <v>102.3532140553003</v>
+        <v>71.790899284286184</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>63292.498810473298</v>
+        <v>45726.887903423783</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
       </c>
       <c r="J14">
-        <v>51052</v>
+        <v>52404</v>
       </c>
       <c r="K14">
-        <v>42.299793999999999</v>
+        <v>41.944038999999997</v>
       </c>
       <c r="L14">
-        <v>-96.361706999999996</v>
+        <v>-91.639167</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="B15">
-        <v>1081826</v>
+        <v>553904</v>
       </c>
       <c r="C15">
-        <v>106251862.70585248</v>
+        <v>56693854.678087056</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>65408587156.869736</v>
+        <v>35057968261.116402</v>
       </c>
       <c r="F15">
-        <v>98.215297751997525</v>
+        <v>102.3532140553003</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>60461.282273553916</v>
+        <v>63292.498810473298</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
       <c r="J15">
-        <v>52601</v>
+        <v>51052</v>
       </c>
       <c r="K15">
-        <v>40.741199999999999</v>
+        <v>42.299793999999999</v>
       </c>
       <c r="L15">
-        <v>-91.116667000000007</v>
+        <v>-96.361706999999996</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="B16">
-        <v>66618</v>
+        <v>1081826</v>
       </c>
       <c r="C16">
-        <v>77639188.033469379</v>
+        <v>106251862.70585248</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4586333710.6560602</v>
+        <v>65408587156.869736</v>
       </c>
       <c r="F16">
-        <v>1165.4385906732321</v>
+        <v>98.215297751997525</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>68845.262701613086</v>
+        <v>60461.282273553916</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
       </c>
       <c r="J16">
-        <v>50010</v>
+        <v>52601</v>
       </c>
       <c r="K16">
-        <v>42.025799999999997</v>
+        <v>40.741199999999999</v>
       </c>
       <c r="L16">
-        <v>-93.608900000000006</v>
+        <v>-91.116667000000007</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1167</v>
+        <v>1122</v>
       </c>
       <c r="B17">
-        <v>750815</v>
+        <v>66618</v>
       </c>
       <c r="C17">
-        <v>2203028207.7532153</v>
+        <v>7450191.4951799987</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>3447134586.4571419</v>
+        <v>4586333710.6560602</v>
       </c>
       <c r="F17">
-        <v>2934.1824653918948</v>
+        <v>111.83451162118344</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>4591.1903550903244</v>
+        <v>68845.262701613086</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
       </c>
       <c r="J17">
-        <v>52761</v>
+        <v>50010</v>
       </c>
       <c r="K17">
-        <v>41.3917</v>
+        <v>42.025799999999997</v>
       </c>
       <c r="L17">
-        <v>-91.056899999999999</v>
+        <v>-93.608900000000006</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1252</v>
+        <v>1167</v>
       </c>
       <c r="B18">
-        <v>384251</v>
+        <v>750815</v>
       </c>
       <c r="C18">
-        <v>404650898.49012464</v>
+        <v>1643051711.0732532</v>
+      </c>
+      <c r="D18">
+        <v>48272374442.582382</v>
       </c>
       <c r="E18">
-        <v>23903702547.642307</v>
+        <v>3444585511.9545403</v>
       </c>
       <c r="F18">
-        <v>1053.0900335721303</v>
+        <v>2188.3575995062074</v>
+      </c>
+      <c r="G18">
+        <v>64293.300536859788</v>
       </c>
       <c r="H18">
-        <v>62208.563016471802</v>
+        <v>4587.7952784035215</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18">
-        <v>66542</v>
+        <v>52761</v>
       </c>
       <c r="K18">
-        <v>39.053899999999999</v>
+        <v>41.3917</v>
       </c>
       <c r="L18">
-        <v>-95.568888999999999</v>
+        <v>-91.056899999999999</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1353</v>
+        <v>1252</v>
       </c>
       <c r="B19">
-        <v>1245893</v>
+        <v>384251</v>
       </c>
       <c r="C19">
-        <v>1538359047.9430327</v>
+        <v>38829961.502797492</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>504737728359.04456</v>
+        <v>23903702547.642307</v>
       </c>
       <c r="F19">
-        <v>1234.7441136141167</v>
+        <v>101.05363812403219</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>405121.24906315753</v>
+        <v>62208.563016471802</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19">
-        <v>41230</v>
+        <v>66542</v>
       </c>
       <c r="K19">
-        <v>38.170699999999997</v>
+        <v>39.053899999999999</v>
       </c>
       <c r="L19">
-        <v>-82.617599999999996</v>
+        <v>-95.568888999999999</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1382</v>
+        <v>1353</v>
       </c>
       <c r="B20">
-        <v>1488285</v>
+        <v>1245893</v>
       </c>
       <c r="C20">
-        <v>13454553007.622259</v>
+        <v>1662734089.2852159</v>
       </c>
       <c r="D20">
-        <v>466968924504.91431</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>11040583648.412066</v>
+        <v>498576857220.58484</v>
       </c>
       <c r="F20">
-        <v>9040.3068011988689</v>
+        <v>1334.5721416568003</v>
       </c>
       <c r="G20">
-        <v>313763.1061960003</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>7418.3262267724704</v>
+        <v>400176.30504432146</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
       </c>
       <c r="J20">
-        <v>42452</v>
+        <v>41230</v>
       </c>
       <c r="K20">
-        <v>37.646900000000002</v>
+        <v>38.170699999999997</v>
       </c>
       <c r="L20">
-        <v>-87.502799999999993</v>
+        <v>-82.617599999999996</v>
       </c>
       <c r="M20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B21">
-        <v>48329</v>
+        <v>1488285</v>
       </c>
       <c r="C21">
-        <v>160835662.57616928</v>
+        <v>12944202295.8643</v>
+      </c>
+      <c r="D21">
+        <v>478190691570.72821</v>
       </c>
       <c r="E21">
-        <v>19562353973.680099</v>
+        <v>10968055585.866337</v>
       </c>
       <c r="F21">
-        <v>3327.9327645134244</v>
+        <v>8697.3948510294067</v>
+      </c>
+      <c r="G21">
+        <v>321303.1721550161</v>
       </c>
       <c r="H21">
-        <v>404774.64821701462</v>
+        <v>7369.5935831284569</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
       </c>
       <c r="J21">
-        <v>40391</v>
+        <v>42452</v>
       </c>
       <c r="K21">
-        <v>37.880600000000001</v>
+        <v>37.646900000000002</v>
       </c>
       <c r="L21">
-        <v>-84.261899999999997</v>
+        <v>-87.502799999999993</v>
       </c>
       <c r="M21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1554</v>
+        <v>1385</v>
       </c>
       <c r="B22">
-        <v>1336530</v>
+        <v>48329</v>
       </c>
       <c r="C22">
-        <v>3496453180.0467405</v>
+        <v>203025863.94523758</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>695070896555.66797</v>
+        <v>19769405488.80513</v>
       </c>
       <c r="F22">
-        <v>2616.0678623351068</v>
+        <v>4200.9117495755672</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>520056.33734795928</v>
+        <v>409058.85676933371</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J22">
-        <v>21226</v>
+        <v>40391</v>
       </c>
       <c r="K22">
-        <v>39.178100000000001</v>
+        <v>37.880600000000001</v>
       </c>
       <c r="L22">
-        <v>-76.526799999999994</v>
+        <v>-84.261899999999997</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1573</v>
+        <v>1554</v>
       </c>
       <c r="B23">
-        <v>4238250</v>
+        <v>1336530</v>
       </c>
       <c r="C23">
-        <v>13392608749.179523</v>
+        <v>7987252584.8447084</v>
       </c>
       <c r="D23">
-        <v>421532073969.57526</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>10747507663.237347</v>
+        <v>691479437293.37109</v>
       </c>
       <c r="F23">
-        <v>3159.9383587989205</v>
+        <v>5976.111710806872</v>
       </c>
       <c r="G23">
-        <v>99458.992265575478</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2535.8361737125815</v>
+        <v>517369.18534815614</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23">
-        <v>20664</v>
+        <v>21226</v>
       </c>
       <c r="K23">
-        <v>38.359200000000001</v>
+        <v>39.178100000000001</v>
       </c>
       <c r="L23">
-        <v>-76.976699999999994</v>
+        <v>-76.526799999999994</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1695</v>
+        <v>1573</v>
       </c>
       <c r="B24">
-        <v>1825199</v>
+        <v>4238250</v>
       </c>
       <c r="C24">
-        <v>909653618.78678691</v>
+        <v>12493436423.700417</v>
+      </c>
+      <c r="D24">
+        <v>429764788508.42712</v>
       </c>
       <c r="E24">
-        <v>98246210185.356842</v>
+        <v>10919092961.6588</v>
       </c>
       <c r="F24">
-        <v>498.3859945062357</v>
+        <v>2947.7818495134588</v>
+      </c>
+      <c r="G24">
+        <v>101401.47195385527</v>
       </c>
       <c r="H24">
-        <v>53827.670399423208</v>
+        <v>2576.3211140585854</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J24">
-        <v>49445</v>
+        <v>20664</v>
       </c>
       <c r="K24">
-        <v>43.258768000000003</v>
+        <v>38.359200000000001</v>
       </c>
       <c r="L24">
-        <v>-86.242267999999996</v>
+        <v>-76.976699999999994</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="B25">
-        <v>7101778</v>
+        <v>1825199</v>
       </c>
       <c r="C25">
-        <v>5768019655.6387081</v>
+        <v>1395132190.2876673</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>427199662081.43665</v>
+        <v>98246210185.356842</v>
       </c>
       <c r="F25">
-        <v>812.19374298080118</v>
+        <v>764.37264664711483</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>60153.90259755186</v>
+        <v>53827.670399423208</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25">
-        <v>49460</v>
+        <v>49445</v>
       </c>
       <c r="K25">
-        <v>42.910296000000002</v>
+        <v>43.258768000000003</v>
       </c>
       <c r="L25">
-        <v>-86.200739999999996</v>
+        <v>-86.242267999999996</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="B26">
-        <v>992174</v>
+        <v>7101778</v>
       </c>
       <c r="C26">
-        <v>103495320.38178767</v>
+        <v>3237951990.3033962</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>70065757596.307495</v>
+        <v>426640673166.77014</v>
       </c>
       <c r="F26">
-        <v>104.31166346002584</v>
+        <v>455.93539960040943</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>70618.417330334691</v>
+        <v>60075.191475538959</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26">
-        <v>48732</v>
+        <v>49460</v>
       </c>
       <c r="K26">
-        <v>43.639927</v>
+        <v>42.910296000000002</v>
       </c>
       <c r="L26">
-        <v>-83.844712000000001</v>
+        <v>-86.200739999999996</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B27">
-        <v>1769518</v>
+        <v>992174</v>
       </c>
       <c r="C27">
-        <v>897800052.01491308</v>
+        <v>109395612.27860261</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>109585699678.05278</v>
+        <v>70053193766.951843</v>
       </c>
       <c r="F27">
-        <v>507.36983292337976</v>
+        <v>110.25849526252715</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>61929.689145887627</v>
+        <v>70605.754400893231</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27">
-        <v>48133</v>
+        <v>48732</v>
       </c>
       <c r="K27">
-        <v>41.792113999999998</v>
+        <v>43.639927</v>
       </c>
       <c r="L27">
-        <v>-83.449479999999994</v>
+        <v>-83.844712000000001</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="B28">
-        <v>16149545</v>
+        <v>1769518</v>
       </c>
       <c r="C28">
-        <v>63434449778.346046</v>
+        <v>1272984051.0036712</v>
       </c>
       <c r="D28">
-        <v>1976769554372.0249</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>50334894872.249634</v>
+        <v>109299732659.53751</v>
       </c>
       <c r="F28">
-        <v>3927.940370973055</v>
+        <v>719.39593211466126</v>
       </c>
       <c r="G28">
-        <v>122404.0401368599</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>3116.7995675574539</v>
+        <v>61768.08185027646</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28">
-        <v>48161</v>
+        <v>48133</v>
       </c>
       <c r="K28">
-        <v>41.890599999999999</v>
+        <v>41.792113999999998</v>
       </c>
       <c r="L28">
-        <v>-83.346400000000003</v>
+        <v>-83.449479999999994</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="B29">
-        <v>1806150</v>
+        <v>16149545</v>
       </c>
       <c r="C29">
-        <v>2317460463.1600885</v>
+        <v>57917651116.049683</v>
+      </c>
+      <c r="D29">
+        <v>1990154022818.8245</v>
       </c>
       <c r="E29">
-        <v>253591823199.51428</v>
+        <v>50339350149.207962</v>
       </c>
       <c r="F29">
-        <v>1283.0941301442786</v>
+        <v>3586.3333063593855</v>
+      </c>
+      <c r="G29">
+        <v>123232.82314262257</v>
       </c>
       <c r="H29">
-        <v>140404.63040141424</v>
+        <v>3117.0754438721319</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29">
-        <v>48218</v>
+        <v>48161</v>
       </c>
       <c r="K29">
-        <v>42.273899999999998</v>
+        <v>41.890599999999999</v>
       </c>
       <c r="L29">
-        <v>-83.111900000000006</v>
+        <v>-83.346400000000003</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B30">
-        <v>5446539</v>
+        <v>1806150</v>
       </c>
       <c r="C30">
-        <v>6032434691.969286</v>
+        <v>2842764447.4644537</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>656696783859.06348</v>
+        <v>253822696970.22375</v>
       </c>
       <c r="F30">
-        <v>1107.5721099159091</v>
+        <v>1573.9359673695174</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>120571.39109057395</v>
+        <v>140532.45686694002</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>48054</v>
+        <v>48218</v>
       </c>
       <c r="K30">
-        <v>42.764200000000002</v>
+        <v>42.273899999999998</v>
       </c>
       <c r="L30">
-        <v>-82.471900000000005</v>
+        <v>-83.111900000000006</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B31">
-        <v>2101351</v>
+        <v>5446539</v>
       </c>
       <c r="C31">
-        <v>459633632.88944381</v>
+        <v>7518613820.0128078</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>132272745458.73466</v>
+        <v>614892654326.15662</v>
       </c>
       <c r="F31">
-        <v>218.73244064863215</v>
+        <v>1380.4388107774143</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>62946.526048591913</v>
+        <v>112896.03440389514</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31">
-        <v>48183</v>
+        <v>48054</v>
       </c>
       <c r="K31">
-        <v>42.121699999999997</v>
+        <v>42.764200000000002</v>
       </c>
       <c r="L31">
-        <v>-83.180800000000005</v>
+        <v>-82.471900000000005</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1831</v>
+        <v>1745</v>
       </c>
       <c r="B32">
-        <v>500876</v>
+        <v>2101351</v>
       </c>
       <c r="C32">
-        <v>341366435.27249038</v>
+        <v>456009128.39717001</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>32617484119.171333</v>
+        <v>131518034055.21599</v>
       </c>
       <c r="F32">
-        <v>681.53881454190332</v>
+        <v>217.00759577870144</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>65120.876462779874</v>
+        <v>62587.370722557054</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32">
-        <v>48910</v>
+        <v>48183</v>
       </c>
       <c r="K32">
-        <v>42.718389999999999</v>
+        <v>42.121699999999997</v>
       </c>
       <c r="L32">
-        <v>-84.558080000000004</v>
+        <v>-83.180800000000005</v>
       </c>
       <c r="M32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B33">
-        <v>869762</v>
+        <v>500876</v>
       </c>
       <c r="C33">
-        <v>891490525.33145118</v>
+        <v>369907953.36451447</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>52662491103.017891</v>
+        <v>32512427788.003731</v>
       </c>
       <c r="F33">
-        <v>1024.982150670472</v>
+        <v>738.52201615672232</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>60548.162719247208</v>
+        <v>64911.131274015388</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33">
-        <v>48917</v>
+        <v>48910</v>
       </c>
       <c r="K33">
-        <v>42.692222000000001</v>
+        <v>42.718389999999999</v>
       </c>
       <c r="L33">
-        <v>-84.657222000000004</v>
+        <v>-84.558080000000004</v>
       </c>
       <c r="M33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1943</v>
+        <v>1832</v>
       </c>
       <c r="B34">
-        <v>296202</v>
+        <v>869762</v>
       </c>
       <c r="C34">
-        <v>171603068.52967602</v>
+        <v>891490525.33145118</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>18033410566.574024</v>
+        <v>52662491103.017891</v>
       </c>
       <c r="F34">
-        <v>579.34473274885386</v>
+        <v>1024.982150670472</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>60882.136402097298</v>
+        <v>60548.162719247208</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J34">
-        <v>56537</v>
+        <v>48917</v>
       </c>
       <c r="K34">
-        <v>46.290641000000001</v>
+        <v>42.692222000000001</v>
       </c>
       <c r="L34">
-        <v>-96.043251999999995</v>
+        <v>-84.657222000000004</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2080</v>
+        <v>1943</v>
       </c>
       <c r="B35">
-        <v>1420063</v>
+        <v>296202</v>
       </c>
       <c r="C35">
-        <v>1064372585.2091923</v>
+        <v>252394835.10965532</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>94276540625.316422</v>
+        <v>18043213037.51825</v>
       </c>
       <c r="F35">
-        <v>749.52490502829255</v>
+        <v>852.10375051368771</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>66388.984591047309</v>
+        <v>60915.230273658686</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J35">
-        <v>64735</v>
+        <v>56537</v>
       </c>
       <c r="K35">
-        <v>38.311399999999999</v>
+        <v>46.290641000000001</v>
       </c>
       <c r="L35">
-        <v>-93.934799999999996</v>
+        <v>-96.043251999999995</v>
       </c>
       <c r="M35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2098</v>
+        <v>2080</v>
       </c>
       <c r="B36">
-        <v>233500</v>
+        <v>1420063</v>
       </c>
       <c r="C36">
-        <v>16968508.964189999</v>
+        <v>1055287017.5553598</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>16143516218.83581</v>
+        <v>93948677912.892075</v>
       </c>
       <c r="F36">
-        <v>72.670273936573864</v>
+        <v>743.12690180320158</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>69137.114427562352</v>
+        <v>66158.105600168492</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J36">
-        <v>64504</v>
+        <v>64735</v>
       </c>
       <c r="K36">
-        <v>39.724600000000002</v>
+        <v>38.311399999999999</v>
       </c>
       <c r="L36">
-        <v>-94.877300000000005</v>
+        <v>-93.934799999999996</v>
       </c>
       <c r="M36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="B37">
-        <v>16042082</v>
+        <v>233500</v>
       </c>
       <c r="C37">
-        <v>9054326405.53092</v>
+        <v>16968508.964189999</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>953258477648.95801</v>
+        <v>16143516218.83581</v>
       </c>
       <c r="F37">
-        <v>564.4109290509125</v>
+        <v>72.670273936573864</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>59422.366601103146</v>
+        <v>69137.114427562352</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37">
-        <v>63055</v>
+        <v>64504</v>
       </c>
       <c r="K37">
-        <v>38.562244</v>
+        <v>39.724600000000002</v>
       </c>
       <c r="L37">
-        <v>-90.837686000000005</v>
+        <v>-94.877300000000005</v>
       </c>
       <c r="M37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B38">
-        <v>2119428</v>
+        <v>16042082</v>
       </c>
       <c r="C38">
-        <v>1321062662.913414</v>
+        <v>11379255440.162088</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>130380731046.7728</v>
+        <v>951402169453.68896</v>
       </c>
       <c r="F38">
-        <v>623.31094187366307</v>
+        <v>709.337817881874</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>61516.942800969315</v>
+        <v>59306.651683596239</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38">
-        <v>63129</v>
+        <v>63055</v>
       </c>
       <c r="K38">
-        <v>38.401699999999998</v>
+        <v>38.562244</v>
       </c>
       <c r="L38">
-        <v>-90.335800000000006</v>
+        <v>-90.837686000000005</v>
       </c>
       <c r="M38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2161</v>
+        <v>2104</v>
       </c>
       <c r="B39">
-        <v>856</v>
+        <v>2119428</v>
       </c>
       <c r="C39">
+        <v>1523895523.3342512</v>
+      </c>
+      <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>130149344112.40329</v>
       </c>
       <c r="F39">
+        <v>719.01264083245633</v>
+      </c>
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>61407.768564161313</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J39">
-        <v>65804</v>
+        <v>63129</v>
       </c>
       <c r="K39">
-        <v>37.108611000000003</v>
+        <v>38.401699999999998</v>
       </c>
       <c r="L39">
-        <v>-93.261944</v>
+        <v>-90.335800000000006</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="B40">
-        <v>6594728</v>
+        <v>856</v>
       </c>
       <c r="C40">
-        <v>3647177191.8628221</v>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>371677593566.15253</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>553.04436996686172</v>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>56359.806434192971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40">
-        <v>63869</v>
+        <v>65804</v>
       </c>
       <c r="K40">
-        <v>36.514699999999998</v>
+        <v>37.108611000000003</v>
       </c>
       <c r="L40">
-        <v>-89.561700000000002</v>
+        <v>-93.261944</v>
       </c>
       <c r="M40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B41">
-        <v>7672769</v>
+        <v>6594728</v>
       </c>
       <c r="C41">
-        <v>3205704164.2762518</v>
+        <v>4090292177.7900805</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>432835717683.71338</v>
+        <v>371266631306.08203</v>
       </c>
       <c r="F41">
-        <v>417.80277293324639</v>
+        <v>620.2366765983495</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>56411.931296734387</v>
+        <v>56297.489647197282</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41">
-        <v>65244</v>
+        <v>63869</v>
       </c>
       <c r="K41">
-        <v>39.552199999999999</v>
+        <v>36.514699999999998</v>
       </c>
       <c r="L41">
-        <v>-92.638099999999994</v>
+        <v>-89.561700000000002</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2291</v>
+        <v>2168</v>
       </c>
       <c r="B42">
-        <v>3095082</v>
+        <v>7672769</v>
       </c>
       <c r="C42">
-        <v>1870172812.650048</v>
+        <v>4935340617.5108843</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>197923654363.63388</v>
+        <v>432481363985.47778</v>
       </c>
       <c r="F42">
-        <v>604.24015022866854</v>
+        <v>643.22809894457714</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>63947.790192193257</v>
+        <v>56365.748009027484</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J42">
-        <v>68112</v>
+        <v>65244</v>
       </c>
       <c r="K42">
-        <v>41.329090000000001</v>
+        <v>39.552199999999999</v>
       </c>
       <c r="L42">
-        <v>-95.944659999999999</v>
+        <v>-92.638099999999994</v>
       </c>
       <c r="M42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2378</v>
+        <v>2291</v>
       </c>
       <c r="B43">
-        <v>134547</v>
+        <v>3095082</v>
       </c>
       <c r="C43">
-        <v>404960496.41001815</v>
+        <v>2360216232.7329044</v>
       </c>
       <c r="D43">
-        <v>14623358509.918112</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>329934295.92833191</v>
+        <v>197650612383.35605</v>
       </c>
       <c r="F43">
-        <v>3009.8069552648381</v>
+        <v>762.56985525194625</v>
       </c>
       <c r="G43">
-        <v>108685.87564136036</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2452.1861946259069</v>
+        <v>63859.572180432064</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>8223</v>
+        <v>68112</v>
       </c>
       <c r="K43">
-        <v>39.290799999999997</v>
+        <v>41.329090000000001</v>
       </c>
       <c r="L43">
-        <v>-74.636399999999995</v>
+        <v>-95.944659999999999</v>
       </c>
       <c r="M43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2535</v>
+        <v>2378</v>
       </c>
       <c r="B44">
-        <v>531521</v>
+        <v>134547</v>
       </c>
       <c r="C44">
-        <v>2108363583.5831299</v>
+        <v>397538858.93318301</v>
       </c>
       <c r="D44">
-        <v>73996507456.740448</v>
+        <v>14623358509.918114</v>
       </c>
       <c r="E44">
-        <v>1681943421.5364552</v>
+        <v>321804895.36569023</v>
       </c>
       <c r="F44">
-        <v>3966.6609288873442</v>
+        <v>2954.6467697769776</v>
       </c>
       <c r="G44">
-        <v>139216.52664098021</v>
+        <v>108685.87564136037</v>
       </c>
       <c r="H44">
-        <v>3164.3969317044011</v>
+        <v>2391.7656682474544</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J44">
-        <v>14882</v>
+        <v>8223</v>
       </c>
       <c r="K44">
-        <v>42.602800000000002</v>
+        <v>39.290799999999997</v>
       </c>
       <c r="L44">
-        <v>-76.633600000000001</v>
+        <v>-74.636399999999995</v>
       </c>
       <c r="M44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2706</v>
+        <v>2535</v>
       </c>
       <c r="B45">
-        <v>1438500</v>
+        <v>531521</v>
       </c>
       <c r="C45">
-        <v>7507625643.4878368</v>
+        <v>1985874923.1889946</v>
       </c>
       <c r="D45">
-        <v>236439505606.43939</v>
+        <v>74381344046.132935</v>
       </c>
       <c r="E45">
-        <v>6035297886.3776178</v>
+        <v>1681198747.8082421</v>
       </c>
       <c r="F45">
-        <v>5219.0654455946033</v>
+        <v>3736.2115950056436</v>
       </c>
       <c r="G45">
-        <v>164365.31498535932</v>
+        <v>139940.55558695318</v>
       </c>
       <c r="H45">
-        <v>4195.5494517745001</v>
+        <v>3162.9959076089976</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J45">
-        <v>28704</v>
+        <v>14882</v>
       </c>
       <c r="K45">
-        <v>35.473100000000002</v>
+        <v>42.602800000000002</v>
       </c>
       <c r="L45">
-        <v>-82.541700000000006</v>
+        <v>-76.633600000000001</v>
       </c>
       <c r="M45" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2712</v>
+        <v>2706</v>
       </c>
       <c r="B46">
-        <v>4871389</v>
+        <v>1438500</v>
       </c>
       <c r="C46">
-        <v>34091063084.677071</v>
+        <v>6973144958.7375021</v>
       </c>
       <c r="D46">
-        <v>1125355643312.0298</v>
+        <v>236925088909.59439</v>
       </c>
       <c r="E46">
-        <v>27333196497.485535</v>
+        <v>6047679359.6191101</v>
       </c>
       <c r="F46">
-        <v>6998.222290331787</v>
+        <v>4847.5112678050064</v>
       </c>
       <c r="G46">
-        <v>231013.29894041095</v>
+        <v>164702.87723989878</v>
       </c>
       <c r="H46">
-        <v>5610.96568093526</v>
+        <v>4204.1566629260415</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46">
-        <v>27573</v>
+        <v>28704</v>
       </c>
       <c r="K46">
-        <v>36.4833</v>
+        <v>35.473100000000002</v>
       </c>
       <c r="L46">
-        <v>-79.073099999999997</v>
+        <v>-82.541700000000006</v>
       </c>
       <c r="M46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2790</v>
+        <v>2712</v>
       </c>
       <c r="B47">
-        <v>500630</v>
+        <v>4871389</v>
       </c>
       <c r="C47">
-        <v>429347872.62924695</v>
+        <v>31584144165.500179</v>
+      </c>
+      <c r="D47">
+        <v>1129158649043.1895</v>
       </c>
       <c r="E47">
-        <v>47117086552.885368</v>
+        <v>26935976671.211037</v>
       </c>
       <c r="F47">
-        <v>857.61515016928058</v>
+        <v>6483.6013230518402</v>
+      </c>
+      <c r="G47">
+        <v>231793.98094530933</v>
       </c>
       <c r="H47">
-        <v>94115.587465564124</v>
+        <v>5529.4242917597094</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J47">
-        <v>58554</v>
+        <v>27573</v>
       </c>
       <c r="K47">
-        <v>46.866900000000001</v>
+        <v>36.4833</v>
       </c>
       <c r="L47">
-        <v>-100.8836</v>
+        <v>-79.073099999999997</v>
       </c>
       <c r="M47" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2817</v>
+        <v>2790</v>
       </c>
       <c r="B48">
-        <v>3581670</v>
+        <v>500630</v>
       </c>
       <c r="C48">
-        <v>10179373682.310431</v>
+        <v>647269702.18378675</v>
       </c>
       <c r="D48">
-        <v>288053736676.28229</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>8182349005.9896994</v>
+        <v>47156180235.789223</v>
       </c>
       <c r="F48">
-        <v>2842.0746976439568</v>
+        <v>1292.9103373425219</v>
       </c>
       <c r="G48">
-        <v>80424.421199128425</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2284.5066703492225</v>
+        <v>94193.676439264978</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48">
-        <v>58571</v>
+        <v>58554</v>
       </c>
       <c r="K48">
-        <v>47.280768999999999</v>
+        <v>46.866900000000001</v>
       </c>
       <c r="L48">
-        <v>-101.321213</v>
+        <v>-100.8836</v>
       </c>
       <c r="M48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2823</v>
+        <v>2817</v>
       </c>
       <c r="B49">
-        <v>4902363</v>
+        <v>3581670</v>
       </c>
       <c r="C49">
-        <v>14949290604.023655</v>
+        <v>9923924106.6869965</v>
       </c>
       <c r="D49">
-        <v>433358998841.25952</v>
+        <v>290785777164.24445</v>
       </c>
       <c r="E49">
-        <v>11939815209.902117</v>
+        <v>8096252699.9737635</v>
       </c>
       <c r="F49">
-        <v>3049.4050734357402</v>
+        <v>2770.753337601453</v>
       </c>
       <c r="G49">
-        <v>88397.982532354203</v>
+        <v>81187.205176424526</v>
       </c>
       <c r="H49">
-        <v>2435.5224633308708</v>
+        <v>2260.4686361316826</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49">
-        <v>58530</v>
+        <v>58571</v>
       </c>
       <c r="K49">
-        <v>47.065854000000002</v>
+        <v>47.280768999999999</v>
       </c>
       <c r="L49">
-        <v>-101.213093</v>
+        <v>-101.321213</v>
       </c>
       <c r="M49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2828</v>
+        <v>2823</v>
       </c>
       <c r="B50">
-        <v>6114392</v>
+        <v>4902363</v>
       </c>
       <c r="C50">
-        <v>42116108032.022476</v>
+        <v>14411783178.375244</v>
       </c>
       <c r="D50">
-        <v>1479887286135.1665</v>
+        <v>431304561748.64392</v>
       </c>
       <c r="E50">
-        <v>34348547165.012524</v>
+        <v>11986657504.201469</v>
       </c>
       <c r="F50">
-        <v>6888.0287740829299</v>
+        <v>2939.7625549913878</v>
       </c>
       <c r="G50">
-        <v>242033.43294560874</v>
+        <v>87978.911751056366</v>
       </c>
       <c r="H50">
-        <v>5617.6553883055785</v>
+        <v>2445.0775073574659</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J50">
-        <v>43913</v>
+        <v>58530</v>
       </c>
       <c r="K50">
-        <v>40.252200000000002</v>
+        <v>47.065854000000002</v>
       </c>
       <c r="L50">
-        <v>-80.648600000000002</v>
+        <v>-101.213093</v>
       </c>
       <c r="M50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2836</v>
+        <v>2828</v>
       </c>
       <c r="B51">
-        <v>2753681</v>
+        <v>6114392</v>
       </c>
       <c r="C51">
-        <v>2191944393.4628224</v>
+        <v>39555920213.411926</v>
+      </c>
+      <c r="D51">
+        <v>1470067540355.5229</v>
       </c>
       <c r="E51">
-        <v>278305134116.63922</v>
+        <v>33419286232.315155</v>
       </c>
       <c r="F51">
-        <v>796.00519939049673</v>
+        <v>6469.3137458985166</v>
+      </c>
+      <c r="G51">
+        <v>240427.42767482408</v>
       </c>
       <c r="H51">
-        <v>101066.58473390318</v>
+        <v>5465.6761019436035</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J51">
-        <v>44012</v>
+        <v>43913</v>
       </c>
       <c r="K51">
-        <v>41.504452999999998</v>
+        <v>40.252200000000002</v>
       </c>
       <c r="L51">
-        <v>-82.054619000000002</v>
+        <v>-80.648600000000002</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="B52">
-        <v>5168266</v>
+        <v>2753681</v>
       </c>
       <c r="C52">
-        <v>36609233564.835091</v>
+        <v>2251439176.1098928</v>
       </c>
       <c r="D52">
-        <v>1120049185499.9238</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>29113272195.301208</v>
+        <v>272288177405.88687</v>
       </c>
       <c r="F52">
-        <v>7083.4654340227635</v>
+        <v>817.61074580167156</v>
       </c>
       <c r="G52">
-        <v>216716.62903958964</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>5633.0831647018958</v>
+        <v>98881.525276851913</v>
       </c>
       <c r="I52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J52">
-        <v>43811</v>
+        <v>44012</v>
       </c>
       <c r="K52">
-        <v>40.184199999999997</v>
+        <v>41.504452999999998</v>
       </c>
       <c r="L52">
-        <v>-81.881100000000004</v>
+        <v>-82.054619000000002</v>
       </c>
       <c r="M52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2866</v>
+        <v>2840</v>
       </c>
       <c r="B53">
-        <v>6246911</v>
+        <v>5168266</v>
       </c>
       <c r="C53">
-        <v>58510408574.198639</v>
+        <v>33379709261.188293</v>
       </c>
       <c r="D53">
-        <v>1966869282062.5479</v>
+        <v>1140307340411.5747</v>
       </c>
       <c r="E53">
-        <v>46642056827.175514</v>
+        <v>29048764227.942383</v>
       </c>
       <c r="F53">
-        <v>9366.2945692997127</v>
+        <v>6458.5896432552618</v>
       </c>
       <c r="G53">
-        <v>314854.69891640008</v>
+        <v>220636.34890533396</v>
       </c>
       <c r="H53">
-        <v>7466.419295420651</v>
+        <v>5620.6016153081873</v>
       </c>
       <c r="I53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J53">
-        <v>43961</v>
+        <v>43811</v>
       </c>
       <c r="K53">
-        <v>40.531700000000001</v>
+        <v>40.184199999999997</v>
       </c>
       <c r="L53">
-        <v>-80.631900000000002</v>
+        <v>-81.881100000000004</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="B54">
-        <v>3681044</v>
+        <v>6246911</v>
       </c>
       <c r="C54">
-        <v>28387900912.207039</v>
+        <v>53481672811.750923</v>
       </c>
       <c r="D54">
-        <v>896333833141.33923</v>
+        <v>1954125917666.8174</v>
       </c>
       <c r="E54">
-        <v>22246038408.458164</v>
+        <v>45637500773.97319</v>
       </c>
       <c r="F54">
-        <v>7711.9156718058894</v>
+        <v>8561.2989862911309</v>
       </c>
       <c r="G54">
-        <v>243499.89653515123</v>
+        <v>312814.75238991191</v>
       </c>
       <c r="H54">
-        <v>6043.4046451110517</v>
+        <v>7305.6108489416911</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J54">
-        <v>45620</v>
+        <v>43961</v>
       </c>
       <c r="K54">
-        <v>38.914400000000001</v>
+        <v>40.531700000000001</v>
       </c>
       <c r="L54">
-        <v>-82.128900000000002</v>
+        <v>-80.631900000000002</v>
       </c>
       <c r="M54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2952</v>
+        <v>2876</v>
       </c>
       <c r="B55">
-        <v>4626240</v>
+        <v>3681044</v>
       </c>
       <c r="C55">
-        <v>2771966549.4761934</v>
+        <v>25606087790.462238</v>
+      </c>
+      <c r="D55">
+        <v>880368682847.58569</v>
       </c>
       <c r="E55">
-        <v>295878203374.67358</v>
+        <v>21477371038.236229</v>
       </c>
       <c r="F55">
-        <v>599.18347285834579</v>
+        <v>6956.20258558774</v>
+      </c>
+      <c r="G55">
+        <v>239162.77090075146</v>
       </c>
       <c r="H55">
-        <v>63956.518333392472</v>
+        <v>5834.5868830245527</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J55">
-        <v>74434</v>
+        <v>45620</v>
       </c>
       <c r="K55">
-        <v>35.76135</v>
+        <v>38.914400000000001</v>
       </c>
       <c r="L55">
-        <v>-95.287319999999994</v>
+        <v>-82.128900000000002</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2963</v>
+        <v>2952</v>
       </c>
       <c r="B56">
-        <v>6322841</v>
+        <v>4626240</v>
       </c>
       <c r="C56">
-        <v>3620164524.04245</v>
+        <v>3735033687.06178</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>375290237827.33472</v>
+        <v>295699560555.66602</v>
       </c>
       <c r="F56">
-        <v>572.55346513417783</v>
+        <v>807.35839192557671</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>59354.685311133828</v>
+        <v>63917.903212039586</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
       </c>
       <c r="J56">
-        <v>74053</v>
+        <v>74434</v>
       </c>
       <c r="K56">
-        <v>36.431699999999999</v>
+        <v>35.76135</v>
       </c>
       <c r="L56">
-        <v>-95.700800000000001</v>
+        <v>-95.287319999999994</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3122</v>
+        <v>2963</v>
       </c>
       <c r="B57">
-        <v>9036684</v>
+        <v>6322841</v>
       </c>
       <c r="C57">
-        <v>55771661608.704681</v>
+        <v>5165661252.5178003</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2267770011779.8369</v>
+        <v>375220661831.51221</v>
       </c>
       <c r="F57">
-        <v>6171.6954591645208</v>
+        <v>816.98420892092656</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>250951.56716554839</v>
+        <v>59343.681397573055</v>
       </c>
       <c r="I57" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J57">
-        <v>15748</v>
+        <v>74053</v>
       </c>
       <c r="K57">
-        <v>40.512824999999999</v>
+        <v>36.431699999999999</v>
       </c>
       <c r="L57">
-        <v>-79.196106999999998</v>
+        <v>-95.700800000000001</v>
       </c>
       <c r="M57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3131</v>
+        <v>3122</v>
       </c>
       <c r="B58">
-        <v>916991</v>
+        <v>9036684</v>
       </c>
       <c r="C58">
-        <v>2898532213.9325032</v>
+        <v>58712561401.856606</v>
+      </c>
+      <c r="D58">
+        <v>1323074292050.7651</v>
       </c>
       <c r="E58">
-        <v>320228540884.17578</v>
+        <v>2265985121202.6055</v>
       </c>
       <c r="F58">
-        <v>3160.9167526535193</v>
+        <v>6497.1356087981621</v>
+      </c>
+      <c r="G58">
+        <v>146411.48147381996</v>
       </c>
       <c r="H58">
-        <v>349216.66721284692</v>
+        <v>250754.0510659226</v>
       </c>
       <c r="I58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J58">
-        <v>16873</v>
+        <v>15748</v>
       </c>
       <c r="K58">
-        <v>41.067549999999997</v>
+        <v>40.512824999999999</v>
       </c>
       <c r="L58">
-        <v>-78.366228000000007</v>
+        <v>-79.196106999999998</v>
       </c>
       <c r="M58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3138</v>
+        <v>3131</v>
       </c>
       <c r="B59">
-        <v>317344</v>
+        <v>916991</v>
       </c>
       <c r="C59">
-        <v>1192875390.3550186</v>
+        <v>3590105516.2213821</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>137508917419.98318</v>
+        <v>319005319617.84851</v>
       </c>
       <c r="F59">
-        <v>3758.9347533119217</v>
+        <v>3915.0935137001152</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>433311.85533674236</v>
+        <v>347882.71598941379</v>
       </c>
       <c r="I59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J59">
-        <v>16160</v>
+        <v>16873</v>
       </c>
       <c r="K59">
-        <v>40.937939</v>
+        <v>41.067549999999997</v>
       </c>
       <c r="L59">
-        <v>-80.369006999999996</v>
+        <v>-78.366228000000007</v>
       </c>
       <c r="M59" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="B60">
-        <v>4078252</v>
+        <v>317344</v>
       </c>
       <c r="C60">
-        <v>26724270795.094414</v>
+        <v>1511134110.4838147</v>
       </c>
       <c r="D60">
-        <v>837263822268.80664</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>21091581578.472908</v>
+        <v>137117187462.94308</v>
       </c>
       <c r="F60">
-        <v>6552.8738280749731</v>
+        <v>4761.8171778379765</v>
       </c>
       <c r="G60">
-        <v>205299.67796713067</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>5171.7210163748859</v>
+        <v>432077.45368730172</v>
       </c>
       <c r="I60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J60">
-        <v>17370</v>
+        <v>16160</v>
       </c>
       <c r="K60">
-        <v>40.096111000000001</v>
+        <v>40.937939</v>
       </c>
       <c r="L60">
-        <v>-76.696200000000005</v>
+        <v>-80.369006999999996</v>
       </c>
       <c r="M60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3149</v>
+        <v>3140</v>
       </c>
       <c r="B61">
-        <v>3399679</v>
+        <v>4078252</v>
       </c>
       <c r="C61">
-        <v>24529418411.868065</v>
+        <v>24365055320.784954</v>
       </c>
       <c r="D61">
-        <v>683403061878.21326</v>
+        <v>847100211941.50659</v>
       </c>
       <c r="E61">
-        <v>18987341460.882034</v>
+        <v>21050488741.448788</v>
       </c>
       <c r="F61">
-        <v>7215.2160282979848</v>
+        <v>5974.3868992855159</v>
       </c>
       <c r="G61">
-        <v>201019.87919395132</v>
+        <v>207711.5911281369</v>
       </c>
       <c r="H61">
-        <v>5585.0394878110656</v>
+        <v>5161.6449256810974</v>
       </c>
       <c r="I61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J61">
-        <v>17884</v>
+        <v>17370</v>
       </c>
       <c r="K61">
-        <v>41.071399999999997</v>
+        <v>40.096111000000001</v>
       </c>
       <c r="L61">
-        <v>-76.667199999999994</v>
+        <v>-76.696200000000005</v>
       </c>
       <c r="M61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3298</v>
+        <v>3149</v>
       </c>
       <c r="B62">
-        <v>3734928</v>
+        <v>3399679</v>
       </c>
       <c r="C62">
-        <v>28653758205.320724</v>
+        <v>20292251025.37513</v>
       </c>
       <c r="D62">
-        <v>1072125408134.7733</v>
+        <v>679822008805.09302</v>
       </c>
       <c r="E62">
-        <v>21987659009.966629</v>
+        <v>19490439012.434235</v>
       </c>
       <c r="F62">
-        <v>7671.8368346915186</v>
+        <v>5968.872656911175</v>
       </c>
       <c r="G62">
-        <v>287053.8356120314</v>
+        <v>199966.52884142677</v>
       </c>
       <c r="H62">
-        <v>5887.0369147589008</v>
+        <v>5733.023327330091</v>
       </c>
       <c r="I62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J62">
-        <v>29445</v>
+        <v>17884</v>
       </c>
       <c r="K62">
-        <v>33.015799999999999</v>
+        <v>41.071399999999997</v>
       </c>
       <c r="L62">
-        <v>-79.929699999999997</v>
+        <v>-76.667199999999994</v>
       </c>
       <c r="M62" t="s">
         <v>50</v>
@@ -2813,993 +3083,1065 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3403</v>
+        <v>3298</v>
       </c>
       <c r="B63">
-        <v>984434</v>
+        <v>3734928</v>
       </c>
       <c r="C63">
-        <v>1026839349.783991</v>
+        <v>26817855671.760487</v>
+      </c>
+      <c r="D63">
+        <v>1068785405651.7192</v>
       </c>
       <c r="E63">
-        <v>60657871941.065186</v>
+        <v>22114917591.002617</v>
       </c>
       <c r="F63">
-        <v>1043.0758687570635</v>
+        <v>7180.287189407798</v>
+      </c>
+      <c r="G63">
+        <v>286159.57406721613</v>
       </c>
       <c r="H63">
-        <v>61617.002197267859</v>
+        <v>5921.1094808260341</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J63">
-        <v>37066</v>
+        <v>29445</v>
       </c>
       <c r="K63">
-        <v>36.315600000000003</v>
+        <v>33.015799999999999</v>
       </c>
       <c r="L63">
-        <v>-86.400599999999997</v>
+        <v>-79.929699999999997</v>
       </c>
       <c r="M63" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3775</v>
+        <v>3403</v>
       </c>
       <c r="B64">
-        <v>393144</v>
+        <v>2911161</v>
       </c>
       <c r="C64">
-        <v>366008507.15236312</v>
+        <v>1993297080.3578229</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>55479176667.010773</v>
+        <v>174286287386.02582</v>
       </c>
       <c r="F64">
-        <v>930.97823482582237</v>
+        <v>684.70863698635117</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>141116.68158997918</v>
+        <v>59868.309374172648</v>
       </c>
       <c r="I64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J64">
-        <v>24225</v>
+        <v>37066</v>
       </c>
       <c r="K64">
-        <v>36.933300000000003</v>
+        <v>36.315600000000003</v>
       </c>
       <c r="L64">
-        <v>-82.199700000000007</v>
+        <v>-86.400599999999997</v>
       </c>
       <c r="M64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3797</v>
+        <v>3775</v>
       </c>
       <c r="B65">
-        <v>2485399</v>
+        <v>393144</v>
       </c>
       <c r="C65">
-        <v>22049960405.472717</v>
+        <v>470375878.72946453</v>
       </c>
       <c r="D65">
-        <v>720328661149.71985</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>17762459166.616573</v>
+        <v>55438880085.397606</v>
       </c>
       <c r="F65">
-        <v>8871.7990171689598</v>
+        <v>1196.4467948880424</v>
       </c>
       <c r="G65">
-        <v>289824.15344567201</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>7146.723389933195</v>
+        <v>141014.18331552207</v>
       </c>
       <c r="I65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J65">
-        <v>23831</v>
+        <v>24225</v>
       </c>
       <c r="K65">
-        <v>37.382199999999997</v>
+        <v>36.933300000000003</v>
       </c>
       <c r="L65">
-        <v>-77.383300000000006</v>
+        <v>-82.199700000000007</v>
       </c>
       <c r="M65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="B66">
-        <v>261201</v>
+        <v>2485399</v>
       </c>
       <c r="C66">
-        <v>1097655060.2395473</v>
+        <v>19975650586.985847</v>
+      </c>
+      <c r="D66">
+        <v>720015244648.6167</v>
       </c>
       <c r="E66">
-        <v>132578022024.2254</v>
+        <v>17534506728.484329</v>
       </c>
       <c r="F66">
-        <v>4202.3386596511773</v>
+        <v>8037.2007017729729</v>
+      </c>
+      <c r="G66">
+        <v>289698.05035272671</v>
       </c>
       <c r="H66">
-        <v>507570.88228691852</v>
+        <v>7055.0067528329764</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J66">
-        <v>23690</v>
+        <v>23831</v>
       </c>
       <c r="K66">
-        <v>37.214399999999998</v>
+        <v>37.382199999999997</v>
       </c>
       <c r="L66">
-        <v>-76.461100000000002</v>
+        <v>-77.383300000000006</v>
       </c>
       <c r="M66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3935</v>
+        <v>3809</v>
       </c>
       <c r="B67">
-        <v>14072154</v>
+        <v>261201</v>
       </c>
       <c r="C67">
-        <v>149826699458.16824</v>
+        <v>1265347299.127538</v>
       </c>
       <c r="D67">
-        <v>4839434048473.0254</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>118102102868.87552</v>
+        <v>132375271507.24126</v>
       </c>
       <c r="F67">
-        <v>10647.033812888079</v>
+        <v>4844.3432419000619</v>
       </c>
       <c r="G67">
-        <v>343901.44170345389</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>8392.6101767274231</v>
+        <v>506794.6581645601</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J67">
-        <v>25213</v>
+        <v>23690</v>
       </c>
       <c r="K67">
-        <v>38.473100000000002</v>
+        <v>37.214399999999998</v>
       </c>
       <c r="L67">
-        <v>-81.823300000000003</v>
+        <v>-76.461100000000002</v>
       </c>
       <c r="M67" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="B68">
-        <v>543145</v>
+        <v>14072154</v>
       </c>
       <c r="C68">
-        <v>1123723710.2053375</v>
+        <v>136192719398.68942</v>
+      </c>
+      <c r="D68">
+        <v>4828452197227.3164</v>
       </c>
       <c r="E68">
-        <v>159856273254.93292</v>
+        <v>117808974848.99031</v>
       </c>
       <c r="F68">
-        <v>2068.920288698851</v>
+        <v>9678.1714724476042</v>
+      </c>
+      <c r="G68">
+        <v>343121.04580630059</v>
       </c>
       <c r="H68">
-        <v>294316.01737092843</v>
+        <v>8371.7798177159166</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J68">
-        <v>25086</v>
+        <v>25213</v>
       </c>
       <c r="K68">
-        <v>38.205599999999997</v>
+        <v>38.473100000000002</v>
       </c>
       <c r="L68">
-        <v>-81.421099999999996</v>
+        <v>-81.823300000000003</v>
       </c>
       <c r="M68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3943</v>
+        <v>3936</v>
       </c>
       <c r="B69">
-        <v>7296430</v>
+        <v>543145</v>
       </c>
       <c r="C69">
-        <v>44731858246.069168</v>
+        <v>1411624254.4659522</v>
       </c>
       <c r="D69">
-        <v>1476883652447.2495</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>35412342673.174454</v>
+        <v>159956855343.74707</v>
       </c>
       <c r="F69">
-        <v>6130.6499543021964</v>
+        <v>2598.9823241785384</v>
       </c>
       <c r="G69">
-        <v>202411.81679907156</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>4853.3793475952571</v>
+        <v>294501.20196954231</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J69">
-        <v>26541</v>
+        <v>25086</v>
       </c>
       <c r="K69">
-        <v>39.710833000000001</v>
+        <v>38.205599999999997</v>
       </c>
       <c r="L69">
-        <v>-79.927499999999995</v>
+        <v>-81.421099999999996</v>
       </c>
       <c r="M69" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="B70">
-        <v>11269955</v>
+        <v>7296430</v>
       </c>
       <c r="C70">
-        <v>110566634026.75587</v>
+        <v>40670312554.829124</v>
       </c>
       <c r="D70">
-        <v>3194250558329.6973</v>
+        <v>1486637844878.4604</v>
       </c>
       <c r="E70">
-        <v>89119438581.955658</v>
+        <v>35458772887.77652</v>
       </c>
       <c r="F70">
-        <v>9810.7431686067848</v>
+        <v>5574.0016082973625</v>
       </c>
       <c r="G70">
-        <v>283430.6399918808</v>
+        <v>203748.66131498013</v>
       </c>
       <c r="H70">
-        <v>7907.7013689899968</v>
+        <v>4859.742762937014</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J70">
-        <v>26366</v>
+        <v>26541</v>
       </c>
       <c r="K70">
-        <v>39.384166999999998</v>
+        <v>39.710833000000001</v>
       </c>
       <c r="L70">
-        <v>-80.332499999999996</v>
+        <v>-79.927499999999995</v>
       </c>
       <c r="M70" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3948</v>
+        <v>3944</v>
       </c>
       <c r="B71">
-        <v>5367819</v>
+        <v>11269955</v>
       </c>
       <c r="C71">
-        <v>60931189109.016342</v>
+        <v>98363610649.844421</v>
       </c>
       <c r="D71">
-        <v>2002874500243.1213</v>
+        <v>3140558883263.3506</v>
       </c>
       <c r="E71">
-        <v>48787177837.193008</v>
+        <v>88527093865.728851</v>
       </c>
       <c r="F71">
-        <v>11351.200386789558</v>
+        <v>8727.9506129212077</v>
       </c>
       <c r="G71">
-        <v>373126.31074988213</v>
+        <v>278666.49718329404</v>
       </c>
       <c r="H71">
-        <v>9088.8269215472828</v>
+        <v>7855.1417344371694</v>
       </c>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J71">
-        <v>26041</v>
+        <v>26366</v>
       </c>
       <c r="K71">
-        <v>39.829700000000003</v>
+        <v>39.384166999999998</v>
       </c>
       <c r="L71">
-        <v>-80.815299999999993</v>
+        <v>-80.332499999999996</v>
       </c>
       <c r="M71" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3954</v>
+        <v>3948</v>
       </c>
       <c r="B72">
-        <v>9846148</v>
+        <v>5367819</v>
       </c>
       <c r="C72">
-        <v>83867823124.070312</v>
+        <v>55749662494.973511</v>
       </c>
       <c r="D72">
-        <v>2694189858325.8589</v>
+        <v>2001130060149.9893</v>
       </c>
       <c r="E72">
-        <v>67294354068.430069</v>
+        <v>48032750950.0233</v>
       </c>
       <c r="F72">
-        <v>8517.8308435004546</v>
+        <v>10385.905801774148</v>
       </c>
       <c r="G72">
-        <v>273628.81995333184</v>
+        <v>372801.32958096929</v>
       </c>
       <c r="H72">
-        <v>6834.5868931108962</v>
+        <v>8948.2806611071064</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J72">
-        <v>26739</v>
+        <v>26041</v>
       </c>
       <c r="K72">
-        <v>39.200800000000001</v>
+        <v>39.829700000000003</v>
       </c>
       <c r="L72">
-        <v>-79.263599999999997</v>
+        <v>-80.815299999999993</v>
       </c>
       <c r="M72" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4041</v>
+        <v>3954</v>
       </c>
       <c r="B73">
-        <v>5178344</v>
+        <v>9846148</v>
       </c>
       <c r="C73">
-        <v>9352695307.5011845</v>
+        <v>77513641187.670425</v>
       </c>
       <c r="D73">
-        <v>289170509931.71411</v>
+        <v>2711549527665.3955</v>
       </c>
       <c r="E73">
-        <v>7478451558.16712</v>
+        <v>66831426232.856064</v>
       </c>
       <c r="F73">
-        <v>1806.1170342297044</v>
+        <v>7872.4838574100677</v>
       </c>
       <c r="G73">
-        <v>55842.27504617579</v>
+        <v>275391.91241746477</v>
       </c>
       <c r="H73">
-        <v>1444.1782079690186</v>
+        <v>6787.57075689458</v>
       </c>
       <c r="I73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J73">
-        <v>53154</v>
+        <v>26739</v>
       </c>
       <c r="K73">
-        <v>42.845700000000001</v>
+        <v>39.200800000000001</v>
       </c>
       <c r="L73">
-        <v>-87.829400000000007</v>
+        <v>-79.263599999999997</v>
       </c>
       <c r="M73" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>4050</v>
+        <v>4041</v>
       </c>
       <c r="B74">
-        <v>3896653</v>
+        <v>5178344</v>
       </c>
       <c r="C74">
-        <v>2608580049.6616797</v>
+        <v>8521777423.5870142</v>
+      </c>
+      <c r="D74">
+        <v>290587756351.96472</v>
       </c>
       <c r="E74">
-        <v>234849364000.13068</v>
+        <v>7420519482.4660721</v>
       </c>
       <c r="F74">
-        <v>669.44119726895872</v>
+        <v>1645.6568786444109</v>
+      </c>
+      <c r="G74">
+        <v>56115.962236569198</v>
       </c>
       <c r="H74">
-        <v>60269.509242965869</v>
+        <v>1432.990833066724</v>
       </c>
       <c r="I74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J74">
-        <v>53081</v>
+        <v>53154</v>
       </c>
       <c r="K74">
-        <v>43.715142</v>
+        <v>42.845700000000001</v>
       </c>
       <c r="L74">
-        <v>-87.705862999999994</v>
+        <v>-87.829400000000007</v>
       </c>
       <c r="M74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>4078</v>
+        <v>4050</v>
       </c>
       <c r="B75">
-        <v>12685</v>
+        <v>3896653</v>
       </c>
       <c r="C75">
-        <v>12884907.176741716</v>
+        <v>2665061399.1729584</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>754631838.71356034</v>
+        <v>234027584707.29425</v>
       </c>
       <c r="F75">
-        <v>1015.7593359670253</v>
+        <v>683.93603412286348</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>59490.093710174246</v>
+        <v>60058.615613782968</v>
       </c>
       <c r="I75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J75">
-        <v>54474</v>
+        <v>53081</v>
       </c>
       <c r="K75">
-        <v>44.860599999999998</v>
+        <v>43.715142</v>
       </c>
       <c r="L75">
-        <v>-89.655299999999997</v>
+        <v>-87.705862999999994</v>
       </c>
       <c r="M75" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4158</v>
+        <v>4072</v>
       </c>
       <c r="B76">
-        <v>1522254</v>
+        <v>419820</v>
       </c>
       <c r="C76">
-        <v>1058835724.3632299</v>
+        <v>311339158.82438254</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>111576265752.67859</v>
+        <v>26779201660.390228</v>
       </c>
       <c r="F76">
-        <v>695.5709916763102</v>
+        <v>741.60154071836155</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>73296.746635370044</v>
+        <v>63787.341385332351</v>
       </c>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J76">
-        <v>82637</v>
+        <v>54303</v>
       </c>
       <c r="K76">
-        <v>42.837800000000001</v>
+        <v>44.54</v>
       </c>
       <c r="L76">
-        <v>-105.7769</v>
+        <v>-88.008600000000001</v>
       </c>
       <c r="M76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>4162</v>
+        <v>4078</v>
       </c>
       <c r="B77">
-        <v>4899321</v>
+        <v>12685</v>
       </c>
       <c r="C77">
-        <v>6150053020.2900696</v>
+        <v>12884907.176741716</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>156986570031.30038</v>
+        <v>754631838.71356034</v>
       </c>
       <c r="F77">
-        <v>1255.2868081699626</v>
+        <v>1015.7593359670253</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>32042.515693766622</v>
+        <v>59490.093710174246</v>
       </c>
       <c r="I77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J77">
-        <v>83101</v>
+        <v>54474</v>
       </c>
       <c r="K77">
-        <v>41.758099999999999</v>
+        <v>44.860599999999998</v>
       </c>
       <c r="L77">
-        <v>-110.59829999999999</v>
+        <v>-89.655299999999997</v>
       </c>
       <c r="M77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>4259</v>
+        <v>4158</v>
       </c>
       <c r="B78">
-        <v>214384</v>
+        <v>1522254</v>
       </c>
       <c r="C78">
-        <v>1900884201.0755587</v>
+        <v>1547117180.0786848</v>
       </c>
       <c r="D78">
-        <v>73039764091.128006</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1485761043.2832067</v>
+        <v>111576265752.67859</v>
       </c>
       <c r="F78">
-        <v>8866.7260666633647</v>
+        <v>1016.333134995004</v>
       </c>
       <c r="G78">
-        <v>340695.96654194343</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>6930.3728043287128</v>
+        <v>73296.746635370044</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J78">
-        <v>49252</v>
+        <v>82637</v>
       </c>
       <c r="K78">
-        <v>42.031700000000001</v>
+        <v>42.837800000000001</v>
       </c>
       <c r="L78">
-        <v>-84.754999999999995</v>
+        <v>-105.7769</v>
       </c>
       <c r="M78" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6002</v>
+        <v>4162</v>
       </c>
       <c r="B79">
-        <v>17815891</v>
+        <v>4899321</v>
       </c>
       <c r="C79">
-        <v>31406404117.697273</v>
+        <v>6072570526.8782845</v>
       </c>
       <c r="D79">
-        <v>980120884857.84668</v>
+        <v>107823125766.49626</v>
       </c>
       <c r="E79">
-        <v>25098389951.612103</v>
+        <v>157143134303.28357</v>
       </c>
       <c r="F79">
-        <v>1762.8309534278849</v>
+        <v>1239.4718629128984</v>
       </c>
       <c r="G79">
-        <v>55013.857283806166</v>
+        <v>22007.769192199543</v>
       </c>
       <c r="H79">
-        <v>1408.7642291711429</v>
+        <v>32074.47201424107</v>
       </c>
       <c r="I79" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J79">
-        <v>35073</v>
+        <v>83101</v>
       </c>
       <c r="K79">
-        <v>33.631900000000002</v>
+        <v>41.758099999999999</v>
       </c>
       <c r="L79">
-        <v>-87.059700000000007</v>
+        <v>-110.59829999999999</v>
       </c>
       <c r="M79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6004</v>
+        <v>4259</v>
       </c>
       <c r="B80">
-        <v>7047532</v>
+        <v>214384</v>
       </c>
       <c r="C80">
-        <v>51079020810.324905</v>
+        <v>1829284359.3303986</v>
       </c>
       <c r="D80">
-        <v>1904114383191.1914</v>
+        <v>72896440552.286163</v>
       </c>
       <c r="E80">
-        <v>40319819510.038742</v>
+        <v>1513511963.1726317</v>
       </c>
       <c r="F80">
-        <v>7247.7884187435975</v>
+        <v>8532.7466570751476</v>
       </c>
       <c r="G80">
-        <v>270181.72931902844</v>
+        <v>340027.42999611056</v>
       </c>
       <c r="H80">
-        <v>5721.1261346580259</v>
+        <v>7059.8177250757144</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J80">
-        <v>26134</v>
+        <v>49252</v>
       </c>
       <c r="K80">
-        <v>39.366667</v>
+        <v>42.031700000000001</v>
       </c>
       <c r="L80">
-        <v>-81.294443999999999</v>
+        <v>-84.754999999999995</v>
       </c>
       <c r="M80" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6009</v>
+        <v>6002</v>
       </c>
       <c r="B81">
-        <v>6223129</v>
+        <v>17815891</v>
       </c>
       <c r="C81">
-        <v>3568328623.9974074</v>
+        <v>28980304207.532906</v>
+      </c>
+      <c r="D81">
+        <v>984539916290.64038</v>
       </c>
       <c r="E81">
-        <v>370874832203.58624</v>
+        <v>25071493265.355396</v>
       </c>
       <c r="F81">
-        <v>573.39782350605412</v>
+        <v>1626.6547773295708</v>
+      </c>
+      <c r="G81">
+        <v>55261.896039363986</v>
       </c>
       <c r="H81">
-        <v>59596.1986652673</v>
+        <v>1407.2545271721406</v>
       </c>
       <c r="I81" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J81">
-        <v>72132</v>
+        <v>35073</v>
       </c>
       <c r="K81">
-        <v>34.422800000000002</v>
+        <v>33.631900000000002</v>
       </c>
       <c r="L81">
-        <v>-92.140600000000006</v>
+        <v>-87.059700000000007</v>
       </c>
       <c r="M81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6016</v>
+        <v>6004</v>
       </c>
       <c r="B82">
-        <v>2129192</v>
+        <v>7047532</v>
       </c>
       <c r="C82">
-        <v>5406093345.217083</v>
+        <v>49735602316.408951</v>
       </c>
       <c r="D82">
-        <v>118550922029.39088</v>
+        <v>1935441366806.7256</v>
       </c>
       <c r="E82">
-        <v>2339984688.425199</v>
+        <v>40434841197.192215</v>
       </c>
       <c r="F82">
-        <v>2539.0351575701407</v>
+        <v>7057.1658725932648</v>
       </c>
       <c r="G82">
-        <v>55678.83123240689</v>
+        <v>274626.82919449324</v>
       </c>
       <c r="H82">
-        <v>1099.0012588931384</v>
+        <v>5737.4469810413375</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J82">
-        <v>61520</v>
+        <v>26134</v>
       </c>
       <c r="K82">
-        <v>40.466299999999997</v>
+        <v>39.366667</v>
       </c>
       <c r="L82">
-        <v>-89.984099999999998</v>
+        <v>-81.294443999999999</v>
       </c>
       <c r="M82" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>6017</v>
+        <v>6009</v>
       </c>
       <c r="B83">
-        <v>4998069</v>
+        <v>6223129</v>
       </c>
       <c r="C83">
-        <v>2999441699.1032872</v>
+        <v>5121288539.7846575</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>303996674449.71057</v>
+        <v>370825340185.49884</v>
       </c>
       <c r="F83">
-        <v>600.12010620567412</v>
+        <v>822.94430017193235</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>60822.824664827669</v>
+        <v>59588.24574992722</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J83">
-        <v>62448</v>
+        <v>72132</v>
       </c>
       <c r="K83">
-        <v>38.936100000000003</v>
+        <v>34.422800000000002</v>
       </c>
       <c r="L83">
-        <v>-88.278099999999995</v>
+        <v>-92.140600000000006</v>
       </c>
       <c r="M83" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6030</v>
+        <v>6016</v>
       </c>
       <c r="B84">
-        <v>8834166</v>
+        <v>2129192</v>
       </c>
       <c r="C84">
-        <v>20760130121.000149</v>
+        <v>3373309453.5334115</v>
       </c>
       <c r="D84">
-        <v>649792048428.54175</v>
+        <v>118550922029.39088</v>
       </c>
       <c r="E84">
-        <v>16605668405.708019</v>
+        <v>4327946165.3380585</v>
       </c>
       <c r="F84">
-        <v>2349.9818908768693</v>
+        <v>1584.3143565885141</v>
       </c>
       <c r="G84">
-        <v>73554.430427110128</v>
+        <v>55678.83123240689</v>
       </c>
       <c r="H84">
-        <v>1879.7098000771118</v>
+        <v>2032.6706869733018</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J84">
-        <v>58576</v>
+        <v>61520</v>
       </c>
       <c r="K84">
-        <v>47.377743000000002</v>
+        <v>40.466299999999997</v>
       </c>
       <c r="L84">
-        <v>-101.15705800000001</v>
+        <v>-89.984099999999998</v>
       </c>
       <c r="M84" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6055</v>
+        <v>6017</v>
       </c>
       <c r="B85">
-        <v>2508390</v>
+        <v>4998069</v>
       </c>
       <c r="C85">
-        <v>269303500.86884993</v>
+        <v>4065457795.9009161</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>165783084264.55545</v>
+        <v>303800681220.47473</v>
       </c>
       <c r="F85">
-        <v>107.36109650766026</v>
+        <v>813.40569646015615</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>66091.430863843125</v>
+        <v>60783.610874614722</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J85">
-        <v>70760</v>
+        <v>62448</v>
       </c>
       <c r="K85">
-        <v>30.726099999999999</v>
+        <v>38.936100000000003</v>
       </c>
       <c r="L85">
-        <v>-91.369200000000006</v>
+        <v>-88.278099999999995</v>
       </c>
       <c r="M85" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6064</v>
+        <v>6030</v>
       </c>
       <c r="B86">
-        <v>1204962</v>
+        <v>8834166</v>
       </c>
       <c r="C86">
-        <v>1411899887.165601</v>
+        <v>20628536490.40126</v>
+      </c>
+      <c r="D86">
+        <v>650931000444.48352</v>
       </c>
       <c r="E86">
-        <v>83404324705.039307</v>
+        <v>16510998807.009993</v>
       </c>
       <c r="F86">
-        <v>1171.7381022518562</v>
+        <v>2335.0859028912587</v>
+      </c>
+      <c r="G86">
+        <v>73683.356238096894</v>
       </c>
       <c r="H86">
-        <v>69217.390013161668</v>
+        <v>1868.9934971801517</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J86">
-        <v>66104</v>
+        <v>58576</v>
       </c>
       <c r="K86">
-        <v>39.168100000000003</v>
+        <v>47.377743000000002</v>
       </c>
       <c r="L86">
-        <v>-94.697500000000005</v>
+        <v>-101.15705800000001</v>
       </c>
       <c r="M86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6068</v>
+        <v>6055</v>
       </c>
       <c r="B87">
-        <v>11346108</v>
+        <v>5464804</v>
       </c>
       <c r="C87">
-        <v>26038019057.53315</v>
+        <v>4726782667.9293642</v>
       </c>
       <c r="D87">
-        <v>714332420522.91406</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>21087222140.001366</v>
+        <v>360342899542.32654</v>
       </c>
       <c r="F87">
-        <v>2294.8855288115669</v>
+        <v>864.95008200282462</v>
       </c>
       <c r="G87">
-        <v>62958.366033790095</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>1858.5423424491787</v>
+        <v>65938.851520077675</v>
       </c>
       <c r="I87" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J87">
-        <v>66536</v>
+        <v>70760</v>
       </c>
       <c r="K87">
-        <v>39.286453000000002</v>
+        <v>30.726099999999999</v>
       </c>
       <c r="L87">
-        <v>-96.117231000000004</v>
+        <v>-91.369200000000006</v>
       </c>
       <c r="M87" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6082</v>
+        <v>6064</v>
       </c>
       <c r="B88">
-        <v>614883</v>
+        <v>1204962</v>
       </c>
       <c r="C88">
-        <v>1509174460.5628879</v>
+        <v>1411899887.165601</v>
       </c>
       <c r="D88">
-        <v>49448111451.145943</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>1229572803.9968851</v>
+        <v>83404324705.039307</v>
       </c>
       <c r="F88">
-        <v>2454.409148672004</v>
+        <v>1171.7381022518562</v>
       </c>
       <c r="G88">
-        <v>80418.732427382027</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1999.6858003829755</v>
+        <v>69217.390013161668</v>
       </c>
       <c r="I88" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J88">
-        <v>14012</v>
+        <v>66104</v>
       </c>
       <c r="K88">
-        <v>43.358888999999998</v>
+        <v>39.168100000000003</v>
       </c>
       <c r="L88">
-        <v>-78.604721999999995</v>
+        <v>-94.697500000000005</v>
       </c>
       <c r="M88" t="s">
         <v>49</v>
@@ -3807,303 +4149,327 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6094</v>
+        <v>6068</v>
       </c>
       <c r="B89">
-        <v>4906656</v>
+        <v>11346108</v>
       </c>
       <c r="C89">
-        <v>41889355968.112099</v>
+        <v>20948315154.170876</v>
       </c>
       <c r="D89">
-        <v>1567137243342.864</v>
+        <v>716876731580.5918</v>
       </c>
       <c r="E89">
-        <v>32064094617.038837</v>
+        <v>20664392944.609016</v>
       </c>
       <c r="F89">
-        <v>8537.2514331781349</v>
+        <v>1846.2996433817548</v>
       </c>
       <c r="G89">
-        <v>319390.07815972099</v>
+        <v>63182.611304298516</v>
       </c>
       <c r="H89">
-        <v>6534.8160981814981</v>
+        <v>1821.2758899006617</v>
       </c>
       <c r="I89" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J89">
-        <v>15077</v>
+        <v>66536</v>
       </c>
       <c r="K89">
-        <v>40.634799999999998</v>
+        <v>39.286453000000002</v>
       </c>
       <c r="L89">
-        <v>-80.415899999999993</v>
+        <v>-96.117231000000004</v>
       </c>
       <c r="M89" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6095</v>
+        <v>6076</v>
       </c>
       <c r="B90">
-        <v>5621453</v>
+        <v>14844275</v>
       </c>
       <c r="C90">
-        <v>3313822439.0437398</v>
+        <v>15107696923.368599</v>
+      </c>
+      <c r="D90">
+        <v>893647251047.47559</v>
       </c>
       <c r="E90">
-        <v>341266018526.42603</v>
+        <v>22671249574.226521</v>
       </c>
       <c r="F90">
-        <v>589.49571205945153</v>
+        <v>1017.7456914109041</v>
+      </c>
+      <c r="G90">
+        <v>60201.475049975532</v>
       </c>
       <c r="H90">
-        <v>60707.795391409665</v>
+        <v>1527.2722698970829</v>
       </c>
       <c r="I90" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J90">
-        <v>73061</v>
+        <v>59323</v>
       </c>
       <c r="K90">
-        <v>36.453069999999997</v>
+        <v>45.883099999999999</v>
       </c>
       <c r="L90">
-        <v>-97.052790000000002</v>
+        <v>-106.614</v>
       </c>
       <c r="M90" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6096</v>
+        <v>6082</v>
       </c>
       <c r="B91">
-        <v>4776449</v>
+        <v>614883</v>
       </c>
       <c r="C91">
-        <v>462622270.67736745</v>
+        <v>1419223664.900198</v>
+      </c>
+      <c r="D91">
+        <v>44562861051.92942</v>
       </c>
       <c r="E91">
-        <v>284790010656.84698</v>
+        <v>1156287007.7321703</v>
       </c>
       <c r="F91">
-        <v>96.854854030131477</v>
+        <v>2308.1198616650613</v>
+      </c>
+      <c r="G91">
+        <v>72473.724353949321</v>
       </c>
       <c r="H91">
-        <v>59623.793880526515</v>
+        <v>1880.4992294992223</v>
       </c>
       <c r="I91" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J91">
-        <v>68410</v>
+        <v>14012</v>
       </c>
       <c r="K91">
-        <v>40.621400000000001</v>
+        <v>43.358888999999998</v>
       </c>
       <c r="L91">
-        <v>-95.776399999999995</v>
+        <v>-78.604721999999995</v>
       </c>
       <c r="M91" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6106</v>
+        <v>6089</v>
       </c>
       <c r="B92">
-        <v>2383346</v>
+        <v>222191</v>
       </c>
       <c r="C92">
-        <v>226811921.16728249</v>
+        <v>361608398.46719337</v>
+      </c>
+      <c r="D92">
+        <v>21389782498.617523</v>
       </c>
       <c r="E92">
-        <v>139625291605.07703</v>
+        <v>797334895.49307013</v>
       </c>
       <c r="F92">
-        <v>95.165335275399585</v>
+        <v>1627.4664521388956</v>
+      </c>
+      <c r="G92">
+        <v>96267.546834109045</v>
       </c>
       <c r="H92">
-        <v>58583.727081622652</v>
+        <v>3588.5112155445995</v>
       </c>
       <c r="I92" t="s">
         <v>35</v>
       </c>
       <c r="J92">
-        <v>97818</v>
+        <v>59270</v>
       </c>
       <c r="K92">
-        <v>45.693182</v>
+        <v>47.6785</v>
       </c>
       <c r="L92">
-        <v>-119.808819</v>
+        <v>-104.15665</v>
       </c>
       <c r="M92" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6136</v>
+        <v>6090</v>
       </c>
       <c r="B93">
-        <v>2184313</v>
+        <v>7152189</v>
       </c>
       <c r="C93">
-        <v>3528215629.5931377</v>
+        <v>7183587300.3556538</v>
       </c>
       <c r="D93">
-        <v>135041341390.02133</v>
+        <v>424922016650.50299</v>
       </c>
       <c r="E93">
-        <v>5017185391.4918852</v>
+        <v>11251846954.261683</v>
       </c>
       <c r="F93">
-        <v>1615.2518570338307</v>
+        <v>1004.3900266555671</v>
       </c>
       <c r="G93">
-        <v>61823.255820031896</v>
+        <v>59411.463630295984</v>
       </c>
       <c r="H93">
-        <v>2296.9168756912977</v>
+        <v>1573.203246483235</v>
       </c>
       <c r="I93" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J93">
-        <v>77830</v>
+        <v>55308</v>
       </c>
       <c r="K93">
-        <v>30.619937</v>
+        <v>45.380800000000001</v>
       </c>
       <c r="L93">
-        <v>-96.081845999999999</v>
+        <v>-93.893100000000004</v>
       </c>
       <c r="M93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6146</v>
+        <v>6094</v>
       </c>
       <c r="B94">
-        <v>9975515</v>
+        <v>13610817</v>
       </c>
       <c r="C94">
-        <v>26773572436.82621</v>
+        <v>90694459160.979431</v>
       </c>
       <c r="D94">
-        <v>780047351327.46301</v>
+        <v>4336119523571.6851</v>
       </c>
       <c r="E94">
-        <v>21475621725.607159</v>
+        <v>101619780493.99509</v>
       </c>
       <c r="F94">
-        <v>2683.9288434558225</v>
+        <v>6663.4103713964732</v>
       </c>
       <c r="G94">
-        <v>78196.198524834355</v>
+        <v>318578.93053530034</v>
       </c>
       <c r="H94">
-        <v>2152.8333851041434</v>
+        <v>7466.1043855041971</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J94">
-        <v>75691</v>
+        <v>15077</v>
       </c>
       <c r="K94">
-        <v>32.260599999999997</v>
+        <v>40.634799999999998</v>
       </c>
       <c r="L94">
-        <v>-94.570599999999999</v>
+        <v>-80.415899999999993</v>
       </c>
       <c r="M94" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6147</v>
+        <v>6095</v>
       </c>
       <c r="B95">
-        <v>2161126</v>
+        <v>5621453</v>
       </c>
       <c r="C95">
-        <v>4494918841.1657076</v>
+        <v>4547522606.92943</v>
       </c>
       <c r="D95">
-        <v>178456496888.45743</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>6605477898.3614006</v>
+        <v>341026791735.21704</v>
       </c>
       <c r="F95">
-        <v>2079.8967025364127</v>
+        <v>808.95857475450384</v>
       </c>
       <c r="G95">
-        <v>82575.702151775244</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>3056.4982783796045</v>
+        <v>60665.239349189083</v>
       </c>
       <c r="I95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J95">
-        <v>75455</v>
+        <v>73061</v>
       </c>
       <c r="K95">
-        <v>33.091700000000003</v>
+        <v>36.453069999999997</v>
       </c>
       <c r="L95">
-        <v>-95.041700000000006</v>
+        <v>-97.052790000000002</v>
       </c>
       <c r="M95" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6155</v>
+        <v>6096</v>
       </c>
       <c r="B96">
-        <v>7465222</v>
+        <v>4776449</v>
       </c>
       <c r="C96">
-        <v>4049948298.8626785</v>
+        <v>4956201929.7189341</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>432639874512.61761</v>
+        <v>284790010656.84698</v>
       </c>
       <c r="F96">
-        <v>542.50875578283922</v>
+        <v>1037.6331726181802</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>57954.053410952496</v>
+        <v>59623.793880526515</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J96">
-        <v>63028</v>
+        <v>68410</v>
       </c>
       <c r="K96">
-        <v>38.131247999999999</v>
+        <v>40.621400000000001</v>
       </c>
       <c r="L96">
-        <v>-90.263157000000007</v>
+        <v>-95.776399999999995</v>
       </c>
       <c r="M96" t="s">
         <v>44</v>
@@ -4111,590 +4477,614 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6170</v>
+        <v>6106</v>
       </c>
       <c r="B97">
-        <v>6659324</v>
+        <v>2383346</v>
       </c>
       <c r="C97">
-        <v>13462748042.274994</v>
+        <v>2363629633.8331404</v>
       </c>
       <c r="D97">
-        <v>417183008207.9751</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>10763374130.380142</v>
+        <v>139625291605.07703</v>
       </c>
       <c r="F97">
-        <v>2021.6388393589191</v>
+        <v>991.72744277714628</v>
       </c>
       <c r="G97">
-        <v>62646.450031260698</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1616.2862972848509</v>
+        <v>58583.727081622652</v>
       </c>
       <c r="I97" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J97">
-        <v>53158</v>
+        <v>97818</v>
       </c>
       <c r="K97">
-        <v>42.5381</v>
+        <v>45.693182</v>
       </c>
       <c r="L97">
-        <v>-87.903300000000002</v>
+        <v>-119.808819</v>
       </c>
       <c r="M97" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6179</v>
+        <v>6124</v>
       </c>
       <c r="B98">
-        <v>8727176</v>
+        <v>93260</v>
       </c>
       <c r="C98">
-        <v>18256960222.344135</v>
+        <v>10020346.390529998</v>
       </c>
       <c r="D98">
-        <v>525130889832.26202</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>14660405652.603962</v>
+        <v>9279373471.3691063</v>
       </c>
       <c r="F98">
-        <v>2091.9665447728034</v>
+        <v>107.44527547212093</v>
       </c>
       <c r="G98">
-        <v>60171.914698667933</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1679.856766106695</v>
+        <v>99500.037222486659</v>
       </c>
       <c r="I98" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J98">
-        <v>78945</v>
+        <v>31326</v>
       </c>
       <c r="K98">
-        <v>29.917200000000001</v>
+        <v>32.356287000000002</v>
       </c>
       <c r="L98">
-        <v>-96.750600000000006</v>
+        <v>-81.168346999999997</v>
       </c>
       <c r="M98" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6183</v>
+        <v>6136</v>
       </c>
       <c r="B99">
-        <v>2169628</v>
+        <v>2184313</v>
       </c>
       <c r="C99">
-        <v>5502238702.0569267</v>
+        <v>4591553309.6355963</v>
       </c>
       <c r="D99">
-        <v>256874521745.20575</v>
+        <v>135041341390.02133</v>
       </c>
       <c r="E99">
-        <v>9500913028.9862633</v>
+        <v>2743619828.3052931</v>
       </c>
       <c r="F99">
-        <v>2536.028619679008</v>
+        <v>2102.0583174827034</v>
       </c>
       <c r="G99">
-        <v>118395.65204044461</v>
+        <v>61823.255820031896</v>
       </c>
       <c r="H99">
-        <v>4379.0516295817824</v>
+        <v>1256.0561734079745</v>
       </c>
       <c r="I99" t="s">
         <v>11</v>
       </c>
       <c r="J99">
-        <v>78012</v>
+        <v>77830</v>
       </c>
       <c r="K99">
-        <v>28.7044</v>
+        <v>30.619937</v>
       </c>
       <c r="L99">
-        <v>-98.477500000000006</v>
+        <v>-96.081845999999999</v>
       </c>
       <c r="M99" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6193</v>
+        <v>6146</v>
       </c>
       <c r="B100">
-        <v>2006853</v>
+        <v>9975515</v>
       </c>
       <c r="C100">
-        <v>2024137062.7719047</v>
+        <v>23358605423.577797</v>
+      </c>
+      <c r="D100">
+        <v>787302115995.57605</v>
       </c>
       <c r="E100">
-        <v>119570648291.39082</v>
+        <v>21254852221.636917</v>
       </c>
       <c r="F100">
-        <v>1008.6125205841707</v>
+        <v>2341.5939351078914</v>
+      </c>
+      <c r="G100">
+        <v>78923.455680792031</v>
       </c>
       <c r="H100">
-        <v>59581.169269194514</v>
+        <v>2130.7022466145277</v>
       </c>
       <c r="I100" t="s">
         <v>11</v>
       </c>
       <c r="J100">
-        <v>79108</v>
+        <v>75691</v>
       </c>
       <c r="K100">
-        <v>35.298160000000003</v>
+        <v>32.260599999999997</v>
       </c>
       <c r="L100">
-        <v>-101.747187</v>
+        <v>-94.570599999999999</v>
       </c>
       <c r="M100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6249</v>
+        <v>6147</v>
       </c>
       <c r="B101">
-        <v>3910602</v>
+        <v>2161126</v>
       </c>
       <c r="C101">
-        <v>43729752766.393845</v>
+        <v>4624846197.7997799</v>
       </c>
       <c r="D101">
-        <v>1406135051459.969</v>
+        <v>179422969010.60535</v>
       </c>
       <c r="E101">
-        <v>34564884556.96273</v>
+        <v>3495349988.1942906</v>
       </c>
       <c r="F101">
-        <v>11182.358308616895</v>
+        <v>2140.0169160890109</v>
       </c>
       <c r="G101">
-        <v>359569.97195315937</v>
+        <v>83022.909821364126</v>
       </c>
       <c r="H101">
-        <v>8838.7630745759161</v>
+        <v>1617.3744558134467</v>
       </c>
       <c r="I101" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J101">
-        <v>29440</v>
+        <v>75455</v>
       </c>
       <c r="K101">
-        <v>33.33184</v>
+        <v>33.091700000000003</v>
       </c>
       <c r="L101">
-        <v>-79.357236</v>
+        <v>-95.041700000000006</v>
       </c>
       <c r="M101" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6264</v>
+        <v>6155</v>
       </c>
       <c r="B102">
-        <v>7463219</v>
+        <v>7465222</v>
       </c>
       <c r="C102">
-        <v>58326317269.442734</v>
+        <v>6174073628.7955894</v>
       </c>
       <c r="D102">
-        <v>2207182097316.9365</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>44883690847.552811</v>
+        <v>432639874512.61761</v>
       </c>
       <c r="F102">
-        <v>7815.1689330626268</v>
+        <v>827.04487941491755</v>
       </c>
       <c r="G102">
-        <v>295741.30108160258</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>6013.9854997626107</v>
+        <v>57954.053410952496</v>
       </c>
       <c r="I102" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J102">
-        <v>25265</v>
+        <v>63028</v>
       </c>
       <c r="K102">
-        <v>38.979399999999998</v>
+        <v>38.131247999999999</v>
       </c>
       <c r="L102">
-        <v>-81.934399999999997</v>
+        <v>-90.263157000000007</v>
       </c>
       <c r="M102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6641</v>
+        <v>6166</v>
       </c>
       <c r="B103">
-        <v>5184267</v>
+        <v>12442473</v>
       </c>
       <c r="C103">
-        <v>3216671265.6407776</v>
+        <v>104378119720.19339</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>326841589517.65106</v>
+        <v>11446112632631.969</v>
       </c>
       <c r="F103">
-        <v>620.46790137174219</v>
+        <v>8388.8564371562952</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>63044.899021915939</v>
+        <v>919922.64179572416</v>
       </c>
       <c r="I103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J103">
-        <v>72562</v>
+        <v>47635</v>
       </c>
       <c r="K103">
-        <v>35.678441999999997</v>
+        <v>37.925600000000003</v>
       </c>
       <c r="L103">
-        <v>-91.408760999999998</v>
+        <v>-87.037199999999999</v>
       </c>
       <c r="M103" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>6648</v>
+        <v>6170</v>
       </c>
       <c r="B104">
-        <v>4104611</v>
+        <v>6659324</v>
       </c>
       <c r="C104">
-        <v>7519721749.1663189</v>
+        <v>13124146203.688169</v>
       </c>
       <c r="D104">
-        <v>351061637375.34912</v>
+        <v>419354745808.2663</v>
       </c>
       <c r="E104">
-        <v>12984573409.055727</v>
+        <v>10621726445.719658</v>
       </c>
       <c r="F104">
-        <v>1832.0181252660286</v>
+        <v>1970.7925614804399</v>
       </c>
       <c r="G104">
-        <v>85528.601218324737</v>
+        <v>62972.569859683397</v>
       </c>
       <c r="H104">
-        <v>3163.4114436314981</v>
+        <v>1595.0157171688384</v>
       </c>
       <c r="I104" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J104">
-        <v>76567</v>
+        <v>53158</v>
       </c>
       <c r="K104">
-        <v>30.565871000000001</v>
+        <v>42.5381</v>
       </c>
       <c r="L104">
-        <v>-97.064031999999997</v>
+        <v>-87.903300000000002</v>
       </c>
       <c r="M104" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6768</v>
+        <v>6179</v>
       </c>
       <c r="B105">
-        <v>1299004</v>
+        <v>8727176</v>
       </c>
       <c r="C105">
-        <v>129990684.70678499</v>
+        <v>15486759347.869812</v>
+      </c>
+      <c r="D105">
+        <v>527469163543.0423</v>
       </c>
       <c r="E105">
-        <v>80022192681.583832</v>
+        <v>14458289353.92795</v>
       </c>
       <c r="F105">
-        <v>100.06950302445951</v>
+        <v>1774.5441764747052</v>
+      </c>
+      <c r="G105">
+        <v>60439.844864254177</v>
       </c>
       <c r="H105">
-        <v>61602.73000051103</v>
+        <v>1656.6973501998757</v>
       </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J105">
-        <v>63801</v>
+        <v>78945</v>
       </c>
       <c r="K105">
-        <v>36.879100000000001</v>
+        <v>29.917200000000001</v>
       </c>
       <c r="L105">
-        <v>-89.620900000000006</v>
+        <v>-96.750600000000006</v>
       </c>
       <c r="M105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7902</v>
+        <v>6183</v>
       </c>
       <c r="B106">
-        <v>4583206</v>
+        <v>2169628</v>
       </c>
       <c r="C106">
-        <v>16697419887.416975</v>
+        <v>8694904664.4317913</v>
       </c>
       <c r="D106">
-        <v>356173707322.41956</v>
+        <v>261748136418.00256</v>
       </c>
       <c r="E106">
-        <v>4797102566.7229414</v>
+        <v>4278664568.1213622</v>
       </c>
       <c r="F106">
-        <v>3643.1746439974495</v>
+        <v>4007.5555184721948</v>
       </c>
       <c r="G106">
-        <v>77712.786054656841</v>
+        <v>120641.9424979778</v>
       </c>
       <c r="H106">
-        <v>1046.6696383978685</v>
+        <v>1972.0728936579737</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
       </c>
       <c r="J106">
-        <v>75650</v>
+        <v>78012</v>
       </c>
       <c r="K106">
-        <v>32.460700000000003</v>
+        <v>28.7044</v>
       </c>
       <c r="L106">
-        <v>-94.485200000000006</v>
+        <v>-98.477500000000006</v>
       </c>
       <c r="M106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>8042</v>
+        <v>6193</v>
       </c>
       <c r="B107">
-        <v>12498933</v>
+        <v>2006853</v>
       </c>
       <c r="C107">
-        <v>89577846746.220306</v>
+        <v>2024137062.7719047</v>
       </c>
       <c r="D107">
-        <v>2900556387342.1377</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>71850553065.612061</v>
+        <v>119570648291.39082</v>
       </c>
       <c r="F107">
-        <v>7166.8395011174398</v>
+        <v>1008.6125205841707</v>
       </c>
       <c r="G107">
-        <v>232064.31999772601</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>5748.5349401914591</v>
+        <v>59581.169269194514</v>
       </c>
       <c r="I107" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J107">
-        <v>27052</v>
+        <v>79108</v>
       </c>
       <c r="K107">
-        <v>36.281100000000002</v>
+        <v>35.298160000000003</v>
       </c>
       <c r="L107">
-        <v>-80.060299999999998</v>
+        <v>-101.747187</v>
       </c>
       <c r="M107" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>8066</v>
+        <v>6249</v>
       </c>
       <c r="B108">
-        <v>13439341</v>
+        <v>3910602</v>
       </c>
       <c r="C108">
-        <v>25826507401.175247</v>
+        <v>39993240249.045609</v>
       </c>
       <c r="D108">
-        <v>705752820739.35327</v>
+        <v>1396580154205.4849</v>
       </c>
       <c r="E108">
-        <v>20641901685.104965</v>
+        <v>34390813486.540375</v>
       </c>
       <c r="F108">
-        <v>1921.7093606877932</v>
+        <v>10226.875618906144</v>
       </c>
       <c r="G108">
-        <v>52513.94549326141</v>
+        <v>357126.64040101366</v>
       </c>
       <c r="H108">
-        <v>1535.9310910486581</v>
+        <v>8794.2504725718391</v>
       </c>
       <c r="I108" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J108">
-        <v>82942</v>
+        <v>29440</v>
       </c>
       <c r="K108">
-        <v>41.7378</v>
+        <v>33.33184</v>
       </c>
       <c r="L108">
-        <v>-108.78749999999999</v>
+        <v>-79.357236</v>
       </c>
       <c r="M108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>8102</v>
+        <v>6264</v>
       </c>
       <c r="B109">
-        <v>14171621</v>
+        <v>7463219</v>
       </c>
       <c r="C109">
-        <v>99638651180.718826</v>
+        <v>54879844946.426796</v>
       </c>
       <c r="D109">
-        <v>3683498635053.7881</v>
+        <v>2183935573342.9014</v>
       </c>
       <c r="E109">
-        <v>78866801003.512955</v>
+        <v>44374436025.355858</v>
       </c>
       <c r="F109">
-        <v>7030.8577389078382</v>
+        <v>7353.3745889577676</v>
       </c>
       <c r="G109">
-        <v>259920.76947681481</v>
+        <v>292626.4890984575</v>
       </c>
       <c r="H109">
-        <v>5565.1220847292589</v>
+        <v>5945.7502219023536</v>
       </c>
       <c r="I109" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J109">
-        <v>45620</v>
+        <v>25265</v>
       </c>
       <c r="K109">
-        <v>38.934699999999999</v>
+        <v>38.979399999999998</v>
       </c>
       <c r="L109">
-        <v>-82.115799999999993</v>
+        <v>-81.934399999999997</v>
       </c>
       <c r="M109" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>8226</v>
+        <v>6641</v>
       </c>
       <c r="B110">
-        <v>1940463</v>
+        <v>5184267</v>
       </c>
       <c r="C110">
-        <v>14063552842.771124</v>
+        <v>4272637363.6433434</v>
       </c>
       <c r="D110">
-        <v>524276623924.0022</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>10925957677.901384</v>
+        <v>326647904311.13074</v>
       </c>
       <c r="F110">
-        <v>7247.5243499984917</v>
+        <v>824.15457453162492</v>
       </c>
       <c r="G110">
-        <v>270181.20104531868</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>5630.5931511713361</v>
+        <v>63007.538830683436</v>
       </c>
       <c r="I110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J110">
-        <v>15024</v>
+        <v>72562</v>
       </c>
       <c r="K110">
-        <v>40.5383</v>
+        <v>35.678441999999997</v>
       </c>
       <c r="L110">
-        <v>-79.790599999999998</v>
+        <v>-91.408760999999998</v>
       </c>
       <c r="M110" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>50491</v>
+        <v>6648</v>
       </c>
       <c r="B111">
-        <v>334348.61</v>
+        <v>4104611</v>
       </c>
       <c r="C111">
-        <v>270947475.24684924</v>
+        <v>8189636801.2822599</v>
+      </c>
+      <c r="D111">
+        <v>357722240129.34924</v>
       </c>
       <c r="E111">
-        <v>121592384334.36668</v>
+        <v>5847504761.7002945</v>
       </c>
       <c r="F111">
-        <v>810.37416380121704</v>
+        <v>1995.2284884687635</v>
+      </c>
+      <c r="G111">
+        <v>87151.313517736329</v>
       </c>
       <c r="H111">
-        <v>363669.47759814729</v>
+        <v>1424.6184989759795</v>
       </c>
       <c r="I111" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J111">
-        <v>26155</v>
+        <v>76567</v>
       </c>
       <c r="K111">
-        <v>39.747500000000002</v>
+        <v>30.565871000000001</v>
       </c>
       <c r="L111">
-        <v>-80.854699999999994</v>
+        <v>-97.064031999999997</v>
       </c>
       <c r="M111" t="s">
         <v>45</v>
@@ -4702,34 +5092,412 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>6768</v>
+      </c>
+      <c r="B112">
+        <v>1299004</v>
+      </c>
+      <c r="C112">
+        <v>1354645879.7842855</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>80022192681.583832</v>
+      </c>
+      <c r="F112">
+        <v>1042.8342636237344</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>61602.73000051103</v>
+      </c>
+      <c r="I112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112">
+        <v>63801</v>
+      </c>
+      <c r="K112">
+        <v>36.879100000000001</v>
+      </c>
+      <c r="L112">
+        <v>-89.620900000000006</v>
+      </c>
+      <c r="M112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>6772</v>
+      </c>
+      <c r="B113">
+        <v>2477354</v>
+      </c>
+      <c r="C113">
+        <v>261185175.78583497</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>160785447891.53268</v>
+      </c>
+      <c r="F113">
+        <v>105.42908917572336</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>64902.0882326598</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113">
+        <v>74735</v>
+      </c>
+      <c r="K113">
+        <v>34.015799999999999</v>
+      </c>
+      <c r="L113">
+        <v>-95.320599999999999</v>
+      </c>
+      <c r="M113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>7504</v>
+      </c>
+      <c r="B114">
+        <v>602999</v>
+      </c>
+      <c r="C114">
+        <v>53004515.300099999</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>46225195726.141579</v>
+      </c>
+      <c r="F114">
+        <v>87.901497846762595</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>76658.826509068138</v>
+      </c>
+      <c r="I114" t="s">
+        <v>32</v>
+      </c>
+      <c r="J114">
+        <v>82718</v>
+      </c>
+      <c r="K114">
+        <v>44.285600000000002</v>
+      </c>
+      <c r="L114">
+        <v>-105.38330000000001</v>
+      </c>
+      <c r="M114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>7902</v>
+      </c>
+      <c r="B115">
+        <v>4583206</v>
+      </c>
+      <c r="C115">
+        <v>6915477489.2080135</v>
+      </c>
+      <c r="D115">
+        <v>364903518341.07269</v>
+      </c>
+      <c r="E115">
+        <v>13216457386.810596</v>
+      </c>
+      <c r="F115">
+        <v>1508.8733714365039</v>
+      </c>
+      <c r="G115">
+        <v>79617.525012201659</v>
+      </c>
+      <c r="H115">
+        <v>2883.6708161951692</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115">
+        <v>75650</v>
+      </c>
+      <c r="K115">
+        <v>32.460700000000003</v>
+      </c>
+      <c r="L115">
+        <v>-94.485200000000006</v>
+      </c>
+      <c r="M115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>8042</v>
+      </c>
+      <c r="B116">
+        <v>12498933</v>
+      </c>
+      <c r="C116">
+        <v>82820943891.948593</v>
+      </c>
+      <c r="D116">
+        <v>2919280948106.8169</v>
+      </c>
+      <c r="E116">
+        <v>71112993679.739609</v>
+      </c>
+      <c r="F116">
+        <v>6626.2411272985137</v>
+      </c>
+      <c r="G116">
+        <v>233562.41273609651</v>
+      </c>
+      <c r="H116">
+        <v>5689.525152246164</v>
+      </c>
+      <c r="I116" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116">
+        <v>27052</v>
+      </c>
+      <c r="K116">
+        <v>36.281100000000002</v>
+      </c>
+      <c r="L116">
+        <v>-80.060299999999998</v>
+      </c>
+      <c r="M116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>8066</v>
+      </c>
+      <c r="B117">
+        <v>13439341</v>
+      </c>
+      <c r="C117">
+        <v>22861398555.70388</v>
+      </c>
+      <c r="D117">
+        <v>708298143195.27661</v>
+      </c>
+      <c r="E117">
+        <v>20427011084.329872</v>
+      </c>
+      <c r="F117">
+        <v>1701.0803249730682</v>
+      </c>
+      <c r="G117">
+        <v>52703.338891042105</v>
+      </c>
+      <c r="H117">
+        <v>1519.941423045213</v>
+      </c>
+      <c r="I117" t="s">
+        <v>32</v>
+      </c>
+      <c r="J117">
+        <v>82942</v>
+      </c>
+      <c r="K117">
+        <v>41.7378</v>
+      </c>
+      <c r="L117">
+        <v>-108.78749999999999</v>
+      </c>
+      <c r="M117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>8102</v>
+      </c>
+      <c r="B118">
+        <v>14171621</v>
+      </c>
+      <c r="C118">
+        <v>95698217725.745331</v>
+      </c>
+      <c r="D118">
+        <v>3712563903801.2041</v>
+      </c>
+      <c r="E118">
+        <v>79553743696.217041</v>
+      </c>
+      <c r="F118">
+        <v>6752.8067343704242</v>
+      </c>
+      <c r="G118">
+        <v>261971.71825306394</v>
+      </c>
+      <c r="H118">
+        <v>5613.5952052497769</v>
+      </c>
+      <c r="I118" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118">
+        <v>45620</v>
+      </c>
+      <c r="K118">
+        <v>38.934699999999999</v>
+      </c>
+      <c r="L118">
+        <v>-82.115799999999993</v>
+      </c>
+      <c r="M118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>8226</v>
+      </c>
+      <c r="B119">
+        <v>1940463</v>
+      </c>
+      <c r="C119">
+        <v>13430016712.169693</v>
+      </c>
+      <c r="D119">
+        <v>527526971206.81647</v>
+      </c>
+      <c r="E119">
+        <v>11031018306.47765</v>
+      </c>
+      <c r="F119">
+        <v>6921.0372535676761</v>
+      </c>
+      <c r="G119">
+        <v>271856.23802505713</v>
+      </c>
+      <c r="H119">
+        <v>5684.7351928264798</v>
+      </c>
+      <c r="I119" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119">
+        <v>15024</v>
+      </c>
+      <c r="K119">
+        <v>40.5383</v>
+      </c>
+      <c r="L119">
+        <v>-79.790599999999998</v>
+      </c>
+      <c r="M119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>10075</v>
+      </c>
+      <c r="B120">
+        <v>825950</v>
+      </c>
+      <c r="C120">
+        <v>731687497.37376988</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>52966010283.192352</v>
+      </c>
+      <c r="F120">
+        <v>885.87383906261869</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>64127.380934914159</v>
+      </c>
+      <c r="I120" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120">
+        <v>55613</v>
+      </c>
+      <c r="K120">
+        <v>47.531399999999998</v>
+      </c>
+      <c r="L120">
+        <v>-90.9114</v>
+      </c>
+      <c r="M120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>50491</v>
       </c>
-      <c r="B112">
+      <c r="B121">
         <v>334348.61</v>
       </c>
-      <c r="C112">
-        <v>293656010.88735878</v>
-      </c>
-      <c r="E112">
-        <v>122586328210.81665</v>
-      </c>
-      <c r="F112">
-        <v>878.29290179300824</v>
-      </c>
-      <c r="H112">
-        <v>366642.25465395732</v>
-      </c>
-      <c r="I112" t="s">
-        <v>31</v>
-      </c>
-      <c r="J112">
+      <c r="C121">
+        <v>271120873.35848945</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>122681990319.65509</v>
+      </c>
+      <c r="F121">
+        <v>810.89277852385703</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>366928.3695232204</v>
+      </c>
+      <c r="I121" t="s">
+        <v>30</v>
+      </c>
+      <c r="J121">
         <v>26155</v>
       </c>
-      <c r="K112">
+      <c r="K121">
         <v>39.747500000000002</v>
       </c>
-      <c r="L112">
+      <c r="L121">
         <v>-80.854699999999994</v>
+      </c>
+      <c r="M121" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_boot_cq_remov_Cl.xlsx
+++ b/r_map/data_boot_cq_remov_Cl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="60">
   <si>
     <t>Plant_Code</t>
   </si>
@@ -139,70 +139,73 @@
     <t>OR</t>
   </si>
   <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>egrid_subrgn</t>
+  </si>
+  <si>
+    <t>SRTV</t>
+  </si>
+  <si>
+    <t>MROW</t>
+  </si>
+  <si>
+    <t>ERCT</t>
+  </si>
+  <si>
+    <t>SPSO</t>
+  </si>
+  <si>
+    <t>SRMW</t>
+  </si>
+  <si>
+    <t>RFCW</t>
+  </si>
+  <si>
+    <t>SPNO</t>
+  </si>
+  <si>
+    <t>RFCE</t>
+  </si>
+  <si>
+    <t>RFCM</t>
+  </si>
+  <si>
+    <t>NYUP</t>
+  </si>
+  <si>
+    <t>SRVC</t>
+  </si>
+  <si>
+    <t>MROE</t>
+  </si>
+  <si>
+    <t>NWPP</t>
+  </si>
+  <si>
+    <t>SRSO</t>
+  </si>
+  <si>
+    <t>SRMV</t>
+  </si>
+  <si>
+    <t>RMPA</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
     <t>IN</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>egrid_subrgn</t>
-  </si>
-  <si>
-    <t>SRTV</t>
-  </si>
-  <si>
-    <t>MROW</t>
-  </si>
-  <si>
-    <t>ERCT</t>
-  </si>
-  <si>
-    <t>SPSO</t>
-  </si>
-  <si>
-    <t>SRMW</t>
-  </si>
-  <si>
-    <t>RFCW</t>
-  </si>
-  <si>
-    <t>SPNO</t>
-  </si>
-  <si>
-    <t>RFCE</t>
-  </si>
-  <si>
-    <t>RFCM</t>
-  </si>
-  <si>
-    <t>NYUP</t>
-  </si>
-  <si>
-    <t>SRVC</t>
-  </si>
-  <si>
-    <t>MROE</t>
-  </si>
-  <si>
-    <t>NWPP</t>
-  </si>
-  <si>
-    <t>SRSO</t>
-  </si>
-  <si>
-    <t>SRMV</t>
-  </si>
-  <si>
-    <t>RMPA</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,9 @@
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -568,16 +573,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -588,22 +593,22 @@
         <v>2726384</v>
       </c>
       <c r="C2">
-        <v>9474347213.6343555</v>
+        <v>2740579485.5760121</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>897083806201.70044</v>
+        <v>915420446054.56616</v>
       </c>
       <c r="F2">
-        <v>3475.0597177926352</v>
+        <v>1005.2067080704743</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>329037.95144106646</v>
+        <v>335763.57771119772</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -618,7 +623,7 @@
         <v>-87.848600000000005</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -629,7 +634,7 @@
         <v>324142</v>
       </c>
       <c r="C3">
-        <v>392603729.22888887</v>
+        <v>37673925.22467</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -638,7 +643,7 @@
         <v>23192047262.466389</v>
       </c>
       <c r="F3">
-        <v>1211.2090664859502</v>
+        <v>116.22660816762406</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -659,7 +664,7 @@
         <v>-98.312437000000003</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -700,7 +705,7 @@
         <v>-99.175299999999993</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -711,7 +716,7 @@
         <v>2014725</v>
       </c>
       <c r="C5">
-        <v>167788307.32775998</v>
+        <v>2477096451.8687525</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -720,7 +725,7 @@
         <v>146328049655.21622</v>
       </c>
       <c r="F5">
-        <v>83.280997321103371</v>
+        <v>1229.4960611839097</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -741,7 +746,7 @@
         <v>-95.289400000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -752,22 +757,22 @@
         <v>9164672</v>
       </c>
       <c r="C6">
-        <v>18449514395.373169</v>
+        <v>18146373834.602528</v>
       </c>
       <c r="D6">
-        <v>618167071102.2561</v>
+        <v>621602698675.05347</v>
       </c>
       <c r="E6">
-        <v>16118391700.812222</v>
+        <v>15661496043.906796</v>
       </c>
       <c r="F6">
-        <v>2013.1123509246343</v>
+        <v>1980.0352739958973</v>
       </c>
       <c r="G6">
-        <v>67451.085112730289</v>
+        <v>67825.962421246877</v>
       </c>
       <c r="H6">
-        <v>1758.7527083142988</v>
+        <v>1708.8986975100468</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -782,7 +787,7 @@
         <v>-96.252499999999998</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -793,22 +798,22 @@
         <v>2981276</v>
       </c>
       <c r="C7">
-        <v>2442066830.3574476</v>
+        <v>1613513540.8052223</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>184795379553.74792</v>
+        <v>186352005434.55524</v>
       </c>
       <c r="F7">
-        <v>819.13476992987148</v>
+        <v>541.21575486644724</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61985.330963569933</v>
+        <v>62507.465070176404</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -823,7 +828,7 @@
         <v>-89.6631</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -834,7 +839,7 @@
         <v>1265697</v>
       </c>
       <c r="C8">
-        <v>133187556.56597999</v>
+        <v>1387960800.0189567</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -843,7 +848,7 @@
         <v>81990185207.139648</v>
       </c>
       <c r="F8">
-        <v>105.22862625571523</v>
+        <v>1096.5980009583309</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -864,7 +869,7 @@
         <v>-88.115300000000005</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -875,22 +880,22 @@
         <v>5057931</v>
       </c>
       <c r="C9">
-        <v>4075282188.1477866</v>
+        <v>280109002113.22101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>322400075180.36768</v>
+        <v>46040834803.178787</v>
       </c>
       <c r="F9">
-        <v>805.7211907690687</v>
+        <v>55380.154872263185</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63741.493345869618</v>
+        <v>9102.7012434884509</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -905,7 +910,7 @@
         <v>-89.496388999999994</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -916,7 +921,7 @@
         <v>566146</v>
       </c>
       <c r="C10">
-        <v>42153283.611179993</v>
+        <v>622318389.94537401</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -925,7 +930,7 @@
         <v>36761845182.323082</v>
       </c>
       <c r="F10">
-        <v>74.456559988377549</v>
+        <v>1099.2189116329957</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -946,7 +951,7 @@
         <v>-87.813299999999998</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -957,7 +962,7 @@
         <v>2372033</v>
       </c>
       <c r="C11">
-        <v>2241544676.9241381</v>
+        <v>151833000.63140997</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -966,7 +971,7 @@
         <v>132413439348.27119</v>
       </c>
       <c r="F11">
-        <v>944.98882474406469</v>
+        <v>64.009649373094717</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -987,7 +992,7 @@
         <v>-88.062899999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -998,22 +1003,22 @@
         <v>4881045</v>
       </c>
       <c r="C12">
-        <v>3828948405.9169087</v>
+        <v>4744724599.6252413</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>323594074587.84576</v>
+        <v>326746580352.0423</v>
       </c>
       <c r="F12">
-        <v>784.45259281914196</v>
+        <v>972.07147232308682</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>66296.064590235444</v>
+        <v>66941.931564253624</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1028,7 +1033,7 @@
         <v>-88.858889000000005</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1039,22 +1044,22 @@
         <v>2219933</v>
       </c>
       <c r="C13">
-        <v>990970549.86613488</v>
+        <v>564032313.22555113</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>134843543214.75133</v>
+        <v>135342500455.47446</v>
       </c>
       <c r="F13">
-        <v>446.39660290023835</v>
+        <v>254.07627762889743</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>60742.167990994021</v>
+        <v>60966.930288199896</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1069,7 +1074,7 @@
         <v>-90.134699999999995</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,7 +1085,7 @@
         <v>245567</v>
       </c>
       <c r="C14">
-        <v>17629475.764544304</v>
+        <v>195418596.69277197</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1089,7 +1094,7 @@
         <v>11229014681.780067</v>
       </c>
       <c r="F14">
-        <v>71.790899284286184</v>
+        <v>795.78525083896443</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1110,7 +1115,7 @@
         <v>-91.639167</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1121,7 +1126,7 @@
         <v>553904</v>
       </c>
       <c r="C15">
-        <v>56693854.678087056</v>
+        <v>593686002.22183967</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1130,7 +1135,7 @@
         <v>35057968261.116402</v>
       </c>
       <c r="F15">
-        <v>102.3532140553003</v>
+        <v>1071.8211138064353</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1151,7 +1156,7 @@
         <v>-96.361706999999996</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1162,7 +1167,7 @@
         <v>1081826</v>
       </c>
       <c r="C16">
-        <v>106251862.70585248</v>
+        <v>1138305957.920975</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1171,7 +1176,7 @@
         <v>65408587156.869736</v>
       </c>
       <c r="F16">
-        <v>98.215297751997525</v>
+        <v>1052.2079871633468</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1192,7 +1197,7 @@
         <v>-91.116667000000007</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1203,7 +1208,7 @@
         <v>66618</v>
       </c>
       <c r="C17">
-        <v>7450191.4951799987</v>
+        <v>77639188.033469379</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1212,7 +1217,7 @@
         <v>4586333710.6560602</v>
       </c>
       <c r="F17">
-        <v>111.83451162118344</v>
+        <v>1165.4385906732321</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1233,7 +1238,7 @@
         <v>-93.608900000000006</v>
       </c>
       <c r="M17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1244,22 +1249,22 @@
         <v>750815</v>
       </c>
       <c r="C18">
-        <v>1643051711.0732532</v>
+        <v>1689305838.3206418</v>
       </c>
       <c r="D18">
         <v>48272374442.582382</v>
       </c>
       <c r="E18">
-        <v>3444585511.9545403</v>
+        <v>2680782145.2023616</v>
       </c>
       <c r="F18">
-        <v>2188.3575995062074</v>
+        <v>2249.9628248245463</v>
       </c>
       <c r="G18">
         <v>64293.300536859788</v>
       </c>
       <c r="H18">
-        <v>4587.7952784035215</v>
+        <v>3570.4962543400993</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
@@ -1274,7 +1279,7 @@
         <v>-91.056899999999999</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1285,7 +1290,7 @@
         <v>384251</v>
       </c>
       <c r="C19">
-        <v>38829961.502797492</v>
+        <v>415996250.78424037</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1294,7 +1299,7 @@
         <v>23903702547.642307</v>
       </c>
       <c r="F19">
-        <v>101.05363812403219</v>
+        <v>1082.6159223638724</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1315,7 +1320,7 @@
         <v>-95.568888999999999</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1326,22 +1331,22 @@
         <v>1245893</v>
       </c>
       <c r="C20">
-        <v>1662734089.2852159</v>
+        <v>854826598.86021686</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>498576857220.58484</v>
+        <v>499914311986.46777</v>
       </c>
       <c r="F20">
-        <v>1334.5721416568003</v>
+        <v>686.1155804392647</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>400176.30504432146</v>
+        <v>401249.79591864452</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -1356,7 +1361,7 @@
         <v>-82.617599999999996</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1367,22 +1372,22 @@
         <v>1488285</v>
       </c>
       <c r="C21">
-        <v>12944202295.8643</v>
+        <v>11988041485.15345</v>
       </c>
       <c r="D21">
-        <v>478190691570.72821</v>
+        <v>467755242335.5907</v>
       </c>
       <c r="E21">
-        <v>10968055585.866337</v>
+        <v>9209724960.2721786</v>
       </c>
       <c r="F21">
-        <v>8697.3948510294067</v>
+        <v>8054.9367124935416</v>
       </c>
       <c r="G21">
-        <v>321303.1721550161</v>
+        <v>314291.4444045265</v>
       </c>
       <c r="H21">
-        <v>7369.5935831284569</v>
+        <v>6188.1460609172154</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1397,7 +1402,7 @@
         <v>-87.502799999999993</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1408,22 +1413,22 @@
         <v>48329</v>
       </c>
       <c r="C22">
-        <v>203025863.94523758</v>
+        <v>61592102.226267718</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19769405488.80513</v>
+        <v>19626955927.652908</v>
       </c>
       <c r="F22">
-        <v>4200.9117495755672</v>
+        <v>1274.4336159711088</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>409058.85676933371</v>
+        <v>406111.36021132051</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -1438,7 +1443,7 @@
         <v>-84.261899999999997</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1449,22 +1454,22 @@
         <v>1336530</v>
       </c>
       <c r="C23">
-        <v>7987252584.8447084</v>
+        <v>2138288245.6852617</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>691479437293.37109</v>
+        <v>698464218590.83118</v>
       </c>
       <c r="F23">
-        <v>5976.111710806872</v>
+        <v>1599.880470835119</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>517369.18534815614</v>
+        <v>522595.24185078614</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1479,7 +1484,7 @@
         <v>-76.526799999999994</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1490,22 +1495,22 @@
         <v>4238250</v>
       </c>
       <c r="C24">
-        <v>12493436423.700417</v>
+        <v>12420850010.41325</v>
       </c>
       <c r="D24">
-        <v>429764788508.42712</v>
+        <v>421909501390.53625</v>
       </c>
       <c r="E24">
-        <v>10919092961.6588</v>
+        <v>10884608479.446785</v>
       </c>
       <c r="F24">
-        <v>2947.7818495134588</v>
+        <v>2930.6553436945082</v>
       </c>
       <c r="G24">
-        <v>101401.47195385527</v>
+        <v>99548.044921969267</v>
       </c>
       <c r="H24">
-        <v>2576.3211140585854</v>
+        <v>2568.1846232399657</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1520,7 +1525,7 @@
         <v>-76.976699999999994</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1531,22 +1536,22 @@
         <v>1825199</v>
       </c>
       <c r="C25">
-        <v>1395132190.2876673</v>
+        <v>992602661.48243833</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>98246210185.356842</v>
+        <v>98349477136.350006</v>
       </c>
       <c r="F25">
-        <v>764.37264664711483</v>
+        <v>543.83256920611848</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53827.670399423208</v>
+        <v>53884.24886072697</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -1561,7 +1566,7 @@
         <v>-86.242267999999996</v>
       </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1572,22 +1577,22 @@
         <v>7101778</v>
       </c>
       <c r="C26">
-        <v>3237951990.3033962</v>
+        <v>2065855752.4516923</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>426640673166.77014</v>
+        <v>426737495972.61865</v>
       </c>
       <c r="F26">
-        <v>455.93539960040943</v>
+        <v>290.89275283621822</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60075.191475538959</v>
+        <v>60088.825076286339</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1602,7 +1607,7 @@
         <v>-86.200739999999996</v>
       </c>
       <c r="M26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1613,22 +1618,22 @@
         <v>992174</v>
       </c>
       <c r="C27">
-        <v>109395612.27860261</v>
+        <v>1016940612.9041665</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>70053193766.951843</v>
+        <v>70046657723.900177</v>
       </c>
       <c r="F27">
-        <v>110.25849526252715</v>
+        <v>1024.9619652441672</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>70605.754400893231</v>
+        <v>70599.166803302825</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1643,7 +1648,7 @@
         <v>-83.844712000000001</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1654,22 +1659,22 @@
         <v>1769518</v>
       </c>
       <c r="C28">
-        <v>1272984051.0036712</v>
+        <v>1437593964.406178</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>109299732659.53751</v>
+        <v>110298138273.41071</v>
       </c>
       <c r="F28">
-        <v>719.39593211466126</v>
+        <v>812.42121549833234</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>61768.08185027646</v>
+        <v>62332.306466173672</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1684,7 +1689,7 @@
         <v>-83.449479999999994</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1695,22 +1700,22 @@
         <v>16149545</v>
       </c>
       <c r="C29">
-        <v>57917651116.049683</v>
+        <v>55403545104.301292</v>
       </c>
       <c r="D29">
-        <v>1990154022818.8245</v>
+        <v>1987313513311.6016</v>
       </c>
       <c r="E29">
-        <v>50339350149.207962</v>
+        <v>49432817109.425827</v>
       </c>
       <c r="F29">
-        <v>3586.3333063593855</v>
+        <v>3430.6567215547739</v>
       </c>
       <c r="G29">
-        <v>123232.82314262257</v>
+        <v>123056.93524564324</v>
       </c>
       <c r="H29">
-        <v>3117.0754438721319</v>
+        <v>3060.9417856308537</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1725,7 +1730,7 @@
         <v>-83.346400000000003</v>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1736,22 +1741,22 @@
         <v>1806150</v>
       </c>
       <c r="C30">
-        <v>2842764447.4644537</v>
+        <v>2793174490.1874208</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>253822696970.22375</v>
+        <v>253062823801.85873</v>
       </c>
       <c r="F30">
-        <v>1573.9359673695174</v>
+        <v>1546.4797996774469</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>140532.45686694002</v>
+        <v>140111.74254732925</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1766,7 +1771,7 @@
         <v>-83.111900000000006</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1777,22 +1782,22 @@
         <v>5446539</v>
       </c>
       <c r="C31">
-        <v>7518613820.0128078</v>
+        <v>4177158030.872592</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>614892654326.15662</v>
+        <v>646026108584.36719</v>
       </c>
       <c r="F31">
-        <v>1380.4388107774143</v>
+        <v>766.93805568501239</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>112896.03440389514</v>
+        <v>118612.22486139678</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -1807,7 +1812,7 @@
         <v>-82.471900000000005</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1818,22 +1823,22 @@
         <v>2101351</v>
       </c>
       <c r="C32">
-        <v>456009128.39717001</v>
+        <v>402286380.5888747</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>131518034055.21599</v>
+        <v>131388390351.91365</v>
       </c>
       <c r="F32">
-        <v>217.00759577870144</v>
+        <v>191.44178225764028</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>62587.370722557054</v>
+        <v>62525.675316457673</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1848,7 +1853,7 @@
         <v>-83.180800000000005</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1859,22 +1864,22 @@
         <v>500876</v>
       </c>
       <c r="C33">
-        <v>369907953.36451447</v>
+        <v>555409415.57713151</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>32512427788.003731</v>
+        <v>32805125532.623894</v>
       </c>
       <c r="F33">
-        <v>738.52201615672232</v>
+        <v>1108.8760802616446</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>64911.131274015388</v>
+        <v>65495.502944089742</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1889,7 +1894,7 @@
         <v>-84.558080000000004</v>
       </c>
       <c r="M33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1930,7 +1935,7 @@
         <v>-84.657222000000004</v>
       </c>
       <c r="M34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1941,22 +1946,22 @@
         <v>296202</v>
       </c>
       <c r="C35">
-        <v>252394835.10965532</v>
+        <v>180612021.65338051</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>18043213037.51825</v>
+        <v>18178162141.512035</v>
       </c>
       <c r="F35">
-        <v>852.10375051368771</v>
+        <v>609.75962908211466</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>60915.230273658686</v>
+        <v>61370.82849377126</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -1971,7 +1976,7 @@
         <v>-96.043251999999995</v>
       </c>
       <c r="M35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1982,22 +1987,22 @@
         <v>1420063</v>
       </c>
       <c r="C36">
-        <v>1055287017.5553598</v>
+        <v>148753718.34558612</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>93948677912.892075</v>
+        <v>94835735218.887024</v>
       </c>
       <c r="F36">
-        <v>743.12690180320158</v>
+        <v>104.75149225462964</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>66158.105600168492</v>
+        <v>66782.766130014672</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -2012,7 +2017,7 @@
         <v>-93.934799999999996</v>
       </c>
       <c r="M36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2023,22 +2028,22 @@
         <v>233500</v>
       </c>
       <c r="C37">
-        <v>16968508.964189999</v>
+        <v>280945690.65714282</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>16143516218.83581</v>
+        <v>15879539037.142857</v>
       </c>
       <c r="F37">
-        <v>72.670273936573864</v>
+        <v>1203.1935360048942</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>69137.114427562352</v>
+        <v>68006.591165494028</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -2053,7 +2058,7 @@
         <v>-94.877300000000005</v>
       </c>
       <c r="M37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2064,22 +2069,22 @@
         <v>16042082</v>
       </c>
       <c r="C38">
-        <v>11379255440.162088</v>
+        <v>9076650685.1829147</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>951402169453.68896</v>
+        <v>960640733707.78516</v>
       </c>
       <c r="F38">
-        <v>709.337817881874</v>
+        <v>565.80253642780997</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>59306.651683596239</v>
+        <v>59882.547272092561</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -2094,7 +2099,7 @@
         <v>-90.837686000000005</v>
       </c>
       <c r="M38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2105,22 +2110,22 @@
         <v>2119428</v>
       </c>
       <c r="C39">
-        <v>1523895523.3342512</v>
+        <v>1352498918.7021217</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>130149344112.40329</v>
+        <v>131314871072.49359</v>
       </c>
       <c r="F39">
-        <v>719.01264083245633</v>
+        <v>638.14336637155009</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>61407.768564161313</v>
+        <v>61957.693808184849</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
@@ -2135,7 +2140,7 @@
         <v>-90.335800000000006</v>
       </c>
       <c r="M39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2176,7 +2181,7 @@
         <v>-93.261944</v>
       </c>
       <c r="M40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2187,22 +2192,22 @@
         <v>6594728</v>
       </c>
       <c r="C41">
-        <v>4090292177.7900805</v>
+        <v>6516461539.3490925</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>371266631306.08203</v>
+        <v>374444620609.19403</v>
       </c>
       <c r="F41">
-        <v>620.2366765983495</v>
+        <v>988.13196531367066</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>56297.489647197282</v>
+        <v>56779.388112624816</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -2217,7 +2222,7 @@
         <v>-89.561700000000002</v>
       </c>
       <c r="M41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2228,22 +2233,22 @@
         <v>7672769</v>
       </c>
       <c r="C42">
-        <v>4935340617.5108843</v>
+        <v>3029140293.6675477</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>432481363985.47778</v>
+        <v>435316716840.47394</v>
       </c>
       <c r="F42">
-        <v>643.22809894457714</v>
+        <v>394.79101920930339</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>56365.748009027484</v>
+        <v>56735.282508892677</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -2258,7 +2263,7 @@
         <v>-92.638099999999994</v>
       </c>
       <c r="M42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,22 +2274,22 @@
         <v>3095082</v>
       </c>
       <c r="C43">
-        <v>2360216232.7329044</v>
+        <v>965772350.35550714</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>197650612383.35605</v>
+        <v>199446602241.59027</v>
       </c>
       <c r="F43">
-        <v>762.56985525194625</v>
+        <v>312.03449548525924</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>63859.572180432064</v>
+        <v>64439.844321278164</v>
       </c>
       <c r="I43" t="s">
         <v>10</v>
@@ -2299,7 +2304,7 @@
         <v>-95.944659999999999</v>
       </c>
       <c r="M43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2310,22 +2315,22 @@
         <v>134547</v>
       </c>
       <c r="C44">
-        <v>397538858.93318301</v>
+        <v>385847456.25409025</v>
       </c>
       <c r="D44">
-        <v>14623358509.918114</v>
+        <v>14480483670.768471</v>
       </c>
       <c r="E44">
-        <v>321804895.36569023</v>
+        <v>323072655.04025507</v>
       </c>
       <c r="F44">
-        <v>2954.6467697769776</v>
+        <v>2867.7522074374774</v>
       </c>
       <c r="G44">
-        <v>108685.87564136037</v>
+        <v>107623.98025053306</v>
       </c>
       <c r="H44">
-        <v>2391.7656682474544</v>
+        <v>2401.1880981386062</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2340,7 +2345,7 @@
         <v>-74.636399999999995</v>
       </c>
       <c r="M44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2351,22 +2356,22 @@
         <v>531521</v>
       </c>
       <c r="C45">
-        <v>1985874923.1889946</v>
+        <v>1929687071.4861326</v>
       </c>
       <c r="D45">
-        <v>74381344046.132935</v>
+        <v>74004867406.481415</v>
       </c>
       <c r="E45">
-        <v>1681198747.8082421</v>
+        <v>1649997227.4902279</v>
       </c>
       <c r="F45">
-        <v>3736.2115950056436</v>
+        <v>3630.5001523667602</v>
       </c>
       <c r="G45">
-        <v>139940.55558695318</v>
+        <v>139232.25499365295</v>
       </c>
       <c r="H45">
-        <v>3162.9959076089976</v>
+        <v>3104.2935791628702</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2381,7 +2386,7 @@
         <v>-76.633600000000001</v>
       </c>
       <c r="M45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2392,22 +2397,22 @@
         <v>1438500</v>
       </c>
       <c r="C46">
-        <v>6973144958.7375021</v>
+        <v>6804490239.9481392</v>
       </c>
       <c r="D46">
-        <v>236925088909.59439</v>
+        <v>238295805526.25397</v>
       </c>
       <c r="E46">
-        <v>6047679359.6191101</v>
+        <v>6000343690.2100677</v>
       </c>
       <c r="F46">
-        <v>4847.5112678050064</v>
+        <v>4730.2678067070829</v>
       </c>
       <c r="G46">
-        <v>164702.87723989878</v>
+        <v>165655.75636166421</v>
       </c>
       <c r="H46">
-        <v>4204.1566629260415</v>
+        <v>4171.2503929162795</v>
       </c>
       <c r="I46" t="s">
         <v>23</v>
@@ -2422,7 +2427,7 @@
         <v>-82.541700000000006</v>
       </c>
       <c r="M46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2433,22 +2438,22 @@
         <v>4871389</v>
       </c>
       <c r="C47">
-        <v>31584144165.500179</v>
+        <v>30108091175.888103</v>
       </c>
       <c r="D47">
-        <v>1129158649043.1895</v>
+        <v>1126437471399.9126</v>
       </c>
       <c r="E47">
-        <v>26935976671.211037</v>
+        <v>25517408718.10759</v>
       </c>
       <c r="F47">
-        <v>6483.6013230518402</v>
+        <v>6180.5967817162837</v>
       </c>
       <c r="G47">
-        <v>231793.98094530933</v>
+        <v>231235.37689146004</v>
       </c>
       <c r="H47">
-        <v>5529.4242917597094</v>
+        <v>5238.2202936590757</v>
       </c>
       <c r="I47" t="s">
         <v>23</v>
@@ -2463,7 +2468,7 @@
         <v>-79.073099999999997</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2474,22 +2479,22 @@
         <v>500630</v>
       </c>
       <c r="C48">
-        <v>647269702.18378675</v>
+        <v>815369501.45278895</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>47156180235.789223</v>
+        <v>47282062140.686333</v>
       </c>
       <c r="F48">
-        <v>1292.9103373425219</v>
+        <v>1628.6868574651717</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>94193.676439264978</v>
+        <v>94445.123425856087</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2504,7 +2509,7 @@
         <v>-100.8836</v>
       </c>
       <c r="M48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,22 +2520,22 @@
         <v>3581670</v>
       </c>
       <c r="C49">
-        <v>9923924106.6869965</v>
+        <v>10068744222.873617</v>
       </c>
       <c r="D49">
-        <v>290785777164.24445</v>
+        <v>292340722566.01849</v>
       </c>
       <c r="E49">
-        <v>8096252699.9737635</v>
+        <v>8639393461.276638</v>
       </c>
       <c r="F49">
-        <v>2770.753337601453</v>
+        <v>2811.1870224988952</v>
       </c>
       <c r="G49">
-        <v>81187.205176424526</v>
+        <v>81621.344949707403</v>
       </c>
       <c r="H49">
-        <v>2260.4686361316826</v>
+        <v>2412.1131933641677</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2545,7 +2550,7 @@
         <v>-101.321213</v>
       </c>
       <c r="M49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2556,22 +2561,22 @@
         <v>4902363</v>
       </c>
       <c r="C50">
-        <v>14411783178.375244</v>
+        <v>14112262127.418709</v>
       </c>
       <c r="D50">
-        <v>431304561748.64392</v>
+        <v>431363448754.52667</v>
       </c>
       <c r="E50">
-        <v>11986657504.201469</v>
+        <v>14807906426.111439</v>
       </c>
       <c r="F50">
-        <v>2939.7625549913878</v>
+        <v>2878.665273750375</v>
       </c>
       <c r="G50">
-        <v>87978.911751056366</v>
+        <v>87990.923714650809</v>
       </c>
       <c r="H50">
-        <v>2445.0775073574659</v>
+        <v>3020.565067521813</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2586,7 +2591,7 @@
         <v>-101.213093</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2597,22 +2602,22 @@
         <v>6114392</v>
       </c>
       <c r="C51">
-        <v>39555920213.411926</v>
+        <v>36673243951.071312</v>
       </c>
       <c r="D51">
-        <v>1470067540355.5229</v>
+        <v>1495381032319.6897</v>
       </c>
       <c r="E51">
-        <v>33419286232.315155</v>
+        <v>29143858877.762932</v>
       </c>
       <c r="F51">
-        <v>6469.3137458985166</v>
+        <v>5997.8561974880431</v>
       </c>
       <c r="G51">
-        <v>240427.42767482408</v>
+        <v>244567.41280567058</v>
       </c>
       <c r="H51">
-        <v>5465.6761019436035</v>
+        <v>4766.4361195296169</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
@@ -2627,7 +2632,7 @@
         <v>-80.648600000000002</v>
       </c>
       <c r="M51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2638,22 +2643,22 @@
         <v>2753681</v>
       </c>
       <c r="C52">
-        <v>2251439176.1098928</v>
+        <v>2090906629.2733006</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>272288177405.88687</v>
+        <v>276150813934.23242</v>
       </c>
       <c r="F52">
-        <v>817.61074580167156</v>
+        <v>759.31330799511659</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>98881.525276851913</v>
+        <v>100284.24277693474</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -2668,7 +2673,7 @@
         <v>-82.054619000000002</v>
       </c>
       <c r="M52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2679,22 +2684,22 @@
         <v>5168266</v>
       </c>
       <c r="C53">
-        <v>33379709261.188293</v>
+        <v>31590454598.523613</v>
       </c>
       <c r="D53">
-        <v>1140307340411.5747</v>
+        <v>1139067608992.092</v>
       </c>
       <c r="E53">
-        <v>29048764227.942383</v>
+        <v>24648387037.567802</v>
       </c>
       <c r="F53">
-        <v>6458.5896432552618</v>
+        <v>6112.3894549010465</v>
       </c>
       <c r="G53">
-        <v>220636.34890533396</v>
+        <v>220396.47514119669</v>
       </c>
       <c r="H53">
-        <v>5620.6016153081873</v>
+        <v>4769.1792639093655</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
@@ -2709,7 +2714,7 @@
         <v>-81.881100000000004</v>
       </c>
       <c r="M53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2720,22 +2725,22 @@
         <v>6246911</v>
       </c>
       <c r="C54">
-        <v>53481672811.750923</v>
+        <v>49243490056.718094</v>
       </c>
       <c r="D54">
-        <v>1954125917666.8174</v>
+        <v>1962217139285.5059</v>
       </c>
       <c r="E54">
-        <v>45637500773.97319</v>
+        <v>39977787995.617073</v>
       </c>
       <c r="F54">
-        <v>8561.2989862911309</v>
+        <v>7882.8544310488969</v>
       </c>
       <c r="G54">
-        <v>312814.75238991191</v>
+        <v>314109.98800615309</v>
       </c>
       <c r="H54">
-        <v>7305.6108489416911</v>
+        <v>6399.6090220617953</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2750,7 +2755,7 @@
         <v>-80.631900000000002</v>
       </c>
       <c r="M54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2761,22 +2766,22 @@
         <v>3681044</v>
       </c>
       <c r="C55">
-        <v>25606087790.462238</v>
+        <v>22610958193.536453</v>
       </c>
       <c r="D55">
-        <v>880368682847.58569</v>
+        <v>910371840657.13574</v>
       </c>
       <c r="E55">
-        <v>21477371038.236229</v>
+        <v>17284903508.761513</v>
       </c>
       <c r="F55">
-        <v>6956.20258558774</v>
+        <v>6142.5395060576438</v>
       </c>
       <c r="G55">
-        <v>239162.77090075146</v>
+        <v>247313.49059047806</v>
       </c>
       <c r="H55">
-        <v>5834.5868830245527</v>
+        <v>4695.6525129179417</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2791,7 +2796,7 @@
         <v>-82.128900000000002</v>
       </c>
       <c r="M55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2802,22 +2807,22 @@
         <v>4626240</v>
       </c>
       <c r="C56">
-        <v>3735033687.06178</v>
+        <v>437242552.02715838</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>295699560555.66602</v>
+        <v>298297509828.17554</v>
       </c>
       <c r="F56">
-        <v>807.35839192557671</v>
+        <v>94.51359030814622</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>63917.903212039586</v>
+        <v>64479.471412675419</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -2832,7 +2837,7 @@
         <v>-95.287319999999994</v>
       </c>
       <c r="M56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2843,22 +2848,22 @@
         <v>6322841</v>
       </c>
       <c r="C57">
-        <v>5165661252.5178003</v>
+        <v>614446317.39282751</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>375220661831.51221</v>
+        <v>378252808759.39581</v>
       </c>
       <c r="F57">
-        <v>816.98420892092656</v>
+        <v>97.178834228605069</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>59343.681397573055</v>
+        <v>59823.235909205345</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -2873,7 +2878,7 @@
         <v>-95.700800000000001</v>
       </c>
       <c r="M57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2884,22 +2889,22 @@
         <v>9036684</v>
       </c>
       <c r="C58">
-        <v>58712561401.856606</v>
+        <v>40020354916.37159</v>
       </c>
       <c r="D58">
-        <v>1323074292050.7651</v>
+        <v>1318993960777.7651</v>
       </c>
       <c r="E58">
-        <v>2265985121202.6055</v>
+        <v>2248259574004.0308</v>
       </c>
       <c r="F58">
-        <v>6497.1356087981621</v>
+        <v>4428.6549044286148</v>
       </c>
       <c r="G58">
-        <v>146411.48147381996</v>
+        <v>145959.95176745864</v>
       </c>
       <c r="H58">
-        <v>250754.0510659226</v>
+        <v>248792.54093692231</v>
       </c>
       <c r="I58" t="s">
         <v>26</v>
@@ -2914,7 +2919,7 @@
         <v>-79.196106999999998</v>
       </c>
       <c r="M58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2925,22 +2930,22 @@
         <v>916991</v>
       </c>
       <c r="C59">
-        <v>3590105516.2213821</v>
+        <v>1443346676.1437569</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>319005319617.84851</v>
+        <v>321361611070.83917</v>
       </c>
       <c r="F59">
-        <v>3915.0935137001152</v>
+        <v>1574.0030994238296</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>347882.71598941379</v>
+        <v>350452.30658843892</v>
       </c>
       <c r="I59" t="s">
         <v>26</v>
@@ -2955,7 +2960,7 @@
         <v>-78.366228000000007</v>
       </c>
       <c r="M59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2966,22 +2971,22 @@
         <v>317344</v>
       </c>
       <c r="C60">
-        <v>1511134110.4838147</v>
+        <v>209190422.32285327</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>137117187462.94308</v>
+        <v>137372456985.34262</v>
       </c>
       <c r="F60">
-        <v>4761.8171778379765</v>
+        <v>659.1913580305702</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>432077.45368730172</v>
+        <v>432881.84741272125</v>
       </c>
       <c r="I60" t="s">
         <v>26</v>
@@ -2996,7 +3001,7 @@
         <v>-80.369006999999996</v>
       </c>
       <c r="M60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3007,22 +3012,22 @@
         <v>4078252</v>
       </c>
       <c r="C61">
-        <v>24365055320.784954</v>
+        <v>23538667666.510216</v>
       </c>
       <c r="D61">
-        <v>847100211941.50659</v>
+        <v>849170046570.84619</v>
       </c>
       <c r="E61">
-        <v>21050488741.448788</v>
+        <v>20992005692.298836</v>
       </c>
       <c r="F61">
-        <v>5974.3868992855159</v>
+        <v>5771.7540913386947</v>
       </c>
       <c r="G61">
-        <v>207711.5911281369</v>
+        <v>208219.12097899939</v>
       </c>
       <c r="H61">
-        <v>5161.6449256810974</v>
+        <v>5147.3047012050347</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
@@ -3037,7 +3042,7 @@
         <v>-76.696200000000005</v>
       </c>
       <c r="M61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3048,22 +3053,22 @@
         <v>3399679</v>
       </c>
       <c r="C62">
-        <v>20292251025.37513</v>
+        <v>19853910469.031685</v>
       </c>
       <c r="D62">
-        <v>679822008805.09302</v>
+        <v>685984273895.01367</v>
       </c>
       <c r="E62">
-        <v>19490439012.434235</v>
+        <v>19021728279.242481</v>
       </c>
       <c r="F62">
-        <v>5968.872656911175</v>
+        <v>5839.9367908063332</v>
       </c>
       <c r="G62">
-        <v>199966.52884142677</v>
+        <v>201779.13088118428</v>
       </c>
       <c r="H62">
-        <v>5733.023327330091</v>
+        <v>5595.1542128661213</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
@@ -3078,7 +3083,7 @@
         <v>-76.667199999999994</v>
       </c>
       <c r="M62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3089,22 +3094,22 @@
         <v>3734928</v>
       </c>
       <c r="C63">
-        <v>26817855671.760487</v>
+        <v>27058345614.887955</v>
       </c>
       <c r="D63">
-        <v>1068785405651.7192</v>
+        <v>1061528455552.0192</v>
       </c>
       <c r="E63">
-        <v>22114917591.002617</v>
+        <v>22483248749.324512</v>
       </c>
       <c r="F63">
-        <v>7180.287189407798</v>
+        <v>7244.6766349680511</v>
       </c>
       <c r="G63">
-        <v>286159.57406721613</v>
+        <v>284216.57808450906</v>
       </c>
       <c r="H63">
-        <v>5921.1094808260341</v>
+        <v>6019.7274885418174</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -3119,7 +3124,7 @@
         <v>-79.929699999999997</v>
       </c>
       <c r="M63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3130,22 +3135,22 @@
         <v>2911161</v>
       </c>
       <c r="C64">
-        <v>1993297080.3578229</v>
+        <v>285717467.14701748</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>174286287386.02582</v>
+        <v>175887512709.89606</v>
       </c>
       <c r="F64">
-        <v>684.70863698635117</v>
+        <v>98.145539579232306</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>59868.309374172648</v>
+        <v>60418.339181479845</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
@@ -3160,7 +3165,7 @@
         <v>-86.400599999999997</v>
       </c>
       <c r="M64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3171,22 +3176,22 @@
         <v>393144</v>
       </c>
       <c r="C65">
-        <v>470375878.72946453</v>
+        <v>233601671.0362435</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>55438880085.397606</v>
+        <v>55293421047.6884</v>
       </c>
       <c r="F65">
-        <v>1196.4467948880424</v>
+        <v>594.18856967483543</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>141014.18331552207</v>
+        <v>140644.19410620129</v>
       </c>
       <c r="I65" t="s">
         <v>29</v>
@@ -3201,7 +3206,7 @@
         <v>-82.199700000000007</v>
       </c>
       <c r="M65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3212,22 +3217,22 @@
         <v>2485399</v>
       </c>
       <c r="C66">
-        <v>19975650586.985847</v>
+        <v>18880390109.576702</v>
       </c>
       <c r="D66">
-        <v>720015244648.6167</v>
+        <v>720346918873.58936</v>
       </c>
       <c r="E66">
-        <v>17534506728.484329</v>
+        <v>16875966787.288784</v>
       </c>
       <c r="F66">
-        <v>8037.2007017729729</v>
+        <v>7596.5227754484094</v>
       </c>
       <c r="G66">
-        <v>289698.05035272671</v>
+        <v>289831.49943875789</v>
       </c>
       <c r="H66">
-        <v>7055.0067528329764</v>
+        <v>6790.0432837096914</v>
       </c>
       <c r="I66" t="s">
         <v>29</v>
@@ -3242,7 +3247,7 @@
         <v>-77.383300000000006</v>
       </c>
       <c r="M66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3253,22 +3258,22 @@
         <v>261201</v>
       </c>
       <c r="C67">
-        <v>1265347299.127538</v>
+        <v>269114849.48013747</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>132375271507.24126</v>
+        <v>129870560162.61296</v>
       </c>
       <c r="F67">
-        <v>4844.3432419000619</v>
+        <v>1030.2979294877794</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>506794.6581645601</v>
+        <v>497205.44776862633</v>
       </c>
       <c r="I67" t="s">
         <v>29</v>
@@ -3283,7 +3288,7 @@
         <v>-76.461100000000002</v>
       </c>
       <c r="M67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3294,22 +3299,22 @@
         <v>14072154</v>
       </c>
       <c r="C68">
-        <v>136192719398.68942</v>
+        <v>120238701210.51306</v>
       </c>
       <c r="D68">
-        <v>4828452197227.3164</v>
+        <v>4842322655549.3916</v>
       </c>
       <c r="E68">
-        <v>117808974848.99031</v>
+        <v>101229231959.70721</v>
       </c>
       <c r="F68">
-        <v>9678.1714724476042</v>
+        <v>8544.441825360429</v>
       </c>
       <c r="G68">
-        <v>343121.04580630059</v>
+        <v>344106.71284221247</v>
       </c>
       <c r="H68">
-        <v>8371.7798177159166</v>
+        <v>7193.5847177132382</v>
       </c>
       <c r="I68" t="s">
         <v>30</v>
@@ -3324,7 +3329,7 @@
         <v>-81.823300000000003</v>
       </c>
       <c r="M68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3335,22 +3340,22 @@
         <v>543145</v>
       </c>
       <c r="C69">
-        <v>1411624254.4659522</v>
+        <v>369481651.65897959</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>159956855343.74707</v>
+        <v>160324828594.90195</v>
       </c>
       <c r="F69">
-        <v>2598.9823241785384</v>
+        <v>680.26337655502596</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>294501.20196954231</v>
+        <v>295178.68818621535</v>
       </c>
       <c r="I69" t="s">
         <v>30</v>
@@ -3365,7 +3370,7 @@
         <v>-81.421099999999996</v>
       </c>
       <c r="M69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3376,22 +3381,22 @@
         <v>7296430</v>
       </c>
       <c r="C70">
-        <v>40670312554.829124</v>
+        <v>37445796436.891144</v>
       </c>
       <c r="D70">
-        <v>1486637844878.4604</v>
+        <v>1493741298414.3049</v>
       </c>
       <c r="E70">
-        <v>35458772887.77652</v>
+        <v>29978903697.662888</v>
       </c>
       <c r="F70">
-        <v>5574.0016082973625</v>
+        <v>5132.0709493397653</v>
       </c>
       <c r="G70">
-        <v>203748.66131498013</v>
+        <v>204722.21324871271</v>
       </c>
       <c r="H70">
-        <v>4859.742762937014</v>
+        <v>4108.7084639560562</v>
       </c>
       <c r="I70" t="s">
         <v>30</v>
@@ -3406,7 +3411,7 @@
         <v>-79.927499999999995</v>
       </c>
       <c r="M70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3417,22 +3422,22 @@
         <v>11269955</v>
       </c>
       <c r="C71">
-        <v>98363610649.844421</v>
+        <v>93000936599.353577</v>
       </c>
       <c r="D71">
-        <v>3140558883263.3506</v>
+        <v>3100540301560.5176</v>
       </c>
       <c r="E71">
-        <v>88527093865.728851</v>
+        <v>95059991374.130249</v>
       </c>
       <c r="F71">
-        <v>8727.9506129212077</v>
+        <v>8252.1125061593921</v>
       </c>
       <c r="G71">
-        <v>278666.49718329404</v>
+        <v>275115.588443833</v>
       </c>
       <c r="H71">
-        <v>7855.1417344371694</v>
+        <v>8434.8155226999788</v>
       </c>
       <c r="I71" t="s">
         <v>30</v>
@@ -3447,7 +3452,7 @@
         <v>-80.332499999999996</v>
       </c>
       <c r="M71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3458,22 +3463,22 @@
         <v>5367819</v>
       </c>
       <c r="C72">
-        <v>55749662494.973511</v>
+        <v>50535738641.055389</v>
       </c>
       <c r="D72">
-        <v>2001130060149.9893</v>
+        <v>1991242211700.9687</v>
       </c>
       <c r="E72">
-        <v>48032750950.0233</v>
+        <v>40942371361.331367</v>
       </c>
       <c r="F72">
-        <v>10385.905801774148</v>
+        <v>9414.5757599232365</v>
       </c>
       <c r="G72">
-        <v>372801.32958096929</v>
+        <v>370959.26887642237</v>
       </c>
       <c r="H72">
-        <v>8948.2806611071064</v>
+        <v>7627.375543275838</v>
       </c>
       <c r="I72" t="s">
         <v>30</v>
@@ -3488,7 +3493,7 @@
         <v>-80.815299999999993</v>
       </c>
       <c r="M72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3499,22 +3504,22 @@
         <v>9846148</v>
       </c>
       <c r="C73">
-        <v>77513641187.670425</v>
+        <v>69275351550.676208</v>
       </c>
       <c r="D73">
-        <v>2711549527665.3955</v>
+        <v>2726512136459.1353</v>
       </c>
       <c r="E73">
-        <v>66831426232.856064</v>
+        <v>57839784088.21711</v>
       </c>
       <c r="F73">
-        <v>7872.4838574100677</v>
+        <v>7035.7820693611557</v>
       </c>
       <c r="G73">
-        <v>275391.91241746477</v>
+        <v>276911.55327536567</v>
       </c>
       <c r="H73">
-        <v>6787.57075689458</v>
+        <v>5874.3565593587573</v>
       </c>
       <c r="I73" t="s">
         <v>30</v>
@@ -3529,7 +3534,7 @@
         <v>-79.263599999999997</v>
       </c>
       <c r="M73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3540,22 +3545,22 @@
         <v>5178344</v>
       </c>
       <c r="C74">
-        <v>8521777423.5870142</v>
+        <v>9394624141.8066788</v>
       </c>
       <c r="D74">
-        <v>290587756351.96472</v>
+        <v>289807071219.65839</v>
       </c>
       <c r="E74">
-        <v>7420519482.4660721</v>
+        <v>9501024066.7657871</v>
       </c>
       <c r="F74">
-        <v>1645.6568786444109</v>
+        <v>1814.2139923123452</v>
       </c>
       <c r="G74">
-        <v>56115.962236569198</v>
+        <v>55965.202624556885</v>
       </c>
       <c r="H74">
-        <v>1432.990833066724</v>
+        <v>1834.761087089963</v>
       </c>
       <c r="I74" t="s">
         <v>31</v>
@@ -3570,7 +3575,7 @@
         <v>-87.829400000000007</v>
       </c>
       <c r="M74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3581,22 +3586,22 @@
         <v>3896653</v>
       </c>
       <c r="C75">
-        <v>2665061399.1729584</v>
+        <v>4012919032.5145202</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>234027584707.29425</v>
+        <v>236288421795.98291</v>
       </c>
       <c r="F75">
-        <v>683.93603412286348</v>
+        <v>1029.8374098269771</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>60058.615613782968</v>
+        <v>60638.815361794572</v>
       </c>
       <c r="I75" t="s">
         <v>31</v>
@@ -3611,7 +3616,7 @@
         <v>-87.705862999999994</v>
       </c>
       <c r="M75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3622,22 +3627,22 @@
         <v>419820</v>
       </c>
       <c r="C76">
-        <v>311339158.82438254</v>
+        <v>23252098153.934219</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>26779201660.390228</v>
+        <v>3821890770.5788965</v>
       </c>
       <c r="F76">
-        <v>741.60154071836155</v>
+        <v>55385.875265433329</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>63787.341385332351</v>
+        <v>9103.6414905885777</v>
       </c>
       <c r="I76" t="s">
         <v>31</v>
@@ -3652,7 +3657,7 @@
         <v>-88.008600000000001</v>
       </c>
       <c r="M76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3663,7 +3668,7 @@
         <v>12685</v>
       </c>
       <c r="C77">
-        <v>12884907.176741716</v>
+        <v>843115.96655999986</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3672,7 +3677,7 @@
         <v>754631838.71356034</v>
       </c>
       <c r="F77">
-        <v>1015.7593359670253</v>
+        <v>66.465586642491118</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3693,7 +3698,7 @@
         <v>-89.655299999999997</v>
       </c>
       <c r="M77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3704,22 +3709,22 @@
         <v>1522254</v>
       </c>
       <c r="C78">
-        <v>1547117180.0786848</v>
+        <v>1063039057.5482383</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>111576265752.67859</v>
+        <v>112474830038.21922</v>
       </c>
       <c r="F78">
-        <v>1016.333134995004</v>
+        <v>698.33224780374258</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>73296.746635370044</v>
+        <v>73887.032018453698</v>
       </c>
       <c r="I78" t="s">
         <v>32</v>
@@ -3734,7 +3739,7 @@
         <v>-105.7769</v>
       </c>
       <c r="M78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3745,22 +3750,22 @@
         <v>4899321</v>
       </c>
       <c r="C79">
-        <v>6072570526.8782845</v>
+        <v>6267542531.3367796</v>
       </c>
       <c r="D79">
         <v>107823125766.49626</v>
       </c>
       <c r="E79">
-        <v>157143134303.28357</v>
+        <v>158102964411.06808</v>
       </c>
       <c r="F79">
-        <v>1239.4718629128984</v>
+        <v>1279.2675824541359</v>
       </c>
       <c r="G79">
         <v>22007.769192199543</v>
       </c>
       <c r="H79">
-        <v>32074.47201424107</v>
+        <v>32270.382857352699</v>
       </c>
       <c r="I79" t="s">
         <v>32</v>
@@ -3775,7 +3780,7 @@
         <v>-110.59829999999999</v>
       </c>
       <c r="M79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3786,22 +3791,22 @@
         <v>214384</v>
       </c>
       <c r="C80">
-        <v>1829284359.3303986</v>
+        <v>1809945091.9311121</v>
       </c>
       <c r="D80">
-        <v>72896440552.286163</v>
+        <v>72069410038.890808</v>
       </c>
       <c r="E80">
-        <v>1513511963.1726317</v>
+        <v>1494766407.0226467</v>
       </c>
       <c r="F80">
-        <v>8532.7466570751476</v>
+        <v>8442.5381181949779</v>
       </c>
       <c r="G80">
-        <v>340027.42999611056</v>
+        <v>336169.7236682346</v>
       </c>
       <c r="H80">
-        <v>7059.8177250757144</v>
+        <v>6972.3785684689465</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
@@ -3816,7 +3821,7 @@
         <v>-84.754999999999995</v>
       </c>
       <c r="M80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3827,22 +3832,22 @@
         <v>17815891</v>
       </c>
       <c r="C81">
-        <v>28980304207.532906</v>
+        <v>27047133358.602299</v>
       </c>
       <c r="D81">
-        <v>984539916290.64038</v>
+        <v>982296163079.29492</v>
       </c>
       <c r="E81">
-        <v>25071493265.355396</v>
+        <v>31079133996.707321</v>
       </c>
       <c r="F81">
-        <v>1626.6547773295708</v>
+        <v>1518.1465444867338</v>
       </c>
       <c r="G81">
-        <v>55261.896039363986</v>
+        <v>55135.954922450692</v>
       </c>
       <c r="H81">
-        <v>1407.2545271721406</v>
+        <v>1744.461391052927</v>
       </c>
       <c r="I81" t="s">
         <v>9</v>
@@ -3857,7 +3862,7 @@
         <v>-87.059700000000007</v>
       </c>
       <c r="M81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3868,22 +3873,22 @@
         <v>7047532</v>
       </c>
       <c r="C82">
-        <v>49735602316.408951</v>
+        <v>45606170405.29985</v>
       </c>
       <c r="D82">
-        <v>1935441366806.7256</v>
+        <v>1901405886907.1265</v>
       </c>
       <c r="E82">
-        <v>40434841197.192215</v>
+        <v>36287338689.167702</v>
       </c>
       <c r="F82">
-        <v>7057.1658725932648</v>
+        <v>6471.2257291346605</v>
       </c>
       <c r="G82">
-        <v>274626.82919449324</v>
+        <v>269797.41091024864</v>
       </c>
       <c r="H82">
-        <v>5737.4469810413375</v>
+        <v>5148.9427347286546</v>
       </c>
       <c r="I82" t="s">
         <v>30</v>
@@ -3898,7 +3903,7 @@
         <v>-81.294443999999999</v>
       </c>
       <c r="M82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3909,22 +3914,22 @@
         <v>6223129</v>
       </c>
       <c r="C83">
-        <v>5121288539.7846575</v>
+        <v>3578923942.8947468</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>370825340185.49884</v>
+        <v>373811954833.38867</v>
       </c>
       <c r="F83">
-        <v>822.94430017193235</v>
+        <v>575.10039449523651</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>59588.24574992722</v>
+        <v>60068.167449748937</v>
       </c>
       <c r="I83" t="s">
         <v>33</v>
@@ -3939,7 +3944,7 @@
         <v>-92.140600000000006</v>
       </c>
       <c r="M83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3950,22 +3955,22 @@
         <v>2129192</v>
       </c>
       <c r="C84">
-        <v>3373309453.5334115</v>
+        <v>4030861014.8671398</v>
       </c>
       <c r="D84">
         <v>118550922029.39088</v>
       </c>
       <c r="E84">
-        <v>4327946165.3380585</v>
+        <v>4279068431.4063129</v>
       </c>
       <c r="F84">
-        <v>1584.3143565885141</v>
+        <v>1893.1411609977588</v>
       </c>
       <c r="G84">
         <v>55678.83123240689</v>
       </c>
       <c r="H84">
-        <v>2032.6706869733018</v>
+        <v>2009.7146858556264</v>
       </c>
       <c r="I84" t="s">
         <v>13</v>
@@ -3980,7 +3985,7 @@
         <v>-89.984099999999998</v>
       </c>
       <c r="M84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3991,22 +3996,22 @@
         <v>4998069</v>
       </c>
       <c r="C85">
-        <v>4065457795.9009161</v>
+        <v>2664294028.729248</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>303800681220.47473</v>
+        <v>306328265025.02881</v>
       </c>
       <c r="F85">
-        <v>813.40569646015615</v>
+        <v>533.06467532345948</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>60783.610874614722</v>
+        <v>61289.322941525781</v>
       </c>
       <c r="I85" t="s">
         <v>13</v>
@@ -4021,7 +4026,7 @@
         <v>-88.278099999999995</v>
       </c>
       <c r="M85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4032,22 +4037,22 @@
         <v>8834166</v>
       </c>
       <c r="C86">
-        <v>20628536490.40126</v>
+        <v>11991065592.159336</v>
       </c>
       <c r="D86">
-        <v>650931000444.48352</v>
+        <v>651272540512.4668</v>
       </c>
       <c r="E86">
-        <v>16510998807.009993</v>
+        <v>24166623200.771812</v>
       </c>
       <c r="F86">
-        <v>2335.0859028912587</v>
+        <v>1357.3511740847225</v>
       </c>
       <c r="G86">
-        <v>73683.356238096894</v>
+        <v>73722.017507081793</v>
       </c>
       <c r="H86">
-        <v>1868.9934971801517</v>
+        <v>2735.5862682195257</v>
       </c>
       <c r="I86" t="s">
         <v>24</v>
@@ -4062,7 +4067,7 @@
         <v>-101.15705800000001</v>
       </c>
       <c r="M86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4073,22 +4078,22 @@
         <v>5464804</v>
       </c>
       <c r="C87">
-        <v>4726782667.9293642</v>
+        <v>173098357103.02509</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>360342899542.32654</v>
+        <v>193773552360.97971</v>
       </c>
       <c r="F87">
-        <v>864.95008200282462</v>
+        <v>31675.126336283072</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>65938.851520077675</v>
+        <v>35458.463352204344</v>
       </c>
       <c r="I87" t="s">
         <v>34</v>
@@ -4103,7 +4108,7 @@
         <v>-91.369200000000006</v>
       </c>
       <c r="M87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4114,7 +4119,7 @@
         <v>1204962</v>
       </c>
       <c r="C88">
-        <v>1411899887.165601</v>
+        <v>135484731.33016497</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4123,7 +4128,7 @@
         <v>83404324705.039307</v>
       </c>
       <c r="F88">
-        <v>1171.7381022518562</v>
+        <v>112.43900747921094</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4144,7 +4149,7 @@
         <v>-94.697500000000005</v>
       </c>
       <c r="M88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4155,22 +4160,22 @@
         <v>11346108</v>
       </c>
       <c r="C89">
-        <v>20948315154.170876</v>
+        <v>21663611548.712597</v>
       </c>
       <c r="D89">
-        <v>716876731580.5918</v>
+        <v>715449417295.67969</v>
       </c>
       <c r="E89">
-        <v>20664392944.609016</v>
+        <v>22449565495.628624</v>
       </c>
       <c r="F89">
-        <v>1846.2996433817548</v>
+        <v>1909.3429701808407</v>
       </c>
       <c r="G89">
-        <v>63182.611304298516</v>
+        <v>63056.813604777926</v>
       </c>
       <c r="H89">
-        <v>1821.2758899006617</v>
+        <v>1978.6137674371357</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
@@ -4185,250 +4190,250 @@
         <v>-96.117231000000004</v>
       </c>
       <c r="M89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6076</v>
+        <v>6073</v>
       </c>
       <c r="B90">
-        <v>14844275</v>
+        <v>2439887</v>
       </c>
       <c r="C90">
-        <v>15107696923.368599</v>
+        <v>6298249681.3951168</v>
       </c>
       <c r="D90">
-        <v>893647251047.47559</v>
+        <v>238659511009.80548</v>
       </c>
       <c r="E90">
-        <v>22671249574.226521</v>
+        <v>5097378798.9148684</v>
       </c>
       <c r="F90">
-        <v>1017.7456914109041</v>
+        <v>2581.3694164504818</v>
       </c>
       <c r="G90">
-        <v>60201.475049975532</v>
+        <v>97815.804998266511</v>
       </c>
       <c r="H90">
-        <v>1527.2722698970829</v>
+        <v>2089.1864249921691</v>
       </c>
       <c r="I90" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="J90">
-        <v>59323</v>
+        <v>39552</v>
       </c>
       <c r="K90">
-        <v>45.883099999999999</v>
+        <v>30.5322</v>
       </c>
       <c r="L90">
-        <v>-106.614</v>
+        <v>-88.555300000000003</v>
       </c>
       <c r="M90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6082</v>
+        <v>6076</v>
       </c>
       <c r="B91">
-        <v>614883</v>
+        <v>14844275</v>
       </c>
       <c r="C91">
-        <v>1419223664.900198</v>
+        <v>15291326274.05167</v>
       </c>
       <c r="D91">
-        <v>44562861051.92942</v>
+        <v>904509255049.93408</v>
       </c>
       <c r="E91">
-        <v>1156287007.7321703</v>
+        <v>25672537933.106552</v>
       </c>
       <c r="F91">
-        <v>2308.1198616650613</v>
+        <v>1030.1160733044671</v>
       </c>
       <c r="G91">
-        <v>72473.724353949321</v>
+        <v>60933.20522894746</v>
       </c>
       <c r="H91">
-        <v>1880.4992294992223</v>
+        <v>1729.4571767975567</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J91">
-        <v>14012</v>
+        <v>59323</v>
       </c>
       <c r="K91">
-        <v>43.358888999999998</v>
+        <v>45.883099999999999</v>
       </c>
       <c r="L91">
-        <v>-78.604721999999995</v>
+        <v>-106.614</v>
       </c>
       <c r="M91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6089</v>
+        <v>6082</v>
       </c>
       <c r="B92">
-        <v>222191</v>
+        <v>614883</v>
       </c>
       <c r="C92">
-        <v>361608398.46719337</v>
+        <v>1419223664.900198</v>
       </c>
       <c r="D92">
-        <v>21389782498.617523</v>
+        <v>48259386778.824982</v>
       </c>
       <c r="E92">
-        <v>797334895.49307013</v>
+        <v>1208197010.7301219</v>
       </c>
       <c r="F92">
-        <v>1627.4664521388956</v>
+        <v>2308.1198616650613</v>
       </c>
       <c r="G92">
-        <v>96267.546834109045</v>
+        <v>78485.478991653668</v>
       </c>
       <c r="H92">
-        <v>3588.5112155445995</v>
+        <v>1964.9217993181171</v>
       </c>
       <c r="I92" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J92">
-        <v>59270</v>
+        <v>14012</v>
       </c>
       <c r="K92">
-        <v>47.6785</v>
+        <v>43.358888999999998</v>
       </c>
       <c r="L92">
-        <v>-104.15665</v>
+        <v>-78.604721999999995</v>
       </c>
       <c r="M92" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6090</v>
+        <v>6089</v>
       </c>
       <c r="B93">
-        <v>7152189</v>
+        <v>222191</v>
       </c>
       <c r="C93">
-        <v>7183587300.3556538</v>
+        <v>361608398.46719337</v>
       </c>
       <c r="D93">
-        <v>424922016650.50299</v>
+        <v>21389782498.617523</v>
       </c>
       <c r="E93">
-        <v>11251846954.261683</v>
+        <v>797334895.49307013</v>
       </c>
       <c r="F93">
-        <v>1004.3900266555671</v>
+        <v>1627.4664521388956</v>
       </c>
       <c r="G93">
-        <v>59411.463630295984</v>
+        <v>96267.546834109045</v>
       </c>
       <c r="H93">
-        <v>1573.203246483235</v>
+        <v>3588.5112155445995</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J93">
-        <v>55308</v>
+        <v>59270</v>
       </c>
       <c r="K93">
-        <v>45.380800000000001</v>
+        <v>47.6785</v>
       </c>
       <c r="L93">
-        <v>-93.893100000000004</v>
+        <v>-104.15665</v>
       </c>
       <c r="M93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6094</v>
+        <v>6090</v>
       </c>
       <c r="B94">
-        <v>13610817</v>
+        <v>7152189</v>
       </c>
       <c r="C94">
-        <v>90694459160.979431</v>
+        <v>7183587300.3556538</v>
       </c>
       <c r="D94">
-        <v>4336119523571.6851</v>
+        <v>424922016650.50299</v>
       </c>
       <c r="E94">
-        <v>101619780493.99509</v>
+        <v>15645699625.955721</v>
       </c>
       <c r="F94">
-        <v>6663.4103713964732</v>
+        <v>1004.3900266555671</v>
       </c>
       <c r="G94">
-        <v>318578.93053530034</v>
+        <v>59411.463630295984</v>
       </c>
       <c r="H94">
-        <v>7466.1043855041971</v>
+        <v>2187.5400141069708</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J94">
-        <v>15077</v>
+        <v>55308</v>
       </c>
       <c r="K94">
-        <v>40.634799999999998</v>
+        <v>45.380800000000001</v>
       </c>
       <c r="L94">
-        <v>-80.415899999999993</v>
+        <v>-93.893100000000004</v>
       </c>
       <c r="M94" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6095</v>
+        <v>6094</v>
       </c>
       <c r="B95">
-        <v>5621453</v>
+        <v>13610817</v>
       </c>
       <c r="C95">
-        <v>4547522606.92943</v>
+        <v>88982984517.419006</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>4398969169348.8623</v>
       </c>
       <c r="E95">
-        <v>341026791735.21704</v>
+        <v>90939887332.276733</v>
       </c>
       <c r="F95">
-        <v>808.95857475450384</v>
+        <v>6537.666660085064</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>323196.55530956463</v>
       </c>
       <c r="H95">
-        <v>60665.239349189083</v>
+        <v>6681.4422185146368</v>
       </c>
       <c r="I95" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J95">
-        <v>73061</v>
+        <v>15077</v>
       </c>
       <c r="K95">
-        <v>36.453069999999997</v>
+        <v>40.634799999999998</v>
       </c>
       <c r="L95">
-        <v>-97.052790000000002</v>
+        <v>-80.415899999999993</v>
       </c>
       <c r="M95" t="s">
         <v>46</v>
@@ -4436,40 +4441,40 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6096</v>
+        <v>6095</v>
       </c>
       <c r="B96">
-        <v>4776449</v>
+        <v>5621453</v>
       </c>
       <c r="C96">
-        <v>4956201929.7189341</v>
+        <v>5873559875.6891193</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>284790010656.84698</v>
+        <v>343874079262.42822</v>
       </c>
       <c r="F96">
-        <v>1037.6331726181802</v>
+        <v>1044.8472798205587</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>59623.793880526515</v>
+        <v>61171.743188536529</v>
       </c>
       <c r="I96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J96">
-        <v>68410</v>
+        <v>73061</v>
       </c>
       <c r="K96">
-        <v>40.621400000000001</v>
+        <v>36.453069999999997</v>
       </c>
       <c r="L96">
-        <v>-95.776399999999995</v>
+        <v>-97.052790000000002</v>
       </c>
       <c r="M96" t="s">
         <v>44</v>
@@ -4477,1027 +4482,1068 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6106</v>
+        <v>6096</v>
       </c>
       <c r="B97">
-        <v>2383346</v>
+        <v>4776449</v>
       </c>
       <c r="C97">
-        <v>2363629633.8331404</v>
+        <v>4821032786.1811447</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>139625291605.07703</v>
+        <v>284790010656.84698</v>
       </c>
       <c r="F97">
-        <v>991.72744277714628</v>
+        <v>1009.3340860922298</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>58583.727081622652</v>
+        <v>59623.793880526515</v>
       </c>
       <c r="I97" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J97">
-        <v>97818</v>
+        <v>68410</v>
       </c>
       <c r="K97">
-        <v>45.693182</v>
+        <v>40.621400000000001</v>
       </c>
       <c r="L97">
-        <v>-119.808819</v>
+        <v>-95.776399999999995</v>
       </c>
       <c r="M97" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6124</v>
+        <v>6106</v>
       </c>
       <c r="B98">
-        <v>93260</v>
+        <v>2383346</v>
       </c>
       <c r="C98">
-        <v>10020346.390529998</v>
+        <v>2429899623.5667796</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>9279373471.3691063</v>
+        <v>139625291605.07703</v>
       </c>
       <c r="F98">
-        <v>107.44527547212093</v>
+        <v>1019.5328850980007</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>99500.037222486659</v>
+        <v>58583.727081622652</v>
       </c>
       <c r="I98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J98">
-        <v>31326</v>
+        <v>97818</v>
       </c>
       <c r="K98">
-        <v>32.356287000000002</v>
+        <v>45.693182</v>
       </c>
       <c r="L98">
-        <v>-81.168346999999997</v>
+        <v>-119.808819</v>
       </c>
       <c r="M98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6136</v>
+        <v>6124</v>
       </c>
       <c r="B99">
-        <v>2184313</v>
+        <v>93260</v>
       </c>
       <c r="C99">
-        <v>4591553309.6355963</v>
+        <v>160163951.90588135</v>
       </c>
       <c r="D99">
-        <v>135041341390.02133</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>2743619828.3052931</v>
+        <v>9279373471.3691063</v>
       </c>
       <c r="F99">
-        <v>2102.0583174827034</v>
+        <v>1717.3917210581315</v>
       </c>
       <c r="G99">
-        <v>61823.255820031896</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1256.0561734079745</v>
+        <v>99500.037222486659</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J99">
-        <v>77830</v>
+        <v>31326</v>
       </c>
       <c r="K99">
-        <v>30.619937</v>
+        <v>32.356287000000002</v>
       </c>
       <c r="L99">
-        <v>-96.081845999999999</v>
+        <v>-81.168346999999997</v>
       </c>
       <c r="M99" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6146</v>
+        <v>6136</v>
       </c>
       <c r="B100">
-        <v>9975515</v>
+        <v>2184313</v>
       </c>
       <c r="C100">
-        <v>23358605423.577797</v>
+        <v>4645302628.0630636</v>
       </c>
       <c r="D100">
-        <v>787302115995.57605</v>
+        <v>135041341390.02133</v>
       </c>
       <c r="E100">
-        <v>21254852221.636917</v>
+        <v>4874286348.7265272</v>
       </c>
       <c r="F100">
-        <v>2341.5939351078914</v>
+        <v>2126.6652847202135</v>
       </c>
       <c r="G100">
-        <v>78923.455680792031</v>
+        <v>61823.255820031896</v>
       </c>
       <c r="H100">
-        <v>2130.7022466145277</v>
+        <v>2231.4962868080388</v>
       </c>
       <c r="I100" t="s">
         <v>11</v>
       </c>
       <c r="J100">
-        <v>75691</v>
+        <v>77830</v>
       </c>
       <c r="K100">
-        <v>32.260599999999997</v>
+        <v>30.619937</v>
       </c>
       <c r="L100">
-        <v>-94.570599999999999</v>
+        <v>-96.081845999999999</v>
       </c>
       <c r="M100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6147</v>
+        <v>6146</v>
       </c>
       <c r="B101">
-        <v>2161126</v>
+        <v>9975515</v>
       </c>
       <c r="C101">
-        <v>4624846197.7997799</v>
+        <v>22920651330.495354</v>
       </c>
       <c r="D101">
-        <v>179422969010.60535</v>
+        <v>791643821810.72632</v>
       </c>
       <c r="E101">
-        <v>3495349988.1942906</v>
+        <v>23867499618.343662</v>
       </c>
       <c r="F101">
-        <v>2140.0169160890109</v>
+        <v>2297.6910295353528</v>
       </c>
       <c r="G101">
-        <v>83022.909821364126</v>
+        <v>79358.691938283519</v>
       </c>
       <c r="H101">
-        <v>1617.3744558134467</v>
+        <v>2392.60826316673</v>
       </c>
       <c r="I101" t="s">
         <v>11</v>
       </c>
       <c r="J101">
-        <v>75455</v>
+        <v>75691</v>
       </c>
       <c r="K101">
-        <v>33.091700000000003</v>
+        <v>32.260599999999997</v>
       </c>
       <c r="L101">
-        <v>-95.041700000000006</v>
+        <v>-94.570599999999999</v>
       </c>
       <c r="M101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6155</v>
+        <v>6147</v>
       </c>
       <c r="B102">
-        <v>7465222</v>
+        <v>2161126</v>
       </c>
       <c r="C102">
-        <v>6174073628.7955894</v>
+        <v>6183531315.4172087</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>179380110398.93103</v>
       </c>
       <c r="E102">
-        <v>432639874512.61761</v>
+        <v>3378531255.6334224</v>
       </c>
       <c r="F102">
-        <v>827.04487941491755</v>
+        <v>2861.2544180289387</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>83003.078209660627</v>
       </c>
       <c r="H102">
-        <v>57954.053410952496</v>
+        <v>1563.3198877036427</v>
       </c>
       <c r="I102" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J102">
-        <v>63028</v>
+        <v>75455</v>
       </c>
       <c r="K102">
-        <v>38.131247999999999</v>
+        <v>33.091700000000003</v>
       </c>
       <c r="L102">
-        <v>-90.263157000000007</v>
+        <v>-95.041700000000006</v>
       </c>
       <c r="M102" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6166</v>
+        <v>6155</v>
       </c>
       <c r="B103">
-        <v>12442473</v>
+        <v>7465222</v>
       </c>
       <c r="C103">
-        <v>104378119720.19339</v>
+        <v>7384559594.4187489</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>11446112632631.969</v>
+        <v>436180782475.98035</v>
       </c>
       <c r="F103">
-        <v>8388.8564371562952</v>
+        <v>989.1949086602848</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>919922.64179572416</v>
+        <v>58428.373928595873</v>
       </c>
       <c r="I103" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J103">
-        <v>47635</v>
+        <v>63028</v>
       </c>
       <c r="K103">
-        <v>37.925600000000003</v>
+        <v>38.131247999999999</v>
       </c>
       <c r="L103">
-        <v>-87.037199999999999</v>
+        <v>-90.263157000000007</v>
       </c>
       <c r="M103" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>6170</v>
+        <v>6166</v>
       </c>
       <c r="B104">
-        <v>6659324</v>
+        <v>12442473</v>
       </c>
       <c r="C104">
-        <v>13124146203.688169</v>
+        <v>8103080753261.2969</v>
       </c>
       <c r="D104">
-        <v>419354745808.2663</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>10621726445.719658</v>
+        <v>1314636034027.8025</v>
       </c>
       <c r="F104">
-        <v>1970.7925614804399</v>
+        <v>651243.58744931954</v>
       </c>
       <c r="G104">
-        <v>62972.569859683397</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1595.0157171688384</v>
+        <v>105657.13375691492</v>
       </c>
       <c r="I104" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J104">
-        <v>53158</v>
+        <v>47635</v>
       </c>
       <c r="K104">
-        <v>42.5381</v>
+        <v>37.925600000000003</v>
       </c>
       <c r="L104">
-        <v>-87.903300000000002</v>
+        <v>-87.037199999999999</v>
       </c>
       <c r="M104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6179</v>
+        <v>6170</v>
       </c>
       <c r="B105">
-        <v>8727176</v>
+        <v>6659324</v>
       </c>
       <c r="C105">
-        <v>15486759347.869812</v>
+        <v>13033731058.278923</v>
       </c>
       <c r="D105">
-        <v>527469163543.0423</v>
+        <v>418115114422.86926</v>
       </c>
       <c r="E105">
-        <v>14458289353.92795</v>
+        <v>10535678836.126976</v>
       </c>
       <c r="F105">
-        <v>1774.5441764747052</v>
+        <v>1957.2153357125924</v>
       </c>
       <c r="G105">
-        <v>60439.844864254177</v>
+        <v>62786.420126557779</v>
       </c>
       <c r="H105">
-        <v>1656.6973501998757</v>
+        <v>1582.0943441296708</v>
       </c>
       <c r="I105" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J105">
-        <v>78945</v>
+        <v>53158</v>
       </c>
       <c r="K105">
-        <v>29.917200000000001</v>
+        <v>42.5381</v>
       </c>
       <c r="L105">
-        <v>-96.750600000000006</v>
+        <v>-87.903300000000002</v>
       </c>
       <c r="M105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6183</v>
+        <v>6179</v>
       </c>
       <c r="B106">
-        <v>2169628</v>
+        <v>8727176</v>
       </c>
       <c r="C106">
-        <v>8694904664.4317913</v>
+        <v>14400230400.472406</v>
       </c>
       <c r="D106">
-        <v>261748136418.00256</v>
+        <v>526103735396.16156</v>
       </c>
       <c r="E106">
-        <v>4278664568.1213622</v>
+        <v>12897228817.3603</v>
       </c>
       <c r="F106">
-        <v>4007.5555184721948</v>
+        <v>1650.0446880494223</v>
       </c>
       <c r="G106">
-        <v>120641.9424979778</v>
+        <v>60283.387821691867</v>
       </c>
       <c r="H106">
-        <v>1972.0728936579737</v>
+        <v>1477.8238478701817</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
       </c>
       <c r="J106">
-        <v>78012</v>
+        <v>78945</v>
       </c>
       <c r="K106">
-        <v>28.7044</v>
+        <v>29.917200000000001</v>
       </c>
       <c r="L106">
-        <v>-98.477500000000006</v>
+        <v>-96.750600000000006</v>
       </c>
       <c r="M106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6193</v>
+        <v>6183</v>
       </c>
       <c r="B107">
-        <v>2006853</v>
+        <v>2169628</v>
       </c>
       <c r="C107">
-        <v>2024137062.7719047</v>
+        <v>8694904664.4317913</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>261748136418.00256</v>
       </c>
       <c r="E107">
-        <v>119570648291.39082</v>
+        <v>4278664568.1213622</v>
       </c>
       <c r="F107">
-        <v>1008.6125205841707</v>
+        <v>4007.5555184721948</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>120641.9424979778</v>
       </c>
       <c r="H107">
-        <v>59581.169269194514</v>
+        <v>1972.0728936579737</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
       </c>
       <c r="J107">
-        <v>79108</v>
+        <v>78012</v>
       </c>
       <c r="K107">
-        <v>35.298160000000003</v>
+        <v>28.7044</v>
       </c>
       <c r="L107">
-        <v>-101.747187</v>
+        <v>-98.477500000000006</v>
       </c>
       <c r="M107" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6249</v>
+        <v>6193</v>
       </c>
       <c r="B108">
-        <v>3910602</v>
+        <v>2006853</v>
       </c>
       <c r="C108">
-        <v>39993240249.045609</v>
+        <v>2024137062.7719047</v>
       </c>
       <c r="D108">
-        <v>1396580154205.4849</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>34390813486.540375</v>
+        <v>119570648291.39082</v>
       </c>
       <c r="F108">
-        <v>10226.875618906144</v>
+        <v>1008.6125205841707</v>
       </c>
       <c r="G108">
-        <v>357126.64040101366</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>8794.2504725718391</v>
+        <v>59581.169269194514</v>
       </c>
       <c r="I108" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J108">
-        <v>29440</v>
+        <v>79108</v>
       </c>
       <c r="K108">
-        <v>33.33184</v>
+        <v>35.298160000000003</v>
       </c>
       <c r="L108">
-        <v>-79.357236</v>
+        <v>-101.747187</v>
       </c>
       <c r="M108" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6264</v>
+        <v>6249</v>
       </c>
       <c r="B109">
-        <v>7463219</v>
+        <v>3910602</v>
       </c>
       <c r="C109">
-        <v>54879844946.426796</v>
+        <v>36519584829.520317</v>
       </c>
       <c r="D109">
-        <v>2183935573342.9014</v>
+        <v>1418923195999.9436</v>
       </c>
       <c r="E109">
-        <v>44374436025.355858</v>
+        <v>31645304496.121429</v>
       </c>
       <c r="F109">
-        <v>7353.3745889577676</v>
+        <v>9338.6094594950646</v>
       </c>
       <c r="G109">
-        <v>292626.4890984575</v>
+        <v>362840.09367354272</v>
       </c>
       <c r="H109">
-        <v>5945.7502219023536</v>
+        <v>8092.1823535408175</v>
       </c>
       <c r="I109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J109">
-        <v>25265</v>
+        <v>29440</v>
       </c>
       <c r="K109">
-        <v>38.979399999999998</v>
+        <v>33.33184</v>
       </c>
       <c r="L109">
-        <v>-81.934399999999997</v>
+        <v>-79.357236</v>
       </c>
       <c r="M109" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6641</v>
+        <v>6264</v>
       </c>
       <c r="B110">
-        <v>5184267</v>
+        <v>7463219</v>
       </c>
       <c r="C110">
-        <v>4272637363.6433434</v>
+        <v>55590587378.810051</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2205598350820.2759</v>
       </c>
       <c r="E110">
-        <v>326647904311.13074</v>
+        <v>45620106614.873474</v>
       </c>
       <c r="F110">
-        <v>824.15457453162492</v>
+        <v>7448.6072804255173</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>295529.09419116279</v>
       </c>
       <c r="H110">
-        <v>63007.538830683436</v>
+        <v>6112.6581726830573</v>
       </c>
       <c r="I110" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J110">
-        <v>72562</v>
+        <v>25265</v>
       </c>
       <c r="K110">
-        <v>35.678441999999997</v>
+        <v>38.979399999999998</v>
       </c>
       <c r="L110">
-        <v>-91.408760999999998</v>
+        <v>-81.934399999999997</v>
       </c>
       <c r="M110" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6648</v>
+        <v>6641</v>
       </c>
       <c r="B111">
-        <v>4104611</v>
+        <v>5184267</v>
       </c>
       <c r="C111">
-        <v>8189636801.2822599</v>
+        <v>5584316401.833046</v>
       </c>
       <c r="D111">
-        <v>357722240129.34924</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>5847504761.7002945</v>
+        <v>329356714748.08624</v>
       </c>
       <c r="F111">
-        <v>1995.2284884687635</v>
+        <v>1077.1660490929664</v>
       </c>
       <c r="G111">
-        <v>87151.313517736329</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1424.6184989759795</v>
+        <v>63530.044796706316</v>
       </c>
       <c r="I111" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J111">
-        <v>76567</v>
+        <v>72562</v>
       </c>
       <c r="K111">
-        <v>30.565871000000001</v>
+        <v>35.678441999999997</v>
       </c>
       <c r="L111">
-        <v>-97.064031999999997</v>
+        <v>-91.408760999999998</v>
       </c>
       <c r="M111" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6768</v>
+        <v>6648</v>
       </c>
       <c r="B112">
-        <v>1299004</v>
+        <v>4104611</v>
       </c>
       <c r="C112">
-        <v>1354645879.7842855</v>
+        <v>8189636801.2822599</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>357722240129.34924</v>
       </c>
       <c r="E112">
-        <v>80022192681.583832</v>
+        <v>12614747906.092033</v>
       </c>
       <c r="F112">
-        <v>1042.8342636237344</v>
+        <v>1995.2284884687635</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>87151.313517736329</v>
       </c>
       <c r="H112">
-        <v>61602.73000051103</v>
+        <v>3073.311430996027</v>
       </c>
       <c r="I112" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J112">
-        <v>63801</v>
+        <v>76567</v>
       </c>
       <c r="K112">
-        <v>36.879100000000001</v>
+        <v>30.565871000000001</v>
       </c>
       <c r="L112">
-        <v>-89.620900000000006</v>
+        <v>-97.064031999999997</v>
       </c>
       <c r="M112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>6772</v>
+        <v>6768</v>
       </c>
       <c r="B113">
-        <v>2477354</v>
+        <v>1299004</v>
       </c>
       <c r="C113">
-        <v>261185175.78583497</v>
+        <v>1354645879.7842855</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>160785447891.53268</v>
+        <v>80022192681.583832</v>
       </c>
       <c r="F113">
-        <v>105.42908917572336</v>
+        <v>1042.8342636237344</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>64902.0882326598</v>
+        <v>61602.73000051103</v>
       </c>
       <c r="I113" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J113">
-        <v>74735</v>
+        <v>63801</v>
       </c>
       <c r="K113">
-        <v>34.015799999999999</v>
+        <v>36.879100000000001</v>
       </c>
       <c r="L113">
-        <v>-95.320599999999999</v>
+        <v>-89.620900000000006</v>
       </c>
       <c r="M113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>7504</v>
+        <v>6772</v>
       </c>
       <c r="B114">
-        <v>602999</v>
+        <v>2477354</v>
       </c>
       <c r="C114">
-        <v>53004515.300099999</v>
+        <v>261185175.78583497</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>46225195726.141579</v>
+        <v>160785447891.53268</v>
       </c>
       <c r="F114">
-        <v>87.901497846762595</v>
+        <v>105.42908917572336</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>76658.826509068138</v>
+        <v>64902.0882326598</v>
       </c>
       <c r="I114" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J114">
-        <v>82718</v>
+        <v>74735</v>
       </c>
       <c r="K114">
-        <v>44.285600000000002</v>
+        <v>34.015799999999999</v>
       </c>
       <c r="L114">
-        <v>-105.38330000000001</v>
+        <v>-95.320599999999999</v>
       </c>
       <c r="M114" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>7902</v>
+        <v>7504</v>
       </c>
       <c r="B115">
-        <v>4583206</v>
+        <v>602999</v>
       </c>
       <c r="C115">
-        <v>6915477489.2080135</v>
+        <v>75089730.008474991</v>
       </c>
       <c r="D115">
-        <v>364903518341.07269</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>13216457386.810596</v>
+        <v>46225195726.141579</v>
       </c>
       <c r="F115">
-        <v>1508.8733714365039</v>
+        <v>124.52712194958033</v>
       </c>
       <c r="G115">
-        <v>79617.525012201659</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>2883.6708161951692</v>
+        <v>76658.826509068138</v>
       </c>
       <c r="I115" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J115">
-        <v>75650</v>
+        <v>82718</v>
       </c>
       <c r="K115">
-        <v>32.460700000000003</v>
+        <v>44.285600000000002</v>
       </c>
       <c r="L115">
-        <v>-94.485200000000006</v>
+        <v>-105.38330000000001</v>
       </c>
       <c r="M115" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>8042</v>
+        <v>7902</v>
       </c>
       <c r="B116">
-        <v>12498933</v>
+        <v>4583206</v>
       </c>
       <c r="C116">
-        <v>82820943891.948593</v>
+        <v>12449836614.938009</v>
       </c>
       <c r="D116">
-        <v>2919280948106.8169</v>
+        <v>364946974074.99176</v>
       </c>
       <c r="E116">
-        <v>71112993679.739609</v>
+        <v>13216457386.810596</v>
       </c>
       <c r="F116">
-        <v>6626.2411272985137</v>
+        <v>2716.4034553406523</v>
       </c>
       <c r="G116">
-        <v>233562.41273609651</v>
+        <v>79627.006526652258</v>
       </c>
       <c r="H116">
-        <v>5689.525152246164</v>
+        <v>2883.6708161951692</v>
       </c>
       <c r="I116" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J116">
-        <v>27052</v>
+        <v>75650</v>
       </c>
       <c r="K116">
-        <v>36.281100000000002</v>
+        <v>32.460700000000003</v>
       </c>
       <c r="L116">
-        <v>-80.060299999999998</v>
+        <v>-94.485200000000006</v>
       </c>
       <c r="M116" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>8066</v>
+        <v>8042</v>
       </c>
       <c r="B117">
-        <v>13439341</v>
+        <v>12498933</v>
       </c>
       <c r="C117">
-        <v>22861398555.70388</v>
+        <v>76407049241.870087</v>
       </c>
       <c r="D117">
-        <v>708298143195.27661</v>
+        <v>2885800194623.1377</v>
       </c>
       <c r="E117">
-        <v>20427011084.329872</v>
+        <v>64660314688.644402</v>
       </c>
       <c r="F117">
-        <v>1701.0803249730682</v>
+        <v>6113.0857523494278</v>
       </c>
       <c r="G117">
-        <v>52703.338891042105</v>
+        <v>230883.72380451497</v>
       </c>
       <c r="H117">
-        <v>1519.941423045213</v>
+        <v>5173.2667651426245</v>
       </c>
       <c r="I117" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J117">
-        <v>82942</v>
+        <v>27052</v>
       </c>
       <c r="K117">
-        <v>41.7378</v>
+        <v>36.281100000000002</v>
       </c>
       <c r="L117">
-        <v>-108.78749999999999</v>
+        <v>-80.060299999999998</v>
       </c>
       <c r="M117" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>8102</v>
+        <v>8066</v>
       </c>
       <c r="B118">
-        <v>14171621</v>
+        <v>13439341</v>
       </c>
       <c r="C118">
-        <v>95698217725.745331</v>
+        <v>24519157140.083633</v>
       </c>
       <c r="D118">
-        <v>3712563903801.2041</v>
+        <v>711521318084.89282</v>
       </c>
       <c r="E118">
-        <v>79553743696.217041</v>
+        <v>25713942722.171253</v>
       </c>
       <c r="F118">
-        <v>6752.8067343704242</v>
+        <v>1824.4315059855712</v>
       </c>
       <c r="G118">
-        <v>261971.71825306394</v>
+        <v>52943.170210867691</v>
       </c>
       <c r="H118">
-        <v>5613.5952052497769</v>
+        <v>1913.3336018612263</v>
       </c>
       <c r="I118" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J118">
-        <v>45620</v>
+        <v>82942</v>
       </c>
       <c r="K118">
-        <v>38.934699999999999</v>
+        <v>41.7378</v>
       </c>
       <c r="L118">
-        <v>-82.115799999999993</v>
+        <v>-108.78749999999999</v>
       </c>
       <c r="M118" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>8226</v>
+        <v>8102</v>
       </c>
       <c r="B119">
-        <v>1940463</v>
+        <v>14171621</v>
       </c>
       <c r="C119">
-        <v>13430016712.169693</v>
+        <v>89327170397.338776</v>
       </c>
       <c r="D119">
-        <v>527526971206.81647</v>
+        <v>3703054821315.2554</v>
       </c>
       <c r="E119">
-        <v>11031018306.47765</v>
+        <v>70513579796.973785</v>
       </c>
       <c r="F119">
-        <v>6921.0372535676761</v>
+        <v>6303.2429668658779</v>
       </c>
       <c r="G119">
-        <v>271856.23802505713</v>
+        <v>261300.72355979992</v>
       </c>
       <c r="H119">
-        <v>5684.7351928264798</v>
+        <v>4975.6890758632189</v>
       </c>
       <c r="I119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J119">
-        <v>15024</v>
+        <v>45620</v>
       </c>
       <c r="K119">
-        <v>40.5383</v>
+        <v>38.934699999999999</v>
       </c>
       <c r="L119">
-        <v>-79.790599999999998</v>
+        <v>-82.115799999999993</v>
       </c>
       <c r="M119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10075</v>
+        <v>8226</v>
       </c>
       <c r="B120">
-        <v>825950</v>
+        <v>1940463</v>
       </c>
       <c r="C120">
-        <v>731687497.37376988</v>
+        <v>13544989275.096245</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>524649900776.06317</v>
       </c>
       <c r="E120">
-        <v>52966010283.192352</v>
+        <v>11142513263.800123</v>
       </c>
       <c r="F120">
-        <v>885.87383906261869</v>
+        <v>6980.2873206529803</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>270373.56588405097</v>
       </c>
       <c r="H120">
-        <v>64127.380934914159</v>
+        <v>5742.1931074182412</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J120">
-        <v>55613</v>
+        <v>15024</v>
       </c>
       <c r="K120">
-        <v>47.531399999999998</v>
+        <v>40.5383</v>
       </c>
       <c r="L120">
-        <v>-90.9114</v>
+        <v>-79.790599999999998</v>
       </c>
       <c r="M120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
+        <v>10075</v>
+      </c>
+      <c r="B121">
+        <v>825950</v>
+      </c>
+      <c r="C121">
+        <v>45701858792.624222</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>7506093434.1785688</v>
+      </c>
+      <c r="F121">
+        <v>55332.476291088104</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>9087.8302974496874</v>
+      </c>
+      <c r="I121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121">
+        <v>55613</v>
+      </c>
+      <c r="K121">
+        <v>47.531399999999998</v>
+      </c>
+      <c r="L121">
+        <v>-90.9114</v>
+      </c>
+      <c r="M121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>50491</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>334348.61</v>
       </c>
-      <c r="C121">
-        <v>271120873.35848945</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>122681990319.65509</v>
-      </c>
-      <c r="F121">
-        <v>810.89277852385703</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>366928.3695232204</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="C122">
+        <v>285085932.08968997</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>121787945351.0499</v>
+      </c>
+      <c r="F122">
+        <v>852.66073661765779</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>364254.37913754123</v>
+      </c>
+      <c r="I122" t="s">
         <v>30</v>
       </c>
-      <c r="J121">
+      <c r="J122">
         <v>26155</v>
       </c>
-      <c r="K121">
+      <c r="K122">
         <v>39.747500000000002</v>
       </c>
-      <c r="L121">
+      <c r="L122">
         <v>-80.854699999999994</v>
       </c>
-      <c r="M121" t="s">
-        <v>48</v>
+      <c r="M122" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_boot_cq_remov_Cl.xlsx
+++ b/r_map/data_boot_cq_remov_Cl.xlsx
@@ -593,22 +593,22 @@
         <v>2726384</v>
       </c>
       <c r="C2">
-        <v>2740579485.5760121</v>
+        <v>3600788562.2979398</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>915420446054.56616</v>
+        <v>905139476777.6499</v>
       </c>
       <c r="F2">
-        <v>1005.2067080704743</v>
+        <v>1320.7195179761691</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>335763.57771119772</v>
+        <v>331992.66015999578</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -634,7 +634,7 @@
         <v>324142</v>
       </c>
       <c r="C3">
-        <v>37673925.22467</v>
+        <v>392603729.22888887</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>23192047262.466389</v>
       </c>
       <c r="F3">
-        <v>116.22660816762406</v>
+        <v>1211.2090664859502</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -675,22 +675,22 @@
         <v>2081937</v>
       </c>
       <c r="C4">
-        <v>3603439388.3701706</v>
+        <v>4305849655.9821014</v>
       </c>
       <c r="D4">
         <v>126638563064.77957</v>
       </c>
       <c r="E4">
-        <v>2572901520.9433756</v>
+        <v>2570199974.3463902</v>
       </c>
       <c r="F4">
-        <v>1730.81096515897</v>
+        <v>2068.1940212321992</v>
       </c>
       <c r="G4">
         <v>60827.279146669462</v>
       </c>
       <c r="H4">
-        <v>1235.821026737781</v>
+        <v>1234.5234146597088</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -716,7 +716,7 @@
         <v>2014725</v>
       </c>
       <c r="C5">
-        <v>2477096451.8687525</v>
+        <v>237700102.04765996</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>146328049655.21622</v>
       </c>
       <c r="F5">
-        <v>1229.4960611839097</v>
+        <v>117.98141287156309</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>9164672</v>
       </c>
       <c r="C6">
-        <v>18146373834.602528</v>
+        <v>20994032129.085205</v>
       </c>
       <c r="D6">
-        <v>621602698675.05347</v>
+        <v>621812800293.74365</v>
       </c>
       <c r="E6">
-        <v>15661496043.906796</v>
+        <v>10843947977.426575</v>
       </c>
       <c r="F6">
-        <v>1980.0352739958973</v>
+        <v>2290.7565190642072</v>
       </c>
       <c r="G6">
-        <v>67825.962421246877</v>
+        <v>67848.887586347191</v>
       </c>
       <c r="H6">
-        <v>1708.8986975100468</v>
+        <v>1183.2336146265327</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -798,7 +798,7 @@
         <v>2981276</v>
       </c>
       <c r="C7">
-        <v>1613513540.8052223</v>
+        <v>1654165823.3762085</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>186352005434.55524</v>
       </c>
       <c r="F7">
-        <v>541.21575486644724</v>
+        <v>554.85162171372542</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>1265697</v>
       </c>
       <c r="C8">
-        <v>1387960800.0189567</v>
+        <v>1426875588.8045349</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>81990185207.139648</v>
       </c>
       <c r="F8">
-        <v>1096.5980009583309</v>
+        <v>1127.3437393029571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>566146</v>
       </c>
       <c r="C10">
-        <v>622318389.94537401</v>
+        <v>59717151.782504998</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>36761845182.323082</v>
       </c>
       <c r="F10">
-        <v>1099.2189116329957</v>
+        <v>105.48012665020154</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>4881045</v>
       </c>
       <c r="C12">
-        <v>4744724599.6252413</v>
+        <v>1335561911.9162436</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>326746580352.0423</v>
       </c>
       <c r="F12">
-        <v>972.07147232308682</v>
+        <v>273.62212639224663</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>2219933</v>
       </c>
       <c r="C13">
-        <v>564032313.22555113</v>
+        <v>1946951429.8141396</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>135342500455.47446</v>
       </c>
       <c r="F13">
-        <v>254.07627762889743</v>
+        <v>877.0316175371687</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>245567</v>
       </c>
       <c r="C14">
-        <v>195418596.69277197</v>
+        <v>17629475.764544304</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>11229014681.780067</v>
       </c>
       <c r="F14">
-        <v>795.78525083896443</v>
+        <v>71.790899284286184</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>66618</v>
       </c>
       <c r="C17">
-        <v>77639188.033469379</v>
+        <v>7450191.4951799987</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>4586333710.6560602</v>
       </c>
       <c r="F17">
-        <v>1165.4385906732321</v>
+        <v>111.83451162118344</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>750815</v>
       </c>
       <c r="C18">
-        <v>1689305838.3206418</v>
+        <v>1662476321.0408058</v>
       </c>
       <c r="D18">
         <v>48272374442.582382</v>
@@ -1258,7 +1258,7 @@
         <v>2680782145.2023616</v>
       </c>
       <c r="F18">
-        <v>2249.9628248245463</v>
+        <v>2214.2289659114508</v>
       </c>
       <c r="G18">
         <v>64293.300536859788</v>
@@ -1290,7 +1290,7 @@
         <v>384251</v>
       </c>
       <c r="C19">
-        <v>415996250.78424037</v>
+        <v>404650898.49012464</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>23903702547.642307</v>
       </c>
       <c r="F19">
-        <v>1082.6159223638724</v>
+        <v>1053.0900335721303</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1331,22 +1331,22 @@
         <v>1245893</v>
       </c>
       <c r="C20">
-        <v>854826598.86021686</v>
+        <v>2664790121.5028782</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>499914311986.46777</v>
+        <v>501080635739.20105</v>
       </c>
       <c r="F20">
-        <v>686.1155804392647</v>
+        <v>2138.8595340875004</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>401249.79591864452</v>
+        <v>402185.93068522023</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -1372,22 +1372,22 @@
         <v>1488285</v>
       </c>
       <c r="C21">
-        <v>11988041485.15345</v>
+        <v>12083348470.098125</v>
       </c>
       <c r="D21">
-        <v>467755242335.5907</v>
+        <v>479206539743.26538</v>
       </c>
       <c r="E21">
-        <v>9209724960.2721786</v>
+        <v>9199276953.3245468</v>
       </c>
       <c r="F21">
-        <v>8054.9367124935416</v>
+        <v>8118.9748402343139</v>
       </c>
       <c r="G21">
-        <v>314291.4444045265</v>
+        <v>321985.73508653609</v>
       </c>
       <c r="H21">
-        <v>6188.1460609172154</v>
+        <v>6181.1258954599061</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1413,22 +1413,22 @@
         <v>48329</v>
       </c>
       <c r="C22">
-        <v>61592102.226267718</v>
+        <v>61963702.882866248</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19626955927.652908</v>
+        <v>19517191979.11964</v>
       </c>
       <c r="F22">
-        <v>1274.4336159711088</v>
+        <v>1282.1225947746952</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>406111.36021132051</v>
+        <v>403840.17834260256</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -1454,22 +1454,22 @@
         <v>1336530</v>
       </c>
       <c r="C23">
-        <v>2138288245.6852617</v>
+        <v>2157373818.9044919</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>698464218590.83118</v>
+        <v>618495905885.87512</v>
       </c>
       <c r="F23">
-        <v>1599.880470835119</v>
+        <v>1614.1604145844028</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>522595.24185078614</v>
+        <v>462762.45642512711</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1495,22 +1495,22 @@
         <v>4238250</v>
       </c>
       <c r="C24">
-        <v>12420850010.41325</v>
+        <v>12467882024.134718</v>
       </c>
       <c r="D24">
-        <v>421909501390.53625</v>
+        <v>421226180972.92572</v>
       </c>
       <c r="E24">
-        <v>10884608479.446785</v>
+        <v>10971512712.765968</v>
       </c>
       <c r="F24">
-        <v>2930.6553436945082</v>
+        <v>2941.7523799055548</v>
       </c>
       <c r="G24">
-        <v>99548.044921969267</v>
+        <v>99386.817901946735</v>
       </c>
       <c r="H24">
-        <v>2568.1846232399657</v>
+        <v>2588.6893677262947</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1536,7 +1536,7 @@
         <v>1825199</v>
       </c>
       <c r="C25">
-        <v>992602661.48243833</v>
+        <v>270224564.96957809</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>98349477136.350006</v>
       </c>
       <c r="F25">
-        <v>543.83256920611848</v>
+        <v>148.0521110134172</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1577,22 +1577,22 @@
         <v>7101778</v>
       </c>
       <c r="C26">
-        <v>2065855752.4516923</v>
+        <v>5796271576.4196177</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>426737495972.61865</v>
+        <v>426624775187.81525</v>
       </c>
       <c r="F26">
-        <v>290.89275283621822</v>
+        <v>816.17189053496429</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60088.825076286339</v>
+        <v>60072.952884167215</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1618,22 +1618,22 @@
         <v>992174</v>
       </c>
       <c r="C27">
-        <v>1016940612.9041665</v>
+        <v>997830648.43685198</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>70046657723.900177</v>
+        <v>69973243004.701523</v>
       </c>
       <c r="F27">
-        <v>1024.9619652441672</v>
+        <v>1005.7012665488634</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>70599.166803302825</v>
+        <v>70525.173008667349</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1659,7 +1659,7 @@
         <v>1769518</v>
       </c>
       <c r="C28">
-        <v>1437593964.406178</v>
+        <v>1313704811.6353424</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>110298138273.41071</v>
       </c>
       <c r="F28">
-        <v>812.42121549833234</v>
+        <v>742.40827820646211</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1700,22 +1700,22 @@
         <v>16149545</v>
       </c>
       <c r="C29">
-        <v>55403545104.301292</v>
+        <v>55714941285.428253</v>
       </c>
       <c r="D29">
-        <v>1987313513311.6016</v>
+        <v>1992560836667.1514</v>
       </c>
       <c r="E29">
-        <v>49432817109.425827</v>
+        <v>48203746415.267044</v>
       </c>
       <c r="F29">
-        <v>3430.6567215547739</v>
+        <v>3449.9387620783282</v>
       </c>
       <c r="G29">
-        <v>123056.93524564324</v>
+        <v>123381.85606264148</v>
       </c>
       <c r="H29">
-        <v>3060.9417856308537</v>
+        <v>2984.8361929247571</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1741,22 +1741,22 @@
         <v>1806150</v>
       </c>
       <c r="C30">
-        <v>2793174490.1874208</v>
+        <v>2747855750.4143257</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>253062823801.85873</v>
+        <v>252439555298.49771</v>
       </c>
       <c r="F30">
-        <v>1546.4797996774469</v>
+        <v>1521.3884508010551</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>140111.74254732925</v>
+        <v>139766.66129529534</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1782,7 +1782,7 @@
         <v>5446539</v>
       </c>
       <c r="C31">
-        <v>4177158030.872592</v>
+        <v>4172484656.5117121</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>646026108584.36719</v>
       </c>
       <c r="F31">
-        <v>766.93805568501239</v>
+        <v>766.0800109044867</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>2101351</v>
       </c>
       <c r="C32">
-        <v>402286380.5888747</v>
+        <v>431229266.17934585</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>131388390351.91365</v>
       </c>
       <c r="F32">
-        <v>191.44178225764028</v>
+        <v>205.21524779979444</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>500876</v>
       </c>
       <c r="C33">
-        <v>555409415.57713151</v>
+        <v>553020186.65103114</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>32805125532.623894</v>
       </c>
       <c r="F33">
-        <v>1108.8760802616446</v>
+        <v>1104.105979625758</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>869762</v>
       </c>
       <c r="C34">
-        <v>891490525.33145118</v>
+        <v>85546684.581434995</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>52662491103.017891</v>
       </c>
       <c r="F34">
-        <v>1024.982150670472</v>
+        <v>98.356429208720314</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>296202</v>
       </c>
       <c r="C35">
-        <v>180612021.65338051</v>
+        <v>187505581.41351402</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>18178162141.512035</v>
       </c>
       <c r="F35">
-        <v>609.75962908211466</v>
+        <v>633.03279995919684</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>1420063</v>
       </c>
       <c r="C36">
-        <v>148753718.34558612</v>
+        <v>1609803167.9838395</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>94835735218.887024</v>
       </c>
       <c r="F36">
-        <v>104.75149225462964</v>
+        <v>1133.6139086673193</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>16042082</v>
       </c>
       <c r="C38">
-        <v>9076650685.1829147</v>
+        <v>4603982027.6543198</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>960640733707.78516</v>
       </c>
       <c r="F38">
-        <v>565.80253642780997</v>
+        <v>286.99404651181311</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>2119428</v>
       </c>
       <c r="C39">
-        <v>1352498918.7021217</v>
+        <v>1339837184.4316382</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>131314871072.49359</v>
       </c>
       <c r="F39">
-        <v>638.14336637155009</v>
+        <v>632.16923831884742</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>6594728</v>
       </c>
       <c r="C41">
-        <v>6516461539.3490925</v>
+        <v>3197954656.7295909</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>374444620609.19403</v>
       </c>
       <c r="F41">
-        <v>988.13196531367066</v>
+        <v>484.92593731380441</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>7672769</v>
       </c>
       <c r="C42">
-        <v>3029140293.6675477</v>
+        <v>2102258660.1685543</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>435316716840.47394</v>
       </c>
       <c r="F42">
-        <v>394.79101920930339</v>
+        <v>273.98956754315873</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>3095082</v>
       </c>
       <c r="C43">
-        <v>965772350.35550714</v>
+        <v>963629253.32346988</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>199446602241.59027</v>
       </c>
       <c r="F43">
-        <v>312.03449548525924</v>
+        <v>311.34207537101435</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         <v>134547</v>
       </c>
       <c r="C44">
-        <v>385847456.25409025</v>
+        <v>397538858.93318301</v>
       </c>
       <c r="D44">
-        <v>14480483670.768471</v>
+        <v>14721535781.510927</v>
       </c>
       <c r="E44">
-        <v>323072655.04025507</v>
+        <v>319013339.00055742</v>
       </c>
       <c r="F44">
-        <v>2867.7522074374774</v>
+        <v>2954.6467697769776</v>
       </c>
       <c r="G44">
-        <v>107623.98025053306</v>
+        <v>109415.56319732827</v>
       </c>
       <c r="H44">
-        <v>2401.1880981386062</v>
+        <v>2371.0178525017832</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2356,22 +2356,22 @@
         <v>531521</v>
       </c>
       <c r="C45">
-        <v>1929687071.4861326</v>
+        <v>1950039323.8596849</v>
       </c>
       <c r="D45">
-        <v>74004867406.481415</v>
+        <v>74197383287.759827</v>
       </c>
       <c r="E45">
-        <v>1649997227.4902279</v>
+        <v>1664111618.7156215</v>
       </c>
       <c r="F45">
-        <v>3630.5001523667602</v>
+        <v>3668.7907417763081</v>
       </c>
       <c r="G45">
-        <v>139232.25499365295</v>
+        <v>139594.45306537245</v>
       </c>
       <c r="H45">
-        <v>3104.2935791628702</v>
+        <v>3130.84829896772</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2397,22 +2397,22 @@
         <v>1438500</v>
       </c>
       <c r="C46">
-        <v>6804490239.9481392</v>
+        <v>6843167067.3096647</v>
       </c>
       <c r="D46">
-        <v>238295805526.25397</v>
+        <v>237865625429.13898</v>
       </c>
       <c r="E46">
-        <v>6000343690.2100677</v>
+        <v>5933968162.0841265</v>
       </c>
       <c r="F46">
-        <v>4730.2678067070829</v>
+        <v>4757.1547218002534</v>
       </c>
       <c r="G46">
-        <v>165655.75636166421</v>
+        <v>165356.7086751053</v>
       </c>
       <c r="H46">
-        <v>4171.2503929162795</v>
+        <v>4125.1082113897301</v>
       </c>
       <c r="I46" t="s">
         <v>23</v>
@@ -2438,22 +2438,22 @@
         <v>4871389</v>
       </c>
       <c r="C47">
-        <v>30108091175.888103</v>
+        <v>30151165398.673687</v>
       </c>
       <c r="D47">
-        <v>1126437471399.9126</v>
+        <v>1129704371533.9231</v>
       </c>
       <c r="E47">
-        <v>25517408718.10759</v>
+        <v>25109244012.998264</v>
       </c>
       <c r="F47">
-        <v>6180.5967817162837</v>
+        <v>6189.439069364751</v>
       </c>
       <c r="G47">
-        <v>231235.37689146004</v>
+        <v>231906.00700004108</v>
       </c>
       <c r="H47">
-        <v>5238.2202936590757</v>
+        <v>5154.4321369117233</v>
       </c>
       <c r="I47" t="s">
         <v>23</v>
@@ -2479,7 +2479,7 @@
         <v>500630</v>
       </c>
       <c r="C48">
-        <v>815369501.45278895</v>
+        <v>252171435.09655985</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>47282062140.686333</v>
       </c>
       <c r="F48">
-        <v>1628.6868574651717</v>
+        <v>503.70819786381128</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>10068744222.873617</v>
       </c>
       <c r="D49">
-        <v>292340722566.01849</v>
+        <v>291567047467.96869</v>
       </c>
       <c r="E49">
-        <v>8639393461.276638</v>
+        <v>9376330374.5740356</v>
       </c>
       <c r="F49">
         <v>2811.1870224988952</v>
       </c>
       <c r="G49">
-        <v>81621.344949707403</v>
+        <v>81405.335351377624</v>
       </c>
       <c r="H49">
-        <v>2412.1131933641677</v>
+        <v>2617.8655137335477</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2564,7 +2564,7 @@
         <v>14112262127.418709</v>
       </c>
       <c r="D50">
-        <v>431363448754.52667</v>
+        <v>433358998841.25964</v>
       </c>
       <c r="E50">
         <v>14807906426.111439</v>
@@ -2573,7 +2573,7 @@
         <v>2878.665273750375</v>
       </c>
       <c r="G50">
-        <v>87990.923714650809</v>
+        <v>88397.982532354217</v>
       </c>
       <c r="H50">
         <v>3020.565067521813</v>
@@ -2602,22 +2602,22 @@
         <v>6114392</v>
       </c>
       <c r="C51">
-        <v>36673243951.071312</v>
+        <v>36127938383.373802</v>
       </c>
       <c r="D51">
-        <v>1495381032319.6897</v>
+        <v>1485439569854.3557</v>
       </c>
       <c r="E51">
-        <v>29143858877.762932</v>
+        <v>29275298247.259422</v>
       </c>
       <c r="F51">
-        <v>5997.8561974880431</v>
+        <v>5908.6722577443188</v>
       </c>
       <c r="G51">
-        <v>244567.41280567058</v>
+        <v>242941.50094635013</v>
       </c>
       <c r="H51">
-        <v>4766.4361195296169</v>
+        <v>4787.9328389902748</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
@@ -2643,22 +2643,22 @@
         <v>2753681</v>
       </c>
       <c r="C52">
-        <v>2090906629.2733006</v>
+        <v>2031466091.2033837</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>276150813934.23242</v>
+        <v>273989252937.75208</v>
       </c>
       <c r="F52">
-        <v>759.31330799511659</v>
+        <v>737.7274605168077</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>100284.24277693474</v>
+        <v>99499.271316376908</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -2684,22 +2684,22 @@
         <v>5168266</v>
       </c>
       <c r="C53">
-        <v>31590454598.523613</v>
+        <v>31564646314.379116</v>
       </c>
       <c r="D53">
-        <v>1139067608992.092</v>
+        <v>1143658024791.7869</v>
       </c>
       <c r="E53">
-        <v>24648387037.567802</v>
+        <v>24417154814.330917</v>
       </c>
       <c r="F53">
-        <v>6112.3894549010465</v>
+        <v>6107.3958488938297</v>
       </c>
       <c r="G53">
-        <v>220396.47514119669</v>
+        <v>221284.6677767334</v>
       </c>
       <c r="H53">
-        <v>4769.1792639093655</v>
+        <v>4724.4384894916238</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
@@ -2725,22 +2725,22 @@
         <v>6246911</v>
       </c>
       <c r="C54">
-        <v>49243490056.718094</v>
+        <v>49443651560.794312</v>
       </c>
       <c r="D54">
-        <v>1962217139285.5059</v>
+        <v>1963114716674.5518</v>
       </c>
       <c r="E54">
-        <v>39977787995.617073</v>
+        <v>39775782876.108223</v>
       </c>
       <c r="F54">
-        <v>7882.8544310488969</v>
+        <v>7914.8961079794981</v>
       </c>
       <c r="G54">
-        <v>314109.98800615309</v>
+        <v>314253.67140248226</v>
       </c>
       <c r="H54">
-        <v>6399.6090220617953</v>
+        <v>6367.272220799724</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2766,22 +2766,22 @@
         <v>3681044</v>
       </c>
       <c r="C55">
-        <v>22610958193.536453</v>
+        <v>22678387036.727436</v>
       </c>
       <c r="D55">
-        <v>910371840657.13574</v>
+        <v>935242515081.58447</v>
       </c>
       <c r="E55">
-        <v>17284903508.761513</v>
+        <v>17498881574.365231</v>
       </c>
       <c r="F55">
-        <v>6142.5395060576438</v>
+        <v>6160.857364575766</v>
       </c>
       <c r="G55">
-        <v>247313.49059047806</v>
+        <v>254069.90926530203</v>
       </c>
       <c r="H55">
-        <v>4695.6525129179417</v>
+        <v>4753.782235247726</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2807,7 +2807,7 @@
         <v>4626240</v>
       </c>
       <c r="C56">
-        <v>437242552.02715838</v>
+        <v>2744402629.321723</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>298297509828.17554</v>
       </c>
       <c r="F56">
-        <v>94.51359030814622</v>
+        <v>593.22530377190185</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2889,22 +2889,22 @@
         <v>9036684</v>
       </c>
       <c r="C58">
-        <v>40020354916.37159</v>
+        <v>33923510510.342083</v>
       </c>
       <c r="D58">
-        <v>1318993960777.7651</v>
+        <v>1323619029056.6772</v>
       </c>
       <c r="E58">
-        <v>2248259574004.0308</v>
+        <v>2250120630730.8945</v>
       </c>
       <c r="F58">
-        <v>4428.6549044286148</v>
+        <v>3753.9777323564799</v>
       </c>
       <c r="G58">
-        <v>145959.95176745864</v>
+        <v>146471.76210396172</v>
       </c>
       <c r="H58">
-        <v>248792.54093692231</v>
+        <v>248998.48558729005</v>
       </c>
       <c r="I58" t="s">
         <v>26</v>
@@ -2930,22 +2930,22 @@
         <v>916991</v>
       </c>
       <c r="C59">
-        <v>1443346676.1437569</v>
+        <v>1112311998.959219</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>321361611070.83917</v>
+        <v>320741009623.32397</v>
       </c>
       <c r="F59">
-        <v>1574.0030994238296</v>
+        <v>1213.0020893980627</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>350452.30658843892</v>
+        <v>349775.52628468978</v>
       </c>
       <c r="I59" t="s">
         <v>26</v>
@@ -2971,22 +2971,22 @@
         <v>317344</v>
       </c>
       <c r="C60">
-        <v>209190422.32285327</v>
+        <v>1057122308.020071</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>137372456985.34262</v>
+        <v>136676954251.29741</v>
       </c>
       <c r="F60">
-        <v>659.1913580305702</v>
+        <v>3331.1558057504508</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>432881.84741272125</v>
+        <v>430690.2107848184</v>
       </c>
       <c r="I60" t="s">
         <v>26</v>
@@ -3012,22 +3012,22 @@
         <v>4078252</v>
       </c>
       <c r="C61">
-        <v>23538667666.510216</v>
+        <v>23765853186.660408</v>
       </c>
       <c r="D61">
-        <v>849170046570.84619</v>
+        <v>847000405991.49121</v>
       </c>
       <c r="E61">
-        <v>20992005692.298836</v>
+        <v>20602456333.448296</v>
       </c>
       <c r="F61">
-        <v>5771.7540913386947</v>
+        <v>5827.4606833173648</v>
       </c>
       <c r="G61">
-        <v>208219.12097899939</v>
+        <v>207687.11840060182</v>
       </c>
       <c r="H61">
-        <v>5147.3047012050347</v>
+        <v>5051.7859939621912</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
@@ -3053,22 +3053,22 @@
         <v>3399679</v>
       </c>
       <c r="C62">
-        <v>19853910469.031685</v>
+        <v>20331252339.730698</v>
       </c>
       <c r="D62">
-        <v>685984273895.01367</v>
+        <v>687811742954.36987</v>
       </c>
       <c r="E62">
-        <v>19021728279.242481</v>
+        <v>19573145185.485332</v>
       </c>
       <c r="F62">
-        <v>5839.9367908063332</v>
+        <v>5980.3447148188689</v>
       </c>
       <c r="G62">
-        <v>201779.13088118428</v>
+        <v>202316.67253125072</v>
       </c>
       <c r="H62">
-        <v>5595.1542128661213</v>
+        <v>5757.350969160716</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
@@ -3094,22 +3094,22 @@
         <v>3734928</v>
       </c>
       <c r="C63">
-        <v>27058345614.887955</v>
+        <v>27494482197.196899</v>
       </c>
       <c r="D63">
-        <v>1061528455552.0192</v>
+        <v>1076494051520.5848</v>
       </c>
       <c r="E63">
-        <v>22483248749.324512</v>
+        <v>21919271980.769196</v>
       </c>
       <c r="F63">
-        <v>7244.6766349680511</v>
+        <v>7361.4490552955504</v>
       </c>
       <c r="G63">
-        <v>284216.57808450906</v>
+        <v>288223.50833016989</v>
       </c>
       <c r="H63">
-        <v>6019.7274885418174</v>
+        <v>5868.7267815522</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -3135,7 +3135,7 @@
         <v>2911161</v>
       </c>
       <c r="C64">
-        <v>285717467.14701748</v>
+        <v>2051379754.3636992</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>175887512709.89606</v>
       </c>
       <c r="F64">
-        <v>98.145539579232306</v>
+        <v>704.6603586554296</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3176,22 +3176,22 @@
         <v>393144</v>
       </c>
       <c r="C65">
-        <v>233601671.0362435</v>
+        <v>243700630.90372598</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>55293421047.6884</v>
+        <v>54239020288.762947</v>
       </c>
       <c r="F65">
-        <v>594.18856967483543</v>
+        <v>619.87625629216257</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>140644.19410620129</v>
+        <v>137962.2232280359</v>
       </c>
       <c r="I65" t="s">
         <v>29</v>
@@ -3217,22 +3217,22 @@
         <v>2485399</v>
       </c>
       <c r="C66">
-        <v>18880390109.576702</v>
+        <v>19817070277.964939</v>
       </c>
       <c r="D66">
-        <v>720346918873.58936</v>
+        <v>723349550031.37817</v>
       </c>
       <c r="E66">
-        <v>16875966787.288784</v>
+        <v>17038371788.497868</v>
       </c>
       <c r="F66">
-        <v>7596.5227754484094</v>
+        <v>7973.3959327918528</v>
       </c>
       <c r="G66">
-        <v>289831.49943875789</v>
+        <v>291039.60773758183</v>
       </c>
       <c r="H66">
-        <v>6790.0432837096914</v>
+        <v>6855.3869171500701</v>
       </c>
       <c r="I66" t="s">
         <v>29</v>
@@ -3258,7 +3258,7 @@
         <v>261201</v>
       </c>
       <c r="C67">
-        <v>269114849.48013747</v>
+        <v>536431843.19350338</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>129870560162.61296</v>
       </c>
       <c r="F67">
-        <v>1030.2979294877794</v>
+        <v>2053.7128234329248</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3299,22 +3299,22 @@
         <v>14072154</v>
       </c>
       <c r="C68">
-        <v>120238701210.51306</v>
+        <v>120773958642.57729</v>
       </c>
       <c r="D68">
-        <v>4842322655549.3916</v>
+        <v>4837623077593.502</v>
       </c>
       <c r="E68">
-        <v>101229231959.70721</v>
+        <v>98817573361.154938</v>
       </c>
       <c r="F68">
-        <v>8544.441825360429</v>
+        <v>8582.4784636792119</v>
       </c>
       <c r="G68">
-        <v>344106.71284221247</v>
+        <v>343772.74989980226</v>
       </c>
       <c r="H68">
-        <v>7193.5847177132382</v>
+        <v>7022.2066473373543</v>
       </c>
       <c r="I68" t="s">
         <v>30</v>
@@ -3340,7 +3340,7 @@
         <v>543145</v>
       </c>
       <c r="C69">
-        <v>369481651.65897959</v>
+        <v>364317794.44779968</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>160324828594.90195</v>
       </c>
       <c r="F69">
-        <v>680.26337655502596</v>
+        <v>670.75604939343953</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3381,22 +3381,22 @@
         <v>7296430</v>
       </c>
       <c r="C70">
-        <v>37445796436.891144</v>
+        <v>37224312687.087273</v>
       </c>
       <c r="D70">
-        <v>1493741298414.3049</v>
+        <v>1488008546675.0737</v>
       </c>
       <c r="E70">
-        <v>29978903697.662888</v>
+        <v>29817943946.749481</v>
       </c>
       <c r="F70">
-        <v>5132.0709493397653</v>
+        <v>5101.7158647567749</v>
       </c>
       <c r="G70">
-        <v>204722.21324871271</v>
+        <v>203936.52055526795</v>
       </c>
       <c r="H70">
-        <v>4108.7084639560562</v>
+        <v>4086.6483947285838</v>
       </c>
       <c r="I70" t="s">
         <v>30</v>
@@ -3422,22 +3422,22 @@
         <v>11269955</v>
       </c>
       <c r="C71">
-        <v>93000936599.353577</v>
+        <v>97054200475.383942</v>
       </c>
       <c r="D71">
-        <v>3100540301560.5176</v>
+        <v>3100121800704.124</v>
       </c>
       <c r="E71">
-        <v>95059991374.130249</v>
+        <v>81738336212.503967</v>
       </c>
       <c r="F71">
-        <v>8252.1125061593921</v>
+        <v>8611.7646854298837</v>
       </c>
       <c r="G71">
-        <v>275115.588443833</v>
+        <v>275078.45423554257</v>
       </c>
       <c r="H71">
-        <v>8434.8155226999788</v>
+        <v>7252.7650920082615</v>
       </c>
       <c r="I71" t="s">
         <v>30</v>
@@ -3463,22 +3463,22 @@
         <v>5367819</v>
       </c>
       <c r="C72">
-        <v>50535738641.055389</v>
+        <v>50405378598.396294</v>
       </c>
       <c r="D72">
-        <v>1991242211700.9687</v>
+        <v>2008756271636.5776</v>
       </c>
       <c r="E72">
-        <v>40942371361.331367</v>
+        <v>41149075221.413681</v>
       </c>
       <c r="F72">
-        <v>9414.5757599232365</v>
+        <v>9390.2902833341232</v>
       </c>
       <c r="G72">
-        <v>370959.26887642237</v>
+        <v>374222.05771777657</v>
       </c>
       <c r="H72">
-        <v>7627.375543275838</v>
+        <v>7665.8835220438095</v>
       </c>
       <c r="I72" t="s">
         <v>30</v>
@@ -3504,22 +3504,22 @@
         <v>9846148</v>
       </c>
       <c r="C73">
-        <v>69275351550.676208</v>
+        <v>68984503462.072632</v>
       </c>
       <c r="D73">
-        <v>2726512136459.1353</v>
+        <v>2714262518958.1826</v>
       </c>
       <c r="E73">
-        <v>57839784088.21711</v>
+        <v>56565086075.133034</v>
       </c>
       <c r="F73">
-        <v>7035.7820693611557</v>
+        <v>7006.2427928234101</v>
       </c>
       <c r="G73">
-        <v>276911.55327536567</v>
+        <v>275667.45075923932</v>
       </c>
       <c r="H73">
-        <v>5874.3565593587573</v>
+        <v>5744.8949655370843</v>
       </c>
       <c r="I73" t="s">
         <v>30</v>
@@ -3545,22 +3545,22 @@
         <v>5178344</v>
       </c>
       <c r="C74">
-        <v>9394624141.8066788</v>
+        <v>8698057422.5767593</v>
       </c>
       <c r="D74">
         <v>289807071219.65839</v>
       </c>
       <c r="E74">
-        <v>9501024066.7657871</v>
+        <v>8089917477.5359211</v>
       </c>
       <c r="F74">
-        <v>1814.2139923123452</v>
+        <v>1679.6986493320567</v>
       </c>
       <c r="G74">
         <v>55965.202624556885</v>
       </c>
       <c r="H74">
-        <v>1834.761087089963</v>
+        <v>1562.2595713100407</v>
       </c>
       <c r="I74" t="s">
         <v>31</v>
@@ -3586,7 +3586,7 @@
         <v>3896653</v>
       </c>
       <c r="C75">
-        <v>4012919032.5145202</v>
+        <v>368204401.98887825</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>236288421795.98291</v>
       </c>
       <c r="F75">
-        <v>1029.8374098269771</v>
+        <v>94.492479055455604</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>12685</v>
       </c>
       <c r="C77">
-        <v>843115.96655999986</v>
+        <v>12884907.176741716</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>754631838.71356034</v>
       </c>
       <c r="F77">
-        <v>66.465586642491118</v>
+        <v>1015.7593359670253</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>1522254</v>
       </c>
       <c r="C78">
-        <v>1063039057.5482383</v>
+        <v>1904016373.2701135</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>112474830038.21922</v>
       </c>
       <c r="F78">
-        <v>698.33224780374258</v>
+        <v>1250.7875645392382</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>4899321</v>
       </c>
       <c r="C79">
-        <v>6267542531.3367796</v>
+        <v>5157342201.3265495</v>
       </c>
       <c r="D79">
         <v>107823125766.49626</v>
       </c>
       <c r="E79">
-        <v>158102964411.06808</v>
+        <v>156855387991.12823</v>
       </c>
       <c r="F79">
-        <v>1279.2675824541359</v>
+        <v>1052.6646858465795</v>
       </c>
       <c r="G79">
         <v>22007.769192199543</v>
       </c>
       <c r="H79">
-        <v>32270.382857352699</v>
+        <v>32015.74013850659</v>
       </c>
       <c r="I79" t="s">
         <v>32</v>
@@ -3791,22 +3791,22 @@
         <v>214384</v>
       </c>
       <c r="C80">
-        <v>1809945091.9311121</v>
+        <v>1823068166.2377706</v>
       </c>
       <c r="D80">
-        <v>72069410038.890808</v>
+        <v>72921280393.659851</v>
       </c>
       <c r="E80">
-        <v>1494766407.0226467</v>
+        <v>1513733056.4718916</v>
       </c>
       <c r="F80">
-        <v>8442.5381181949779</v>
+        <v>8503.7510552922358</v>
       </c>
       <c r="G80">
-        <v>336169.7236682346</v>
+        <v>340143.29611192929</v>
       </c>
       <c r="H80">
-        <v>6972.3785684689465</v>
+        <v>7060.849020784628</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
@@ -3832,22 +3832,22 @@
         <v>17815891</v>
       </c>
       <c r="C81">
-        <v>27047133358.602299</v>
+        <v>25713893462.345985</v>
       </c>
       <c r="D81">
         <v>982296163079.29492</v>
       </c>
       <c r="E81">
-        <v>31079133996.707321</v>
+        <v>31982245171.468578</v>
       </c>
       <c r="F81">
-        <v>1518.1465444867338</v>
+        <v>1443.3122352592966</v>
       </c>
       <c r="G81">
         <v>55135.954922450692</v>
       </c>
       <c r="H81">
-        <v>1744.461391052927</v>
+        <v>1795.152719079196</v>
       </c>
       <c r="I81" t="s">
         <v>9</v>
@@ -3873,22 +3873,22 @@
         <v>7047532</v>
       </c>
       <c r="C82">
-        <v>45606170405.29985</v>
+        <v>46315990933.724258</v>
       </c>
       <c r="D82">
-        <v>1901405886907.1265</v>
+        <v>1973936175525.4219</v>
       </c>
       <c r="E82">
-        <v>36287338689.167702</v>
+        <v>36394490628.174828</v>
       </c>
       <c r="F82">
-        <v>6471.2257291346605</v>
+        <v>6571.9447508325266</v>
       </c>
       <c r="G82">
-        <v>269797.41091024864</v>
+        <v>280088.99789677036</v>
       </c>
       <c r="H82">
-        <v>5148.9427347286546</v>
+        <v>5164.1469138664188</v>
       </c>
       <c r="I82" t="s">
         <v>30</v>
@@ -3914,7 +3914,7 @@
         <v>6223129</v>
       </c>
       <c r="C83">
-        <v>3578923942.8947468</v>
+        <v>6331588807.9340458</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>373811954833.38867</v>
       </c>
       <c r="F83">
-        <v>575.10039449523651</v>
+        <v>1017.4285006680797</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3955,22 +3955,22 @@
         <v>2129192</v>
       </c>
       <c r="C84">
-        <v>4030861014.8671398</v>
+        <v>3297095140.1990705</v>
       </c>
       <c r="D84">
         <v>118550922029.39088</v>
       </c>
       <c r="E84">
-        <v>4279068431.4063129</v>
+        <v>2408585822.6505003</v>
       </c>
       <c r="F84">
-        <v>1893.1411609977588</v>
+        <v>1548.5194102735077</v>
       </c>
       <c r="G84">
         <v>55678.83123240689</v>
       </c>
       <c r="H84">
-        <v>2009.7146858556264</v>
+        <v>1131.2205863306363</v>
       </c>
       <c r="I84" t="s">
         <v>13</v>
@@ -3996,7 +3996,7 @@
         <v>4998069</v>
       </c>
       <c r="C85">
-        <v>2664294028.729248</v>
+        <v>2973217289.266881</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>306328265025.02881</v>
       </c>
       <c r="F85">
-        <v>533.06467532345948</v>
+        <v>594.87319788239836</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>651272540512.4668</v>
       </c>
       <c r="E86">
-        <v>24166623200.771812</v>
+        <v>8561773232.3653049</v>
       </c>
       <c r="F86">
         <v>1357.3511740847225</v>
@@ -4052,7 +4052,7 @@
         <v>73722.017507081793</v>
       </c>
       <c r="H86">
-        <v>2735.5862682195257</v>
+        <v>969.16598945110434</v>
       </c>
       <c r="I86" t="s">
         <v>24</v>
@@ -4160,22 +4160,22 @@
         <v>11346108</v>
       </c>
       <c r="C89">
-        <v>21663611548.712597</v>
+        <v>21185821884.712681</v>
       </c>
       <c r="D89">
         <v>715449417295.67969</v>
       </c>
       <c r="E89">
-        <v>22449565495.628624</v>
+        <v>22058991689.99044</v>
       </c>
       <c r="F89">
-        <v>1909.3429701808407</v>
+        <v>1867.2325245549118</v>
       </c>
       <c r="G89">
         <v>63056.813604777926</v>
       </c>
       <c r="H89">
-        <v>1978.6137674371357</v>
+        <v>1944.1901742862347</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
@@ -4201,22 +4201,22 @@
         <v>2439887</v>
       </c>
       <c r="C90">
-        <v>6298249681.3951168</v>
+        <v>6344557101.2511349</v>
       </c>
       <c r="D90">
-        <v>238659511009.80548</v>
+        <v>238910366895.04529</v>
       </c>
       <c r="E90">
-        <v>5097378798.9148684</v>
+        <v>5204900925.8550129</v>
       </c>
       <c r="F90">
-        <v>2581.3694164504818</v>
+        <v>2600.3487461719069</v>
       </c>
       <c r="G90">
-        <v>97815.804998266511</v>
+        <v>97918.619548792747</v>
       </c>
       <c r="H90">
-        <v>2089.1864249921691</v>
+        <v>2133.2549113360633</v>
       </c>
       <c r="I90" t="s">
         <v>57</v>
@@ -4248,7 +4248,7 @@
         <v>904509255049.93408</v>
       </c>
       <c r="E91">
-        <v>25672537933.106552</v>
+        <v>25060898589.10775</v>
       </c>
       <c r="F91">
         <v>1030.1160733044671</v>
@@ -4257,7 +4257,7 @@
         <v>60933.20522894746</v>
       </c>
       <c r="H91">
-        <v>1729.4571767975567</v>
+        <v>1688.253457249192</v>
       </c>
       <c r="I91" t="s">
         <v>35</v>
@@ -4283,22 +4283,22 @@
         <v>614883</v>
       </c>
       <c r="C92">
-        <v>1419223664.900198</v>
+        <v>1409229132.0487881</v>
       </c>
       <c r="D92">
-        <v>48259386778.824982</v>
+        <v>46411123915.377197</v>
       </c>
       <c r="E92">
-        <v>1208197010.7301219</v>
+        <v>1156287007.7321703</v>
       </c>
       <c r="F92">
-        <v>2308.1198616650613</v>
+        <v>2291.865496442068</v>
       </c>
       <c r="G92">
-        <v>78485.478991653668</v>
+        <v>75479.601672801495</v>
       </c>
       <c r="H92">
-        <v>1964.9217993181171</v>
+        <v>1880.4992294992223</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -4371,7 +4371,7 @@
         <v>424922016650.50299</v>
       </c>
       <c r="E94">
-        <v>15645699625.955721</v>
+        <v>12945736514.387688</v>
       </c>
       <c r="F94">
         <v>1004.3900266555671</v>
@@ -4380,7 +4380,7 @@
         <v>59411.463630295984</v>
       </c>
       <c r="H94">
-        <v>2187.5400141069708</v>
+        <v>1810.0383692863384</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
@@ -4406,22 +4406,22 @@
         <v>13610817</v>
       </c>
       <c r="C95">
-        <v>88982984517.419006</v>
+        <v>88059879342.963135</v>
       </c>
       <c r="D95">
-        <v>4398969169348.8623</v>
+        <v>4352616833847.8921</v>
       </c>
       <c r="E95">
-        <v>90939887332.276733</v>
+        <v>90729935453.279404</v>
       </c>
       <c r="F95">
-        <v>6537.666660085064</v>
+        <v>6469.8452225875299</v>
       </c>
       <c r="G95">
-        <v>323196.55530956463</v>
+        <v>319791.00401158078</v>
       </c>
       <c r="H95">
-        <v>6681.4422185146368</v>
+        <v>6666.0168491927707</v>
       </c>
       <c r="I95" t="s">
         <v>26</v>
@@ -4447,7 +4447,7 @@
         <v>5621453</v>
       </c>
       <c r="C96">
-        <v>5873559875.6891193</v>
+        <v>2989894970.191328</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>343874079262.42822</v>
       </c>
       <c r="F96">
-        <v>1044.8472798205587</v>
+        <v>531.87227042391498</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>2383346</v>
       </c>
       <c r="C98">
-        <v>2429899623.5667796</v>
+        <v>2363629633.8331404</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>139625291605.07703</v>
       </c>
       <c r="F98">
-        <v>1019.5328850980007</v>
+        <v>991.72744277714628</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>93260</v>
       </c>
       <c r="C99">
-        <v>160163951.90588135</v>
+        <v>11354161.305602729</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>9279373471.3691063</v>
       </c>
       <c r="F99">
-        <v>1717.3917210581315</v>
+        <v>121.74738693547854</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4611,22 +4611,22 @@
         <v>2184313</v>
       </c>
       <c r="C100">
-        <v>4645302628.0630636</v>
+        <v>3842536403.18256</v>
       </c>
       <c r="D100">
         <v>135041341390.02133</v>
       </c>
       <c r="E100">
-        <v>4874286348.7265272</v>
+        <v>2695922733.784482</v>
       </c>
       <c r="F100">
-        <v>2126.6652847202135</v>
+        <v>1759.151002252223</v>
       </c>
       <c r="G100">
         <v>61823.255820031896</v>
       </c>
       <c r="H100">
-        <v>2231.4962868080388</v>
+        <v>1234.2199738702659</v>
       </c>
       <c r="I100" t="s">
         <v>11</v>
@@ -4652,22 +4652,22 @@
         <v>9975515</v>
       </c>
       <c r="C101">
-        <v>22920651330.495354</v>
+        <v>22945645690.185192</v>
       </c>
       <c r="D101">
-        <v>791643821810.72632</v>
+        <v>790692942143.78223</v>
       </c>
       <c r="E101">
-        <v>23867499618.343662</v>
+        <v>16837640072.212399</v>
       </c>
       <c r="F101">
-        <v>2297.6910295353528</v>
+        <v>2300.1966003945854</v>
       </c>
       <c r="G101">
-        <v>79358.691938283519</v>
+        <v>79263.370577236579</v>
       </c>
       <c r="H101">
-        <v>2392.60826316673</v>
+        <v>1687.8968225913547</v>
       </c>
       <c r="I101" t="s">
         <v>11</v>
@@ -4693,22 +4693,22 @@
         <v>2161126</v>
       </c>
       <c r="C102">
-        <v>6183531315.4172087</v>
+        <v>4731752265.7942171</v>
       </c>
       <c r="D102">
-        <v>179380110398.93103</v>
+        <v>179568657489.29477</v>
       </c>
       <c r="E102">
-        <v>3378531255.6334224</v>
+        <v>6564293223.9096975</v>
       </c>
       <c r="F102">
-        <v>2861.2544180289387</v>
+        <v>2189.4846787249876</v>
       </c>
       <c r="G102">
-        <v>83003.078209660627</v>
+        <v>83090.323048861916</v>
       </c>
       <c r="H102">
-        <v>1563.3198877036427</v>
+        <v>3037.4412338335192</v>
       </c>
       <c r="I102" t="s">
         <v>11</v>
@@ -4734,7 +4734,7 @@
         <v>7465222</v>
       </c>
       <c r="C103">
-        <v>7384559594.4187489</v>
+        <v>3966687850.7334876</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>436180782475.98035</v>
       </c>
       <c r="F103">
-        <v>989.1949086602848</v>
+        <v>531.35564498061649</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4775,22 +4775,22 @@
         <v>12442473</v>
       </c>
       <c r="C104">
-        <v>8103080753261.2969</v>
+        <v>10110301440691.187</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1314636034027.8025</v>
+        <v>1632662719909.8608</v>
       </c>
       <c r="F104">
-        <v>651243.58744931954</v>
+        <v>812563.66324372881</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>105657.13375691492</v>
+        <v>131216.89875556578</v>
       </c>
       <c r="I104" t="s">
         <v>59</v>
@@ -4816,22 +4816,22 @@
         <v>6659324</v>
       </c>
       <c r="C105">
-        <v>13033731058.278923</v>
+        <v>13114666470.375134</v>
       </c>
       <c r="D105">
         <v>418115114422.86926</v>
       </c>
       <c r="E105">
-        <v>10535678836.126976</v>
+        <v>11805855829.335497</v>
       </c>
       <c r="F105">
-        <v>1957.2153357125924</v>
+        <v>1969.369033609888</v>
       </c>
       <c r="G105">
         <v>62786.420126557779</v>
       </c>
       <c r="H105">
-        <v>1582.0943441296708</v>
+        <v>1772.8309704311573</v>
       </c>
       <c r="I105" t="s">
         <v>31</v>
@@ -4857,22 +4857,22 @@
         <v>8727176</v>
       </c>
       <c r="C106">
-        <v>14400230400.472406</v>
+        <v>17011459004.517776</v>
       </c>
       <c r="D106">
         <v>526103735396.16156</v>
       </c>
       <c r="E106">
-        <v>12897228817.3603</v>
+        <v>10682127219.860371</v>
       </c>
       <c r="F106">
-        <v>1650.0446880494223</v>
+        <v>1949.2512818027019</v>
       </c>
       <c r="G106">
         <v>60283.387821691867</v>
       </c>
       <c r="H106">
-        <v>1477.8238478701817</v>
+        <v>1224.0073100233535</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
@@ -4898,7 +4898,7 @@
         <v>2169628</v>
       </c>
       <c r="C107">
-        <v>8694904664.4317913</v>
+        <v>5992420739.3446045</v>
       </c>
       <c r="D107">
         <v>261748136418.00256</v>
@@ -4907,7 +4907,7 @@
         <v>4278664568.1213622</v>
       </c>
       <c r="F107">
-        <v>4007.5555184721948</v>
+        <v>2761.9576901407081</v>
       </c>
       <c r="G107">
         <v>120641.9424979778</v>
@@ -4939,7 +4939,7 @@
         <v>2006853</v>
       </c>
       <c r="C108">
-        <v>2024137062.7719047</v>
+        <v>194234498.22325495</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>119570648291.39082</v>
       </c>
       <c r="F108">
-        <v>1008.6125205841707</v>
+        <v>96.785613207970357</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4980,22 +4980,22 @@
         <v>3910602</v>
       </c>
       <c r="C109">
-        <v>36519584829.520317</v>
+        <v>36631684490.79361</v>
       </c>
       <c r="D109">
-        <v>1418923195999.9436</v>
+        <v>1408211009613.4238</v>
       </c>
       <c r="E109">
-        <v>31645304496.121429</v>
+        <v>30843666259.212917</v>
       </c>
       <c r="F109">
-        <v>9338.6094594950646</v>
+        <v>9367.2750361181243</v>
       </c>
       <c r="G109">
-        <v>362840.09367354272</v>
+        <v>360100.82580979192</v>
       </c>
       <c r="H109">
-        <v>8092.1823535408175</v>
+        <v>7887.1913478315919</v>
       </c>
       <c r="I109" t="s">
         <v>27</v>
@@ -5021,22 +5021,22 @@
         <v>7463219</v>
       </c>
       <c r="C110">
-        <v>55590587378.810051</v>
+        <v>55895275040.761444</v>
       </c>
       <c r="D110">
-        <v>2205598350820.2759</v>
+        <v>2190585860037.9717</v>
       </c>
       <c r="E110">
-        <v>45620106614.873474</v>
+        <v>44407253754.5784</v>
       </c>
       <c r="F110">
-        <v>7448.6072804255173</v>
+        <v>7489.4325144098602</v>
       </c>
       <c r="G110">
-        <v>295529.09419116279</v>
+        <v>293517.56394097127</v>
       </c>
       <c r="H110">
-        <v>6112.6581726830573</v>
+        <v>5950.1474838911199</v>
       </c>
       <c r="I110" t="s">
         <v>30</v>
@@ -5062,7 +5062,7 @@
         <v>5184267</v>
       </c>
       <c r="C111">
-        <v>5584316401.833046</v>
+        <v>524337589.60326409</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>329356714748.08624</v>
       </c>
       <c r="F111">
-        <v>1077.1660490929664</v>
+        <v>101.14015917838802</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>4104611</v>
       </c>
       <c r="C112">
-        <v>8189636801.2822599</v>
+        <v>11883029299.985277</v>
       </c>
       <c r="D112">
         <v>357722240129.34924</v>
@@ -5112,7 +5112,7 @@
         <v>12614747906.092033</v>
       </c>
       <c r="F112">
-        <v>1995.2284884687635</v>
+        <v>2895.0439639676638</v>
       </c>
       <c r="G112">
         <v>87151.313517736329</v>
@@ -5144,7 +5144,7 @@
         <v>1299004</v>
       </c>
       <c r="C113">
-        <v>1354645879.7842855</v>
+        <v>129990684.70678499</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>80022192681.583832</v>
       </c>
       <c r="F113">
-        <v>1042.8342636237344</v>
+        <v>100.06950302445951</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>2477354</v>
       </c>
       <c r="C114">
-        <v>261185175.78583497</v>
+        <v>2759993335.6349998</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>160785447891.53268</v>
       </c>
       <c r="F114">
-        <v>105.42908917572336</v>
+        <v>1114.0891998620302</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5267,19 +5267,19 @@
         <v>4583206</v>
       </c>
       <c r="C116">
-        <v>12449836614.938009</v>
+        <v>6915477489.2080135</v>
       </c>
       <c r="D116">
-        <v>364946974074.99176</v>
+        <v>364903518341.07269</v>
       </c>
       <c r="E116">
         <v>13216457386.810596</v>
       </c>
       <c r="F116">
-        <v>2716.4034553406523</v>
+        <v>1508.8733714365039</v>
       </c>
       <c r="G116">
-        <v>79627.006526652258</v>
+        <v>79617.525012201659</v>
       </c>
       <c r="H116">
         <v>2883.6708161951692</v>
@@ -5308,22 +5308,22 @@
         <v>12498933</v>
       </c>
       <c r="C117">
-        <v>76407049241.870087</v>
+        <v>76931802906.151886</v>
       </c>
       <c r="D117">
-        <v>2885800194623.1377</v>
+        <v>2914100643360.0532</v>
       </c>
       <c r="E117">
-        <v>64660314688.644402</v>
+        <v>64706528120.386475</v>
       </c>
       <c r="F117">
-        <v>6113.0857523494278</v>
+        <v>6155.0696292357025</v>
       </c>
       <c r="G117">
-        <v>230883.72380451497</v>
+        <v>233147.95297807048</v>
       </c>
       <c r="H117">
-        <v>5173.2667651426245</v>
+        <v>5176.9641552912135</v>
       </c>
       <c r="I117" t="s">
         <v>23</v>
@@ -5349,22 +5349,22 @@
         <v>13439341</v>
       </c>
       <c r="C118">
-        <v>24519157140.083633</v>
+        <v>24526793215.591362</v>
       </c>
       <c r="D118">
         <v>711521318084.89282</v>
       </c>
       <c r="E118">
-        <v>25713942722.171253</v>
+        <v>25690375404.365349</v>
       </c>
       <c r="F118">
-        <v>1824.4315059855712</v>
+        <v>1824.9996942254359</v>
       </c>
       <c r="G118">
         <v>52943.170210867691</v>
       </c>
       <c r="H118">
-        <v>1913.3336018612263</v>
+        <v>1911.5799952070081</v>
       </c>
       <c r="I118" t="s">
         <v>32</v>
@@ -5390,22 +5390,22 @@
         <v>14171621</v>
       </c>
       <c r="C119">
-        <v>89327170397.338776</v>
+        <v>89793743250.53978</v>
       </c>
       <c r="D119">
-        <v>3703054821315.2554</v>
+        <v>3777852802061.8789</v>
       </c>
       <c r="E119">
-        <v>70513579796.973785</v>
+        <v>71108237411.397156</v>
       </c>
       <c r="F119">
-        <v>6303.2429668658779</v>
+        <v>6336.1660074411939</v>
       </c>
       <c r="G119">
-        <v>261300.72355979992</v>
+        <v>266578.73521045188</v>
       </c>
       <c r="H119">
-        <v>4975.6890758632189</v>
+        <v>5017.6502329124633</v>
       </c>
       <c r="I119" t="s">
         <v>25</v>
@@ -5431,22 +5431,22 @@
         <v>1940463</v>
       </c>
       <c r="C120">
-        <v>13544989275.096245</v>
+        <v>13404025128.004042</v>
       </c>
       <c r="D120">
-        <v>524649900776.06317</v>
+        <v>530123682767.89124</v>
       </c>
       <c r="E120">
-        <v>11142513263.800123</v>
+        <v>11119672496.215904</v>
       </c>
       <c r="F120">
-        <v>6980.2873206529803</v>
+        <v>6907.6427265060147</v>
       </c>
       <c r="G120">
-        <v>270373.56588405097</v>
+        <v>273194.42976644816</v>
       </c>
       <c r="H120">
-        <v>5742.1931074182412</v>
+        <v>5730.422325092467</v>
       </c>
       <c r="I120" t="s">
         <v>26</v>
@@ -5513,22 +5513,22 @@
         <v>334348.61</v>
       </c>
       <c r="C122">
-        <v>285085932.08968997</v>
+        <v>367966851.11603367</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>121787945351.0499</v>
+        <v>122581117018.33846</v>
       </c>
       <c r="F122">
-        <v>852.66073661765779</v>
+        <v>1100.5484698023231</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>364254.37913754123</v>
+        <v>366626.66854914831</v>
       </c>
       <c r="I122" t="s">
         <v>30</v>

--- a/r_map/data_boot_cq_remov_Cl.xlsx
+++ b/r_map/data_boot_cq_remov_Cl.xlsx
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>123161195538.89999</v>
+        <v>123031876283.58415</v>
       </c>
       <c r="F2">
         <v>348.3324154702014</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>55788.420771291436</v>
+        <v>55729.84292948158</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -664,22 +664,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>16144399188.04521</v>
+        <v>23674282915.059921</v>
       </c>
       <c r="D3">
-        <v>505900593410.16437</v>
+        <v>760489152293.21814</v>
       </c>
       <c r="E3">
-        <v>136411923566.95178</v>
+        <v>204030334266.53937</v>
       </c>
       <c r="F3">
-        <v>2454.052512452779</v>
+        <v>3598.643268883101</v>
       </c>
       <c r="G3">
-        <v>76900.143997237799</v>
+        <v>115599.2423837129</v>
       </c>
       <c r="H3">
-        <v>20735.489742218644</v>
+        <v>31013.923069626904</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -705,22 +705,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>2996801112.1542482</v>
+        <v>3393358460.2653236</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>897530035692.97473</v>
+        <v>904069235001.62207</v>
       </c>
       <c r="F4">
-        <v>1099.1852622940305</v>
+        <v>1244.63702114791</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>329201.62225606322</v>
+        <v>331600.11025652371</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -749,7 +749,7 @@
         <v>12286273661.913506</v>
       </c>
       <c r="D5">
-        <v>667306220596.26965</v>
+        <v>666605549064.64355</v>
       </c>
       <c r="E5">
         <v>24761581349.632336</v>
@@ -758,7 +758,7 @@
         <v>2875.2970450611929</v>
       </c>
       <c r="G5">
-        <v>156166.4388267078</v>
+        <v>156002.46406593977</v>
       </c>
       <c r="H5">
         <v>5794.8328064956804</v>
@@ -787,22 +787,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>5381037961.7344389</v>
+        <v>8431579054.6494827</v>
       </c>
       <c r="D6">
-        <v>200693935667.84869</v>
+        <v>323023136595.07019</v>
       </c>
       <c r="E6">
-        <v>4486225765.1428509</v>
+        <v>6874461434.5502319</v>
       </c>
       <c r="F6">
-        <v>3246.3941881051887</v>
+        <v>5086.7935580853609</v>
       </c>
       <c r="G6">
-        <v>121079.17300959837</v>
+        <v>194880.69787334037</v>
       </c>
       <c r="H6">
-        <v>2706.5516642059065</v>
+        <v>4147.3804507938748</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -828,22 +828,22 @@
         <v>541762</v>
       </c>
       <c r="C7">
-        <v>41220666.58688999</v>
+        <v>625612103.71349192</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35948510615.612022</v>
+        <v>35948510615.612015</v>
       </c>
       <c r="F7">
-        <v>76.086300971441318</v>
+        <v>1154.77295143161</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>66354.802691240839</v>
+        <v>66354.802691240824</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -869,22 +869,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>63667235290.468163</v>
+        <v>64022165094.472366</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25159971840.772892</v>
+        <v>25159971840.772888</v>
       </c>
       <c r="F8">
-        <v>46117.731933637537</v>
+        <v>46374.82740011486</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18224.771839344321</v>
+        <v>18224.771839344317</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -910,19 +910,19 @@
         <v>1368602</v>
       </c>
       <c r="C9">
-        <v>2214765108.5203075</v>
+        <v>2265960720.0404959</v>
       </c>
       <c r="D9">
-        <v>77886721064.75499</v>
+        <v>77886721064.754974</v>
       </c>
       <c r="E9">
-        <v>2870550593.8999104</v>
+        <v>2870550593.89991</v>
       </c>
       <c r="F9">
-        <v>1618.2682098377086</v>
+        <v>1655.6754411001123</v>
       </c>
       <c r="G9">
-        <v>56909.694027010766</v>
+        <v>56909.694027010759</v>
       </c>
       <c r="H9">
         <v>2097.4327042485033</v>
@@ -951,22 +951,22 @@
         <v>1443465</v>
       </c>
       <c r="C10">
-        <v>86700810052.380646</v>
+        <v>86700810052.380615</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2681468352.1354861</v>
+        <v>2681468352.1354852</v>
       </c>
       <c r="F10">
-        <v>60064.365989047634</v>
+        <v>60064.365989047612</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1857.6608037849801</v>
+        <v>1857.6608037849794</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -992,22 +992,22 @@
         <v>4446401</v>
       </c>
       <c r="C11">
-        <v>7752220213.9739494</v>
+        <v>8531714377.9075851</v>
       </c>
       <c r="D11">
-        <v>245745702062.25827</v>
+        <v>245745702062.25824</v>
       </c>
       <c r="E11">
-        <v>8495796254.5603476</v>
+        <v>5104824659.6616535</v>
       </c>
       <c r="F11">
-        <v>1743.4820237702245</v>
+        <v>1918.7910352457156</v>
       </c>
       <c r="G11">
-        <v>55268.452409546117</v>
+        <v>55268.452409546109</v>
       </c>
       <c r="H11">
-        <v>1910.7130136396486</v>
+        <v>1148.0801348465093</v>
       </c>
       <c r="I11" t="s">
         <v>61</v>
@@ -1033,22 +1033,22 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>3603439388.3701706</v>
+        <v>3390176121.7136226</v>
       </c>
       <c r="D12">
-        <v>126638563064.77957</v>
+        <v>126638563064.77954</v>
       </c>
       <c r="E12">
-        <v>2572901520.9433756</v>
+        <v>4570989985.8460007</v>
       </c>
       <c r="F12">
-        <v>1730.81096515897</v>
+        <v>1628.3759411133105</v>
       </c>
       <c r="G12">
-        <v>60827.279146669462</v>
+        <v>60827.27914666944</v>
       </c>
       <c r="H12">
-        <v>1235.821026737781</v>
+        <v>2195.546736450719</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -1074,22 +1074,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>42299540013.113037</v>
+        <v>46617664645.806</v>
       </c>
       <c r="D13">
-        <v>1478685749820.3516</v>
+        <v>1658591472617.8086</v>
       </c>
       <c r="E13">
-        <v>37052620353.542458</v>
+        <v>39891477692.228317</v>
       </c>
       <c r="F13">
-        <v>4741.0570153738618</v>
+        <v>5225.0451409360094</v>
       </c>
       <c r="G13">
-        <v>165735.45351901796</v>
+        <v>185899.81674638102</v>
       </c>
       <c r="H13">
-        <v>4152.9668079295607</v>
+        <v>4471.1542987876119</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
@@ -1115,22 +1115,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>18191456994.788525</v>
+        <v>18848678915.63195</v>
       </c>
       <c r="D14">
-        <v>694420835026.01941</v>
+        <v>720022699364.49292</v>
       </c>
       <c r="E14">
-        <v>14824076539.138613</v>
+        <v>15398973642.128857</v>
       </c>
       <c r="F14">
-        <v>2349.038520215031</v>
+        <v>2433.9047081643084</v>
       </c>
       <c r="G14">
-        <v>89669.634003659943</v>
+        <v>92975.568516636151</v>
       </c>
       <c r="H14">
-        <v>1914.2131840802194</v>
+        <v>1988.4488783663335</v>
       </c>
       <c r="I14" t="s">
         <v>64</v>
@@ -1156,22 +1156,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>3540462300.789937</v>
+        <v>3538374041.7835693</v>
       </c>
       <c r="D15">
-        <v>140189503512.06409</v>
+        <v>141472786368.08847</v>
       </c>
       <c r="E15">
-        <v>3235603073.0652561</v>
+        <v>3218218098.7541466</v>
       </c>
       <c r="F15">
-        <v>1851.3247274306116</v>
+        <v>1850.2327667748223</v>
       </c>
       <c r="G15">
-        <v>73305.764142778149</v>
+        <v>73976.798906547745</v>
       </c>
       <c r="H15">
-        <v>1691.9123742624461</v>
+        <v>1682.8216877663006</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1197,22 +1197,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>125784490279.77965</v>
+        <v>125784490279.77962</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>150210940073.08423</v>
+        <v>150210940073.0842</v>
       </c>
       <c r="F16">
-        <v>33496.13635934113</v>
+        <v>33496.136359341122</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>40000.846846550201</v>
+        <v>40000.846846550194</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1238,22 +1238,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>18021756948.621502</v>
+        <v>17771857760.952808</v>
       </c>
       <c r="D17">
-        <v>621602698675.05347</v>
+        <v>621812800293.74365</v>
       </c>
       <c r="E17">
-        <v>16937412434.142254</v>
+        <v>15642477833.571926</v>
       </c>
       <c r="F17">
-        <v>1966.4377457940122</v>
+        <v>1939.1700827866844</v>
       </c>
       <c r="G17">
-        <v>67825.962421246877</v>
+        <v>67848.887586347191</v>
       </c>
       <c r="H17">
-        <v>1848.1198709721693</v>
+        <v>1706.8235320993404</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1279,22 +1279,22 @@
         <v>1901037</v>
       </c>
       <c r="C18">
-        <v>80459980261.666489</v>
+        <v>80459980261.666473</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2488452997.7835021</v>
+        <v>2488452997.7835016</v>
       </c>
       <c r="F18">
-        <v>42324.257898013813</v>
+        <v>42324.257898013806</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1308.9976669488822</v>
+        <v>1308.9976669488819</v>
       </c>
       <c r="I18" t="s">
         <v>62</v>
@@ -1361,22 +1361,22 @@
         <v>1057147</v>
       </c>
       <c r="C20">
-        <v>43858266967.531494</v>
+        <v>43858266967.531487</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1356441246.4185011</v>
+        <v>1356441246.4185009</v>
       </c>
       <c r="F20">
-        <v>41487.387248444626</v>
+        <v>41487.387248444618</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1283.1150695395258</v>
+        <v>1283.1150695395256</v>
       </c>
       <c r="I20" t="s">
         <v>62</v>
@@ -1402,22 +1402,22 @@
         <v>1387318</v>
       </c>
       <c r="C21">
-        <v>1313546122.7521396</v>
+        <v>1298582328.3448949</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>89401508289.78064</v>
+        <v>89401508289.780609</v>
       </c>
       <c r="F21">
-        <v>946.82410431648657</v>
+        <v>936.03797279707669</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>64441.972417124722</v>
+        <v>64441.9724171247</v>
       </c>
       <c r="I21" t="s">
         <v>62</v>
@@ -1443,22 +1443,22 @@
         <v>2877284</v>
       </c>
       <c r="C22">
-        <v>132596005449.31949</v>
+        <v>132596005449.31947</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4100907385.0305037</v>
+        <v>4100907385.0305033</v>
       </c>
       <c r="F22">
-        <v>46083.739196172326</v>
+        <v>46083.739196172319</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1425.2702844177022</v>
+        <v>1425.270284417702</v>
       </c>
       <c r="I22" t="s">
         <v>62</v>
@@ -1484,22 +1484,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>8452212883.0266209</v>
+        <v>14481365553.448181</v>
       </c>
       <c r="D23">
-        <v>304306901664.12384</v>
+        <v>535284409768.16919</v>
       </c>
       <c r="E23">
-        <v>7170670048.8775988</v>
+        <v>11790183955.762596</v>
       </c>
       <c r="F23">
-        <v>2166.7457214198698</v>
+        <v>3712.3339517704039</v>
       </c>
       <c r="G23">
-        <v>78009.828467923217</v>
+        <v>137221.48514941611</v>
       </c>
       <c r="H23">
-        <v>1838.2190395748237</v>
+        <v>3022.4428790953516</v>
       </c>
       <c r="I23" t="s">
         <v>64</v>
@@ -1525,22 +1525,22 @@
         <v>602337</v>
       </c>
       <c r="C24">
-        <v>56545049395.381042</v>
+        <v>56564337806.93309</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1718075681.0517104</v>
+        <v>1740344508.9137702</v>
       </c>
       <c r="F24">
-        <v>93876.101576660643</v>
+        <v>93908.124201125102</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2852.3495668566106</v>
+        <v>2889.3202790361047</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -1566,22 +1566,22 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>17814967014.847004</v>
+        <v>17625061890.23864</v>
       </c>
       <c r="D25">
-        <v>391319206676.87073</v>
+        <v>391399267224.40308</v>
       </c>
       <c r="E25">
-        <v>10363250756.104795</v>
+        <v>10427881688.462757</v>
       </c>
       <c r="F25">
-        <v>3589.7883008042641</v>
+        <v>3551.5216459171829</v>
       </c>
       <c r="G25">
-        <v>78852.411505332246</v>
+        <v>78868.544031238591</v>
       </c>
       <c r="H25">
-        <v>2088.2371711135852</v>
+        <v>2101.2605668153747</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1607,22 +1607,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>48937116679.887009</v>
+        <v>45766619975.445648</v>
       </c>
       <c r="D26">
-        <v>1648683140173.2537</v>
+        <v>1739730373779.991</v>
       </c>
       <c r="E26">
-        <v>607173745044.46924</v>
+        <v>639987771142.80945</v>
       </c>
       <c r="F26">
-        <v>5021.832680807609</v>
+        <v>4696.4824140784658</v>
       </c>
       <c r="G26">
-        <v>169184.6891547938</v>
+        <v>178527.78094776318</v>
       </c>
       <c r="H26">
-        <v>62307.000548028671</v>
+        <v>65674.312719839669</v>
       </c>
       <c r="I26" t="s">
         <v>64</v>
@@ -1648,22 +1648,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>8728285223.1358757</v>
+        <v>12715889068.637363</v>
       </c>
       <c r="D27">
-        <v>282536727559.5033</v>
+        <v>468290145953.85425</v>
       </c>
       <c r="E27">
-        <v>7269586851.0648098</v>
+        <v>10183043573.73077</v>
       </c>
       <c r="F27">
-        <v>3524.5449084693628</v>
+        <v>5134.7682766747457</v>
       </c>
       <c r="G27">
-        <v>114090.38076985179</v>
+        <v>189098.9590066399</v>
       </c>
       <c r="H27">
-        <v>2935.5119210220887</v>
+        <v>4111.9868866544412</v>
       </c>
       <c r="I27" t="s">
         <v>64</v>
@@ -1689,22 +1689,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>286042172188.56927</v>
+        <v>282595138141.20923</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>8743496476.3777428</v>
+        <v>8640757020.1531448</v>
       </c>
       <c r="F28">
-        <v>363464.4647549509</v>
+        <v>359084.43094584573</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11110.075981308155</v>
+        <v>10979.528303040383</v>
       </c>
       <c r="I28" t="s">
         <v>64</v>
@@ -1730,22 +1730,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>60634014244.81337</v>
+        <v>74151650948.951889</v>
       </c>
       <c r="D29">
-        <v>2192779913664.1802</v>
+        <v>2682039531759.9316</v>
       </c>
       <c r="E29">
-        <v>50846881808.439674</v>
+        <v>62236517869.363663</v>
       </c>
       <c r="F29">
-        <v>4717.8869564557954</v>
+        <v>5769.6840819284589</v>
       </c>
       <c r="G29">
-        <v>170618.5526705324</v>
+        <v>208687.47486352309</v>
       </c>
       <c r="H29">
-        <v>3956.3575568643337</v>
+        <v>4842.5765558844805</v>
       </c>
       <c r="I29" t="s">
         <v>58</v>
@@ -1771,22 +1771,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>5830650601.1008005</v>
+        <v>6723927675.137785</v>
       </c>
       <c r="D30">
-        <v>228806526982.2533</v>
+        <v>266739395953.38425</v>
       </c>
       <c r="E30">
-        <v>4827716071.4250097</v>
+        <v>5544293799.5136271</v>
       </c>
       <c r="F30">
-        <v>5038.1931936686578</v>
+        <v>5810.0628840980089</v>
       </c>
       <c r="G30">
-        <v>197708.89490296581</v>
+        <v>230486.21862574137</v>
       </c>
       <c r="H30">
-        <v>4171.5698497567673</v>
+        <v>4790.7558170498551</v>
       </c>
       <c r="I30" t="s">
         <v>58</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>186352005434.55524</v>
+        <v>186352005434.55518</v>
       </c>
       <c r="F31">
         <v>1058.149960349208</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>62507.465070176404</v>
+        <v>62507.465070176389</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>111879408127.81781</v>
+        <v>111879408127.81778</v>
       </c>
       <c r="F34">
         <v>741.22411354357143</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>62289.1137271267</v>
+        <v>62289.113727126685</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -1976,22 +1976,22 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>2304391723.9407029</v>
+        <v>215096750.89449745</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>132413439348.27119</v>
+        <v>132413439348.27116</v>
       </c>
       <c r="F35">
-        <v>971.48383852193581</v>
+        <v>90.680336611884172</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>55822.764416966878</v>
+        <v>55822.764416966864</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -2017,7 +2017,7 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>3792423317.1471372</v>
+        <v>2080990388.1351342</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>326746580352.0423</v>
       </c>
       <c r="F36">
-        <v>776.96954589583527</v>
+        <v>426.34116016859798</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>583295607388.86523</v>
+        <v>583295607388.86511</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>18011444006.599674</v>
       </c>
       <c r="F37">
-        <v>56598.731898323465</v>
+        <v>56598.731898323451</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2099,22 +2099,22 @@
         <v>1880003</v>
       </c>
       <c r="C38">
-        <v>125337112251.13196</v>
+        <v>125337112251.13193</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>3870254379.8776703</v>
+        <v>3870254379.8776693</v>
       </c>
       <c r="F38">
-        <v>66668.570343309009</v>
+        <v>66668.570343308995</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2058.6426616753647</v>
+        <v>2058.6426616753638</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -2140,7 +2140,7 @@
         <v>1542905</v>
       </c>
       <c r="C39">
-        <v>2614918753.2047815</v>
+        <v>2497214716.4771314</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>93937977439.762146</v>
       </c>
       <c r="F39">
-        <v>1694.8021771948249</v>
+        <v>1618.5148900788652</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2181,22 +2181,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>2291128928.836576</v>
+        <v>2344692072.9022222</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>135342500455.47446</v>
+        <v>135342500455.47443</v>
       </c>
       <c r="F40">
-        <v>1032.0712061294535</v>
+        <v>1056.1994766969192</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>60966.930288199896</v>
+        <v>60966.930288199881</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -2222,22 +2222,22 @@
         <v>1928627</v>
       </c>
       <c r="C41">
-        <v>4316746095.6616335</v>
+        <v>7198060002.314415</v>
       </c>
       <c r="D41">
-        <v>149130758740.71677</v>
+        <v>262262690013.05981</v>
       </c>
       <c r="E41">
-        <v>3903598990.4863615</v>
+        <v>5987195386.1856823</v>
       </c>
       <c r="F41">
-        <v>2238.2482956329209</v>
+        <v>3732.2198653832052</v>
       </c>
       <c r="G41">
-        <v>77324.831987064768</v>
+        <v>135984.14313035118</v>
       </c>
       <c r="H41">
-        <v>2024.0300433864929</v>
+        <v>3104.382229526851</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -2263,22 +2263,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>6711063754.1326027</v>
+        <v>10256388621.897854</v>
       </c>
       <c r="D42">
-        <v>241077385460.89856</v>
+        <v>373407695251.38708</v>
       </c>
       <c r="E42">
-        <v>5740491678.2708492</v>
+        <v>8539255055.9040546</v>
       </c>
       <c r="F42">
-        <v>6290.1755291276158</v>
+        <v>9613.1533077684508</v>
       </c>
       <c r="G42">
-        <v>225958.07851153475</v>
+        <v>349989.21677831636</v>
       </c>
       <c r="H42">
-        <v>5380.4734394878387</v>
+        <v>8003.7107614349216</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -2304,22 +2304,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>33218882189.352043</v>
+        <v>36765454689.280678</v>
       </c>
       <c r="D43">
-        <v>1580713793782.0425</v>
+        <v>1644149625376.605</v>
       </c>
       <c r="E43">
-        <v>26724371793.323036</v>
+        <v>29027764576.958244</v>
       </c>
       <c r="F43">
-        <v>6357.4934230363433</v>
+        <v>7036.2432742232431</v>
       </c>
       <c r="G43">
-        <v>302520.03936765163</v>
+        <v>314660.51055655105</v>
       </c>
       <c r="H43">
-        <v>5114.561559969914</v>
+        <v>5555.3892912932797</v>
       </c>
       <c r="I43" t="s">
         <v>59</v>
@@ -2345,22 +2345,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>6120535376.7421312</v>
+        <v>10214935609.088154</v>
       </c>
       <c r="D44">
-        <v>210057279084.43658</v>
+        <v>372176718451.159</v>
       </c>
       <c r="E44">
-        <v>66331858863.503639</v>
+        <v>117669891514.72099</v>
       </c>
       <c r="F44">
-        <v>2044.9787055956454</v>
+        <v>3412.9899614655983</v>
       </c>
       <c r="G44">
-        <v>70183.837890286668</v>
+        <v>124350.79892573133</v>
       </c>
       <c r="H44">
-        <v>22162.642731205597</v>
+        <v>39315.583952304376</v>
       </c>
       <c r="I44" t="s">
         <v>59</v>
@@ -2386,22 +2386,22 @@
         <v>229494</v>
       </c>
       <c r="C45">
-        <v>132817693.8832498</v>
+        <v>151945819.97237998</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>18201193756.559998</v>
+        <v>31763528248.002243</v>
       </c>
       <c r="F45">
-        <v>578.74146549909722</v>
+        <v>662.09059919814888</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>79310.107264503633</v>
+        <v>138406.79167212322</v>
       </c>
       <c r="I45" t="s">
         <v>59</v>
@@ -2427,22 +2427,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>29093964934.174095</v>
+        <v>48264484584.645332</v>
       </c>
       <c r="D46">
-        <v>960883215469.91357</v>
+        <v>1616834669856.5217</v>
       </c>
       <c r="E46">
-        <v>21900775606.479324</v>
+        <v>35896228304.489456</v>
       </c>
       <c r="F46">
-        <v>3244.6130408056356</v>
+        <v>5382.5450207771173</v>
       </c>
       <c r="G46">
-        <v>107159.48199768587</v>
+        <v>180312.40728145416</v>
       </c>
       <c r="H46">
-        <v>2442.4151983861589</v>
+        <v>4003.214093919411</v>
       </c>
       <c r="I46" t="s">
         <v>59</v>
@@ -2468,22 +2468,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>3816213363.407619</v>
+        <v>5993343322.9852467</v>
       </c>
       <c r="D47">
-        <v>128738284456.81601</v>
+        <v>228035885513.82666</v>
       </c>
       <c r="E47">
-        <v>3211801959.8919673</v>
+        <v>5009405225.4834614</v>
       </c>
       <c r="F47">
-        <v>2647.2766092666279</v>
+        <v>4157.5342045539819</v>
       </c>
       <c r="G47">
-        <v>89304.715618763541</v>
+        <v>158186.66523800339</v>
       </c>
       <c r="H47">
-        <v>2228.0012652192327</v>
+        <v>3474.9842361850974</v>
       </c>
       <c r="I47" t="s">
         <v>59</v>
@@ -2509,22 +2509,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>1471830427.2338891</v>
+        <v>392584558.79854608</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>109897967933.51337</v>
+        <v>109630138135.06644</v>
       </c>
       <c r="F48">
-        <v>891.83412836128355</v>
+        <v>237.88087358827423</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>66591.06689678882</v>
+        <v>66428.779346248106</v>
       </c>
       <c r="I48" t="s">
         <v>59</v>
@@ -2550,22 +2550,22 @@
         <v>4984247</v>
       </c>
       <c r="C49">
-        <v>9419324500.2209187</v>
+        <v>15331670230.3209</v>
       </c>
       <c r="D49">
-        <v>327124200008.0863</v>
+        <v>557524185698.71118</v>
       </c>
       <c r="E49">
-        <v>8518152381.7734261</v>
+        <v>12334183547.378288</v>
       </c>
       <c r="F49">
-        <v>1889.8189636711261</v>
+        <v>3076.0253715999429</v>
       </c>
       <c r="G49">
-        <v>65631.618980376836</v>
+        <v>111857.25460610422</v>
       </c>
       <c r="H49">
-        <v>1709.0148986945121</v>
+        <v>2474.6332891163474</v>
       </c>
       <c r="I49" t="s">
         <v>59</v>
@@ -2591,22 +2591,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>137584825006.52844</v>
+        <v>137422194070.05809</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>14765776817.00621</v>
+        <v>14554009487.270683</v>
       </c>
       <c r="F50">
-        <v>270663.1092441419</v>
+        <v>270343.17428821739</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>29047.905999126957</v>
+        <v>28631.307701314479</v>
       </c>
       <c r="I50" t="s">
         <v>59</v>
@@ -2632,22 +2632,22 @@
         <v>2093626</v>
       </c>
       <c r="C51">
-        <v>1022733094.9989663</v>
+        <v>1108531205.6139562</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>150922826730.12448</v>
+        <v>261033418468.01938</v>
       </c>
       <c r="F51">
-        <v>488.49846868493529</v>
+        <v>529.47909780159216</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>72086.813370737887</v>
+        <v>124680.06151433894</v>
       </c>
       <c r="I51" t="s">
         <v>59</v>
@@ -2673,22 +2673,22 @@
         <v>1408704</v>
       </c>
       <c r="C52">
-        <v>2694863916.3572679</v>
+        <v>4370314579.4279547</v>
       </c>
       <c r="D52">
-        <v>92819620904.500031</v>
+        <v>159193639299.35284</v>
       </c>
       <c r="E52">
-        <v>2433022164.6727924</v>
+        <v>3692106200.5425253</v>
       </c>
       <c r="F52">
-        <v>1913.009345013053</v>
+        <v>3102.365421996356</v>
       </c>
       <c r="G52">
-        <v>65890.081169997415</v>
+        <v>113007.16069476117</v>
       </c>
       <c r="H52">
-        <v>1727.1351289360948</v>
+        <v>2620.9240554030694</v>
       </c>
       <c r="I52" t="s">
         <v>59</v>
@@ -2714,22 +2714,22 @@
         <v>53291</v>
       </c>
       <c r="C53">
-        <v>334432330.03781879</v>
+        <v>377460295.19162834</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>16796336975.633757</v>
+        <v>19713166449.99929</v>
       </c>
       <c r="F53">
-        <v>6275.5874357362181</v>
+        <v>7083.0026682109237</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>315181.49360368086</v>
+        <v>369915.49135875271</v>
       </c>
       <c r="I53" t="s">
         <v>59</v>
@@ -2755,22 +2755,22 @@
         <v>860420</v>
       </c>
       <c r="C54">
-        <v>57590392210.161896</v>
+        <v>57590392210.161888</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1778319794.4090097</v>
+        <v>1778319794.4090095</v>
       </c>
       <c r="F54">
-        <v>66932.884184656214</v>
+        <v>66932.884184656199</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>2066.8043448653098</v>
+        <v>2066.8043448653093</v>
       </c>
       <c r="I54" t="s">
         <v>14</v>
@@ -2796,22 +2796,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>17629475.764544304</v>
+        <v>190595064.35325661</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>11229014681.780067</v>
+        <v>11229014681.780066</v>
       </c>
       <c r="F55">
-        <v>71.790899284286184</v>
+        <v>776.1428219315161</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>45726.887903423783</v>
+        <v>45726.887903423769</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
@@ -2837,22 +2837,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>532857528081.03467</v>
+        <v>532857528081.03455</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>16469242033.636099</v>
+        <v>16469242033.636097</v>
       </c>
       <c r="F56">
-        <v>56083.164214156321</v>
+        <v>56083.164214156306</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1733.3849233235096</v>
+        <v>1733.3849233235094</v>
       </c>
       <c r="I56" t="s">
         <v>14</v>
@@ -2878,7 +2878,7 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>106968905450.86485</v>
+        <v>106420200019.2406</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>48568351212.859886</v>
       </c>
       <c r="F57">
-        <v>42346.045372870249</v>
+        <v>42128.827995484127</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>1081826</v>
       </c>
       <c r="C58">
-        <v>75001314.851190001</v>
+        <v>1107261249.9776757</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>65408587156.869736</v>
+        <v>65408587156.869728</v>
       </c>
       <c r="F58">
-        <v>69.328445471998265</v>
+        <v>1023.5114056952557</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>60461.282273553916</v>
+        <v>60461.282273553908</v>
       </c>
       <c r="I58" t="s">
         <v>14</v>
@@ -2960,22 +2960,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>279671758.80689341</v>
+        <v>96817180.538189381</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>16392295152.588299</v>
+        <v>16392295152.588295</v>
       </c>
       <c r="F59">
-        <v>1115.4344284342594</v>
+        <v>386.14272995221688</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>65378.536797052991</v>
+        <v>65378.536797052977</v>
       </c>
       <c r="I59" t="s">
         <v>14</v>
@@ -3001,22 +3001,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>1644075126.5205417</v>
+        <v>1663288555.5227807</v>
       </c>
       <c r="D60">
-        <v>48272374442.582382</v>
+        <v>48272374442.582375</v>
       </c>
       <c r="E60">
-        <v>3442418034.0891118</v>
+        <v>2680782145.2023611</v>
       </c>
       <c r="F60">
-        <v>2189.7206722302321</v>
+        <v>2215.3107696606762</v>
       </c>
       <c r="G60">
-        <v>64293.300536859788</v>
+        <v>64293.300536859781</v>
       </c>
       <c r="H60">
-        <v>4584.9084449419788</v>
+        <v>3570.4962543400984</v>
       </c>
       <c r="I60" t="s">
         <v>14</v>
@@ -3042,22 +3042,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>23849824126.855362</v>
+        <v>24034114770.233047</v>
       </c>
       <c r="D61">
-        <v>706299223001.59521</v>
+        <v>713792309800.24646</v>
       </c>
       <c r="E61">
-        <v>17963943044.817673</v>
+        <v>20113187462.682297</v>
       </c>
       <c r="F61">
-        <v>3416.2772597809903</v>
+        <v>3442.675271389498</v>
       </c>
       <c r="G61">
-        <v>101171.14328840456</v>
+        <v>102244.46198038491</v>
       </c>
       <c r="H61">
-        <v>2573.1766319780909</v>
+        <v>2881.0369663523998</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
@@ -3083,22 +3083,22 @@
         <v>2191143</v>
       </c>
       <c r="C62">
-        <v>4356921875.8700914</v>
+        <v>4162405820.1727858</v>
       </c>
       <c r="D62">
-        <v>127782780031.35892</v>
+        <v>127782780031.35889</v>
       </c>
       <c r="E62">
-        <v>4652370313.6558685</v>
+        <v>4170037129.4571915</v>
       </c>
       <c r="F62">
-        <v>1988.4242497500582</v>
+        <v>1899.6504656121419</v>
       </c>
       <c r="G62">
-        <v>58317.864252291576</v>
+        <v>58317.864252291562</v>
       </c>
       <c r="H62">
-        <v>2123.2618380707549</v>
+        <v>1903.1332639892473</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
@@ -3124,22 +3124,22 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>27409384.590209994</v>
+        <v>404650898.49012464</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>23903702547.642307</v>
+        <v>23903702547.6423</v>
       </c>
       <c r="F63">
-        <v>71.331979852258016</v>
+        <v>1053.0900335721303</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>62208.563016471802</v>
+        <v>62208.563016471788</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
@@ -3165,22 +3165,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>3266084348.8701963</v>
+        <v>1617898513.1940184</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>500561262118.26788</v>
+        <v>503326761011.81555</v>
       </c>
       <c r="F64">
-        <v>2621.4806158074539</v>
+        <v>1298.5854428863622</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>401769.06212513265</v>
+        <v>403988.7542604506</v>
       </c>
       <c r="I64" t="s">
         <v>16</v>
@@ -3206,22 +3206,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>11810353880.079098</v>
+        <v>14779459508.37792</v>
       </c>
       <c r="D65">
-        <v>351931046772.48242</v>
+        <v>437717557533.39221</v>
       </c>
       <c r="E65">
-        <v>7703259598.0447273</v>
+        <v>9856655567.9672623</v>
       </c>
       <c r="F65">
-        <v>5810.0375747529688</v>
+        <v>7270.6724921303257</v>
       </c>
       <c r="G65">
-        <v>173130.51126428848</v>
+        <v>215332.70571068366</v>
       </c>
       <c r="H65">
-        <v>3789.5755002064825</v>
+        <v>4848.9266107328804</v>
       </c>
       <c r="I65" t="s">
         <v>16</v>
@@ -3247,22 +3247,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>1923518777970.6282</v>
+        <v>2197098142651.4775</v>
       </c>
       <c r="D66">
-        <v>244558291075.81824</v>
+        <v>272704659110.97375</v>
       </c>
       <c r="E66">
-        <v>4785466625.3068218</v>
+        <v>5309588853.9375334</v>
       </c>
       <c r="F66">
-        <v>169206.21096150222</v>
+        <v>193272.17185830217</v>
       </c>
       <c r="G66">
-        <v>21513.063592660827</v>
+        <v>23989.015656191619</v>
       </c>
       <c r="H66">
-        <v>420.96322875786274</v>
+        <v>467.06869827704571</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -3288,22 +3288,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>31139798983.568626</v>
+        <v>31938080521.664856</v>
       </c>
       <c r="D67">
-        <v>881965643057.27429</v>
+        <v>906444601266.75879</v>
       </c>
       <c r="E67">
-        <v>19456288409.592892</v>
+        <v>20155474670.753616</v>
       </c>
       <c r="F67">
-        <v>3924.2495213202078</v>
+        <v>4024.8492697452343</v>
       </c>
       <c r="G67">
-        <v>111145.65172416989</v>
+        <v>114230.4995129008</v>
       </c>
       <c r="H67">
-        <v>2451.8889964029863</v>
+        <v>2540.0007196713814</v>
       </c>
       <c r="I67" t="s">
         <v>16</v>
@@ -3329,22 +3329,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>8204803913.0492296</v>
+        <v>9213470130.8161602</v>
       </c>
       <c r="D68">
-        <v>305348538008.27686</v>
+        <v>363386183152.48657</v>
       </c>
       <c r="E68">
-        <v>6809511623.1933346</v>
+        <v>7508185529.1467791</v>
       </c>
       <c r="F68">
-        <v>3566.9571076956513</v>
+        <v>4005.4647396737973</v>
       </c>
       <c r="G68">
-        <v>132747.24777283825</v>
+        <v>157978.53825277378</v>
       </c>
       <c r="H68">
-        <v>2960.3676262945296</v>
+        <v>3264.1091759053047</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
@@ -3370,22 +3370,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>1881157890321.623</v>
+        <v>1927183964924.1616</v>
       </c>
       <c r="D69">
-        <v>226713526452.99359</v>
+        <v>234388005941.16528</v>
       </c>
       <c r="E69">
-        <v>4367715411.1896915</v>
+        <v>4500186915.0051384</v>
       </c>
       <c r="F69">
-        <v>156656.77452217016</v>
+        <v>160489.67787826096</v>
       </c>
       <c r="G69">
-        <v>18879.972796223097</v>
+        <v>19519.078747371081</v>
       </c>
       <c r="H69">
-        <v>363.72928177271046</v>
+        <v>374.7610822454933</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -3411,22 +3411,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>334597892534.04877</v>
+        <v>335747783640.5658</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>54896803135.024002</v>
+        <v>54603814737.92569</v>
       </c>
       <c r="F70">
-        <v>54478.737696259224</v>
+        <v>54665.961278263188</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>8938.2169018049572</v>
+        <v>8890.5129610757376</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -3452,22 +3452,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>12132983169.201471</v>
+        <v>12156302600.569422</v>
       </c>
       <c r="D71">
-        <v>474075381830.39655</v>
+        <v>475419755412.88446</v>
       </c>
       <c r="E71">
-        <v>9342897325.9419098</v>
+        <v>9294232280.5389805</v>
       </c>
       <c r="F71">
-        <v>8152.3251052059732</v>
+        <v>8167.9937650177362</v>
       </c>
       <c r="G71">
-        <v>318538.03661959677</v>
+        <v>319441.34047772066</v>
       </c>
       <c r="H71">
-        <v>6277.6264801042207</v>
+        <v>6244.9277393368748</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -3493,22 +3493,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>227314750499.12524</v>
+        <v>229191656898.0932</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>6996439703.0107298</v>
+        <v>7055331788.0489511</v>
       </c>
       <c r="F72">
-        <v>433385.79604758974</v>
+        <v>436964.2025171984</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>13339.026981444989</v>
+        <v>13451.307390433627</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
@@ -3534,22 +3534,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>65112443.878199205</v>
+        <v>61302135.200546741</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>19509723521.144852</v>
+        <v>19309801077.18087</v>
       </c>
       <c r="F73">
-        <v>1347.2748014276979</v>
+        <v>1268.4337602794749</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>403685.64466769126</v>
+        <v>399548.94736454036</v>
       </c>
       <c r="I73" t="s">
         <v>16</v>
@@ -3575,22 +3575,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>49825066.710132651</v>
+        <v>532004138.57691699</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>31348678789.100075</v>
+        <v>31330652356.001305</v>
       </c>
       <c r="F74">
-        <v>123.76653851632537</v>
+        <v>1321.5097350714454</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>77870.793096159148</v>
+        <v>77826.015048205678</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -3616,22 +3616,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>1256461453.9676385</v>
+        <v>1243330512.2637396</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>695673192846.20935</v>
+        <v>653327148183.33984</v>
       </c>
       <c r="F75">
-        <v>940.09221937976588</v>
+        <v>930.26756770423378</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>520506.97915213974</v>
+        <v>488823.4070191764</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -3657,22 +3657,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>5048115128.9978104</v>
+        <v>4994492981.9439077</v>
       </c>
       <c r="D76">
-        <v>124565811301.5647</v>
+        <v>123159025184.27142</v>
       </c>
       <c r="E76">
-        <v>3088357025.2414885</v>
+        <v>3104646954.4199271</v>
       </c>
       <c r="F76">
-        <v>3741.6421854589303</v>
+        <v>3701.8976704538622</v>
       </c>
       <c r="G76">
-        <v>92327.667361338696</v>
+        <v>91284.963273203641</v>
       </c>
       <c r="H76">
-        <v>2289.0775337162513</v>
+        <v>2301.1515622704069</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -3698,22 +3698,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>3968949434.0148067</v>
+        <v>3911294905.5025997</v>
       </c>
       <c r="D77">
-        <v>105768425554.76619</v>
+        <v>104721990309.14365</v>
       </c>
       <c r="E77">
-        <v>2118404791.2783251</v>
+        <v>2097384424.5771465</v>
       </c>
       <c r="F77">
-        <v>7647.4192935821875</v>
+        <v>7536.3298576906764</v>
       </c>
       <c r="G77">
-        <v>203795.86882797073</v>
+        <v>201779.58486671018</v>
       </c>
       <c r="H77">
-        <v>4081.7677175723807</v>
+        <v>4041.2654233150924</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -3739,22 +3739,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>12664649015.551508</v>
+        <v>12472876409.955853</v>
       </c>
       <c r="D78">
-        <v>425782955676.59308</v>
+        <v>425385690623.02869</v>
       </c>
       <c r="E78">
-        <v>10752074428.583714</v>
+        <v>10943571756.088547</v>
       </c>
       <c r="F78">
-        <v>2988.178851070963</v>
+        <v>2942.9307874608276</v>
       </c>
       <c r="G78">
-        <v>100461.97267187946</v>
+        <v>100368.23939669172</v>
       </c>
       <c r="H78">
-        <v>2536.9136857390936</v>
+        <v>2582.0967984636459</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -3780,22 +3780,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>1708470569.2812946</v>
+        <v>985682023.90665674</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>98349477136.350006</v>
+        <v>98349477136.349976</v>
       </c>
       <c r="F79">
-        <v>936.04618963811322</v>
+        <v>540.04085248055515</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>53884.24886072697</v>
+        <v>53884.248860726955</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
@@ -3821,22 +3821,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>7410981202.6790514</v>
+        <v>7408050529.1480637</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>531272639365.03827</v>
+        <v>531542069581.05164</v>
       </c>
       <c r="F80">
-        <v>846.97760488606536</v>
+        <v>846.64266747628187</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>60717.469836279335</v>
+        <v>60748.262163611165</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
@@ -3862,22 +3862,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>102289079.73748913</v>
+        <v>1013089977.6998817</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>70025714803.388947</v>
+        <v>70096509116.714767</v>
       </c>
       <c r="F81">
-        <v>103.09590831596991</v>
+        <v>1021.0809572714884</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>70578.058690702383</v>
+        <v>70649.411410412664</v>
       </c>
       <c r="I81" t="s">
         <v>18</v>
@@ -3903,7 +3903,7 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>1421195128.0270479</v>
+        <v>1200911019.6740501</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>110298138273.41071</v>
       </c>
       <c r="F82">
-        <v>803.15381252242014</v>
+        <v>678.66561384176373</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3944,22 +3944,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>55264725813.971184</v>
+        <v>55479343311.134026</v>
       </c>
       <c r="D83">
-        <v>1987507964479.9392</v>
+        <v>1985071862925.9116</v>
       </c>
       <c r="E83">
-        <v>50580217303.045029</v>
+        <v>49258635262.015526</v>
       </c>
       <c r="F83">
-        <v>3422.0608576880145</v>
+        <v>3435.3502412070447</v>
       </c>
       <c r="G83">
-        <v>123068.97590489015</v>
+        <v>122918.1294535488</v>
       </c>
       <c r="H83">
-        <v>3131.9902389228323</v>
+        <v>3050.1562280556836</v>
       </c>
       <c r="I83" t="s">
         <v>18</v>
@@ -3985,22 +3985,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>1481270724.7654824</v>
+        <v>1856273341.4246273</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>252189370100.82007</v>
+        <v>252144222526.32211</v>
       </c>
       <c r="F84">
-        <v>820.12608297510303</v>
+        <v>1027.7514832237785</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>139628.14279036628</v>
+        <v>139603.14620951866</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
@@ -4026,22 +4026,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>4171444368.1560955</v>
+        <v>4157858152.5814676</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>653405353098.56909</v>
+        <v>646026108584.36719</v>
       </c>
       <c r="F85">
-        <v>765.88901101343356</v>
+        <v>763.39454332034848</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>119967.07507254957</v>
+        <v>118612.22486139678</v>
       </c>
       <c r="I85" t="s">
         <v>18</v>
@@ -4067,22 +4067,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>455688895.83004332</v>
+        <v>1848742010.9563389</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>131183587537.95442</v>
+        <v>130546505960.24538</v>
       </c>
       <c r="F86">
-        <v>216.85520211999011</v>
+        <v>879.78734202726673</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>62428.21286779525</v>
+        <v>62125.035731891236</v>
       </c>
       <c r="I86" t="s">
         <v>18</v>
@@ -4108,7 +4108,7 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>3288297273.3481216</v>
+        <v>3288297273.3481212</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>115209795106.95062</v>
       </c>
       <c r="F87">
-        <v>1890.913837988476</v>
+        <v>1890.9138379884757</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4149,22 +4149,22 @@
         <v>205407</v>
       </c>
       <c r="C88">
-        <v>623655366.5431397</v>
+        <v>1089361063.6196747</v>
       </c>
       <c r="D88">
-        <v>22077387656.074909</v>
+        <v>41144881104.647339</v>
       </c>
       <c r="E88">
-        <v>530992957.469033</v>
+        <v>893461520.94786382</v>
       </c>
       <c r="F88">
-        <v>3036.1933456169445</v>
+        <v>5303.4271647006899</v>
       </c>
       <c r="G88">
-        <v>107481.18445853797</v>
+        <v>200309.05034710278</v>
       </c>
       <c r="H88">
-        <v>2585.0772245786802</v>
+        <v>4349.7131107891346</v>
       </c>
       <c r="I88" t="s">
         <v>18</v>
@@ -4190,22 +4190,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>398602258.45138955</v>
+        <v>242473521.15780297</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>32805125532.623894</v>
+        <v>32805125532.623882</v>
       </c>
       <c r="F89">
-        <v>795.8102573319336</v>
+        <v>484.09890104098213</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>65495.502944089742</v>
+        <v>65495.50294408972</v>
       </c>
       <c r="I89" t="s">
         <v>18</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>52662491103.017891</v>
+        <v>52662491103.017883</v>
       </c>
       <c r="F90">
         <v>1024.982150670472</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>60548.162719247208</v>
+        <v>60548.162719247201</v>
       </c>
       <c r="I90" t="s">
         <v>18</v>
@@ -4272,22 +4272,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>26924770674.743267</v>
+        <v>26873633306.050625</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>832724866.22917402</v>
+        <v>831143298.12527788</v>
       </c>
       <c r="F91">
-        <v>94424.50770743152</v>
+        <v>94245.170214734288</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>2920.3455991989158</v>
+        <v>2914.7990788062179</v>
       </c>
       <c r="I91" t="s">
         <v>18</v>
@@ -4313,22 +4313,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>198208840940.12665</v>
+        <v>197304573654.25079</v>
       </c>
       <c r="D92">
-        <v>144179660320.12671</v>
+        <v>144179660320.12668</v>
       </c>
       <c r="E92">
-        <v>70450307787.123703</v>
+        <v>70557661802.605606</v>
       </c>
       <c r="F92">
-        <v>28480.000364982749</v>
+        <v>28350.069063686427</v>
       </c>
       <c r="G92">
-        <v>20716.718583610895</v>
+        <v>20716.718583610891</v>
       </c>
       <c r="H92">
-        <v>10122.781516574809</v>
+        <v>10138.206874927166</v>
       </c>
       <c r="I92" t="s">
         <v>19</v>
@@ -4354,22 +4354,22 @@
         <v>3030017</v>
       </c>
       <c r="C93">
-        <v>163565612333.97821</v>
+        <v>163565612333.97818</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>5050702989.4271002</v>
+        <v>5050702989.4270992</v>
       </c>
       <c r="F93">
-        <v>53981.747407350587</v>
+        <v>53981.74740735058</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1666.8893241942537</v>
+        <v>1666.8893241942535</v>
       </c>
       <c r="I93" t="s">
         <v>19</v>
@@ -4395,22 +4395,22 @@
         <v>296202</v>
       </c>
       <c r="C94">
-        <v>51762959.599207491</v>
+        <v>316354643.46768701</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>18178162141.512035</v>
+        <v>18178162141.512032</v>
       </c>
       <c r="F94">
-        <v>174.75560461849511</v>
+        <v>1068.0368244228162</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>61370.82849377126</v>
+        <v>61370.828493771252</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
@@ -4436,22 +4436,22 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>354439633.08084577</v>
+        <v>395819397.6170907</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>63960421855.842453</v>
+        <v>113313291211.64883</v>
       </c>
       <c r="F95">
-        <v>219.34937326616145</v>
+        <v>244.95775497571009</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>39582.702210726653</v>
+        <v>70125.338958162945</v>
       </c>
       <c r="I95" t="s">
         <v>57</v>
@@ -4477,22 +4477,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>66251670705.680687</v>
+        <v>72607619062.286697</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>2049020743.4746623</v>
+        <v>2245596465.8439202</v>
       </c>
       <c r="F96">
-        <v>61396.667802527983</v>
+        <v>67286.844543189451</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1898.8660145111764</v>
+        <v>2081.0364291708092</v>
       </c>
       <c r="I96" t="s">
         <v>20</v>
@@ -4518,22 +4518,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>199357486081.66125</v>
+        <v>199357486081.66122</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>6165695445.8245811</v>
+        <v>6165695445.8245802</v>
       </c>
       <c r="F97">
-        <v>57285.662709069373</v>
+        <v>57285.662709069366</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1771.7215270846216</v>
+        <v>1771.7215270846214</v>
       </c>
       <c r="I97" t="s">
         <v>20</v>
@@ -4559,22 +4559,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>1609803167.9838395</v>
+        <v>1097350230.3597465</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>94835735218.887024</v>
+        <v>94835735218.887009</v>
       </c>
       <c r="F98">
-        <v>1133.6139086673193</v>
+        <v>772.74756849502205</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>66782.766130014672</v>
+        <v>66782.766130014657</v>
       </c>
       <c r="I98" t="s">
         <v>20</v>
@@ -4600,22 +4600,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>1994690251.7630603</v>
+        <v>164502316.42139876</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>122844408786.60446</v>
+        <v>124337313890.90701</v>
       </c>
       <c r="F99">
-        <v>979.20678892684373</v>
+        <v>80.755287640098018</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>60305.142093729039</v>
+        <v>61038.019196860463</v>
       </c>
       <c r="I99" t="s">
         <v>20</v>
@@ -4682,22 +4682,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>8355019761.8699341</v>
+        <v>12686238332.146494</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>960640733707.78516</v>
+        <v>960640733707.78503</v>
       </c>
       <c r="F101">
-        <v>520.81891626473009</v>
+        <v>790.80996669550086</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>59882.547272092561</v>
+        <v>59882.547272092554</v>
       </c>
       <c r="I101" t="s">
         <v>20</v>
@@ -4723,22 +4723,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>1758594003.486721</v>
+        <v>2230878218.1039248</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>131314871072.49359</v>
+        <v>131314871072.49353</v>
       </c>
       <c r="F102">
-        <v>829.74934911057187</v>
+        <v>1052.5850456368062</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>61957.693808184849</v>
+        <v>61957.69380818482</v>
       </c>
       <c r="I102" t="s">
         <v>20</v>
@@ -4764,22 +4764,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>10455524602.171831</v>
+        <v>12582208715.888443</v>
       </c>
       <c r="D103">
-        <v>363894941732.49133</v>
+        <v>465827058090.38782</v>
       </c>
       <c r="E103">
-        <v>9597974119.4836235</v>
+        <v>10505236490.682306</v>
       </c>
       <c r="F103">
-        <v>2325.8372543221212</v>
+        <v>2798.9193164914036</v>
       </c>
       <c r="G103">
-        <v>80948.631880699613</v>
+        <v>103623.48777342516</v>
       </c>
       <c r="H103">
-        <v>2135.0746731998074</v>
+        <v>2336.8956915292179</v>
       </c>
       <c r="I103" t="s">
         <v>20</v>
@@ -4805,22 +4805,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>313892291.0390023</v>
+        <v>328003395.0756194</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>11467894294.393303</v>
+        <v>11467894294.393299</v>
       </c>
       <c r="F104">
-        <v>1554.1068792282365</v>
+        <v>1623.972130726519</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>56778.499893023443</v>
+        <v>56778.499893023421</v>
       </c>
       <c r="I104" t="s">
         <v>20</v>
@@ -4846,22 +4846,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>3197954656.7295909</v>
+        <v>510207885.56996995</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>374444620609.19403</v>
+        <v>374444620609.19397</v>
       </c>
       <c r="F105">
-        <v>484.92593731380441</v>
+        <v>77.366024128663071</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>56779.388112624816</v>
+        <v>56779.388112624809</v>
       </c>
       <c r="I105" t="s">
         <v>20</v>
@@ -4887,22 +4887,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>1605964107.8594232</v>
+        <v>5946029494.6166153</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>435316716840.47394</v>
+        <v>435316716840.47388</v>
       </c>
       <c r="F106">
-        <v>209.30698003021115</v>
+        <v>774.95223622874812</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>56735.282508892677</v>
+        <v>56735.282508892669</v>
       </c>
       <c r="I106" t="s">
         <v>20</v>
@@ -4928,22 +4928,22 @@
         <v>423587</v>
       </c>
       <c r="C107">
-        <v>556476838.62451124</v>
+        <v>556909797.90840173</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>32009515543.48819</v>
+        <v>32002641375.68586</v>
       </c>
       <c r="F107">
-        <v>1313.7250166424164</v>
+        <v>1314.7471426375259</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>75567.747696431165</v>
+        <v>75551.519229074212</v>
       </c>
       <c r="I107" t="s">
         <v>10</v>
@@ -4969,22 +4969,22 @@
         <v>969633</v>
       </c>
       <c r="C108">
-        <v>105619030.40792249</v>
+        <v>545888219.23640835</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>65019015948.791931</v>
+        <v>65019015948.791916</v>
       </c>
       <c r="F108">
-        <v>108.92681087372489</v>
+        <v>562.98436546240521</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>67055.283750441595</v>
+        <v>67055.28375044158</v>
       </c>
       <c r="I108" t="s">
         <v>10</v>
@@ -5010,22 +5010,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>824166609.70618033</v>
+        <v>682372876.13256776</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>199446602241.59027</v>
+        <v>199446602241.59024</v>
       </c>
       <c r="F109">
-        <v>266.28264120504087</v>
+        <v>220.4700476861575</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>64439.844321278164</v>
+        <v>64439.844321278157</v>
       </c>
       <c r="I109" t="s">
         <v>10</v>
@@ -5051,22 +5051,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>388557129.98875606</v>
+        <v>391545861.93804002</v>
       </c>
       <c r="D110">
-        <v>14480810683.390051</v>
+        <v>14729272711.572784</v>
       </c>
       <c r="E110">
-        <v>315580104.66730314</v>
+        <v>325480717.40634131</v>
       </c>
       <c r="F110">
-        <v>2887.89144305526</v>
+        <v>2910.104736174274</v>
       </c>
       <c r="G110">
-        <v>107626.41072182992</v>
+        <v>109473.06674673373</v>
       </c>
       <c r="H110">
-        <v>2345.5008633957141</v>
+        <v>2419.0856533875995</v>
       </c>
       <c r="I110" t="s">
         <v>21</v>
@@ -5092,22 +5092,22 @@
         <v>265550</v>
       </c>
       <c r="C111">
-        <v>77520453495.988159</v>
+        <v>77607386472.127914</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>2331827442.1882758</v>
+        <v>2387243031.0156016</v>
       </c>
       <c r="F111">
-        <v>291924.13291654363</v>
+        <v>292251.50243693433</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8781.1238643881588</v>
+        <v>8989.8061796859402</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
@@ -5133,7 +5133,7 @@
         <v>10172252</v>
       </c>
       <c r="C112">
-        <v>18741933528.480713</v>
+        <v>18666567529.264679</v>
       </c>
       <c r="D112">
         <v>584926313378.55908</v>
@@ -5142,7 +5142,7 @@
         <v>18991637631.38102</v>
       </c>
       <c r="F112">
-        <v>1842.4566682461968</v>
+        <v>1835.0476894658802</v>
       </c>
       <c r="G112">
         <v>57502.14538320119</v>
@@ -5174,22 +5174,22 @@
         <v>9007455</v>
       </c>
       <c r="C113">
-        <v>17277965366.799843</v>
+        <v>17351890187.146271</v>
       </c>
       <c r="D113">
-        <v>509669192643.45837</v>
+        <v>510204907796.64465</v>
       </c>
       <c r="E113">
-        <v>17899400655.456009</v>
+        <v>16439397109.409472</v>
       </c>
       <c r="F113">
-        <v>1918.1850330420571</v>
+        <v>1926.3921037791774</v>
       </c>
       <c r="G113">
-        <v>56583.04067502512</v>
+        <v>56642.515316107005</v>
       </c>
       <c r="H113">
-        <v>1987.1762507229855</v>
+        <v>1825.0878976813619</v>
       </c>
       <c r="I113" t="s">
         <v>60</v>
@@ -5215,22 +5215,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>1929366894.4137397</v>
+        <v>1951141746.6018939</v>
       </c>
       <c r="D114">
-        <v>74036865300.146622</v>
+        <v>74439467510.96489</v>
       </c>
       <c r="E114">
-        <v>1639012418.0106316</v>
+        <v>1672991004.4686995</v>
       </c>
       <c r="F114">
-        <v>3629.8977733969864</v>
+        <v>3670.8648324372771</v>
       </c>
       <c r="G114">
-        <v>139292.45561350655</v>
+        <v>140049.90867898896</v>
       </c>
       <c r="H114">
-        <v>3083.6268332025106</v>
+        <v>3147.5539150263103</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5256,16 +5256,16 @@
         <v>387114</v>
       </c>
       <c r="C115">
-        <v>42278476.501957491</v>
+        <v>440588216.96431971</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>26026606449.184025</v>
+        <v>26026606449.184021</v>
       </c>
       <c r="F115">
-        <v>109.2145375831344</v>
+        <v>1138.1355801245104</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5297,22 +5297,22 @@
         <v>439947</v>
       </c>
       <c r="C116">
-        <v>504107967.37224489</v>
+        <v>518241835.61632645</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>29778870994.541458</v>
+        <v>29778870994.541454</v>
       </c>
       <c r="F116">
-        <v>1145.8379472351098</v>
+        <v>1177.9642448211409</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>67687.405515985927</v>
+        <v>67687.405515985913</v>
       </c>
       <c r="I116" t="s">
         <v>22</v>
@@ -5338,22 +5338,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>6948871446.4543343</v>
+        <v>6887607682.5293217</v>
       </c>
       <c r="D117">
-        <v>237743428553.50436</v>
+        <v>235664703705.13702</v>
       </c>
       <c r="E117">
-        <v>5963729458.501791</v>
+        <v>5948174522.9570322</v>
       </c>
       <c r="F117">
-        <v>4830.6370847788212</v>
+        <v>4788.0484411048465</v>
       </c>
       <c r="G117">
-        <v>165271.76124678788</v>
+        <v>163826.69704910464</v>
       </c>
       <c r="H117">
-        <v>4145.7973295111515</v>
+        <v>4134.9840270817049</v>
       </c>
       <c r="I117" t="s">
         <v>23</v>
@@ -5379,22 +5379,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>30095329665.48082</v>
+        <v>30130600671.396759</v>
       </c>
       <c r="D118">
-        <v>1123272738432.5508</v>
+        <v>1120396888869.665</v>
       </c>
       <c r="E118">
-        <v>25353029001.625484</v>
+        <v>25495420638.351551</v>
       </c>
       <c r="F118">
-        <v>6177.9770955431441</v>
+        <v>6185.2175368045455</v>
       </c>
       <c r="G118">
-        <v>230585.719685402</v>
+        <v>229995.36453969596</v>
       </c>
       <c r="H118">
-        <v>5204.476382737138</v>
+        <v>5233.7065749320263</v>
       </c>
       <c r="I118" t="s">
         <v>23</v>
@@ -5420,22 +5420,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>14799692067.222752</v>
+        <v>15226666495.284477</v>
       </c>
       <c r="D119">
-        <v>580395237547.10803</v>
+        <v>600392549296.5968</v>
       </c>
       <c r="E119">
-        <v>12405392096.00709</v>
+        <v>12532853083.890408</v>
       </c>
       <c r="F119">
-        <v>8931.6401893684433</v>
+        <v>9189.3200075826844</v>
       </c>
       <c r="G119">
-        <v>350269.54654513835</v>
+        <v>362337.95935330971</v>
       </c>
       <c r="H119">
-        <v>7486.6759461139854</v>
+        <v>7563.5988764549866</v>
       </c>
       <c r="I119" t="s">
         <v>23</v>
@@ -5461,22 +5461,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>32589491268.551178</v>
+        <v>35016199815.888252</v>
       </c>
       <c r="D120">
-        <v>1267528309044.1499</v>
+        <v>1355119547776.0134</v>
       </c>
       <c r="E120">
-        <v>26331526708.398209</v>
+        <v>31503783691.875736</v>
       </c>
       <c r="F120">
-        <v>7982.7036113666209</v>
+        <v>8577.1189989813265</v>
       </c>
       <c r="G120">
-        <v>310477.47038261726</v>
+        <v>331932.6963015215</v>
       </c>
       <c r="H120">
-        <v>6449.8329113460777</v>
+        <v>7716.7626145650329</v>
       </c>
       <c r="I120" t="s">
         <v>23</v>
@@ -5502,22 +5502,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>47557588647.956955</v>
+        <v>48300742092.496323</v>
       </c>
       <c r="D121">
-        <v>1883043100478.2073</v>
+        <v>1924803740702.0337</v>
       </c>
       <c r="E121">
-        <v>39028078740.429016</v>
+        <v>39666764173.372887</v>
       </c>
       <c r="F121">
-        <v>6209.4460762637182</v>
+        <v>6306.4773045376332</v>
       </c>
       <c r="G121">
-        <v>245863.0667390278</v>
+        <v>251315.62333308966</v>
       </c>
       <c r="H121">
-        <v>5095.7745606658145</v>
+        <v>5179.1657263726675</v>
       </c>
       <c r="I121" t="s">
         <v>23</v>
@@ -5543,22 +5543,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>99396697.027319983</v>
+        <v>662594763.38354909</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>47282062140.686333</v>
+        <v>47282062140.686325</v>
       </c>
       <c r="F122">
-        <v>198.54322958536241</v>
+        <v>1323.521889186723</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>94445.123425856087</v>
+        <v>94445.123425856073</v>
       </c>
       <c r="I122" t="s">
         <v>24</v>
@@ -5584,22 +5584,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>10068744222.873617</v>
+        <v>10068744222.873615</v>
       </c>
       <c r="D123">
-        <v>292578660443.15161</v>
+        <v>292460370972.99469</v>
       </c>
       <c r="E123">
-        <v>8659942300.853653</v>
+        <v>8639393461.276638</v>
       </c>
       <c r="F123">
-        <v>2811.1870224988952</v>
+        <v>2811.1870224988943</v>
       </c>
       <c r="G123">
-        <v>81687.77705460068</v>
+        <v>81654.750709304513</v>
       </c>
       <c r="H123">
-        <v>2417.8504163849971</v>
+        <v>2412.1131933641677</v>
       </c>
       <c r="I123" t="s">
         <v>24</v>
@@ -5625,19 +5625,19 @@
         <v>4902363</v>
       </c>
       <c r="C124">
-        <v>14112262127.418709</v>
+        <v>14112262127.418705</v>
       </c>
       <c r="D124">
-        <v>430071384991.32886</v>
+        <v>433358998841.25964</v>
       </c>
       <c r="E124">
-        <v>14807906426.111439</v>
+        <v>14807906426.111437</v>
       </c>
       <c r="F124">
-        <v>2878.665273750375</v>
+        <v>2878.6652737503741</v>
       </c>
       <c r="G124">
-        <v>87727.364332532874</v>
+        <v>88397.982532354217</v>
       </c>
       <c r="H124">
         <v>3020.565067521813</v>
@@ -5666,22 +5666,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>52326389544.402939</v>
+        <v>53299194319.700111</v>
       </c>
       <c r="D125">
-        <v>2138210747949.2495</v>
+        <v>2172356781667.0552</v>
       </c>
       <c r="E125">
-        <v>42297290735.28376</v>
+        <v>43045499704.114639</v>
       </c>
       <c r="F125">
-        <v>5922.2895755082272</v>
+        <v>6032.3914118838902</v>
       </c>
       <c r="G125">
-        <v>242002.23506867178</v>
+        <v>245866.87586068193</v>
       </c>
       <c r="H125">
-        <v>4787.1983176145959</v>
+        <v>4871.8804486576473</v>
       </c>
       <c r="I125" t="s">
         <v>25</v>
@@ -5707,22 +5707,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>41599133113.124977</v>
+        <v>45873057143.242416</v>
       </c>
       <c r="D126">
-        <v>1644709233326.0308</v>
+        <v>1814723799980.1204</v>
       </c>
       <c r="E126">
-        <v>34110232628.186752</v>
+        <v>36622632911.602798</v>
       </c>
       <c r="F126">
-        <v>6673.8572206182489</v>
+        <v>7359.5339791027573</v>
       </c>
       <c r="G126">
-        <v>263864.98398417857</v>
+        <v>291140.86351246334</v>
       </c>
       <c r="H126">
-        <v>5472.3934199188234</v>
+        <v>5875.4643379344016</v>
       </c>
       <c r="I126" t="s">
         <v>25</v>
@@ -5748,22 +5748,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>1997948858.7312181</v>
+        <v>1996428716.0110986</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>274014030609.89703</v>
+        <v>274014664709.6232</v>
       </c>
       <c r="F127">
-        <v>725.55566847838156</v>
+        <v>725.00362823838293</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>99508.269334718527</v>
+        <v>99508.499608205602</v>
       </c>
       <c r="I127" t="s">
         <v>25</v>
@@ -5789,22 +5789,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>31581418826.706432</v>
+        <v>31405893351.300163</v>
       </c>
       <c r="D128">
-        <v>1130997280851.0369</v>
+        <v>1137464308934.813</v>
       </c>
       <c r="E128">
-        <v>24855444759.259163</v>
+        <v>25516593048.975304</v>
       </c>
       <c r="F128">
-        <v>6110.6411370286341</v>
+        <v>6076.6789773011224</v>
       </c>
       <c r="G128">
-        <v>218834.95951079857</v>
+        <v>220086.25502921347</v>
       </c>
       <c r="H128">
-        <v>4809.2425504529301</v>
+        <v>4937.1671367099343</v>
       </c>
       <c r="I128" t="s">
         <v>25</v>
@@ -5830,22 +5830,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>51645007913.508324</v>
+        <v>58510564956.288956</v>
       </c>
       <c r="D129">
-        <v>1877811233757.9502</v>
+        <v>2140963074910.7131</v>
       </c>
       <c r="E129">
-        <v>42648756141.146423</v>
+        <v>48476627945.112854</v>
       </c>
       <c r="F129">
-        <v>5243.646291008803</v>
+        <v>5940.723398313683</v>
       </c>
       <c r="G129">
-        <v>190658.85182165029</v>
+        <v>217377.31371333491</v>
       </c>
       <c r="H129">
-        <v>4330.2344406683133</v>
+        <v>4921.9527810066884</v>
       </c>
       <c r="I129" t="s">
         <v>25</v>
@@ -5871,22 +5871,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>71553119166.319138</v>
+        <v>72041185363.628479</v>
       </c>
       <c r="D130">
-        <v>2819398404388.2324</v>
+        <v>2839481001246.063</v>
       </c>
       <c r="E130">
-        <v>57116545286.979004</v>
+        <v>57705857681.331505</v>
       </c>
       <c r="F130">
-        <v>8091.1835122911807</v>
+        <v>8146.3737431935788</v>
       </c>
       <c r="G130">
-        <v>318815.86924451118</v>
+        <v>321086.79717152956</v>
       </c>
       <c r="H130">
-        <v>6458.7044546699763</v>
+        <v>6525.3435444026045</v>
       </c>
       <c r="I130" t="s">
         <v>25</v>
@@ -5912,22 +5912,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>22758449743.527893</v>
+        <v>22358873554.444481</v>
       </c>
       <c r="D131">
-        <v>935990669332.78101</v>
+        <v>884156254702.24658</v>
       </c>
       <c r="E131">
-        <v>17414107041.238117</v>
+        <v>17075446733.214981</v>
       </c>
       <c r="F131">
-        <v>6182.6073645215574</v>
+        <v>6074.0576734329934</v>
       </c>
       <c r="G131">
-        <v>254273.15439119472</v>
+        <v>240191.71047731204</v>
       </c>
       <c r="H131">
-        <v>4730.7522108505409</v>
+        <v>4638.7510535638748</v>
       </c>
       <c r="I131" t="s">
         <v>25</v>
@@ -5953,22 +5953,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>656340299.51183498</v>
+        <v>2525006698.6112504</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>298297509828.17554</v>
+        <v>298297509828.17548</v>
       </c>
       <c r="F132">
-        <v>141.87337870751085</v>
+        <v>545.80106060456228</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>64479.471412675419</v>
+        <v>64479.471412675404</v>
       </c>
       <c r="I132" t="s">
         <v>12</v>
@@ -5994,22 +5994,22 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>3387152722.6795373</v>
+        <v>6403206307.3006916</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>378252808759.39581</v>
+        <v>378252808759.39575</v>
       </c>
       <c r="F133">
-        <v>535.70107530452492</v>
+        <v>1012.7103160273509</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>59823.235909205345</v>
+        <v>59823.23590920533</v>
       </c>
       <c r="I133" t="s">
         <v>12</v>
@@ -6035,22 +6035,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>34020445961.072231</v>
+        <v>45229185733.57045</v>
       </c>
       <c r="D134">
-        <v>1313999022871.9316</v>
+        <v>1314592153112.5078</v>
       </c>
       <c r="E134">
-        <v>2240329564940.5205</v>
+        <v>2237857938500.5698</v>
       </c>
       <c r="F134">
-        <v>3764.7046152186167</v>
+        <v>5005.0644388550545</v>
       </c>
       <c r="G134">
-        <v>145407.21163558797</v>
+        <v>145472.84746401533</v>
       </c>
       <c r="H134">
-        <v>247915.00565257351</v>
+        <v>247641.49532069173</v>
       </c>
       <c r="I134" t="s">
         <v>26</v>
@@ -6076,22 +6076,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>1811350455.0685</v>
+        <v>1228961872.1587152</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>321504039581.7782</v>
+        <v>320697996878.90295</v>
       </c>
       <c r="F135">
-        <v>1975.3197742055265</v>
+        <v>1340.2114875268298</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>350607.62819022016</v>
+        <v>349728.61988711223</v>
       </c>
       <c r="I135" t="s">
         <v>26</v>
@@ -6117,22 +6117,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>482467050.03679943</v>
+        <v>1035088597.107146</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>136746085225.75078</v>
+        <v>137671182500.36475</v>
       </c>
       <c r="F136">
-        <v>1520.3282558888759</v>
+        <v>3261.7241766258257</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>430908.05317179707</v>
+        <v>433823.17768845399</v>
       </c>
       <c r="I136" t="s">
         <v>26</v>
@@ -6158,22 +6158,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>28437962326.187798</v>
+        <v>28290891032.166801</v>
       </c>
       <c r="D137">
-        <v>1023427740083.6427</v>
+        <v>1018253652338.9247</v>
       </c>
       <c r="E137">
-        <v>26064215247.022705</v>
+        <v>25247684947.998638</v>
       </c>
       <c r="F137">
-        <v>5862.5968436163512</v>
+        <v>5832.2775227654311</v>
       </c>
       <c r="G137">
-        <v>210983.62005911313</v>
+        <v>209916.96169122984</v>
       </c>
       <c r="H137">
-        <v>5373.2396254642754</v>
+        <v>5204.9087197943072</v>
       </c>
       <c r="I137" t="s">
         <v>26</v>
@@ -6199,22 +6199,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>19999841969.265331</v>
+        <v>19972116323.449471</v>
       </c>
       <c r="D138">
-        <v>683583466504.72754</v>
+        <v>683567382224.16016</v>
       </c>
       <c r="E138">
-        <v>19631195865.997288</v>
+        <v>19128910423.589458</v>
       </c>
       <c r="F138">
-        <v>5882.8618729195705</v>
+        <v>5874.7065012459916</v>
       </c>
       <c r="G138">
-        <v>201072.94438819887</v>
+        <v>201068.21327077062</v>
       </c>
       <c r="H138">
-        <v>5774.4263108361956</v>
+        <v>5626.6813495007791</v>
       </c>
       <c r="I138" t="s">
         <v>26</v>
@@ -6240,7 +6240,7 @@
         <v>939695</v>
       </c>
       <c r="C139">
-        <v>243871775.66190475</v>
+        <v>245081581.94387752</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>58812972969.973892</v>
       </c>
       <c r="F139">
-        <v>259.52226590745374</v>
+        <v>260.80971160203842</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6281,22 +6281,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>19127308213.658463</v>
+        <v>27736642054.652481</v>
       </c>
       <c r="D140">
-        <v>781850847157.57397</v>
+        <v>1061794327562.6022</v>
       </c>
       <c r="E140">
-        <v>16039538899.888424</v>
+        <v>23223199481.931755</v>
       </c>
       <c r="F140">
-        <v>5979.3560373449618</v>
+        <v>8670.705583482677</v>
       </c>
       <c r="G140">
-        <v>244413.09414968311</v>
+        <v>331925.76038464648</v>
       </c>
       <c r="H140">
-        <v>5014.0936030294324</v>
+        <v>7259.7658006889751</v>
       </c>
       <c r="I140" t="s">
         <v>27</v>
@@ -6322,22 +6322,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>27346439367.597061</v>
+        <v>27284619254.80127</v>
       </c>
       <c r="D141">
-        <v>1075767521570.9338</v>
+        <v>1070456152185.1814</v>
       </c>
       <c r="E141">
-        <v>22328307561.503059</v>
+        <v>22333951781.867588</v>
       </c>
       <c r="F141">
-        <v>7321.8116567701063</v>
+        <v>7305.2597680065774</v>
       </c>
       <c r="G141">
-        <v>288028.9851828292</v>
+        <v>286606.90438615723</v>
       </c>
       <c r="H141">
-        <v>5978.2431044194318</v>
+        <v>5979.7543036619682</v>
       </c>
       <c r="I141" t="s">
         <v>27</v>
@@ -6363,22 +6363,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>414175586011.14948</v>
+        <v>466067100931.77661</v>
       </c>
       <c r="D142">
-        <v>56912813951.938087</v>
+        <v>62919071990.535934</v>
       </c>
       <c r="E142">
-        <v>1078669192.7498422</v>
+        <v>1178861898.4853072</v>
       </c>
       <c r="F142">
-        <v>166522.16178414749</v>
+        <v>187385.5046143175</v>
       </c>
       <c r="G142">
-        <v>22882.19086926238</v>
+        <v>25297.048496321553</v>
       </c>
       <c r="H142">
-        <v>433.68641680832826</v>
+        <v>473.96958780533498</v>
       </c>
       <c r="I142" t="s">
         <v>28</v>
@@ -6404,22 +6404,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>1631005955233.2515</v>
+        <v>2132466477265.8464</v>
       </c>
       <c r="D143">
-        <v>223500522881.5127</v>
+        <v>266406100644.25598</v>
       </c>
       <c r="E143">
-        <v>4360731023.2418222</v>
+        <v>5430048357.3682041</v>
       </c>
       <c r="F143">
-        <v>112961.36986203399</v>
+        <v>147691.87916445505</v>
       </c>
       <c r="G143">
-        <v>15479.358090980091</v>
+        <v>18450.943095467937</v>
       </c>
       <c r="H143">
-        <v>302.01860907051014</v>
+        <v>376.0781491307792</v>
       </c>
       <c r="I143" t="s">
         <v>28</v>
@@ -6445,22 +6445,22 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>168533497969.32242</v>
+        <v>168562287857.63409</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>65835760768.736488</v>
+        <v>65835760768.736465</v>
       </c>
       <c r="F144">
-        <v>44044.889670356839</v>
+        <v>44052.413678756289</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>17205.652611273952</v>
+        <v>17205.652611273948</v>
       </c>
       <c r="I144" t="s">
         <v>28</v>
@@ -6486,22 +6486,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>11501313840.338654</v>
+        <v>12483845511.041561</v>
       </c>
       <c r="D145">
-        <v>419847028098.23535</v>
+        <v>468422608803.51233</v>
       </c>
       <c r="E145">
-        <v>9688279808.9277668</v>
+        <v>10465988521.698563</v>
       </c>
       <c r="F145">
-        <v>2981.2979504074069</v>
+        <v>3235.983606041224</v>
       </c>
       <c r="G145">
-        <v>108830.09556385207</v>
+        <v>121421.55087120744</v>
       </c>
       <c r="H145">
-        <v>2511.3347169108588</v>
+        <v>2712.9274587127197</v>
       </c>
       <c r="I145" t="s">
         <v>28</v>
@@ -6527,22 +6527,22 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>15592249752.769394</v>
+        <v>17111169725.225815</v>
       </c>
       <c r="D146">
-        <v>230576837568.09665</v>
+        <v>230576837568.09659</v>
       </c>
       <c r="E146">
-        <v>734491600218.53979</v>
+        <v>738134533479.34619</v>
       </c>
       <c r="F146">
-        <v>1033.0495531045281</v>
+        <v>1133.6841391089597</v>
       </c>
       <c r="G146">
-        <v>15276.647230696812</v>
+        <v>15276.647230696808</v>
       </c>
       <c r="H146">
-        <v>48663.036533905259</v>
+        <v>48904.395583223799</v>
       </c>
       <c r="I146" t="s">
         <v>11</v>
@@ -6568,22 +6568,22 @@
         <v>7629351</v>
       </c>
       <c r="C147">
-        <v>14663078522.38131</v>
+        <v>14358856602.389864</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>536124276344.78955</v>
+        <v>535561345854.62744</v>
       </c>
       <c r="F147">
-        <v>1921.9299940953445</v>
+        <v>1882.0547910811633</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>70271.282097886113</v>
+        <v>70197.497251683322</v>
       </c>
       <c r="I147" t="s">
         <v>11</v>
@@ -6609,22 +6609,22 @@
         <v>393144</v>
       </c>
       <c r="C148">
-        <v>221366813.66283107</v>
+        <v>229545723.16478249</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>55293421047.6884</v>
+        <v>55771125308.275093</v>
       </c>
       <c r="F148">
-        <v>563.06802002022437</v>
+        <v>583.87187179451416</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>140644.19410620129</v>
+        <v>141859.28135307951</v>
       </c>
       <c r="I148" t="s">
         <v>29</v>
@@ -6650,22 +6650,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>66587631751.442169</v>
+        <v>66394056095.606812</v>
       </c>
       <c r="D149">
-        <v>1865048293500.6023</v>
+        <v>1859307006436.5854</v>
       </c>
       <c r="E149">
-        <v>45079611408.386726</v>
+        <v>43234042058.916733</v>
       </c>
       <c r="F149">
-        <v>10116.664337291188</v>
+        <v>10087.254372070209</v>
       </c>
       <c r="G149">
-        <v>283356.93974841933</v>
+        <v>282484.66553528165</v>
       </c>
       <c r="H149">
-        <v>6848.9490477230202</v>
+        <v>6568.5515455340883</v>
       </c>
       <c r="I149" t="s">
         <v>29</v>
@@ -6691,22 +6691,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>536431843.19350338</v>
+        <v>380671565.26893604</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>131354008905.47617</v>
+        <v>129870560162.61296</v>
       </c>
       <c r="F150">
-        <v>2053.7128234329248</v>
+        <v>1457.3893869814283</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>502884.78568411362</v>
+        <v>497205.44776862633</v>
       </c>
       <c r="I150" t="s">
         <v>29</v>
@@ -6732,22 +6732,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>121371524931.12726</v>
+        <v>121131088015.59789</v>
       </c>
       <c r="D151">
-        <v>4842232058747.3545</v>
+        <v>4820829365152.915</v>
       </c>
       <c r="E151">
-        <v>99828936273.437134</v>
+        <v>97626897600.603729</v>
       </c>
       <c r="F151">
-        <v>8624.9429142921017</v>
+        <v>8607.856907734089</v>
       </c>
       <c r="G151">
-        <v>344100.27482269984</v>
+        <v>342579.34962571581</v>
       </c>
       <c r="H151">
-        <v>7094.0764486685648</v>
+        <v>6937.5944578636454</v>
       </c>
       <c r="I151" t="s">
         <v>30</v>
@@ -6773,22 +6773,22 @@
         <v>543145</v>
       </c>
       <c r="C152">
-        <v>356616650.18558246</v>
+        <v>364317794.44779968</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>160324828594.90195</v>
+        <v>160024298768.63998</v>
       </c>
       <c r="F152">
-        <v>656.57724951087175</v>
+        <v>670.75604939343953</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>295178.68818621535</v>
+        <v>294625.37401364272</v>
       </c>
       <c r="I152" t="s">
         <v>30</v>
@@ -6814,22 +6814,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>36920101738.235954</v>
+        <v>36888808249.764244</v>
       </c>
       <c r="D153">
-        <v>1478266137228.0571</v>
+        <v>1485832551015.678</v>
       </c>
       <c r="E153">
-        <v>29524571713.876099</v>
+        <v>29140742924.078049</v>
       </c>
       <c r="F153">
-        <v>5060.0227423871611</v>
+        <v>5055.7338657075097</v>
       </c>
       <c r="G153">
-        <v>202601.29093653432</v>
+        <v>203638.29311261507</v>
       </c>
       <c r="H153">
-        <v>4046.4407544341684</v>
+        <v>3993.8357421476048</v>
       </c>
       <c r="I153" t="s">
         <v>30</v>
@@ -6855,22 +6855,22 @@
         <v>11269955</v>
       </c>
       <c r="C154">
-        <v>104918272270.79752</v>
+        <v>96535350100.982483</v>
       </c>
       <c r="D154">
-        <v>3121920930349.0552</v>
+        <v>3113245917437.438</v>
       </c>
       <c r="E154">
-        <v>96039652263.167938</v>
+        <v>111378800979.68594</v>
       </c>
       <c r="F154">
-        <v>9309.5555635135643</v>
+        <v>8565.7263139899387</v>
       </c>
       <c r="G154">
-        <v>277012.72368426097</v>
+        <v>276242.97678539425</v>
       </c>
       <c r="H154">
-        <v>8521.7423018253339</v>
+        <v>9882.8079597199758</v>
       </c>
       <c r="I154" t="s">
         <v>30</v>
@@ -6896,22 +6896,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>50217516734.093475</v>
+        <v>49711445410.861786</v>
       </c>
       <c r="D155">
-        <v>1993120734282.5125</v>
+        <v>1985191233633.7942</v>
       </c>
       <c r="E155">
-        <v>41346110978.679008</v>
+        <v>41340253829.621674</v>
       </c>
       <c r="F155">
-        <v>9355.2924817497533</v>
+        <v>9261.0137210032208</v>
       </c>
       <c r="G155">
-        <v>371309.22899645322</v>
+        <v>369831.9994831782</v>
       </c>
       <c r="H155">
-        <v>7702.5903777081548</v>
+        <v>7701.4992177682734</v>
       </c>
       <c r="I155" t="s">
         <v>30</v>
@@ -6937,22 +6937,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>68853022652.247238</v>
+        <v>68680663515.528618</v>
       </c>
       <c r="D156">
-        <v>2713986498753.5762</v>
+        <v>2706916558132.1816</v>
       </c>
       <c r="E156">
-        <v>56299995869.164444</v>
+        <v>57079640370.368454</v>
       </c>
       <c r="F156">
-        <v>6992.8892651468614</v>
+        <v>6975.3840299301428</v>
       </c>
       <c r="G156">
-        <v>275639.4174405642</v>
+        <v>274921.37616986682</v>
       </c>
       <c r="H156">
-        <v>5717.9717255077258</v>
+        <v>5797.1544171759815</v>
       </c>
       <c r="I156" t="s">
         <v>30</v>
@@ -6978,22 +6978,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>8900328558.2445564</v>
+        <v>8445221699.1102982</v>
       </c>
       <c r="D157">
-        <v>289807071219.65839</v>
+        <v>289807071219.65833</v>
       </c>
       <c r="E157">
-        <v>8509418390.0869637</v>
+        <v>8078013874.18787</v>
       </c>
       <c r="F157">
-        <v>1718.7596185661973</v>
+        <v>1630.8730549979489</v>
       </c>
       <c r="G157">
-        <v>55965.202624556885</v>
+        <v>55965.20262455687</v>
       </c>
       <c r="H157">
-        <v>1643.2702018419332</v>
+        <v>1559.9608435028399</v>
       </c>
       <c r="I157" t="s">
         <v>31</v>
@@ -7019,22 +7019,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>2655446434.8635759</v>
+        <v>4012919032.5145202</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>236288421795.98291</v>
+        <v>236288421795.98285</v>
       </c>
       <c r="F158">
-        <v>681.46854104370493</v>
+        <v>1029.8374098269771</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>60638.815361794572</v>
+        <v>60638.815361794557</v>
       </c>
       <c r="I158" t="s">
         <v>31</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>3803021150.2246428</v>
+        <v>3821890770.5788965</v>
       </c>
       <c r="F159">
         <v>55487.006222281954</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>9058.6945601082443</v>
+        <v>9103.6414905885777</v>
       </c>
       <c r="I159" t="s">
         <v>31</v>
@@ -7101,7 +7101,7 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>164149242896.24561</v>
+        <v>164161283043.41061</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>88266713597.309799</v>
       </c>
       <c r="F160">
-        <v>37265.51007132481</v>
+        <v>37268.243451129201</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7183,22 +7183,22 @@
         <v>5140970</v>
       </c>
       <c r="C162">
-        <v>241296691426.00259</v>
+        <v>241256108910.00922</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>119905548807.37422</v>
+        <v>119905548807.37421</v>
       </c>
       <c r="F162">
-        <v>46936.024023871483</v>
+        <v>46928.13008245705</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>23323.526262042811</v>
+        <v>23323.526262042808</v>
       </c>
       <c r="I162" t="s">
         <v>32</v>
@@ -7224,22 +7224,22 @@
         <v>4899321</v>
       </c>
       <c r="C163">
-        <v>5155724045.6515026</v>
+        <v>6282868699.8665752</v>
       </c>
       <c r="D163">
-        <v>107823125766.49626</v>
+        <v>111527882921.80649</v>
       </c>
       <c r="E163">
-        <v>156855387991.12823</v>
+        <v>165183502737.91766</v>
       </c>
       <c r="F163">
-        <v>1052.3344042269332</v>
+        <v>1282.3958054323396</v>
       </c>
       <c r="G163">
-        <v>22007.769192199543</v>
+        <v>22763.946865658832</v>
       </c>
       <c r="H163">
-        <v>32015.74013850659</v>
+        <v>33715.590943707844</v>
       </c>
       <c r="I163" t="s">
         <v>32</v>
@@ -7265,22 +7265,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>1824522037.9436862</v>
+        <v>1827959022.5259557</v>
       </c>
       <c r="D164">
-        <v>73449103420.971405</v>
+        <v>72496691880.864212</v>
       </c>
       <c r="E164">
-        <v>1518104135.9506855</v>
+        <v>1522581699.896951</v>
       </c>
       <c r="F164">
-        <v>8510.5326794149114</v>
+        <v>8526.5645874969941</v>
       </c>
       <c r="G164">
-        <v>342605.34098146972</v>
+        <v>338162.79144369083</v>
       </c>
       <c r="H164">
-        <v>7081.2380399222211</v>
+        <v>7102.1237587550886</v>
       </c>
       <c r="I164" t="s">
         <v>18</v>
@@ -7306,16 +7306,16 @@
         <v>1502812</v>
       </c>
       <c r="C165">
-        <v>83255358172.337021</v>
+        <v>83106666899.083862</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>13399011482.69195</v>
+        <v>13399011482.691948</v>
       </c>
       <c r="F165">
-        <v>55399.716113750103</v>
+        <v>55300.774081577641</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7347,22 +7347,22 @@
         <v>13572760</v>
       </c>
       <c r="C166">
-        <v>26643169196.441261</v>
+        <v>21635726245.061394</v>
       </c>
       <c r="D166">
-        <v>912001278157.34827</v>
+        <v>618970117091.3606</v>
       </c>
       <c r="E166">
-        <v>23362734954.317806</v>
+        <v>21993042158.531723</v>
       </c>
       <c r="F166">
-        <v>1962.9883086742313</v>
+        <v>1594.0550223433843</v>
       </c>
       <c r="G166">
-        <v>67193.502143804813</v>
+        <v>45603.85043950977</v>
       </c>
       <c r="H166">
-        <v>1721.2958126657957</v>
+        <v>1620.3809806208703</v>
       </c>
       <c r="I166" t="s">
         <v>61</v>
@@ -7388,22 +7388,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>27539293268.595322</v>
+        <v>33807423992.187943</v>
       </c>
       <c r="D167">
         <v>982296163079.29492</v>
       </c>
       <c r="E167">
-        <v>27311159496.297581</v>
+        <v>27146859190.067333</v>
       </c>
       <c r="F167">
-        <v>1545.7713155404533</v>
+        <v>1897.599395516505</v>
       </c>
       <c r="G167">
         <v>55135.954922450692</v>
       </c>
       <c r="H167">
-        <v>1532.9662432430453</v>
+        <v>1523.7441220350604</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7429,22 +7429,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>45977229839.075363</v>
+        <v>46180528805.515778</v>
       </c>
       <c r="D168">
-        <v>1956405934800.5596</v>
+        <v>1944993090697.5061</v>
       </c>
       <c r="E168">
-        <v>36427435196.850647</v>
+        <v>36184450757.624939</v>
       </c>
       <c r="F168">
-        <v>6523.8767045080976</v>
+        <v>6552.7235357733425</v>
       </c>
       <c r="G168">
-        <v>277601.56815188064</v>
+        <v>275982.1581083287</v>
       </c>
       <c r="H168">
-        <v>5168.8215387813279</v>
+        <v>5134.3435911500565</v>
       </c>
       <c r="I168" t="s">
         <v>30</v>
@@ -7470,22 +7470,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>6331588807.9340458</v>
+        <v>3355598253.8525457</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>373811954833.38867</v>
+        <v>373811954833.38861</v>
       </c>
       <c r="F169">
-        <v>1017.4285006680797</v>
+        <v>539.21399570096423</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>60068.167449748937</v>
+        <v>60068.167449748929</v>
       </c>
       <c r="I169" t="s">
         <v>33</v>
@@ -7511,22 +7511,22 @@
         <v>2129192</v>
       </c>
       <c r="C170">
-        <v>4078046796.5873032</v>
+        <v>4030861014.8671398</v>
       </c>
       <c r="D170">
-        <v>118550922029.39088</v>
+        <v>118550922029.39085</v>
       </c>
       <c r="E170">
-        <v>4279068431.4063129</v>
+        <v>2406056807.5367217</v>
       </c>
       <c r="F170">
-        <v>1915.3025169112523</v>
+        <v>1893.1411609977588</v>
       </c>
       <c r="G170">
-        <v>55678.83123240689</v>
+        <v>55678.831232406876</v>
       </c>
       <c r="H170">
-        <v>2009.7146858556264</v>
+        <v>1130.0328047149912</v>
       </c>
       <c r="I170" t="s">
         <v>13</v>
@@ -7552,7 +7552,7 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>3005016756.8948617</v>
+        <v>5271541125.7210407</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>306328265025.02881</v>
       </c>
       <c r="F171">
-        <v>601.23554854782151</v>
+        <v>1054.7155562920482</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -7593,22 +7593,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>35236541262.934227</v>
+        <v>34879513666.473663</v>
       </c>
       <c r="D172">
-        <v>1444293633453.793</v>
+        <v>1444674311766.6868</v>
       </c>
       <c r="E172">
-        <v>27587649179.181618</v>
+        <v>27628391026.6003</v>
       </c>
       <c r="F172">
-        <v>8739.8891738094644</v>
+        <v>8651.3338981434263</v>
       </c>
       <c r="G172">
-        <v>358235.11157444393</v>
+        <v>358329.53305130621</v>
       </c>
       <c r="H172">
-        <v>6842.6976016971576</v>
+        <v>6852.8029984930145</v>
       </c>
       <c r="I172" t="s">
         <v>16</v>
@@ -7634,22 +7634,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>35745893619.366043</v>
+        <v>37433694062.927536</v>
       </c>
       <c r="D173">
-        <v>1411139905382.8745</v>
+        <v>1526679135369.3384</v>
       </c>
       <c r="E173">
-        <v>28424884106.570496</v>
+        <v>31058821640.652039</v>
       </c>
       <c r="F173">
-        <v>6020.8690652240375</v>
+        <v>6305.1541802394668</v>
       </c>
       <c r="G173">
-        <v>237685.72394620153</v>
+        <v>257146.60476940259</v>
       </c>
       <c r="H173">
-        <v>4787.7528877081659</v>
+        <v>5231.4008543124291</v>
       </c>
       <c r="I173" t="s">
         <v>25</v>
@@ -7675,22 +7675,22 @@
         <v>8020477</v>
       </c>
       <c r="C174">
-        <v>125406317373.17299</v>
+        <v>125406317373.17297</v>
       </c>
       <c r="D174">
-        <v>266372639366.87762</v>
+        <v>266372639366.87756</v>
       </c>
       <c r="E174">
-        <v>13127725805.707314</v>
+        <v>13070616128.46196</v>
       </c>
       <c r="F174">
-        <v>15635.767969058821</v>
+        <v>15635.767969058819</v>
       </c>
       <c r="G174">
-        <v>33211.570754068322</v>
+        <v>33211.570754068314</v>
       </c>
       <c r="H174">
-        <v>1636.7761924518097</v>
+        <v>1629.65570856471</v>
       </c>
       <c r="I174" t="s">
         <v>62</v>
@@ -7716,22 +7716,22 @@
         <v>8834166</v>
       </c>
       <c r="C175">
-        <v>17383907361.705872</v>
+        <v>17383907361.705868</v>
       </c>
       <c r="D175">
-        <v>651272540512.4668</v>
+        <v>650588704344.92859</v>
       </c>
       <c r="E175">
-        <v>8561773232.3653049</v>
+        <v>24166623200.771812</v>
       </c>
       <c r="F175">
-        <v>1967.8040192708481</v>
+        <v>1967.8040192708477</v>
       </c>
       <c r="G175">
-        <v>73722.017507081793</v>
+        <v>73644.609388699348</v>
       </c>
       <c r="H175">
-        <v>969.16598945110434</v>
+        <v>2735.5862682195257</v>
       </c>
       <c r="I175" t="s">
         <v>24</v>
@@ -7757,22 +7757,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>20412967930.642044</v>
+        <v>24433520070.027275</v>
       </c>
       <c r="D176">
-        <v>847002884702.73181</v>
+        <v>928268011703.8208</v>
       </c>
       <c r="E176">
-        <v>16689671149.742647</v>
+        <v>19220345301.222557</v>
       </c>
       <c r="F176">
-        <v>5932.3605591249298</v>
+        <v>7100.8023564488185</v>
       </c>
       <c r="G176">
-        <v>246153.64721819188</v>
+        <v>269770.69476813998</v>
       </c>
       <c r="H176">
-        <v>4850.3062959735116</v>
+        <v>5585.763852917029</v>
       </c>
       <c r="I176" t="s">
         <v>25</v>
@@ -7798,22 +7798,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>703570385689.10718</v>
+        <v>758992541433.64563</v>
       </c>
       <c r="D177">
-        <v>1010708821927.2932</v>
+        <v>1092211185835.2351</v>
       </c>
       <c r="E177">
-        <v>42470395751.605942</v>
+        <v>45373923434.349899</v>
       </c>
       <c r="F177">
-        <v>126345.05606377769</v>
+        <v>136297.6002827342</v>
       </c>
       <c r="G177">
-        <v>181500.05368046521</v>
+        <v>196136.00332634692</v>
       </c>
       <c r="H177">
-        <v>7626.7060715352045</v>
+        <v>8148.1128494792629</v>
       </c>
       <c r="I177" t="s">
         <v>16</v>
@@ -7839,22 +7839,22 @@
         <v>4469578</v>
       </c>
       <c r="C178">
-        <v>10664780715.530508</v>
+        <v>18427995281.875702</v>
       </c>
       <c r="D178">
-        <v>386227518292.81555</v>
+        <v>686554597414.71729</v>
       </c>
       <c r="E178">
-        <v>9013871213.895649</v>
+        <v>15071586043.004921</v>
       </c>
       <c r="F178">
-        <v>2386.0822465858091</v>
+        <v>4122.9832619266745</v>
       </c>
       <c r="G178">
-        <v>86412.524469382915</v>
+        <v>153606.1340499522</v>
       </c>
       <c r="H178">
-        <v>2016.7163910990364</v>
+        <v>3372.0378172178494</v>
       </c>
       <c r="I178" t="s">
         <v>58</v>
@@ -7880,22 +7880,22 @@
         <v>5464804</v>
       </c>
       <c r="C179">
-        <v>173409298919.45743</v>
+        <v>170792956887.82822</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>193773552360.97971</v>
+        <v>193773552360.97968</v>
       </c>
       <c r="F179">
-        <v>31732.025324139242</v>
+        <v>31253.263042522332</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>35458.463352204344</v>
+        <v>35458.463352204337</v>
       </c>
       <c r="I179" t="s">
         <v>34</v>
@@ -7921,22 +7921,22 @@
         <v>245854</v>
       </c>
       <c r="C180">
-        <v>3009158857.0217843</v>
+        <v>2973750494.0491905</v>
       </c>
       <c r="D180">
-        <v>133250590850.63556</v>
+        <v>132644101930.01637</v>
       </c>
       <c r="E180">
-        <v>2290458233.3553057</v>
+        <v>2330122240.816545</v>
       </c>
       <c r="F180">
-        <v>12239.617240401963</v>
+        <v>12095.59532913514</v>
       </c>
       <c r="G180">
-        <v>541990.73779818742</v>
+        <v>539523.87160679256</v>
       </c>
       <c r="H180">
-        <v>9316.3350336187559</v>
+        <v>9477.6665859271961</v>
       </c>
       <c r="I180" t="s">
         <v>57</v>
@@ -7962,22 +7962,22 @@
         <v>1204962</v>
       </c>
       <c r="C181">
-        <v>1451485865.3104308</v>
+        <v>1411899887.165601</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>83404324705.039307</v>
+        <v>83404324705.039291</v>
       </c>
       <c r="F181">
-        <v>1204.59057240845</v>
+        <v>1171.7381022518562</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>69217.390013161668</v>
+        <v>69217.390013161654</v>
       </c>
       <c r="I181" t="s">
         <v>15</v>
@@ -8003,22 +8003,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>15082947535.500299</v>
+        <v>12406655256.128193</v>
       </c>
       <c r="D182">
         <v>496262208320.72241</v>
       </c>
       <c r="E182">
-        <v>9057748746.0565796</v>
+        <v>8991753933.4629154</v>
       </c>
       <c r="F182">
-        <v>1603.5433014013058</v>
+        <v>1319.0133348892382</v>
       </c>
       <c r="G182">
         <v>52760.107931046914</v>
       </c>
       <c r="H182">
-        <v>962.97439829510949</v>
+        <v>955.95816095736598</v>
       </c>
       <c r="I182" t="s">
         <v>20</v>
@@ -8044,22 +8044,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>24657173687.483757</v>
+        <v>23206082436.228771</v>
       </c>
       <c r="D183">
-        <v>715449417295.67969</v>
+        <v>715449417295.67957</v>
       </c>
       <c r="E183">
-        <v>18504171499.537682</v>
+        <v>26299661051.412022</v>
       </c>
       <c r="F183">
-        <v>2173.1834112176402</v>
+        <v>2045.2901061957784</v>
       </c>
       <c r="G183">
-        <v>63056.813604777926</v>
+        <v>63056.813604777919</v>
       </c>
       <c r="H183">
-        <v>1630.8827220345233</v>
+        <v>2317.9455943317321</v>
       </c>
       <c r="I183" t="s">
         <v>15</v>
@@ -8085,22 +8085,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>77274354610.943054</v>
+        <v>81270764525.793198</v>
       </c>
       <c r="D184">
-        <v>2150774332809.8845</v>
+        <v>2236905445863.8936</v>
       </c>
       <c r="E184">
-        <v>36633361770.085831</v>
+        <v>38671827150.54248</v>
       </c>
       <c r="F184">
-        <v>9334.3267416039944</v>
+        <v>9817.0715814206742</v>
       </c>
       <c r="G184">
-        <v>259801.98050155916</v>
+        <v>270206.15606422763</v>
       </c>
       <c r="H184">
-        <v>4425.113223228931</v>
+        <v>4671.3488858679812</v>
       </c>
       <c r="I184" t="s">
         <v>16</v>
@@ -8126,22 +8126,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>6304105597.5369778</v>
+        <v>6308605500.1382809</v>
       </c>
       <c r="D185">
         <v>238910366895.04529</v>
       </c>
       <c r="E185">
-        <v>5230735004.1624851</v>
+        <v>5204900925.8550129</v>
       </c>
       <c r="F185">
-        <v>2583.7694932334889</v>
+        <v>2585.6138010236873</v>
       </c>
       <c r="G185">
         <v>97918.619548792747</v>
       </c>
       <c r="H185">
-        <v>2143.8431387037535</v>
+        <v>2133.2549113360633</v>
       </c>
       <c r="I185" t="s">
         <v>57</v>
@@ -8170,19 +8170,19 @@
         <v>15291326274.05167</v>
       </c>
       <c r="D186">
-        <v>904509255049.93408</v>
+        <v>904509255049.93384</v>
       </c>
       <c r="E186">
-        <v>25184645260.870766</v>
+        <v>29560356875.980263</v>
       </c>
       <c r="F186">
         <v>1030.1160733044671</v>
       </c>
       <c r="G186">
-        <v>60933.20522894746</v>
+        <v>60933.205228947445</v>
       </c>
       <c r="H186">
-        <v>1696.5897802938011</v>
+        <v>1991.364137081822</v>
       </c>
       <c r="I186" t="s">
         <v>35</v>
@@ -8208,22 +8208,22 @@
         <v>8797020</v>
       </c>
       <c r="C187">
-        <v>839948852.18317485</v>
+        <v>724352701.84278738</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>517072042844.38147</v>
+        <v>517072042844.38135</v>
       </c>
       <c r="F187">
-        <v>95.481066563810799</v>
+        <v>82.340690579626667</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>58778.091085888344</v>
+        <v>58778.091085888329</v>
       </c>
       <c r="I187" t="s">
         <v>10</v>
@@ -8249,22 +8249,22 @@
         <v>614883</v>
       </c>
       <c r="C188">
-        <v>1414405096.325238</v>
+        <v>1419223664.900198</v>
       </c>
       <c r="D188">
-        <v>44562861051.92942</v>
+        <v>48810630467.608322</v>
       </c>
       <c r="E188">
-        <v>1194552217.1556194</v>
+        <v>1156287007.7321703</v>
       </c>
       <c r="F188">
-        <v>2300.2832999533862</v>
+        <v>2308.1198616650613</v>
       </c>
       <c r="G188">
-        <v>72473.724353949321</v>
+        <v>79381.980746919857</v>
       </c>
       <c r="H188">
-        <v>1942.7309214202041</v>
+        <v>1880.4992294992223</v>
       </c>
       <c r="I188" t="s">
         <v>22</v>
@@ -8290,22 +8290,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>57457865368.359802</v>
+        <v>80028883258.326797</v>
       </c>
       <c r="D189">
-        <v>436764454908.66107</v>
+        <v>635152408280.56812</v>
       </c>
       <c r="E189">
-        <v>11535008406.892975</v>
+        <v>14830248125.598785</v>
       </c>
       <c r="F189">
-        <v>10693.904074826572</v>
+        <v>14894.761496853556</v>
       </c>
       <c r="G189">
-        <v>81289.431031650383</v>
+        <v>118212.86578439017</v>
       </c>
       <c r="H189">
-        <v>2146.864882898326</v>
+        <v>2760.1660772514911</v>
       </c>
       <c r="I189" t="s">
         <v>59</v>
@@ -8331,22 +8331,22 @@
         <v>222191</v>
       </c>
       <c r="C190">
-        <v>361608398.46719337</v>
+        <v>361608398.46719331</v>
       </c>
       <c r="D190">
-        <v>21389782498.617523</v>
+        <v>21389782498.617519</v>
       </c>
       <c r="E190">
-        <v>797334895.49307013</v>
+        <v>797334895.49307001</v>
       </c>
       <c r="F190">
-        <v>1627.4664521388956</v>
+        <v>1627.4664521388954</v>
       </c>
       <c r="G190">
-        <v>96267.546834109045</v>
+        <v>96267.546834109031</v>
       </c>
       <c r="H190">
-        <v>3588.5112155445995</v>
+        <v>3588.5112155445991</v>
       </c>
       <c r="I190" t="s">
         <v>35</v>
@@ -8372,22 +8372,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>289763468942.29816</v>
+        <v>289763468942.2981</v>
       </c>
       <c r="D191">
-        <v>424922016650.50299</v>
+        <v>424922016650.50293</v>
       </c>
       <c r="E191">
-        <v>24385283594.263229</v>
+        <v>22249650734.182697</v>
       </c>
       <c r="F191">
-        <v>23828.938700780676</v>
+        <v>23828.938700780673</v>
       </c>
       <c r="G191">
-        <v>34943.813740003454</v>
+        <v>34943.813740003447</v>
       </c>
       <c r="H191">
-        <v>2005.343979660056</v>
+        <v>1829.7184437842211</v>
       </c>
       <c r="I191" t="s">
         <v>19</v>
@@ -8413,22 +8413,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>88186112832.006897</v>
+        <v>88837929034.742477</v>
       </c>
       <c r="D192">
-        <v>4357633570333.4785</v>
+        <v>4417862734705.0527</v>
       </c>
       <c r="E192">
-        <v>90199263238.364975</v>
+        <v>90495129434.812653</v>
       </c>
       <c r="F192">
-        <v>6479.119720146623</v>
+        <v>6527.0092922961549</v>
       </c>
       <c r="G192">
-        <v>320159.58853414003</v>
+        <v>324584.68398370594</v>
       </c>
       <c r="H192">
-        <v>6627.0278439835738</v>
+        <v>6648.76542200315</v>
       </c>
       <c r="I192" t="s">
         <v>26</v>
@@ -8454,7 +8454,7 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>5873559875.6891193</v>
+        <v>5903286302.6107416</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>343874079262.42822</v>
       </c>
       <c r="F193">
-        <v>1044.8472798205587</v>
+        <v>1050.1353124558261</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -8495,22 +8495,22 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>219247160605.32123</v>
+        <v>223741636494.55362</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>291560750977.72449</v>
+        <v>291560750977.72443</v>
       </c>
       <c r="F194">
-        <v>25255.470671345898</v>
+        <v>25773.197348809765</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>33585.401858357247</v>
+        <v>33585.40185835724</v>
       </c>
       <c r="I194" t="s">
         <v>10</v>
@@ -8618,22 +8618,22 @@
         <v>2383346</v>
       </c>
       <c r="C197">
-        <v>226811921.16728249</v>
+        <v>2363629633.8331404</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>139625291605.07703</v>
+        <v>139625291605.077</v>
       </c>
       <c r="F197">
-        <v>95.165335275399585</v>
+        <v>991.72744277714628</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>58583.727081622652</v>
+        <v>58583.727081622645</v>
       </c>
       <c r="I197" t="s">
         <v>36</v>
@@ -8659,22 +8659,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>40296520856.975342</v>
+        <v>64237362352.500443</v>
       </c>
       <c r="D198">
-        <v>1458367499427.3335</v>
+        <v>2408363760771.5664</v>
       </c>
       <c r="E198">
-        <v>34441488640.805374</v>
+        <v>53769094466.571976</v>
       </c>
       <c r="F198">
-        <v>2762.7064174898487</v>
+        <v>4404.0768145658376</v>
       </c>
       <c r="G198">
-        <v>99984.841471223175</v>
+        <v>165116.04168382823</v>
       </c>
       <c r="H198">
-        <v>2361.2887582424114</v>
+        <v>3686.378356897344</v>
       </c>
       <c r="I198" t="s">
         <v>59</v>
@@ -8700,7 +8700,7 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>11354161.305602729</v>
+        <v>10020346.390529998</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>9279373471.3691063</v>
       </c>
       <c r="F199">
-        <v>121.74738693547854</v>
+        <v>107.44527547212093</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -8741,22 +8741,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>3755720687.7954016</v>
+        <v>4682795538.6105766</v>
       </c>
       <c r="D200">
-        <v>135041341390.02133</v>
+        <v>135041341390.0213</v>
       </c>
       <c r="E200">
-        <v>4874286348.7265272</v>
+        <v>2743619828.3052931</v>
       </c>
       <c r="F200">
-        <v>1719.4059128867527</v>
+        <v>2143.8299083558886</v>
       </c>
       <c r="G200">
-        <v>61823.255820031896</v>
+        <v>61823.255820031882</v>
       </c>
       <c r="H200">
-        <v>2231.4962868080388</v>
+        <v>1256.0561734079745</v>
       </c>
       <c r="I200" t="s">
         <v>11</v>
@@ -8782,22 +8782,22 @@
         <v>2459453</v>
       </c>
       <c r="C201">
-        <v>5981891616.7652607</v>
+        <v>9530598105.1940632</v>
       </c>
       <c r="D201">
-        <v>202502813352.35468</v>
+        <v>376025576733.9552</v>
       </c>
       <c r="E201">
-        <v>5172743090.2608299</v>
+        <v>7905379168.0790844</v>
       </c>
       <c r="F201">
-        <v>2432.2040782097729</v>
+        <v>3875.0885278938299</v>
       </c>
       <c r="G201">
-        <v>82336.524972160347</v>
+        <v>152889.92175656749</v>
       </c>
       <c r="H201">
-        <v>2103.2087583136699</v>
+        <v>3214.2834882712068</v>
       </c>
       <c r="I201" t="s">
         <v>59</v>
@@ -8823,7 +8823,7 @@
         <v>3041196</v>
       </c>
       <c r="C202">
-        <v>302882800.32958502</v>
+        <v>3244868253.4764166</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>186454482200.65143</v>
       </c>
       <c r="F202">
-        <v>99.593318000413333</v>
+        <v>1066.9711039592373</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -8864,22 +8864,22 @@
         <v>6130440</v>
       </c>
       <c r="C203">
-        <v>4618220934.9310341</v>
+        <v>2773587953.9565411</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>395136852829.44775</v>
+        <v>395136852829.44763</v>
       </c>
       <c r="F203">
-        <v>753.32617804448523</v>
+        <v>452.42885567048057</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>64454.892769433798</v>
+        <v>64454.892769433784</v>
       </c>
       <c r="I203" t="s">
         <v>11</v>
@@ -8905,22 +8905,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>22945645690.185192</v>
+        <v>24068617072.855598</v>
       </c>
       <c r="D204">
         <v>790692942143.78223</v>
       </c>
       <c r="E204">
-        <v>12668695414.868351</v>
+        <v>28011642897.471954</v>
       </c>
       <c r="F204">
-        <v>2300.1966003945854</v>
+        <v>2412.7693730955843</v>
       </c>
       <c r="G204">
         <v>79263.370577236579</v>
       </c>
       <c r="H204">
-        <v>1269.9790852771362</v>
+        <v>2808.0397751366177</v>
       </c>
       <c r="I204" t="s">
         <v>11</v>
@@ -8946,22 +8946,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>10256097847.065952</v>
+        <v>11136366202.256371</v>
       </c>
       <c r="D205">
-        <v>179380110398.93103</v>
+        <v>179380110398.931</v>
       </c>
       <c r="E205">
-        <v>199859284346.84509</v>
+        <v>200146650300.56555</v>
       </c>
       <c r="F205">
-        <v>2146.1349635375968</v>
+        <v>2330.3351069586488</v>
       </c>
       <c r="G205">
-        <v>37536.101198616459</v>
+        <v>37536.101198616452</v>
       </c>
       <c r="H205">
-        <v>41821.461175613957</v>
+        <v>41881.593804007927</v>
       </c>
       <c r="I205" t="s">
         <v>11</v>
@@ -8987,22 +8987,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>4069783924.8574686</v>
+        <v>603100191.38264084</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>436180782475.98035</v>
+        <v>436180782475.98022</v>
       </c>
       <c r="F206">
-        <v>545.16582693153248</v>
+        <v>80.787978091293311</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>58428.373928595873</v>
+        <v>58428.373928595858</v>
       </c>
       <c r="I206" t="s">
         <v>20</v>
@@ -9028,22 +9028,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>15830704005.880795</v>
+        <v>15762561201.518517</v>
       </c>
       <c r="D207">
-        <v>514396624648.06067</v>
+        <v>509382369949.78601</v>
       </c>
       <c r="E207">
-        <v>13666460611.452957</v>
+        <v>13822313891.83707</v>
       </c>
       <c r="F207">
-        <v>1643.8229744604876</v>
+        <v>1636.747186339298</v>
       </c>
       <c r="G207">
-        <v>53413.732533139075</v>
+        <v>52893.06414910774</v>
       </c>
       <c r="H207">
-        <v>1419.0930437661079</v>
+        <v>1435.2764808921679</v>
       </c>
       <c r="I207" t="s">
         <v>66</v>
@@ -9069,22 +9069,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>7474349055093.5342</v>
+        <v>7819201492353.8203</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>1046144364136.0421</v>
+        <v>1034081587277.0098</v>
       </c>
       <c r="F208">
-        <v>600712.49944392359</v>
+        <v>628428.24672826857</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>84078.49180271817</v>
+        <v>83109.007934114852</v>
       </c>
       <c r="I208" t="s">
         <v>59</v>
@@ -9110,22 +9110,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>13165387853.895668</v>
+        <v>14297882520.52174</v>
       </c>
       <c r="D209">
-        <v>418115114422.86926</v>
+        <v>418115114422.8692</v>
       </c>
       <c r="E209">
-        <v>15176203564.467522</v>
+        <v>15091769479.255318</v>
       </c>
       <c r="F209">
-        <v>1976.9856300572953</v>
+        <v>2147.047135793624</v>
       </c>
       <c r="G209">
-        <v>62786.420126557779</v>
+        <v>62786.420126557772</v>
       </c>
       <c r="H209">
-        <v>2278.9405598026951</v>
+        <v>2266.2614822848864</v>
       </c>
       <c r="I209" t="s">
         <v>31</v>
@@ -9151,22 +9151,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>8823134880.3567924</v>
+        <v>9990622688.458477</v>
       </c>
       <c r="D210">
-        <v>293217810158.73187</v>
+        <v>292844834222.92255</v>
       </c>
       <c r="E210">
-        <v>5241938088.5138769</v>
+        <v>7808172656.8001995</v>
       </c>
       <c r="F210">
-        <v>1787.72908393137</v>
+        <v>2024.2835442202359</v>
       </c>
       <c r="G210">
-        <v>59411.310634552443</v>
+        <v>59335.73886362357</v>
       </c>
       <c r="H210">
-        <v>1062.1128775745199</v>
+        <v>1582.0791068259084</v>
       </c>
       <c r="I210" t="s">
         <v>61</v>
@@ -9192,22 +9192,22 @@
         <v>3211787</v>
       </c>
       <c r="C211">
-        <v>3187424613.5734692</v>
+        <v>297520890.64456499</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>183153693602.4241</v>
+        <v>183153693602.42407</v>
       </c>
       <c r="F211">
-        <v>992.41469424138938</v>
+        <v>92.634066531985155</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>57025.479461254465</v>
+        <v>57025.479461254457</v>
       </c>
       <c r="I211" t="s">
         <v>11</v>
@@ -9233,22 +9233,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>16359326280.033775</v>
+        <v>17288857935.37429</v>
       </c>
       <c r="D212">
-        <v>526103735396.16156</v>
+        <v>526103735396.1615</v>
       </c>
       <c r="E212">
-        <v>15689895566.54068</v>
+        <v>15822998884.624088</v>
       </c>
       <c r="F212">
-        <v>1874.5269122604809</v>
+        <v>1981.036928254259</v>
       </c>
       <c r="G212">
-        <v>60283.387821691867</v>
+        <v>60283.38782169186</v>
       </c>
       <c r="H212">
-        <v>1797.8204595095458</v>
+        <v>1813.0720504117355</v>
       </c>
       <c r="I212" t="s">
         <v>11</v>
@@ -9274,22 +9274,22 @@
         <v>11925993</v>
       </c>
       <c r="C213">
-        <v>25615622462.362885</v>
+        <v>25166756711.710609</v>
       </c>
       <c r="D213">
         <v>905011140303.90039</v>
       </c>
       <c r="E213">
-        <v>14793759958.579342</v>
+        <v>22942856765.082092</v>
       </c>
       <c r="F213">
-        <v>2147.8817287887796</v>
+        <v>2110.2441290809588</v>
       </c>
       <c r="G213">
         <v>75885.600494977683</v>
       </c>
       <c r="H213">
-        <v>1240.4635788885121</v>
+        <v>1923.7690953769713</v>
       </c>
       <c r="I213" t="s">
         <v>11</v>
@@ -9315,22 +9315,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>3369747400.1701345</v>
+        <v>1825829264.9149096</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>198780887894.87766</v>
+        <v>198780887894.87762</v>
       </c>
       <c r="F214">
-        <v>1054.0226804430151</v>
+        <v>571.10080587635412</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>62176.638008303838</v>
+        <v>62176.638008303824</v>
       </c>
       <c r="I214" t="s">
         <v>11</v>
@@ -9397,22 +9397,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>4238142638.4232469</v>
+        <v>5087158504.4638491</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>175319680122.32565</v>
+        <v>219526170869.37674</v>
       </c>
       <c r="F216">
-        <v>2113.2661770233403</v>
+        <v>2536.6111813168473</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>87419.698150343829</v>
+        <v>109462.39224319631</v>
       </c>
       <c r="I216" t="s">
         <v>34</v>
@@ -9438,7 +9438,7 @@
         <v>5753937</v>
       </c>
       <c r="C217">
-        <v>4228294543.8507419</v>
+        <v>556747006.77319491</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9447,7 +9447,7 @@
         <v>342733145466.49377</v>
       </c>
       <c r="F217">
-        <v>734.85242258487392</v>
+        <v>96.759315712562525</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>6488120</v>
       </c>
       <c r="C218">
-        <v>426441220.42850995</v>
+        <v>3780003239.2340517</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>371899049890.29053</v>
+        <v>371899049890.29041</v>
       </c>
       <c r="F218">
-        <v>65.726469366859732</v>
+        <v>582.6037803299032</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>57320.001770973802</v>
+        <v>57320.00177097378</v>
       </c>
       <c r="I218" t="s">
         <v>11</v>
@@ -9520,7 +9520,7 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>78256383779.559341</v>
+        <v>78256987414.193314</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>30400074378.495674</v>
       </c>
       <c r="F219">
-        <v>42031.925425902737</v>
+        <v>42032.24964131743</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>248959282762.74738</v>
+        <v>249451144355.25403</v>
       </c>
       <c r="D220">
         <v>377949217252.26392</v>
       </c>
       <c r="E220">
-        <v>21336261723.830952</v>
+        <v>18568055469.724716</v>
       </c>
       <c r="F220">
-        <v>23213.081970942108</v>
+        <v>23258.94337983802</v>
       </c>
       <c r="G220">
         <v>35240.164831656548</v>
       </c>
       <c r="H220">
-        <v>1989.4031941791604</v>
+        <v>1731.2943260303089</v>
       </c>
       <c r="I220" t="s">
         <v>32</v>
@@ -9602,22 +9602,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>13080637301.482716</v>
+        <v>21044742286.628353</v>
       </c>
       <c r="D221">
-        <v>449261231612.16687</v>
+        <v>832900376014.36267</v>
       </c>
       <c r="E221">
-        <v>11100197849.708824</v>
+        <v>17248650678.524773</v>
       </c>
       <c r="F221">
-        <v>2525.9861296676745</v>
+        <v>4063.9248603298824</v>
       </c>
       <c r="G221">
-        <v>86756.295851205592</v>
+        <v>160840.38940279998</v>
       </c>
       <c r="H221">
-        <v>2143.545850151595</v>
+        <v>3330.8661776362969</v>
       </c>
       <c r="I221" t="s">
         <v>59</v>
@@ -9643,22 +9643,22 @@
         <v>3427166</v>
       </c>
       <c r="C222">
-        <v>212904014986.97098</v>
+        <v>212904014986.97095</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>6584660257.3290052</v>
+        <v>6584660257.3290043</v>
       </c>
       <c r="F222">
-        <v>62122.469406784199</v>
+        <v>62122.469406784192</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222">
-        <v>1921.3134868077605</v>
+        <v>1921.3134868077602</v>
       </c>
       <c r="I222" t="s">
         <v>62</v>
@@ -9684,22 +9684,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>36535688605.460373</v>
+        <v>36336464036.161469</v>
       </c>
       <c r="D223">
-        <v>1408049022015.6523</v>
+        <v>1402908513554.1899</v>
       </c>
       <c r="E223">
-        <v>31156332139.104507</v>
+        <v>30537543876.857471</v>
       </c>
       <c r="F223">
-        <v>9342.7274382461765</v>
+        <v>9291.7827066424725</v>
       </c>
       <c r="G223">
-        <v>360059.40313426231</v>
+        <v>358744.89747465734</v>
       </c>
       <c r="H223">
-        <v>7967.144736054579</v>
+        <v>7808.9112307663809</v>
       </c>
       <c r="I223" t="s">
         <v>27</v>
@@ -9766,22 +9766,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>44757655517.667488</v>
+        <v>47537032269.374878</v>
       </c>
       <c r="D225">
-        <v>1019147011114.9143</v>
+        <v>1019147011114.9141</v>
       </c>
       <c r="E225">
-        <v>33815503409.750282</v>
+        <v>23718252708.267662</v>
       </c>
       <c r="F225">
-        <v>2634.4618919586542</v>
+        <v>2798.0576400174109</v>
       </c>
       <c r="G225">
-        <v>59987.591665206295</v>
+        <v>59987.591665206281</v>
       </c>
       <c r="H225">
-        <v>1990.4003920674459</v>
+        <v>1396.0702852076611</v>
       </c>
       <c r="I225" t="s">
         <v>58</v>
@@ -9807,22 +9807,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>55824741750.364929</v>
+        <v>55949602729.155701</v>
       </c>
       <c r="D226">
-        <v>2210106935881.6479</v>
+        <v>2207792688108.3525</v>
       </c>
       <c r="E226">
-        <v>44688149974.796234</v>
+        <v>45043045655.409637</v>
       </c>
       <c r="F226">
-        <v>7479.9817277725506</v>
+        <v>7496.7119052992684</v>
       </c>
       <c r="G226">
-        <v>296133.20148874744</v>
+        <v>295823.11441059853</v>
       </c>
       <c r="H226">
-        <v>5987.7848921217819</v>
+        <v>6035.3375206341443</v>
       </c>
       <c r="I226" t="s">
         <v>30</v>
@@ -9848,16 +9848,16 @@
         <v>6662529</v>
       </c>
       <c r="C227">
-        <v>539168026441.9845</v>
+        <v>539168026441.98437</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>16675299786.865513</v>
+        <v>16675299786.865511</v>
       </c>
       <c r="F227">
-        <v>80925.430334634861</v>
+        <v>80925.430334634846</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -9889,22 +9889,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>17296886779.816353</v>
+        <v>16832966843.240068</v>
       </c>
       <c r="D228">
-        <v>706601830392.84741</v>
+        <v>698853745263.05811</v>
       </c>
       <c r="E228">
-        <v>16112275862.896088</v>
+        <v>14962855386.080078</v>
       </c>
       <c r="F228">
-        <v>1592.5818713531578</v>
+        <v>1549.8672204361594</v>
       </c>
       <c r="G228">
-        <v>65059.17970520215</v>
+        <v>64345.787747881703</v>
       </c>
       <c r="H228">
-        <v>1483.5108058539195</v>
+        <v>1377.6798411698394</v>
       </c>
       <c r="I228" t="s">
         <v>66</v>
@@ -9930,22 +9930,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>16813783378.126568</v>
+        <v>17420990490.471214</v>
       </c>
       <c r="D229">
-        <v>795504129901.94287</v>
+        <v>826653059597.18542</v>
       </c>
       <c r="E229">
-        <v>12974278536.358694</v>
+        <v>13465504409.83308</v>
       </c>
       <c r="F229">
-        <v>6506.8116050315894</v>
+        <v>6741.7963313366627</v>
       </c>
       <c r="G229">
-        <v>307854.29952846596</v>
+        <v>319908.70826368191</v>
       </c>
       <c r="H229">
-        <v>5020.9512189336547</v>
+        <v>5211.052051228965</v>
       </c>
       <c r="I229" t="s">
         <v>16</v>
@@ -9971,22 +9971,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>3221262997.8111563</v>
+        <v>5662922030.0636044</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>329356714748.08624</v>
+        <v>329356714748.08618</v>
       </c>
       <c r="F230">
-        <v>621.35360655829572</v>
+        <v>1092.3283908918279</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>63530.044796706316</v>
+        <v>63530.044796706301</v>
       </c>
       <c r="I230" t="s">
         <v>33</v>
@@ -10015,19 +10015,19 @@
         <v>8189636801.2822599</v>
       </c>
       <c r="D231">
-        <v>357722240129.34924</v>
+        <v>357722240129.34918</v>
       </c>
       <c r="E231">
-        <v>12614747906.092033</v>
+        <v>5847504761.7002945</v>
       </c>
       <c r="F231">
         <v>1995.2284884687635</v>
       </c>
       <c r="G231">
-        <v>87151.313517736329</v>
+        <v>87151.313517736315</v>
       </c>
       <c r="H231">
-        <v>3073.311430996027</v>
+        <v>1424.6184989759795</v>
       </c>
       <c r="I231" t="s">
         <v>11</v>
@@ -10094,22 +10094,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>17454165338.596947</v>
+        <v>29080906877.721989</v>
       </c>
       <c r="D233">
-        <v>652390847884.13062</v>
+        <v>1112296021169.9985</v>
       </c>
       <c r="E233">
-        <v>14350578459.962009</v>
+        <v>23381050275.549377</v>
       </c>
       <c r="F233">
-        <v>3178.349793729155</v>
+        <v>5295.5436472159818</v>
       </c>
       <c r="G233">
-        <v>118798.36569544009</v>
+        <v>202545.68241276938</v>
       </c>
       <c r="H233">
-        <v>2613.1961742824169</v>
+        <v>4257.6173010193925</v>
       </c>
       <c r="I233" t="s">
         <v>59</v>
@@ -10176,22 +10176,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>1392626605.3857141</v>
+        <v>1354645879.7842855</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>80022192681.583832</v>
+        <v>80022192681.583817</v>
       </c>
       <c r="F235">
-        <v>1072.0726074636523</v>
+        <v>1042.8342636237344</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>61602.73000051103</v>
+        <v>61602.730000511023</v>
       </c>
       <c r="I235" t="s">
         <v>20</v>
@@ -10258,22 +10258,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>6444677660.8358421</v>
+        <v>6823763711.8582993</v>
       </c>
       <c r="D237">
-        <v>190870377650.24026</v>
+        <v>214603889636.77295</v>
       </c>
       <c r="E237">
-        <v>5540469080.1562538</v>
+        <v>5909317484.3064928</v>
       </c>
       <c r="F237">
-        <v>1982.483036028807</v>
+        <v>2099.0957985125247</v>
       </c>
       <c r="G237">
-        <v>58714.695394546245</v>
+        <v>66015.492637613497</v>
       </c>
       <c r="H237">
-        <v>1704.3344199820456</v>
+        <v>1817.7979231356398</v>
       </c>
       <c r="I237" t="s">
         <v>16</v>
@@ -10299,22 +10299,22 @@
         <v>2434413</v>
       </c>
       <c r="C238">
-        <v>189633112343.72308</v>
+        <v>189374181453.12985</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>29690112071.580254</v>
+        <v>29598499026.719604</v>
       </c>
       <c r="F238">
-        <v>77896.853304563803</v>
+        <v>77790.4905425373</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>12196.004569306955</v>
+        <v>12158.372070277148</v>
       </c>
       <c r="I238" t="s">
         <v>11</v>
@@ -10340,22 +10340,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>495822058067.84845</v>
+        <v>518859692034.73413</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>15334702826.840687</v>
+        <v>16047206970.146431</v>
       </c>
       <c r="F239">
-        <v>225404.09231057487</v>
+        <v>235877.15797756976</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>6971.2605869250019</v>
+        <v>7295.1698343578346</v>
       </c>
       <c r="I239" t="s">
         <v>27</v>
@@ -10381,22 +10381,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>45908553471.032372</v>
+        <v>45607946094.829254</v>
       </c>
       <c r="D240">
-        <v>1787227587339.8213</v>
+        <v>1788776124899.6731</v>
       </c>
       <c r="E240">
-        <v>39023830363.521484</v>
+        <v>38393849462.497307</v>
       </c>
       <c r="F240">
-        <v>8369.9647307328632</v>
+        <v>8315.1585356693249</v>
       </c>
       <c r="G240">
-        <v>325844.11271564075</v>
+        <v>326126.43929272081</v>
       </c>
       <c r="H240">
-        <v>7114.754421676008</v>
+        <v>6999.897439176335</v>
       </c>
       <c r="I240" t="s">
         <v>29</v>
@@ -10463,7 +10463,7 @@
         <v>602999</v>
       </c>
       <c r="C242">
-        <v>44885569702.544998</v>
+        <v>44885569702.544991</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>1388213495.9550011</v>
       </c>
       <c r="F242">
-        <v>74437.220795631496</v>
+        <v>74437.220795631481</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -10507,19 +10507,19 @@
         <v>9681349720.1105022</v>
       </c>
       <c r="D243">
-        <v>525824596600.39215</v>
+        <v>525272480773.96173</v>
       </c>
       <c r="E243">
-        <v>19511654653.427341</v>
+        <v>6912606744.5589542</v>
       </c>
       <c r="F243">
         <v>2841.8381546685223</v>
       </c>
       <c r="G243">
-        <v>154349.18110417383</v>
+        <v>154187.11446401445</v>
       </c>
       <c r="H243">
-        <v>5727.4002342508647</v>
+        <v>2029.1085605657036</v>
       </c>
       <c r="I243" t="s">
         <v>66</v>
@@ -10545,22 +10545,22 @@
         <v>4583206</v>
       </c>
       <c r="C244">
-        <v>6915477489.2080135</v>
+        <v>12449836614.938009</v>
       </c>
       <c r="D244">
         <v>364946974074.99176</v>
       </c>
       <c r="E244">
-        <v>4937738819.0455036</v>
+        <v>13216457386.810596</v>
       </c>
       <c r="F244">
-        <v>1508.8733714365039</v>
+        <v>2716.4034553406523</v>
       </c>
       <c r="G244">
         <v>79627.006526652258</v>
       </c>
       <c r="H244">
-        <v>1077.3547641204659</v>
+        <v>2883.6708161951692</v>
       </c>
       <c r="I244" t="s">
         <v>11</v>
@@ -10586,22 +10586,22 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>294178072421.85852</v>
+        <v>294178072421.8584</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>9083853559.4582901</v>
+        <v>9083853559.4582882</v>
       </c>
       <c r="F245">
-        <v>60534.727427703459</v>
+        <v>60534.72742770343</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>1869.2372095851786</v>
+        <v>1869.2372095851783</v>
       </c>
       <c r="I245" t="s">
         <v>31</v>
@@ -10627,22 +10627,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>77351310704.89447</v>
+        <v>76311543368.393066</v>
       </c>
       <c r="D246">
-        <v>2897837612349.8115</v>
+        <v>2897429545969.7344</v>
       </c>
       <c r="E246">
-        <v>64652977769.951477</v>
+        <v>64541805202.439552</v>
       </c>
       <c r="F246">
-        <v>6188.6331181145197</v>
+        <v>6105.4446302250817</v>
       </c>
       <c r="G246">
-        <v>231846.79943078433</v>
+        <v>231814.15133353657</v>
       </c>
       <c r="H246">
-        <v>5172.679761540563</v>
+        <v>5163.7851968995719</v>
       </c>
       <c r="I246" t="s">
         <v>23</v>
@@ -10668,22 +10668,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>24509661071.297234</v>
+        <v>24518655623.245789</v>
       </c>
       <c r="D247">
-        <v>711123270753.28589</v>
+        <v>711553209129.81543</v>
       </c>
       <c r="E247">
-        <v>25681115712.408092</v>
+        <v>25652735841.337448</v>
       </c>
       <c r="F247">
-        <v>1823.7249186025738</v>
+        <v>1824.3941889149021</v>
       </c>
       <c r="G247">
-        <v>52913.552141677625</v>
+        <v>52945.543172824873</v>
       </c>
       <c r="H247">
-        <v>1910.8909962481116</v>
+        <v>1908.7792951557258</v>
       </c>
       <c r="I247" t="s">
         <v>32</v>
@@ -10709,22 +10709,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>10479053779.051739</v>
+        <v>10506176734.223045</v>
       </c>
       <c r="D248">
-        <v>288539058321.19958</v>
+        <v>291129555359.1145</v>
       </c>
       <c r="E248">
-        <v>7864883593.2336311</v>
+        <v>7873038909.25103</v>
       </c>
       <c r="F248">
-        <v>1749.9160497241025</v>
+        <v>1754.4453608213601</v>
       </c>
       <c r="G248">
-        <v>48183.656632997714</v>
+        <v>48616.248395478411</v>
       </c>
       <c r="H248">
-        <v>1313.3710656704657</v>
+        <v>1314.7329365693388</v>
       </c>
       <c r="I248" t="s">
         <v>66</v>
@@ -10750,22 +10750,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>88614176964.773819</v>
+        <v>89180745753.913635</v>
       </c>
       <c r="D249">
-        <v>3717041877577.9048</v>
+        <v>3751928694351.9438</v>
       </c>
       <c r="E249">
-        <v>71126511439.450317</v>
+        <v>71141079865.978668</v>
       </c>
       <c r="F249">
-        <v>6252.9316134529581</v>
+        <v>6292.9107230509226</v>
       </c>
       <c r="G249">
-        <v>262287.70001525618</v>
+        <v>264749.43793317251</v>
       </c>
       <c r="H249">
-        <v>5018.9397133503862</v>
+        <v>5019.96771336029</v>
       </c>
       <c r="I249" t="s">
         <v>25</v>
@@ -10791,22 +10791,22 @@
         <v>1551911</v>
       </c>
       <c r="C250">
-        <v>1552922136.895669</v>
+        <v>149017108.37044498</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>91734848429.872055</v>
+        <v>91734848429.87204</v>
       </c>
       <c r="F250">
-        <v>1000.6515430947194</v>
+        <v>96.021684471883361</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250">
-        <v>59110.895167230628</v>
+        <v>59110.895167230621</v>
       </c>
       <c r="I250" t="s">
         <v>62</v>
@@ -10873,22 +10873,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>566603721310.0144</v>
+        <v>566603721310.01416</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>17523826432.268501</v>
+        <v>17523826432.268494</v>
       </c>
       <c r="F252">
-        <v>56394.292579751658</v>
+        <v>56394.292579751629</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>1744.1533787552073</v>
+        <v>1744.1533787552066</v>
       </c>
       <c r="I252" t="s">
         <v>61</v>
@@ -10914,22 +10914,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>18162653949.017147</v>
+        <v>17311005151.875835</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>68271428953.196793</v>
+        <v>68134860558.853142</v>
       </c>
       <c r="F253">
-        <v>12743.423781828222</v>
+        <v>12145.883270088016</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>47901.135692157128</v>
+        <v>47805.315503697326</v>
       </c>
       <c r="I253" t="s">
         <v>67</v>
@@ -10955,22 +10955,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>13360629028.282276</v>
+        <v>13586657442.03372</v>
       </c>
       <c r="D254">
-        <v>527817141792.3244</v>
+        <v>527239765672.70007</v>
       </c>
       <c r="E254">
-        <v>11039334728.55592</v>
+        <v>11103044931.784405</v>
       </c>
       <c r="F254">
-        <v>6885.2789402747057</v>
+        <v>7001.7606324025346</v>
       </c>
       <c r="G254">
-        <v>272005.77480339713</v>
+        <v>271708.22925904801</v>
       </c>
       <c r="H254">
-        <v>5689.0209854843506</v>
+        <v>5721.8534606351186</v>
       </c>
       <c r="I254" t="s">
         <v>26</v>
@@ -10996,22 +10996,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>48270512834.746353</v>
+        <v>48337389748.611328</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>7506093434.1785688</v>
+        <v>7502658357.3281317</v>
       </c>
       <c r="F255">
-        <v>58442.41520037091</v>
+        <v>58523.384888445216</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>9087.8302974496874</v>
+        <v>9083.6713570169286</v>
       </c>
       <c r="I255" t="s">
         <v>19</v>
@@ -11037,22 +11037,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>206074174.65540788</v>
+        <v>241381710.68674725</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>28131062471.216652</v>
+        <v>39824210685.734695</v>
       </c>
       <c r="F256">
-        <v>1235.2789446087365</v>
+        <v>1446.9243675175469</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>168627.19075922322</v>
+        <v>238719.91251699213</v>
       </c>
       <c r="I256" t="s">
         <v>31</v>
@@ -11078,22 +11078,22 @@
         <v>477436</v>
       </c>
       <c r="C257">
-        <v>248170441.40913558</v>
+        <v>227349089.83086437</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>36893217230.190857</v>
+        <v>36914038581.769135</v>
       </c>
       <c r="F257">
-        <v>519.79834241476465</v>
+        <v>476.18757243036629</v>
       </c>
       <c r="G257">
         <v>0</v>
       </c>
       <c r="H257">
-        <v>77273.639252571767</v>
+        <v>77317.250022556182</v>
       </c>
       <c r="I257" t="s">
         <v>19</v>
@@ -11160,22 +11160,22 @@
         <v>152235.4</v>
       </c>
       <c r="C259">
-        <v>120900216.80276273</v>
+        <v>123224238.99969749</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>16961398260.00983</v>
+        <v>18840591962.120415</v>
       </c>
       <c r="F259">
-        <v>794.16625044347597</v>
+        <v>809.43222798178022</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259">
-        <v>111415.59886865887</v>
+        <v>123759.59837278593</v>
       </c>
       <c r="I259" t="s">
         <v>26</v>
@@ -11201,22 +11201,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>266071424.48604631</v>
+        <v>384687482.3029021</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>122216152204.56183</v>
+        <v>124144024506.13858</v>
       </c>
       <c r="F260">
-        <v>795.79043108941391</v>
+        <v>1150.5580427054927</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>365535.09884357476</v>
+        <v>371301.15332657908</v>
       </c>
       <c r="I260" t="s">
         <v>30</v>
@@ -11242,7 +11242,7 @@
         <v>323907.27</v>
       </c>
       <c r="C261">
-        <v>95597170.189965978</v>
+        <v>40359861.873607494</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>9201690595.986393</v>
       </c>
       <c r="F261">
-        <v>295.13746384873048</v>
+        <v>124.60313679778626</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -11283,22 +11283,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>282549686440.92432</v>
+        <v>284102322749.2038</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>8738650096.1110687</v>
+        <v>8786669775.748579</v>
       </c>
       <c r="F262">
-        <v>414762.183336574</v>
+        <v>417041.33937904326</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>12827.696391852814</v>
+        <v>12898.185753991042</v>
       </c>
       <c r="I262" t="s">
         <v>64</v>
@@ -11324,22 +11324,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>116681312003.37563</v>
+        <v>117759072668.96732</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>3608700371.2384248</v>
+        <v>3642033175.3288889</v>
       </c>
       <c r="F263">
-        <v>347349.54558502382</v>
+        <v>350557.94006581145</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>10742.769451083223</v>
+        <v>10841.998146365311</v>
       </c>
       <c r="I263" t="s">
         <v>29</v>
@@ -11365,22 +11365,22 @@
         <v>186061</v>
       </c>
       <c r="C264">
-        <v>57652620547.381195</v>
+        <v>55905571439.884796</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>1783070738.5788016</v>
+        <v>1729038291.9552014</v>
       </c>
       <c r="F264">
-        <v>309858.7051955068</v>
+        <v>300469.04746230965</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="H264">
-        <v>9583.2589235723863</v>
+        <v>9292.8571380095855</v>
       </c>
       <c r="I264" t="s">
         <v>23</v>
@@ -11406,22 +11406,22 @@
         <v>560883</v>
       </c>
       <c r="C265">
-        <v>202846647909.73364</v>
+        <v>200008104935.75458</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>6273607667.3113546</v>
+        <v>6185817678.4254055</v>
       </c>
       <c r="F265">
-        <v>361655.90312014031</v>
+        <v>356595.05625193595</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265">
-        <v>11185.234117117749</v>
+        <v>11028.713079956793</v>
       </c>
       <c r="I265" t="s">
         <v>29</v>
@@ -11447,22 +11447,22 @@
         <v>23793</v>
       </c>
       <c r="C266">
-        <v>8114529166.9631996</v>
+        <v>8368108203.4307995</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>250964819.59680021</v>
+        <v>258807470.2092002</v>
       </c>
       <c r="F266">
-        <v>341046.91156908334</v>
+        <v>351704.62755561719</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>10547.842625847947</v>
+        <v>10877.462707905695</v>
       </c>
       <c r="I266" t="s">
         <v>23</v>
@@ -11488,22 +11488,22 @@
         <v>489990</v>
       </c>
       <c r="C267">
-        <v>34031181735.573002</v>
+        <v>34031181735.572994</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>1052510775.327001</v>
+        <v>1052510775.3270007</v>
       </c>
       <c r="F267">
-        <v>69452.808701346963</v>
+        <v>69452.808701346949</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>2148.025011381867</v>
+        <v>2148.0250113818665</v>
       </c>
       <c r="I267" t="s">
         <v>35</v>
@@ -11529,22 +11529,22 @@
         <v>11106837</v>
       </c>
       <c r="C268">
-        <v>24675412687.716881</v>
+        <v>41543185921.475601</v>
       </c>
       <c r="D268">
-        <v>860035649433.84082</v>
+        <v>1491093337833.1665</v>
       </c>
       <c r="E268">
-        <v>22282232920.05479</v>
+        <v>34295848025.981133</v>
       </c>
       <c r="F268">
-        <v>2221.6417408229618</v>
+        <v>3740.3255239521027</v>
       </c>
       <c r="G268">
-        <v>77432.994599078098</v>
+        <v>134250.04236878298</v>
       </c>
       <c r="H268">
-        <v>2006.1726772486884</v>
+        <v>3087.8141117926853</v>
       </c>
       <c r="I268" t="s">
         <v>13</v>
@@ -11570,22 +11570,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>15318706510.600611</v>
+        <v>15347138282.213615</v>
       </c>
       <c r="D269">
-        <v>487968590840.80121</v>
+        <v>489618593619.21393</v>
       </c>
       <c r="E269">
-        <v>14227604067.235729</v>
+        <v>14371201854.455891</v>
       </c>
       <c r="F269">
-        <v>2150.3913790942988</v>
+        <v>2154.3825409150877</v>
       </c>
       <c r="G269">
-        <v>68499.481355473181</v>
+        <v>68731.103506320243</v>
       </c>
       <c r="H269">
-        <v>1997.2258826278105</v>
+        <v>2017.3836840375816</v>
       </c>
       <c r="I269" t="s">
         <v>31</v>
@@ -11611,22 +11611,22 @@
         <v>254563</v>
       </c>
       <c r="C270">
-        <v>18667116.768251985</v>
+        <v>18746048.661072511</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>12703189838.621475</v>
+        <v>12792543669.097569</v>
       </c>
       <c r="F270">
-        <v>73.330047054175139</v>
+        <v>73.64011526055441</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
       <c r="H270">
-        <v>49901.948981672416</v>
+        <v>50252.957692585209</v>
       </c>
       <c r="I270" t="s">
         <v>66</v>
@@ -11693,22 +11693,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>160251637417.91327</v>
+        <v>160251637417.91321</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>4956236208.801446</v>
+        <v>4956236208.8014441</v>
       </c>
       <c r="F272">
-        <v>49608.656681858141</v>
+        <v>49608.656681858127</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>1534.2883509853048</v>
+        <v>1534.2883509853043</v>
       </c>
       <c r="I272" t="s">
         <v>33</v>
@@ -11734,7 +11734,7 @@
         <v>773802</v>
       </c>
       <c r="C273">
-        <v>53774598701.108994</v>
+        <v>53774598701.108986</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -11743,7 +11743,7 @@
         <v>1663131918.5910013</v>
       </c>
       <c r="F273">
-        <v>69494.003247741668</v>
+        <v>69494.003247741653</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -11816,22 +11816,22 @@
         <v>3055709</v>
       </c>
       <c r="C275">
-        <v>7053737555.4346685</v>
+        <v>7016689178.7997131</v>
       </c>
       <c r="D275">
-        <v>222004767893.24185</v>
+        <v>222238117917.05475</v>
       </c>
       <c r="E275">
-        <v>5957315805.7547016</v>
+        <v>5760429710.0766401</v>
       </c>
       <c r="F275">
-        <v>2308.3800045863886</v>
+        <v>2296.2556901850644</v>
       </c>
       <c r="G275">
-        <v>72652.457381655724</v>
+        <v>72728.822645433436</v>
       </c>
       <c r="H275">
-        <v>1949.5690871593799</v>
+        <v>1885.1368733333704</v>
       </c>
       <c r="I275" t="s">
         <v>30</v>
@@ -11857,22 +11857,22 @@
         <v>208875</v>
       </c>
       <c r="C276">
-        <v>31999532499.569569</v>
+        <v>31999532499.569561</v>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>136552653.03042996</v>
+        <v>136552653.03042993</v>
       </c>
       <c r="F276">
-        <v>153199.43746053654</v>
+        <v>153199.43746053649</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
       <c r="H276">
-        <v>653.7529768063672</v>
+        <v>653.75297680636709</v>
       </c>
       <c r="I276" t="s">
         <v>24</v>
